--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Foo</t>
+          <t>问题题干</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Bar</t>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>答案</t>
         </is>
       </c>
     </row>
@@ -451,12 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>__[4]__以来的五年极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年。面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的十九大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟__[2]__，以最坚决的行动落实__[3]__重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“__[1]__，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>[{1: '重要窗口”'}, {2: '总书记殷殷嘱托'}, {3: '总书记'}, {4: '省第十四次党代会'}]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[{1: '重要窗口”'}, {2: '总书记殷殷嘱托'}, {3: '总书记'}, {4: '省第十四次党代会'}]</t>
         </is>
       </c>
     </row>
@@ -466,12 +476,437 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>这五年，我们把握时代大势、勇于塑造变革，数字化__[2]__牵引全面深化__[2]__取得开创性成效。从“最多跑一次”到数字化转型、再到数字化__[2]__，全面深化__[2]__成效显著。迭代形成“1612”体系构架，建成__[1]__，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、__[3]__智能速办等127个重大应用，出台__[4]__、公共数据条例等16部相关法规。完成国家级__[2]__试点331项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大__[2]__取得明显成效。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>qsd</t>
+          <t>[{1: '全省统一公共数据平台'}, {2: '改革'}, {3: '民生“关键小事”'}, {4: '数字经济促进条例'}]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[{1: '全省统一公共数据平台'}, {2: '改革'}, {3: '民生“关键小事”'}, {4: '数字经济促进条例'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>这五年，我们加强团结民主、建设__[3]__，__[2]__充分展示。支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个群团”品牌持续打响。科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，__[4]__全国推广，全社会法治风尚更加浓厚，__[1]__达到92.26％。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[{1: '法治浙江建设群众满意度'}, {2: '社会主义民主政治优势'}, {3: '法治浙江'}, {4: '诉源治理创新做法'}]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[{1: '法治浙江建设群众满意度'}, {2: '社会主义民主政治优势'}, {3: '法治浙江'}, {4: '诉源治理创新做法'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>这五年，我们发挥人文优势、激发精神力量，__[2]__文化建设取得重大成果。牢牢掌握__[4]__，社会主义核心价值观引领树立社会新风尚，伟大建党精神和红船精神、浙江精神广泛弘扬，__[1]__理论宣讲品牌更加响亮。__[2]__文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，__[3]__迈上新台阶。文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[{1: '8090和00后新时代'}, {2: '新时代'}, {3: '文化产业高质量发展'}, {4: '意识形态工作领导权'}]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[{1: '8090和00后新时代'}, {2: '新时代'}, {3: '文化产业高质量发展'}, {4: '意识形态工作领导权'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>这五年，我们加快绿色转型、建设美丽浙江，绿水青山就是金山银山发展之路越走越精彩。深入实施__[2]__，建成全国首个生态省，“千村示范、万村整治”工程获__[1]__。空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现__[4]__，生态环境公众满意度持续提升。碳达峰、碳中和体系构架基本形成，__[3]__稳步下降。生态修复和生物多样性保护不断加强，河长制等全国推广，美丽城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升。</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[{1: '联合国地球卫士奖'}, {2: '生态文明示范创建行动'}, {3: '能耗、碳排放强度'}, {4: '零增长零填埋'}]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[{1: '联合国地球卫士奖'}, {2: '生态文明示范创建行动'}, {3: '能耗、碳排放强度'}, {4: '零增长零填埋'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>这五年，我们创新社会治理、推进__[1]__浙江建设水平全面提升。牢固树立总体国家安全观，风险闭环管控大平安机制不断完善，群众安全感达到99.19％。社会治安状况持续改善，扫黑除恶取得重大成果，__[2]__和利奇马台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降。坚持和发展新时代“枫桥经验”，__[3]__全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降。军民融合、__[4]__深入开展。</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[{1: '除险保安，平安'}, {2: '经济金融领域突出风险点'}, {3: '市域社会治理现代化试点'}, {4: '国防动员和双拥共建'}]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[{1: '除险保安，平安'}, {2: '经济金融领域突出风险点'}, {3: '市域社会治理现代化试点'}, {4: '国防动员和双拥共建'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>五年感恩奋进，五年精彩蝶变。我们之所以能取得__[3]__，根本在于__[1]__、党中央坚强领导，根本在于__[4]__新时代中国特色社会主义思想科学指引；是历届省委沿着__[1]__指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果。在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军指战员、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{1: '习近平总书记'}, {2: '习近平总书记指引的道路'}, {3: '这些历史性成就'}, {4: '习近平'}]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[{1: '习近平总书记'}, {2: '习近平总书记指引的道路'}, {3: '这些历史性成就'}, {4: '习近平'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>同时，我们清醒看到工作中还存在__[4]__：科创、人才支撑还不够强，新旧动能转换还不够快，__[1]__有待提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，__[3]__、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；__[2]__挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂。对这些问题，必须高度重视，切实加以解决。</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[{1: '产业链供应链韧性和竞争力'}, {2: '传统安全和非传统安全'}, {3: '重大新媒体传播平台'}, {4: '一些不足和短板'}]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[{1: '产业链供应链韧性和竞争力'}, {2: '传统安全和非传统安全'}, {3: '重大新媒体传播平台'}, {4: '一些不足和短板'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>当今世界进入新的动荡变革期。实现__[3]__进入关键时期，我国开启了朝着第二个百年奋斗目标迈进的新征程。伟大时代需要坚强核心掌舵领航，伟大事业需要伟大思想科学指引。__[1]__在总结党的百年奋斗历程基础上强调，确立__[2]__、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进__[3]__历史进程具有决定性意义。坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，推动中国特色社会主义事业航船劈波斩浪、一往无前！</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[{1: '党的十九届六中全会'}, {2: '习近平同志党中央的核心'}, {3: '中华民族伟大复兴'}, {4: '中华民族伟大复兴历史进程'}]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[{1: '党的十九届六中全会'}, {2: '习近平同志党中央的核心'}, {3: '中华民族伟大复兴'}, {4: '中华民族伟大复兴历史进程'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>__[2]____[3]____[1]__思想是__[3]__中国共产党人的思想旗帜，是当代中国马克思主义、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是__[1]__理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展。浙江是__[2]____[3]____[1]__思想重要萌发地，__[2]__同志在浙江工作期间从省域层面对坚持和发展__[1]__进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果。党的十八大以来，__[2]__总书记5次亲临浙江，对浙江工作作出一系列重要指示，亲自为__[3]__浙江赋予光荣使命、擘画宏伟蓝图。__[2]__总书记的重要指示、重大部署，是浙江奋进__[3]__新征程的指路明灯。</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[{1: '中国特色社会主义'}, {2: '习近平'}, {3: '新时代'}, {4: '中国特色'}]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[{1: '中国特色社会主义'}, {2: '习近平'}, {3: '新时代'}, {4: '中国特色'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2.牢牢把握为全国__[1]__探路的要求。__[2]__强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化__[1]__的关键地位和重要作用；加强__[1]__系统集成，激活__[3]__；以数字化__[1]__助力政府职能转变；加快建设数字中国。明确要求浙江，深入推进重要领域和关键环节__[1]__，加大__[1]__力度，完善__[1]__举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当__[1]__开放排头兵。</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[{1: '改革'}, {2: '习近平总书记'}, {3: '高质量发展新动力'}, {4: '改革开放排头兵'}]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[{1: '改革'}, {2: '习近平总书记'}, {3: '高质量发展新动力'}, {4: '改革开放排头兵'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3.牢牢把握立足浙江__[1]__浙江、跳出浙江__[1]__浙江的要求。__[3]__强调，贯彻新__[1]__理念、构建新__[1]__格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分开放的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势。明确要求浙江，充分发挥浙江独具的共建“一带一路”、长江经济带__[1]__、长三角一体化__[1]__等叠加优势，发挥好__[2]__，以更大力度推进__[4]__。</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[{1: '发展'}, {2: '自由贸易试验区作用'}, {3: '习近平总书记'}, {4: '全方位高水平开放'}]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[{1: '发展'}, {2: '自由贸易试验区作用'}, {3: '习近平总书记'}, {4: '全方位高水平开放'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.牢牢把握率先突破__[2]__不平衡不充分问题的要求。__[4]__强调，着力解决__[2]__不平衡不充分问题和人民群众急难愁盼问题，推动人的全面__[2]__、全体人民共同富裕取得__[1]__；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高__[2]__的__[3]__。明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和美丽乡村、美丽城镇建设；加快推进农业农村现代化。</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[{1: '更为明显的实质性进展'}, {2: '发展'}, {3: '平衡性、协调性、包容性'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[{1: '更为明显的实质性进展'}, {2: '发展'}, {3: '平衡性、协调性、包容性'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5.牢牢把握推进全过程人民民主建设的要求。习近平总书记强调，把人民当家作主具体地、现实地体现到党治国理政的政策措施上来、体现到__[2]__各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好__[3]__作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的__[4]__。明确要求__[1]__都要配套起来；把人民群众的民主要求全面纳入法治轨道，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量。</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[{1: '浙江，民主各个环节'}, {2: '党和国家机关各个方面'}, {3: '人民政协专门协商机构'}, {4: '社会主义协商民主体系'}]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[{1: '浙江，民主各个环节'}, {2: '党和国家机关各个方面'}, {3: '人民政协专门协商机构'}, {4: '社会主义协商民主体系'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6.牢牢把握让__[1]__这一手真正硬起来的要求。__[4]__强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力__[1]__保障；坚持依__[1]__国、依法执政、依法行政共同推进，__[1]__国家、__[1]__政府、__[1]__社会一体建设；建设__[1]__中国。明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设__[1]__政府；努力让人民群众在__[2]__中感受到公平正义；全面提高__[1]__化水平。</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[{1: '法治'}, {2: '每一个司法案件'}, {3: '有力法治保障'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[{1: '法治'}, {2: '每一个司法案件'}, {3: '有力法治保障'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11.牢牢把握以伟大自我革命引领伟大社会革命的要求。__[3]__强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是党的领导的最高原则；不断完善党的领导制度体系；以党的政治__[1]__为统领，全面推进党的政治__[1]__、思想__[1]__、组织__[1]__、作风__[1]__、纪律__[1]__，把制度__[1]__贯穿其中，深入推进反腐败斗争，不断提高党的__[1]__质量。明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记全面从严治党永远在路上，全面加强党的__[1]__，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦__[2]__，开展全面检视、靶向治疗。</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[{1: '建设'}, {2: '形式主义、官僚主义问题'}, {3: '习近平总书记'}, {4: '党的政治建设'}]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[{1: '建设'}, {2: '形式主义、官僚主义问题'}, {3: '习近平总书记'}, {4: '党的政治建设'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>“5大战略指引、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与浙江使命、理论与实践、战略与策略、目标与路径等基本问题，是推动__[2]__新时代__[1]__思想在浙江生动实践，指引浙江推进__[1]__共同富裕先行和省域现代化先行的行动指南。我们要高举__[2]__新时代__[1]__思想伟大旗帜，把学深悟透__[2]__总书记系列重要论述精神与深刻领会贯彻__[2]__总书记关于浙江工作重要指示精神紧密结合起来，以__[3]__实施20周年为新契机新起点，持续推动__[3]__形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动__[2]__新时代__[1]__思想在浙江的生动实践，并不断取得新的重大标志性成果。</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[{1: '中国特色社会主义'}, {2: '习近平'}, {3: '“八八战略”'}, {4: '中国特色社会主义共同富裕'}]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[{1: '中国特色社会主义'}, {2: '习近平'}, {3: '“八八战略”'}, {4: '中国特色社会主义共同富裕'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>同志们，我们已经踏上实现第二个百年奋斗目标新的赶考之路。__[1]__和__[2]__是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，唯有坚定不移沿着__[3]__奋勇前进，才能闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民。我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[{1: '习近平总书记的嘱托'}, {2: '浙江人民的期盼'}, {3: '总书记指引的方向'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[{1: '习近平总书记的嘱托'}, {2: '浙江人民的期盼'}, {3: '总书记指引的方向'}, {4: '习近平总书记'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>总体要求：坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识__[4]__决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新__[1]__阶段、贯彻新__[1]__理念、构建新__[1]__格局、推动高质量__[1]__，坚持以人民为中心的__[1]__思想，坚持稳中求进工作总基调，坚持统筹__[1]__和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量__[1]__建设共同富裕示范区和__[3]__建设，努力成为新时代全面展示__[2]__的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界。</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[{1: '发展'}, {2: '中国特色社会主义制度优越性'}, {3: '社会主义现代化先行省'}, {4: '“两个确立”'}]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[{1: '发展'}, {2: '中国特色社会主义制度优越性'}, {3: '社会主义现代化先行省'}, {4: '“两个确立”'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>——高水平建设现代化经济体系，打造__[1]__高地。全省地区生产总值达到12万亿元，人均地区生产总值达到17万元，__[3]__达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平。人才引领__[1]__的战略地位更加凸显，三大科创高地和创新策源地建设取得更大突破，__[2]__取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际双循环战略枢纽建设再上台阶。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[{1: '高质量发展'}, {2: '全球先进制造业基地建设'}, {3: '居民人均可支配收入'}, {4: '全球先进制造业基地'}]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[{1: '高质量发展'}, {2: '全球先进制造业基地建设'}, {3: '居民人均可支配收入'}, {4: '全球先进制造业基地'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>——高水平推进__[3]__，打造数字变革高地。__[2]__持续深化，__[4]__更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，__[1]__先进完备、支撑有力，“掌上办事之省”“掌上办公之省”“掌上治理之省”基本建成，__[3]__理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[{1: '一体化智能化公共数据平台'}, {2: '数字浙江建设'}, {3: '数字化改革'}, {4: '党建统领整体智治体系'}]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[{1: '一体化智能化公共数据平台'}, {2: '数字浙江建设'}, {3: '数字化改革'}, {4: '党建统领整体智治体系'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>——高水平推进社会建设，打造__[2]__。__[3]__分配制度改革取得积极进展，中等__[3]__群体比重稳步提高，低__[3]__群体增收能力、生活品质和社会福利水平明显提升，城乡__[1]__倍差缩小到1.9以内，城镇化率达到76％，地区__[1]__最高最低倍差缩小到1.55以内，26县__[1]__与全省平均之比达到0.75。高水平实现基本公共服务均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型社会和共建共享型社会加快形成。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[{1: '居民收入'}, {2: '社会全面进步高地'}, {3: '收入'}, {4: '收入分配制度改革'}]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[{1: '居民收入'}, {2: '社会全面进步高地'}, {3: '收入'}, {4: '收入分配制度改革'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.着力推进更高水平城乡一体化。深入实施以人为核心的新型城镇化战略和乡村振兴战略，加快农业农村现代化。一要推进以县城为重要载体的城镇化建设。加强县城补短板强弱项，提升发展中心镇、特色小镇，推动千年古城复兴，重塑县域活力，培育现代化城市。推进__[4]__集成改革，探索建立人地钱挂钩、以人定地、钱随人走制度。二要高质量创建乡村振兴示范省。实施“科技强农、机械强农”行动，建设农业科创高地，深化__[1]__，大力发展高效生态农业。落实最严格的耕地保护政策，坚决遏制耕地“非农化”、防止基本农田“非粮化”，全力打好粮食安全保卫战。深化以集体经济为核心的强村富民乡村集成改革，稳慎探索农村土地制度改革，打造数字乡村引领区。三要健全__[3]__。深化“两进两回”，促进__[2]__和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入均衡化、产业发展融合化。</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[{1: '“三位一体”农合联改革'}, {2: '城乡要素双向自由流动'}, {3: '城乡融合发展体制机制'}, {4: '农业转移人口市民化'}]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[{1: '“三位一体”农合联改革'}, {2: '城乡要素双向自由流动'}, {3: '城乡融合发展体制机制'}, {4: '农业转移人口市民化'}]</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这次大会是我省迈入高水平全面__[0]____[2]__现代化、高质量__[1]__建设共同富裕示范区新征程，召开的第一次党代会</t>
+          <t>这次大会是我省迈入高水平全面__[1]__社会主义现代化、高质量发展建设共同富裕示范区新征程，召开的第一次党代会</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '发展', 2: '社会主义', 3: '未能幸免'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '发展', 2: '社会主义'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大会主题是：高举习近平新时代__[2]____[0]____[1]__思想伟大旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！</t>
+          <t>大会主题是：高举习近平新时代中国__[1]__社会主义思想伟大旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: '特色', 1: '社会主义', 2: '中国', 3: '退休'}</t>
+          <t>{0: '特色', 1: '汽油', 2: '解冻', 3: '现年'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{0: '特色', 1: '社会主义', 2: '中国'}</t>
+          <t>{0: '特色'}</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>省第十四次党代会以来的__[0]__极不平凡，是感恩奋进、实干__[1]__的五年，是开启系统性变革、__[2]__历史性跨越的五年</t>
+          <t>省第十四次党代会以来的__[1]__极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{0: '五年', 1: '争先', 2: '实现'}</t>
+          <t>{0: '五年'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{0: '五年', 1: '争先', 2: '实现'}</t>
+          <t>{0: '五年'}</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的十九大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟__[1]__殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量__[2]____[0]__共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点</t>
+          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的十九大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展__[1]__共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '总书记', 2: '发展', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '总书记', 2: '发展'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>这五年，我们笃行“两个维护”、__[2]__从严治党，坚决__[1]__“总书记有号令、党中央有__[0]__，浙江见行动”</t>
+          <t>这五年，我们笃行“两个维护”、全面从严治党，坚决做到“总书记__[1]__号令、党中央有部署，浙江见行动”</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{0: '部署', 1: '做到', 2: '全面', 3: '及其'}</t>
+          <t>{0: '有', 1: '摄'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{0: '部署', 1: '做到', 2: '全面'}</t>
+          <t>{0: '有'}</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>始终把学深悟透__[2]__新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量__[1]__“不忘初心、牢记使命”主题__[0]__、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉</t>
+          <t>始终把学深悟透习近平新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量开展“不忘初心、牢记使命”主题__[1]__、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '开展', 2: '习近平', 3: '一条龙'}</t>
+          <t>{0: '教育', 1: '奉命', 2: '十度', 3: '排出'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '开展', 2: '习近平'}</t>
+          <t>{0: '教育'}</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>建立健全贯彻习近平__[0]__重要指示批示和党中央重大决策部署闭环落实机制，全面加强__[2]__，强化细化__[1]__监督，确保“国之大者”在浙江落地见效</t>
+          <t>建立健全贯彻习近平__[1]__重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“国之大者”在浙江落地见效</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{0: '总书记', 1: '政治', 2: '党的领导'}</t>
+          <t>{0: '总书记'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{0: '总书记', 1: '政治', 2: '党的领导'}</t>
+          <t>{0: '总书记'}</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>党建__[2]__整体智治体系加快__[1]__，省市县乡机构改革高质量完成，党的全面领导体制__[0]__持续完善，党建统领问题管控机制基本形成</t>
+          <t>党建统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制__[1]__持续完善，党建统领问题管控机制基本形成</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '形成', 2: '统领', 3: '顾问'}</t>
+          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '形成', 2: '统领'}</t>
+          <t>{0: '机制'}</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>领导班子政治建设__[1]__加强，组织工作和干部队伍加快重塑，选人用人满意度显著__[0]__，“红色根脉强基工程”全面实施，基层__[2]__整乡推进、整县提升</t>
+          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著__[1]__，“红色根脉强基工程”全面实施，基层党建整乡推进、整县提升</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{0: '提升', 1: '全面', 2: '党建', 3: '准备'}</t>
+          <t>{0: '提升', 1: '准备', 2: '下作', 3: '天日'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{0: '提升', 1: '全面', 2: '党建'}</t>
+          <t>{0: '提升'}</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>党风廉政建设和反腐败斗争纵深__[0]__，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神__[1]__，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央__[2]__反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化</t>
+          <t>党风廉政建设和反腐败斗争纵深__[1]__，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '问题', 2: '巡视', 3: '再加'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '问题', 2: '巡视'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>与时俱进书写忠实__[1]__“八八__[0]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为__[2]__的“八八战略”抓落实机制</t>
+          <t>与时俱进书写忠实践行“八八__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{0: '战略', 1: '践行', 2: '标志', 3: '受灾'}</t>
+          <t>{0: '战略', 1: '受灾', 2: '轻微', 3: '淑珍'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{0: '战略', 1: '践行', 2: '标志'}</t>
+          <t>{0: '战略'}</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>“四大__[0]__”扎实推进，城镇化率达到72.7％，实现陆域高铁“__[2]__通”、高速公路“县县通”，建成3大千万级机场，宁波舟山港__[1]__建设世界一流强港</t>
+          <t>“四大__[1]__”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大千万级机场，宁波舟山港加快建设世界一流强港</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '加快', 2: '市市', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '加快', 2: '市市'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>区域城乡协调__[1]____[2]__新台阶，城乡居民__[0]__倍差缩小到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步</t>
+          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差缩小__[1]__1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{0: '收入', 1: '发展', 2: '迈上'}</t>
+          <t>{0: '到', 1: '众', 2: '空', 3: '颇'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{0: '收入', 1: '发展', 2: '迈上'}</t>
+          <t>{0: '到'}</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全面落实长三角一体化__[0]__、长江经济带发展、共建“一带一路”、对口支援帮扶__[1]____[2]__脱贫攻坚等重大任务，勇当构建新发展格局开路先锋</t>
+          <t>全面落实长三角一体化__[1]__、长江经济带发展、共建“一带一路”、对口支援帮扶助力完成脱贫攻坚等重大任务，勇当构建新发展格局开路先锋</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '助力', 2: '完成', 3: '见到'}</t>
+          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '助力', 2: '完成'}</t>
+          <t>{0: '发展'}</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>坚持外防输入、内防反弹，坚持__[0]__清零，率先启动一级响应，首创并应用健康码，率先全面__[1]__复产，有力助企纾困，千方百计稳__[2]__，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响</t>
+          <t>坚持外防输入、内防反弹，坚持__[1]__清零，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{0: '动态', 1: '复工', 2: '就业', 3: '钉子'}</t>
+          <t>{0: '动态', 1: '钉子', 2: '来就', 3: '提起'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{0: '动态', 1: '复工', 2: '就业'}</t>
+          <t>{0: '动态'}</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>全省人民万众一心、__[0]____[2]__，__[1]__干部冲锋在前、顽强拼搏，坚决打好疫情防控遭遇战阻击战歼灭战</t>
+          <t>全省人民万众一心、__[1]__时艰，广大党员干部冲锋在前、顽强拼搏，坚决打好疫情防控遭遇战阻击战歼灭战</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{0: '共克', 1: '广大党员', 2: '时艰'}</t>
+          <t>{0: '共克'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{0: '共克', 1: '广大党员', 2: '时艰'}</t>
+          <t>{0: '共克'}</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021年地区生产总值__[0]__7万亿元、五年年均增长6.7％，__[1]__地区生产总值超过11万元，__[2]__收入稳居省区第一</t>
+          <t>2021年地区生产总值__[1]__7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{0: '超过', 1: '人均', 2: '城乡居民', 3: '地雷'}</t>
+          <t>{0: '超过', 1: '一角', 2: '安民', 3: '之意'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{0: '超过', 1: '人均', 2: '城乡居民'}</t>
+          <t>{0: '超过'}</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家__[1]__、大科学装置__[2]__零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[0]__引进培育实现新突破，人才生态最优省金名片越来越亮</t>
+          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家实验室、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[1]__引进培育实现新突破，人才生态最优省金名片越来越亮</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '实验室', 2: '实现', 3: '低头'}</t>
+          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '实验室', 2: '实现'}</t>
+          <t>{0: '人才'}</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>__[1]__基础再造和产业链提升__[0]__重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精特新“小巨人”和单项冠军企业数量居__[2]__首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元</t>
+          <t>产业基础再造和产业链提升__[1]__重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精特新“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: '取得', 1: '产业', 2: '全国', 3: '榕树'}</t>
+          <t>{0: '取得', 1: '榕树', 2: '幽默', 3: '就让'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: '取得', 1: '产业', 2: '全国'}</t>
+          <t>{0: '取得'}</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>高规格召开全省民营__[1]____[0]__大会，率先出台__[2]__发展促进条例，激发民营经济发展活力</t>
+          <t>高规格召开全省民营经济__[1]__大会，率先出台民营企业发展促进条例，激发民营经济发展活力</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '经济', 2: '民营企业', 3: '弟子'}</t>
+          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '经济', 2: '民营企业'}</t>
+          <t>{0: '发展'}</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>迭代形成“1612”体系构架，建成全省统一__[0]____[1]__，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进__[2]__、公共数据条例等16部相关法规</t>
+          <t>迭代形成“1612”体系构架，建成全省统一__[1]__平台，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进条例、公共数据条例等16部相关法规</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{0: '公共数据', 1: '平台', 2: '条例', 3: '送走'}</t>
+          <t>{0: '公共数据', 1: '闷闷不乐', 2: '垂头丧气'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{0: '公共数据', 1: '平台', 2: '条例'}</t>
+          <t>{0: '公共数据'}</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>完成国家级__[0]__试点331项，“放管服”、__[1]__市场化配置、区域金融、平台经济__[2]__创新、“县乡一体、条抓块统”等重大改革取得明显成效</t>
+          <t>完成国家级__[1]__试点331项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '要素', 2: '监管', 3: '男女'}</t>
+          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '要素', 2: '监管'}</t>
+          <t>{0: '改革'}</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>支持和保证人大依法__[1]__更加__[2]__，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[0]__”品牌持续打响</t>
+          <t>支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[1]__”品牌持续打响</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{0: '群团', 1: '履职', 2: '有力', 3: '馅饼'}</t>
+          <t>{0: '群团', 1: '陈封', 2: '掠走', 3: '已用'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{0: '群团', 1: '履职', 2: '有力'}</t>
+          <t>{0: '群团'}</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内__[1]__制度不断完善，制定修订90件地方法规规章，“大__[0]__一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[2]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％</t>
+          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大__[1]__一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会法治风尚更加浓厚，法治浙江建设群众满意度达到92.26％</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{0: '综合', 1: '法规', 2: '法治', 3: '围巾'}</t>
+          <t>{0: '综合', 1: '顾虑', 2: '胡风', 3: '变色'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{0: '综合', 1: '法规', 2: '法治'}</t>
+          <t>{0: '综合'}</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>牢牢掌握意识形态工作__[1]__，社会主义核心价值观__[2]__树立社会新风尚，伟大建党__[0]__和红船精神、浙江精神广泛弘扬，8090和00后新时代理论宣讲品牌更加响亮</t>
+          <t>牢牢掌握意识形态工作领导权，社会主义核心价值观引领树立社会新风尚，伟大建党__[1]__和红船精神、浙江精神广泛弘扬，8090和00后新时代理论宣讲品牌更加响亮</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{0: '精神', 1: '领导权', 2: '引领', 3: '开票'}</t>
+          <t>{0: '精神', 1: '开票', 2: '大约', 3: '显明'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{0: '精神', 1: '领导权', 2: '引领'}</t>
+          <t>{0: '精神'}</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新时代文明实践__[0]__、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续__[2]__，农村__[1]__礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业高质量发展迈上新台阶</t>
+          <t>新时代文明实践__[1]__、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业高质量发展迈上新台阶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{0: '中心', 1: '文化', 2: '放大', 3: '人工'}</t>
+          <t>{0: '中心', 1: '方能', 2: '云云', 3: '上路'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{0: '中心', 1: '文化', 2: '放大'}</t>
+          <t>{0: '中心'}</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>__[0]__研究工程成果丰硕，一大批文艺精品获评重大__[1]__，良渚古城__[2]__成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力</t>
+          <t>__[1]__研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '奖项', 2: '遗址', 3: '人工'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '奖项', 2: '遗址'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>深入实施__[0]__文明__[1]__创建行动，建成全国首个生态省，“千村示范、万村整治”工程获__[2]__地球卫士奖</t>
+          <t>深入实施__[1]__文明示范创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '示范', 2: '联合国', 3: '山上'}</t>
+          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '示范', 2: '联合国'}</t>
+          <t>{0: '生态'}</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>空气质量在全国__[0]____[1]__率先达标，地表水和近岸海域水质显著__[2]__，生活垃圾实现零增长零填埋，生态环境公众满意度持续提升</t>
+          <t>空气质量在全国__[1]__区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零填埋，生态环境公众满意度持续提升</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{0: '重点', 1: '区域', 2: '改善', 3: '学成'}</t>
+          <t>{0: '重点', 1: '有如', 2: '人世', 3: '闹剧'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{0: '重点', 1: '区域', 2: '改善'}</t>
+          <t>{0: '重点'}</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>生态修复和__[1]__多样性保护不断加强，河长制等全国推广，__[0]__城镇、美丽乡村、美丽河湖建设全域__[2]__，城乡人居环境质量显著提升</t>
+          <t>生态修复和生物多样性保护不断加强，河长制等全国推广，__[1]__城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{0: '美丽', 1: '生物', 2: '推进', 3: '上梁'}</t>
+          <t>{0: '美丽', 1: '路矿', 2: '本局', 3: '局内'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{0: '美丽', 1: '生物', 2: '推进'}</t>
+          <t>{0: '美丽'}</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>牢固树立总体__[1]____[0]__，__[2]__闭环管控大平安机制不断完善，群众安全感达到99.19％</t>
+          <t>牢固树立总体国家__[1]__，风险闭环管控大平安机制不断完善，群众安全感达到99.19％</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{0: '安全观', 1: '国家', 2: '风险', 3: '正赶上'}</t>
+          <t>{0: '安全观', 1: '正赶上', 2: '印刷工', 3: '高兴得'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{0: '安全观', 1: '国家', 2: '风险'}</t>
+          <t>{0: '安全观'}</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>社会治安状况__[0]____[1]__，__[2]__除恶取得重大成果，经济金融领域突出风险点和利奇马台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降</t>
+          <t>社会治安状况__[1]__改善，扫黑除恶取得重大成果，经济金融领域突出风险点和利奇马台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{0: '持续', 1: '改善', 2: '扫黑', 3: '庄员'}</t>
+          <t>{0: '持续', 1: '欣然', 2: '派头', 3: '三副'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{0: '持续', 1: '改善', 2: '扫黑'}</t>
+          <t>{0: '持续'}</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>坚持和发展新时代“__[2]__经验”，__[0]____[1]__治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降</t>
+          <t>坚持和发展新时代“枫桥经验”，__[1]__社会治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{0: '市域', 1: '社会', 2: '枫桥', 3: '败露'}</t>
+          <t>{0: '市域', 1: '败露', 2: '丧气', 3: '窘态'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{0: '市域', 1: '社会', 2: '枫桥'}</t>
+          <t>{0: '市域'}</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>回顾五年奋斗历程，我们更加深刻地感悟到__[2]____[1]__对__[0]__发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证</t>
+          <t>回顾五年奋斗历程，我们更加深刻地感悟到习近平总书记对__[1]__发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '总书记', 2: '习近平', 3: '一条龙'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '总书记', 2: '习近平'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委__[1]__嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[0]__，赋予__[2]__赓续革命传统、守好“红色根脉”的特殊使命</t>
+          <t>2017年秋季，在__[1]__的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的根脉，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '来到', 2: '浙江', 3: '减损'}</t>
+          <t>{0: '党', 1: '热'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '来到', 2: '浙江'}</t>
+          <t>{0: '党'}</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记__[2]____[0]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示__[1]__特色社会主义制度优越性的重要窗口”</t>
+          <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记亲临__[1]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口”</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '中国', 2: '亲临', 3: '裂变'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '中国', 2: '亲临'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021年5月，在__[2]__建成小康社会、开启全面__[0]__社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持__[1]__高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命</t>
+          <t>2021年5月，在全面建成小康社会、开启全面__[1]__社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持浙江高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '浙江', 2: '全面', 3: '可有'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '浙江', 2: '全面'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>这些重托和使命，将__[0]____[2]__提升到__[1]__的战略高度，为浙江发展注入前所未有的强劲动力！</t>
+          <t>这些重托和使命，将__[1]__工作提升到前所未有的战略高度，为浙江发展注入前所未有的强劲动力！</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '前所未有', 2: '工作'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '前所未有', 2: '工作'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>我们之所以能取得这些历史性成就，根本__[2]____[0]____[1]__、党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引；是历届省委沿着习近平总书记指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果</t>
+          <t>我们之所以能取得这些历史性成就，根本在于__[1]__总书记、党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引；是历届省委沿着习近平总书记指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '总书记', 2: '在于', 3: '再过'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '总书记', 2: '在于'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[0]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江__[2]__的港澳台__[1]__、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！</t>
+          <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[1]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{0: '指战员', 1: '同胞', 2: '发展', 3: '简报'}</t>
+          <t>{0: '指战员', 1: '伪命题', 2: '遗产税', 3: '交易税'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{0: '指战员', 1: '同胞', 2: '发展'}</t>
+          <t>{0: '指战员'}</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”__[0]__最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，__[2]__一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面__[1]__、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化党建统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉</t>
+          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”__[1]__最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化党建统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{0: '作为', 1: '发展', 2: '坚持', 3: '那边'}</t>
+          <t>{0: '作为', 1: '那边', 2: '昏迷', 3: '大坂'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{0: '作为', 1: '发展', 2: '坚持'}</t>
+          <t>{0: '作为'}</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还__[2]__强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[0]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；__[1]__文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂</t>
+          <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还不够强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[1]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{0: '有待', 1: '社会', 2: '不够', 3: '汉子'}</t>
+          <t>{0: '有待', 1: '汉子', 2: '那种', 3: '毅然'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{0: '有待', 1: '社会', 2: '不够'}</t>
+          <t>{0: '有待'}</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，__[1]__习近平同志党中央的核心、全党的核心__[2]__，确立习近平新__[0]__中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义</t>
+          <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立习近平同志党中央的核心、全党的核心地位，确立习近平新__[1]__中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{0: '时代', 1: '确立', 2: '地位', 3: '合计'}</t>
+          <t>{0: '时代', 1: '合计', 2: '请来', 3: '划出'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{0: '时代', 1: '确立', 2: '地位'}</t>
+          <t>{0: '时代'}</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，__[0]____[2]__特色社会主义__[1]__航船劈波斩浪、一往无前！</t>
+          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，__[1]__中国特色社会主义事业航船劈波斩浪、一往无前！</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '事业', 2: '中国', 3: '退休'}</t>
+          <t>{0: '推动', 1: '记住', 2: '金锭', 3: '捡到'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '事业', 2: '中国'}</t>
+          <t>{0: '推动'}</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>习近平新__[1]____[0]__特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[2]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展</t>
+          <t>习近平新时代中国特色社会主义思想__[1]__新时代中国共产党人的思想旗帜，是当代中国马克思主义、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '时代', 2: '马克思主义'}</t>
+          <t>{0: '是', 1: '待', 2: '妥'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '时代', 2: '马克思主义'}</t>
+          <t>{0: '是'}</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>浙江是习近平新时代__[0]__特色__[1]__思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和__[2]__创新，创造了弥足珍贵的理论成果、实践成果、制度成果</t>
+          <t>浙江是习近平新时代__[1]__特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '社会主义', 2: '实践', 3: '未能幸免'}</t>
+          <t>{0: '中国', 1: '退休', 2: '长途', 3: '一时'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '社会主义', 2: '实践'}</t>
+          <t>{0: '中国'}</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>党的十八大以来，习近平总书记5次亲临__[0]__，对浙江工作作出一系列重要指示，亲自为新时代浙江__[2]____[1]__使命、擘画宏伟蓝图</t>
+          <t>党的十八大以来，习近平总书记5次亲临__[1]__，对浙江工作作出一系列重要指示，亲自为新时代浙江赋予光荣使命、擘画宏伟蓝图</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '光荣', 2: '赋予', 3: '不稳'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '光荣', 2: '赋予'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>浙江要勇扛__[2]__、__[1]__“国之大者”，必须深刻理解把握5大战略指引：一要以加强党的__[0]__领导和全面从严治党守好“红色根脉”</t>
+          <t>浙江要勇扛使命、心怀“国之大者”，必须深刻理解把握5大战略指引：一要以加强党的__[1]__领导和全面从严治党守好“红色根脉”</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '心怀', 2: '使命', 3: '记分'}</t>
+          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '心怀', 2: '使命'}</t>
+          <t>{0: '全面'}</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[1]__和__[2]__党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的自我__[0]__的伟大实践，开辟了百年大党自我革命的新境界</t>
+          <t>习近平总书记强调，坚持和完善党的领导，__[1]__党和国家的根本所在、命脉所在；全面从严治党是新时代党的自我革命的伟大实践，开辟了百年大党自我革命的新境界</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{0: '革命', 1: '坚持', 2: '完善', 3: '瞬间'}</t>
+          <t>{0: '是', 1: '待', 2: '妥'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{0: '革命', 1: '坚持', 2: '完善'}</t>
+          <t>{0: '是'}</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>“红色根脉”是党在__[0]__百年奋斗最鲜明的底色，习近平新__[1]____[2]__特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识</t>
+          <t>“红色根脉”是党在__[1]__百年奋斗最鲜明的底色，习近平新时代中国特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '时代', 2: '中国', 3: '合计'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '时代', 2: '中国'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>“红色根脉”__[2]__党的初心__[1]__，蕴含着以伟大自我革命引领伟大社会革命的基因__[0]__，是浙江精神之源、使命之源、力量之源</t>
+          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因__[1]__，是浙江精神之源、使命之源、力量之源</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{0: '密码', 1: '使命', 2: '蕴含着', 3: '记分'}</t>
+          <t>{0: '密码', 1: '一派', 2: '欢迎', 3: '温和'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{0: '密码', 1: '使命', 2: '蕴含着'}</t>
+          <t>{0: '密码'}</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19年来，在“八八__[2]__”指引下，浙江实现了从__[0]__大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁</t>
+          <t>19年来，在“八八战略”指引下，浙江实现了从__[1]__大省向经济强省、从对内对外开放向深度融入全球、从总体小康向高水平全面小康的历史性跃迁</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{0: '经济', 1: '小康', 2: '战略', 3: '保留'}</t>
+          <t>{0: '经济', 1: '弟子', 2: '能容', 3: '菩萨'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{0: '经济', 1: '小康', 2: '战略'}</t>
+          <t>{0: '经济'}</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>因此，“八八__[2]__”是总书记留给__[0]__取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江__[1]__发展壮大的制胜法宝</t>
+          <t>因此，“八八战略”是总书记留给__[1]__取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '不断进步', 2: '战略', 3: '受灾'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '不断进步', 2: '战略'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代__[0]__特色社会主义制度优越性的省域范例，生动__[2]____[1]__为什么能、马克思主义为什么行、中国特色社会主义为什么好</t>
+          <t>“重要窗口”__[1]__总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的省域范例，生动展示中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '中国共产党', 2: '展示', 3: '很急'}</t>
+          <t>{0: '是', 1: '待', 2: '妥'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '中国共产党', 2: '展示'}</t>
+          <t>{0: '是'}</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[2]__是中国式__[0]__的重要特征；贯彻新__[1]__理念明确了我国现代化建设的指导原则；高质量发展关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
+          <t>习近平总书记强调，共同富裕是中国式__[1]__的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；高质量发展关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '发展', 2: '共同富裕', 3: '发起人'}</t>
+          <t>{0: '现代化', 1: '发起人', 2: '签合同'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '发展', 2: '共同富裕'}</t>
+          <t>{0: '现代化'}</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>习近平总书记、党中央赋予__[1]__高质量__[0]__建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、__[2]__全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用</t>
+          <t>习近平总书记、党中央赋予浙江高质量__[1]__建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '浙江', 2: '实现', 3: '小心'}</t>
+          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '浙江', 2: '实现'}</t>
+          <t>{0: '发展'}</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>这是习近平__[2]__对__[1]____[0]__的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态</t>
+          <t>这是习近平总书记对浙江__[1]__的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{0: '工作', 1: '浙江', 2: '总书记', 3: '应声'}</t>
+          <t>{0: '工作', 1: '应声', 2: '瓜分', 3: '香槟'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{0: '工作', 1: '浙江', 2: '总书记'}</t>
+          <t>{0: '工作'}</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>“八八战略”是全面系统开放的理论体系，涵盖了__[1]__同志在__[0]__工作时作出的一系列重大决策__[2]__，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领</t>
+          <t>“八八战略”是全面系统开放的理论体系，涵盖了习近平同志在__[1]__工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '习近平', 2: '部署', 3: '一条龙'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '习近平', 2: '部署'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>聚焦共同富裕和__[1]__先行宏伟目标，要把学深悟透__[0]__新时代中国特色社会主义思想与习近平总书记对浙江工作的重要指示精神__[2]__起来，牢牢把握11方面重要遵循：</t>
+          <t>聚焦共同富裕和现代化先行宏伟目标，要把学深悟透__[1]__新时代中国特色社会主义思想与习近平总书记对浙江工作的重要指示精神贯通起来，牢牢把握11方面重要遵循：</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '现代化', 2: '贯通', 3: '发起人'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '现代化', 2: '贯通'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[2]____[1]__在现代化__[0]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国</t>
+          <t>习近平总书记强调，坚持创新在现代化__[1]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '创新', 2: '坚持', 3: '瞬间'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '创新', 2: '坚持'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>明确要求浙江，以__[0]__为本，深入实施人才强省战略；推进创新型省份和__[1]__强省建设；坚持“腾笼换鸟、__[2]__涅槃”，加快新旧动能转换，跑出高质量发展的加速度</t>
+          <t>明确要求浙江，以__[1]__为本，深入实施人才强省战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '科技', 2: '凤凰', 3: '低头'}</t>
+          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '科技', 2: '凤凰'}</t>
+          <t>{0: '人才'}</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>习近平总书记强调，必须从贯彻落实“四个__[0]__”战略布局的高度，深刻__[2]__全面深化__[1]__的关键地位和重要作用；加强改革系统集成，激活高质量发展新动力；以数字化改革助力政府职能转变；加快建设数字中国</t>
+          <t>习近平总书记强调，必须从贯彻落实“四个__[1]__”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活高质量发展新动力；以数字化改革助力政府职能转变；加快建设数字中国</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '改革', 2: '把握', 3: '约定'}</t>
+          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '改革', 2: '把握'}</t>
+          <t>{0: '全面'}</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>明确要求浙江，深入推进重要领域和关键环节__[0]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营__[1]__新飞跃；继续发挥探路者__[2]__，勇当改革开放排头兵</t>
+          <t>明确要求浙江，深入推进重要领域和关键环节__[1]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当改革开放排头兵</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '经济', 2: '作用', 3: '弟子'}</t>
+          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '经济', 2: '作用'}</t>
+          <t>{0: '改革'}</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[2]__新__[1]__理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[0]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势</t>
+          <t>习近平总书记强调，贯彻新发展理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[1]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{0: '开放', 1: '发展', 2: '贯彻', 3: '住处'}</t>
+          <t>{0: '开放', 1: '住处', 2: '吹牛', 3: '张良'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{0: '开放', 1: '发展', 2: '贯彻'}</t>
+          <t>{0: '开放'}</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>明确要求__[1]__，充分发挥浙江独具的共建“一带一路”、长江经济带__[0]__、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度__[2]__全方位高水平开放</t>
+          <t>明确要求浙江，充分发挥浙江独具的共建“一带一路”、长江经济带__[1]__、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '浙江', 2: '推进', 3: '政权'}</t>
+          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '浙江', 2: '推进'}</t>
+          <t>{0: '发展'}</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>习近平总书记强调，着力解决__[0]__不平衡不充分问题和__[2]__群众急难愁盼问题，推动人的全面发展、全体人民共同富裕取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化__[1]__；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性</t>
+          <t>习近平总书记强调，着力解决__[1]__不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民共同富裕取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '战略', 2: '人民', 3: '受灾'}</t>
+          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '战略', 2: '人民'}</t>
+          <t>{0: '发展'}</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>明确要求浙江，念好“山海经”；深入实施山海协作__[0]__；建设海洋经济强省；继续唱好__[2]__、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化</t>
+          <t>明确要求浙江，念好“山海经”；深入实施山海协作__[1]__；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和美丽乡村、美丽城镇建设；加快推进农业农村现代化</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{0: '工程', 1: '美丽', 2: '杭州', 3: '路矿'}</t>
+          <t>{0: '工程', 1: '醉酒', 2: '转机', 3: '反映'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{0: '工程', 1: '美丽', 2: '杭州'}</t>
+          <t>{0: '工程'}</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>习近平总书记强调，把__[0]__当家作主具体地、现实地__[2]__到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门__[1]__机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系</t>
+          <t>习近平总书记强调，把__[1]__当家作主具体地、现实地体现到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: '协商', 2: '体现', 3: '钟爱'}</t>
+          <t>{0: '人民', 1: 'BP', 2: '已是', 3: '落户'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: '协商', 2: '体现'}</t>
+          <t>{0: '人民'}</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>明确要求浙江，__[0]__各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既__[2]__在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量</t>
+          <t>明确要求浙江，__[1]__各个环节都要配套起来；把人民群众的民主要求全面纳入法治轨道，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '轨道', 2: '能够', 3: '蚂蚁'}</t>
+          <t>{0: '民主', 1: '下山', 2: '进藏', 3: '放空'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '轨道', 2: '能够'}</t>
+          <t>{0: '民主'}</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>习近平总书记强调，必须提高全面依__[0]__国能力和水平，为全面__[1]__社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持__[2]__、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国</t>
+          <t>习近平总书记强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{0: '法治', 1: '建设', 2: '依法治国', 3: '躲过'}</t>
+          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{0: '法治', 1: '建设', 2: '依法治国'}</t>
+          <t>{0: '法治'}</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>明确要求浙江，__[2]__法治浙江；坚持立法__[0]__与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中__[1]__到公平正义；全面提高法治化水平</t>
+          <t>明确要求浙江，建设法治浙江；坚持立法__[1]__与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{0: '决策', 1: '感受', 2: '建设', 3: '此外'}</t>
+          <t>{0: '决策', 1: '竟用', 2: '扣留', 3: '新娘'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{0: '决策', 1: '感受', 2: '建设'}</t>
+          <t>{0: '决策'}</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我国__[2]__是物质文明和精神文明相协调的现代化；增强__[0]__自觉、坚定文化自信；强化__[1]__核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕</t>
+          <t>习近平总书记强调，我国现代化是物质文明和精神文明相协调的现代化；增强__[1]__自觉、坚定文化自信；强化社会主义核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '社会主义', 2: '现代化', 3: '人工'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '社会主义', 2: '现代化'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>明确要求浙江，大力实施__[0]____[1]__“八项工程”；要传承历史、守正__[2]__，海纳百川、兼收并蓄，实现建设文化强省的目标</t>
+          <t>明确要求浙江，大力实施__[1]__建设“八项工程”；要传承历史、守正出新，海纳百川、兼收并蓄，实现建设文化强省的目标</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '建设', 2: '出新', 3: '躲过'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '建设', 2: '出新'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>习近平总书记强调，让老百姓过上好日子，是我们一切__[1]__的出发点和落脚点；加强社会建设要从__[2]__和改善民生做起；在幼__[0]__育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶上不断取得新进展</t>
+          <t>习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼__[1]__育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶上不断取得新进展</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{0: '有所', 1: '工作', 2: '保障', 3: '一行'}</t>
+          <t>{0: '有所', 1: '冒着', 2: '秘密', 3: '比喻'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{0: '有所', 1: '工作', 2: '保障'}</t>
+          <t>{0: '有所'}</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民办实事的长效机制；以__[0]__基本公共服务__[2]____[1]__线，稳扎稳打、持续推进</t>
+          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民办实事的长效机制；以__[1]__基本公共服务均等化为主线，稳扎稳打、持续推进</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '为主', 2: '均等化', 3: '干出'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '为主', 2: '均等化'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我们要__[0]__的现代化是人与自然和谐共生的现代化；统筹__[2]__治理、__[1]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
+          <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、生态保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '生态', 2: '污染', 3: '秘书'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '生态', 2: '污染'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>明确要求浙江，生态__[2]__建设要先行示范；照着__[0]__就是__[1]__银山路子走下去，把绿水青山建得更美，把金山银山做得更大</t>
+          <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山银山路子走下去，把绿水青山建得更美，把金山银山做得更大</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山', 1: '金山', 2: '文明', 3: '瞒着'}</t>
+          <t>{0: '绿水青山', 1: '卡车司机'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山', 1: '金山', 2: '文明'}</t>
+          <t>{0: '绿水青山'}</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[2]__总体国家安全观；坚持底线思维，着力防范化解重大风险；推动__[0]____[1]__重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
+          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动__[1]__治理重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '治理', 2: '坚持', 3: '虎林'}</t>
+          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '治理', 2: '坚持'}</t>
+          <t>{0: '社会'}</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>明确要求__[0]__，从现代化总布局中谋划推进平安浙江建设；__[2]__体系和治理__[1]__要补齐短板；坚持和发展新时代“枫桥经验”</t>
+          <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；治理体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '能力', 2: '治理', 3: '室里'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '能力', 2: '治理'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[2]__的最高原则；不断完善党的领导制度体系；以党的政治__[0]__为统领，全面__[1]__党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
+          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是党的领导的最高原则；不断完善党的领导制度体系；以党的政治__[1]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '推进', 2: '党的领导', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '推进', 2: '党的领导'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持__[1]__和伟大事业协同推进；牢记__[0]__从严治党永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、__[2]__必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗</t>
+          <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]__从严治党永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '伟大工程', 2: '有腐'}</t>
+          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '伟大工程', 2: '有腐'}</t>
+          <t>{0: '全面'}</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>“5大战略指引、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[0]__使命、理论与__[2]__、战略与策略、目标与路径等基本问题，是推动习近平新时代__[1]__特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
+          <t>“5大战略指引、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[1]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '中国', 2: '实践', 3: '退休'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '中国', 2: '实践'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>我们要高举__[0]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“八八__[2]__”实施20周年为新契机新起点，持续__[1]__“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果</t>
+          <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“八八战略”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '推动', 2: '战略', 3: '记住'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '推动', 2: '战略'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>习近平__[1]__的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命__[2]__，面临的机遇挑战前所未有，唯有坚定不移沿着总书记指引的方向奋勇前进，__[0]__闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
+          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，唯有坚定不移沿着总书记指引的方向奋勇前进，__[1]__闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{0: '才能', 1: '总书记', 2: '前所未有'}</t>
+          <t>{0: '才能', 1: '引起', 2: '英语', 3: '东邻'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{0: '才能', 1: '总书记', 2: '前所未有'}</t>
+          <t>{0: '才能'}</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>我们必须高举伟大思想旗帜，__[2]__新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和__[0]__的先行探路者、干在实处走在前列勇立潮头的不懈__[1]__，奋力开创美好未来、赢得更大荣光！</t>
+          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和__[1]__的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '奋斗者', 2: '锚定', 3: '食品部'}</t>
+          <t>{0: '现代化', 1: '发起人', 2: '签合同'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '奋斗者', 2: '锚定'}</t>
+          <t>{0: '现代化'}</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>总体要求：__[2]__以习近平新时代中国特色社会主义思想为指导，__[0]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新__[1]__阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
+          <t>总体要求：坚持以习近平新时代中国特色社会主义思想为指导，__[1]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '发展', 2: '坚持', 3: '可有'}</t>
+          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '发展', 2: '坚持'}</t>
+          <t>{0: '全面'}</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>“两个维护”__[0]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新__[1]__、战略__[2]__体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果</t>
+          <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新体系、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '体系', 2: '执行', 3: '何不'}</t>
+          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '体系', 2: '执行'}</t>
+          <t>{0: '全面'}</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>全省地区生产总值__[0]__12万亿元，__[1]__地区生产总值达到17万元，居民人均可支配收入达到8.5万元，研发投入强度__[2]__3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平</t>
+          <t>全省地区生产总值__[1]__12万亿元，人均地区生产总值达到17万元，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{0: '达到', 1: '人均', 2: '超过', 3: '去留'}</t>
+          <t>{0: '达到', 1: '去留', 2: '一边', 3: '四周'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{0: '达到', 1: '人均', 2: '超过'}</t>
+          <t>{0: '达到'}</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>人才引领高质量发展的__[2]__地位更加凸显，三大科创高地和创新策源地__[0]____[1]__更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际双循环战略枢纽建设再上台阶</t>
+          <t>人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际双循环战略枢纽建设再上台阶</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '取得', 2: '战略', 3: '榕树'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '取得', 2: '战略'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>__[0]__浙江__[2]__持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“掌上办事之省”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、__[1]__规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进</t>
+          <t>__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“掌上办事之省”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '制度', 2: '建设', 3: '眼前'}</t>
+          <t>{0: '数字', 1: '弟子', 2: '清扫', 3: '太后'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '制度', 2: '建设'}</t>
+          <t>{0: '数字'}</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>全过程人民__[0]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本__[2]____[1]__、基本政治制度和统一战线优势充分彰显</t>
+          <t>全过程人民__[1]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '制度', 2: '政治', 3: '家用'}</t>
+          <t>{0: '民主', 1: '下山', 2: '进藏', 3: '放空'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '制度', 2: '政治'}</t>
+          <t>{0: '民主'}</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>各领域法治化水平__[1]__提升，基层__[0]__体系和治理能力全面加强，重大风险有效防范化解，平安__[2]__法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
+          <t>各领域法治化水平全面提升，基层__[1]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '全面', 2: '建设', 3: '室里'}</t>
+          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '全面', 2: '建设'}</t>
+          <t>{0: '治理'}</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>全省人民思想自觉、__[0]__自信显著增强，社会主义核心价值观深入人心，彰显__[2]__深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度__[1]__新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江</t>
+          <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显浙江深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '达到', 2: '浙江', 3: '政权'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '达到', 2: '浙江'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>__[0]__分配制度改革取得积极进展，中等收入__[1]__比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[2]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
+          <t>__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡居民收入倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{0: '收入', 1: '群体', 2: '居民收入', 3: '从此以后'}</t>
+          <t>{0: '收入', 1: '东河', 2: '祥云', 3: '点火'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{0: '收入', 1: '群体', 2: '居民收入'}</t>
+          <t>{0: '收入'}</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>高水平实现__[1]__公共服务均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率__[2]__72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型__[0]__和共建共享型社会加快形成</t>
+          <t>高水平实现基本公共服务均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型__[1]__和共建共享型社会加快形成</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '基本', 2: '达到', 3: '去留'}</t>
+          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '基本', 2: '达到'}</t>
+          <t>{0: '社会'}</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>__[2]__环境质量持续改善，地表水省控断面__[1]__或优于Ш类水体比例超过95％，设区__[0]__空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
+          <t>生态环境质量持续改善，地表水省控断面达到或优于Ш类水体比例超过95％，设区__[1]__空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '达到', 2: '生态', 3: '去留'}</t>
+          <t>{0: '城市', 1: '国光', 2: '据理', 3: '操起'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '达到', 2: '生态'}</t>
+          <t>{0: '城市'}</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>全体__[0]__普遍__[2]__更好__[1]__，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治素养、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
+          <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治素养、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: '发展', 2: '得到', 3: 'BP'}</t>
+          <t>{0: '人民', 1: 'BP', 2: '已是', 3: '落户'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: '发展', 2: '得到'}</t>
+          <t>{0: '人民'}</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[0]____[1]__，全面实施__[2]__创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势</t>
+          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]__制胜，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '制胜', 2: '科技', 3: '盟员'}</t>
+          <t>{0: '创新', 1: '惨状', 2: '已用', 3: '长达'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '制胜', 2: '科技'}</t>
+          <t>{0: '创新'}</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>二是变革__[0]__，全面构建共同富裕和现代化新__[1]__，以数字化改革推动社会各领域体系重构、制度重塑、__[2]__提升，形成引领未来的新模式新能力</t>
+          <t>二是变革__[1]__，全面构建共同富裕和现代化新体系，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{0: '重塑', 1: '体系', 2: '能力', 3: '到校'}</t>
+          <t>{0: '重塑', 1: '到校', 2: '来厂', 3: '事假'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{0: '重塑', 1: '体系', 2: '能力'}</t>
+          <t>{0: '重塑'}</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>三是防控__[1]__，推动__[0]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、转危为机的__[2]__主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量</t>
+          <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、转危为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '风险', 2: '战略', 3: '自幼'}</t>
+          <t>{0: '安全', 1: '自幼', 2: '南社', 3: '末年'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '风险', 2: '战略'}</t>
+          <t>{0: '安全'}</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四是共建共享，以探索共同富裕有效路径激发全__[0]__新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、先富带后富，形成共同奋斗、__[2]____[1]__的新理念新机制新气象</t>
+          <t>四是共建共享，以探索共同富裕有效路径激发全__[1]__新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、先富带后富，形成共同奋斗、共创美好生活的新理念新机制新气象</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '美好生活', 2: '共创'}</t>
+          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '美好生活', 2: '共创'}</t>
+          <t>{0: '社会'}</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>五是唯实惟先，牢固树立没有走在前列也是一种风险的意识，以“__[2]__放心不下”的责任感，__[0]__、敢为人先，努力做到说一件、干一件、成一件，形成全社会__[1]__争先的激情活力</t>
+          <t>五是唯实惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，__[1]__、敢为人先，努力做到说一件、干一件、成一件，形成全社会实干争先的激情活力</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{0: '求真务实', 1: '实干', 2: '时时', 3: '中级'}</t>
+          <t>{0: '求真务实', 1: '哈尔科夫'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{0: '求真务实', 1: '实干', 2: '时时'}</t>
+          <t>{0: '求真务实'}</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>统筹__[0]__人才、科技工作，推进__[2]__链产业链深度融合，加快构建现代科创__[1]__和产业体系，推进经济稳进提质</t>
+          <t>统筹__[1]__人才、科技工作，推进创新链产业链深度融合，加快构建现代科创体系和产业体系，推进经济稳进提质</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '体系', 2: '创新', 3: '惨状'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '体系', 2: '创新'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>构建以国家实验室和全国重点实验室为龙头的新型实验室__[2]__、以国家产业__[1]__中心为重点的产业创新体系，__[0]__大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
+          <t>构建以国家实验室和全国重点实验室为龙头的新型实验室体系、以国家产业创新中心为重点的产业创新体系，__[1]__大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '创新', 2: '体系', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '创新', 2: '体系'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>深入实施“鲲鹏__[1]__”等重点__[0]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持__[2]__，培养卓越工程师、高技能人才队伍，打造战略人才力量</t>
+          <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、高技能人才队伍，打造战略人才力量</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '行动', 2: '力度', 3: '唯独'}</t>
+          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '行动', 2: '力度'}</t>
+          <t>{0: '人才'}</t>
         </is>
       </c>
     </row>
@@ -2556,17 +2556,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>__[2]__更具吸引力__[0]__平台，支持杭州、宁波人才__[1]__和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的贡献度</t>
+          <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才高地和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的贡献度</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高地', 2: '建设', 3: '都由'}</t>
+          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高地', 2: '建设'}</t>
+          <t>{0: '人才'}</t>
         </is>
       </c>
     </row>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>深化国家__[0]____[1]__创新发展试验区建设，推进__[2]__企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统</t>
+          <t>深化国家__[1]__经济创新发展试验区建设，推进规上企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '经济', 2: '规上'}</t>
+          <t>{0: '数字', 1: '弟子', 2: '清扫', 3: '太后'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '经济', 2: '规上'}</t>
+          <t>{0: '数字'}</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>加强数字经济制度和标准体系建设，__[2]____[1]____[0]__互联网大会，积极参与国内国际规则制定</t>
+          <t>加强数字经济制度和标准体系建设，高质量办好__[1]__互联网大会，积极参与国内国际规则制定</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{0: '世界', 1: '办好', 2: '高质量', 3: '逆向'}</t>
+          <t>{0: '世界', 1: '有偿', 2: '了之', 3: '层层'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{0: '世界', 1: '办好', 2: '高质量'}</t>
+          <t>{0: '世界'}</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>深入实施__[0]__基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续__[2]__“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设__[1]__强省、质量强省</t>
+          <t>深入实施__[1]__基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造强省、质量强省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{0: '产业', 1: '制造', 2: '推进', 3: '金锭'}</t>
+          <t>{0: '产业', 1: '锦春', 2: '审问', 3: '厌烦'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{0: '产业', 1: '制造', 2: '推进'}</t>
+          <t>{0: '产业'}</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>推进省级新区、开发区（园区）等高能级产业__[0]____[1]__升级，提升“415X”先进制造业集群，__[2]__世界一流科技园区</t>
+          <t>推进省级新区、开发区（园区）等高能级产业__[1]__提档升级，提升“415X”先进制造业集群，建设世界一流科技园区</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{0: '平台', 1: '提档', 2: '建设', 3: '躲过'}</t>
+          <t>{0: '平台', 1: '送走', 2: '王昭', 3: '拉夫'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{0: '平台', 1: '提档', 2: '建设'}</t>
+          <t>{0: '平台'}</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>引领__[0]__风气之先，__[1]____[2]__全面深化改革、共同富裕示范区重大改革和数字化改革取得更大突破</t>
+          <t>引领__[1]__风气之先，一体推进全面深化改革、共同富裕示范区重大改革和数字化改革取得更大突破</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '一体', 2: '推进', 3: '约定'}</t>
+          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '一体', 2: '推进'}</t>
+          <t>{0: '改革'}</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>构建数据集成、“__[0]__”辅助的决策支撑体系，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标__[2]__能力，__[1]__筑牢网络安全根基</t>
+          <t>构建数据集成、“__[1]__”辅助的决策支撑体系，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面筑牢网络安全根基</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{0: '大脑', 1: '全面', 2: '管理', 3: '可有'}</t>
+          <t>{0: '大脑', 1: '怀远', 2: '常驻', 3: '饭店'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{0: '大脑', 1: '全面', 2: '管理'}</t>
+          <t>{0: '大脑'}</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>以扩中提低、收入__[2]____[0]__为牵引，深入推进共同富裕重大改革，加快探索__[1]__型制度政策体系</t>
+          <t>以扩中提低、收入分配__[1]__为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '共富', 2: '分配', 3: '国耻'}</t>
+          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '共富', 2: '分配'}</t>
+          <t>{0: '改革'}</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>加强重大改革“一本账”“全周期”__[1]__，强化多跨__[0]__、系统集成，加快取得更多__[2]__性制度性成果</t>
+          <t>加强重大改革“一本账”“全周期”管理，强化多__[1]__协同、系统集成，加快取得更多机制性制度性成果</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{0: '协同', 1: '管理', 2: '机制', 3: '寿星'}</t>
+          <t>{0: '跨', 1: '师', 2: '潘', 3: '物'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{0: '协同', 1: '管理', 2: '机制'}</t>
+          <t>{0: '跨'}</t>
         </is>
       </c>
     </row>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>促进“两个健康”，稳定预期、提振信心，塑造新__[1]____[0]__精神，拓展民营经济发展空间，充分激发创业__[2]__创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
+          <t>促进“两个健康”，稳定预期、提振信心，塑造新时代__[1]__精神，拓展民营经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{0: '企业家', 1: '时代', 2: '创新', 3: '第三段'}</t>
+          <t>{0: '企业家', 1: '第三段'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{0: '企业家', 1: '时代', 2: '创新'}</t>
+          <t>{0: '企业家'}</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>深入实施市场主体__[1]____[0]__，深化“凤凰行动”“雄鹰行动”，加大对中小微企业和个体工商户扶持__[2]__，健全减负降本长效机制，千方百计助企纾困</t>
+          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“雄鹰行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计助企纾困</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{0: '行动', 1: '升级', 2: '力度', 3: '铁山'}</t>
+          <t>{0: '行动', 1: '发愁', 2: '每百', 3: '还给'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{0: '行动', 1: '升级', 2: '力度'}</t>
+          <t>{0: '行动'}</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>依法平等保护各类市场主体合法权益，__[0]____[2]__市场化配置__[1]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
+          <t>依法平等保护各类市场主体合法权益，__[1]__要素市场化配置改革，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '改革', 2: '要素', 3: '送走'}</t>
+          <t>{0: '深化', 1: '雨衣', 2: '拿起', 3: '披上'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '改革', 2: '要素'}</t>
+          <t>{0: '深化'}</t>
         </is>
       </c>
     </row>
@@ -2796,17 +2796,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>实施强化反垄断、__[1]____[2]__集成改革，促进平台经济__[0]__创新发展，规范和引导资本健康发展</t>
+          <t>实施强化反垄断、推进公平竞争集成改革，促进平台经济__[1]__创新发展，规范和引导资本健康发展</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{0: '规范', 1: '推进', 2: '公平竞争'}</t>
+          <t>{0: '规范', 1: '飞去', 2: '抱着', 3: '馆长'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{0: '规范', 1: '推进', 2: '公平竞争'}</t>
+          <t>{0: '规范'}</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深度融入全国__[1]__大__[0]__，建设市场强省，深化打造“__[2]__一路”重要枢纽，构建全方位全要素、高能级高效率的双循环</t>
+          <t>深度融入全国统一大__[1]__，建设市场强省，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的双循环</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{0: '市场', 1: '统一', 2: '一带', 3: '绰号'}</t>
+          <t>{0: '市场', 1: '列成', 2: '回族', 3: '解方'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{0: '市场', 1: '统一', 2: '一带'}</t>
+          <t>{0: '市场'}</t>
         </is>
       </c>
     </row>
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>加快__[1]__高标准市场__[2]__，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设__[0]__型社会，深化“放心消费在浙江”行动和快递“两进一出”工程，构建品质消费普及普惠体系</t>
+          <t>加快建设高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设__[1]__型社会，深化“放心消费在浙江”行动和快递“两进一出”工程，构建品质消费普及普惠体系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{0: '消费', 1: '建设', 2: '体系', 3: '躲过'}</t>
+          <t>{0: '消费', 1: '铁山', 2: '救活', 3: '板桥'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{0: '消费', 1: '建设', 2: '体系'}</t>
+          <t>{0: '消费'}</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2856,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>深入实施“六大行动”，大力__[1]__科技创新共同体和数字__[0]__、绿色美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化__[2]__示范区、嘉善县域高质量发展示范点和上海虹桥国际开放枢纽南向拓展带</t>
+          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、绿色美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域高质量发展示范点和上海虹桥国际开放枢纽南向拓展带</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{0: '长三角', 1: '建设', 2: '发展', 3: '躲过'}</t>
+          <t>{0: '长三角', 1: '事务长', 2: '放火烧', 3: '救济款'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{0: '长三角', 1: '建设', 2: '发展'}</t>
+          <t>{0: '长三角'}</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>高标准建设自贸__[1]__，争创大宗商品特色自由贸易港，探索建立以__[2]__贸易自由化__[0]__为核心的制度体系</t>
+          <t>高标准建设自贸试验区，争创大宗商品特色自由贸易港，探索建立以投资贸易自由化__[1]__为核心的制度体系</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{0: '便利化', 1: '试验区', 2: '投资', 3: '扫地'}</t>
+          <t>{0: '便利化', 1: '抽出来', 2: '惦记着'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{0: '便利化', 1: '试验区', 2: '投资'}</t>
+          <t>{0: '便利化'}</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>打造全球数字__[0]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化内外贸一体化和国际贸易综合改革，__[1]__贸易高质量发展</t>
+          <t>打造全球数字__[1]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化内外贸一体化和国际贸易综合改革，推动贸易高质量发展</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{0: '贸易', 1: '推动', 2: '贸易中心', 3: '孙振'}</t>
+          <t>{0: '贸易', 1: '孙振', 2: '林强', 3: '晓东'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{0: '贸易', 1: '推动', 2: '贸易中心'}</t>
+          <t>{0: '贸易'}</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>纵深推进义甬舟开放大通道建设，__[0]__义新欧班列__[2]____[1]__，推动数字技术和产业走向“一带一路”</t>
+          <t>纵深推进义甬舟开放大通道建设，__[1]__义新欧班列高质量发展，推动数字技术和产业走向“一带一路”</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '发展', 2: '高质量'}</t>
+          <t>{0: '推动', 1: '记住', 2: '金锭', 3: '捡到'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '发展', 2: '高质量'}</t>
+          <t>{0: '推动'}</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>以“四大建设”能级__[0]__提升为牵引，以重大项目重大平台为支撑，构建“一湾引领、四极__[2]__、山海互济、__[1]__美丽”空间格局</t>
+          <t>以“四大建设”能级__[1]__提升为牵引，以重大项目重大平台为支撑，构建“一湾引领、四极辐射、山海互济、全域美丽”空间格局</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{0: '整体', 1: '全域', 2: '辐射', 3: '不下'}</t>
+          <t>{0: '整体', 1: '不下', 2: '亲口', 3: '路费'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{0: '整体', 1: '全域', 2: '辐射'}</t>
+          <t>{0: '整体'}</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>集中布局高能级平台、高端__[1]__、__[2]__性项目，谋划__[0]__未来园区，迭代建设环杭州湾、温台沿海和金衢丽三大现代产业带</t>
+          <t>集中布局高能级平台、高端产业、引领性项目，谋划__[1]__未来园区，迭代建设环杭州湾、温台沿海和金衢丽三大现代产业带</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '产业', 2: '引领', 3: '锦春'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '产业', 2: '引领'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2976,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>唱好杭甬“双城记”，培育国家__[0]____[1]__，推动宁波舟山共建海洋中心城市，支持绍兴融__[2]__甬打造网络大城市</t>
+          <t>唱好杭__[1]__“双城记”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{0: '中心', 1: '城市', 2: '杭联', 3: '方能'}</t>
+          <t>{0: '甬'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{0: '中心', 1: '城市', 2: '杭联'}</t>
+          <t>{0: '甬'}</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2996,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>支持嘉兴打造长三角__[0]__群重要中心城市、湖州建设生态文明典范城市，共建__[2]____[1]__融合发展试验区</t>
+          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，共建国家城乡融合发展试验区</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '城乡', 2: '国家', 3: '黑板'}</t>
+          <t>{0: '城市', 1: '国光', 2: '据理', 3: '操起'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '城乡', 2: '国家'}</t>
+          <t>{0: '城市'}</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>支持金华高水平__[0]__内陆开放枢纽__[2]____[1]__、衢州创新省际合作建设四省边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
+          <t>支持金华高水平__[1]__内陆开放枢纽中心城市、衢州创新省际合作建设四省边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '城市', 2: '中心', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '城市', 2: '中心'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准__[0]__现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型基础设施网；强化“四港联动”，建设世界一流强港，提升大通道__[2]__外畅水平</t>
+          <t>优化基础设施布局、结构、功能和发展模式，高标准__[1]__现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型基础设施网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '设施', 2: '内联', 3: '躲过'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '设施', 2: '内联'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>__[2]__海洋强省建设，把宁波舟山海域__[0]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展__[1]__和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
+          <t>加快海洋强省建设，把宁波舟山海域__[1]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{0: '海岛', 1: '体系', 2: '加快', 3: '答对'}</t>
+          <t>{0: '海岛', 1: '公方', 2: '舞弊', 3: '论战'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{0: '海岛', 1: '体系', 2: '加快'}</t>
+          <t>{0: '海岛'}</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>打造山海协作__[2]__升级版，__[0]__科创__[1]__、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
+          <t>打造山海协作工程升级版，__[1]__科创飞地、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '飞地', 2: '工程', 3: '醉酒'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '飞地', 2: '工程'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>加强县城补短板强弱项，提升发展__[0]__、特色小镇，推动千年古城复兴，重塑县域__[1]__，__[2]__现代化城市</t>
+          <t>加强县城补短板强弱项，提升发展__[1]__、特色小镇，推动千年古城复兴，重塑县域活力，培育现代化城市</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{0: '中心镇', 1: '活力', 2: '培育', 3: '下井'}</t>
+          <t>{0: '中心镇', 1: '倪志钦', 2: '领教过'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{0: '中心镇', 1: '活力', 2: '培育'}</t>
+          <t>{0: '中心镇'}</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>实施“科技强农、机械强农”行动，建设__[1]__科创高地，深化“__[2]__”__[0]__联改革，大力发展高效生态农业</t>
+          <t>实施“科技强__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”农合联改革，大力发展高效生态农业</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{0: '农合', 1: '农业', 2: '三位一体', 3: '开会时间'}</t>
+          <t>{0: '农'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{0: '农合', 1: '农业', 2: '三位一体'}</t>
+          <t>{0: '农'}</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>落实最严格的__[0]__保护政策，坚决遏制耕地“非农化”、防止基本农田“非__[2]__”，__[1]__打好粮食安全保卫战</t>
+          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非农化”、防止基本农田“非粮化”，全力打好粮食安全保卫战</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{0: '耕地', 1: '全力', 2: '粮化', 3: '达利'}</t>
+          <t>{0: '耕地', 1: '达利', 2: '波普', 3: '五洲'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{0: '耕地', 1: '全力', 2: '粮化'}</t>
+          <t>{0: '耕地'}</t>
         </is>
       </c>
     </row>
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>深化以集体经济为核心的强村富民__[0]__集成__[1]__，稳慎探索农村土地制度改革，打造__[2]__乡村引领区</t>
+          <t>深化以集体经济为核心的强村富民__[1]__集成改革，稳慎探索农村土地制度改革，打造数字乡村引领区</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{0: '乡村', 1: '改革', 2: '数字', 3: '弟子'}</t>
+          <t>{0: '乡村', 1: '大战', 2: '特准'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{0: '乡村', 1: '改革', 2: '数字'}</t>
+          <t>{0: '乡村'}</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3176,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>深化“两进两回”，促进__[0]__要素双向自由流动和公共资源合理配置，加快__[2]__城乡基础设施一体化、公共服务均等化、居民收入均衡化、__[1]__发展融合化</t>
+          <t>深化“两进两回”，促进__[1]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入均衡化、产业发展融合化</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{0: '城乡', 1: '产业', 2: '实现', 3: '小心'}</t>
+          <t>{0: '城乡', 1: '躲过', 2: '出事', 3: '皇后'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{0: '城乡', 1: '产业', 2: '实现'}</t>
+          <t>{0: '城乡'}</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3196,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>推进自主性先行性地方立法，健全__[0]__讨论决定重大事项制度，打造人大监督硬核成果，拓宽人民有序__[2]__参与渠道，支持和保障人大代表更好依法履职，完善__[1]__民意表达平台</t>
+          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督硬核成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法履职，完善民主民意表达平台</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{0: '人大', 1: '民主', 2: '政治', 3: '下山'}</t>
+          <t>{0: '人大', 1: '希尔', 2: '手套', 3: '丛林'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{0: '人大', 1: '民主', 2: '政治'}</t>
+          <t>{0: '人大'}</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>推动政协更好成为“重要阵地、重要平台、重要渠道”，构建__[0]____[1]__、__[2]__、凝聚共识、服务群众有效机制，打造“同心向党”“民生议事堂”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
+          <t>推动政协更好成为“重要阵地、重要平台、重要渠道”，构建__[1]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生议事堂”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{0: '协商', 1: '议政', 2: '民主监督'}</t>
+          <t>{0: '协商', 1: '钟爱', 2: '着迷', 3: '出生'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{0: '协商', 1: '议政', 2: '民主监督'}</t>
+          <t>{0: '协商'}</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>加强乡镇街道、__[1]__（__[2]__）人大工作，迭代升级__[0]__联络站，打造践行全过程人民民主基层单元，深化民生实事项目人大代表票决制</t>
+          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]__联络站，打造践行全过程人民民主基层单元，深化民生实事项目人大代表票决制</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '开发区', 2: '园区', 3: '锋利'}</t>
+          <t>{0: '人大代表'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '开发区', 2: '园区'}</t>
+          <t>{0: '人大代表'}</t>
         </is>
       </c>
     </row>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>健全基层群众自治__[1]__，__[2]__“村民说事”“民主恳谈”等实践，推进村级__[0]__协商创新实验试点，完善街道社区党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
+          <t>健全基层群众自治制度，深化“村民说事”“民主恳谈”等实践，推进村级__[1]__协商创新实验试点，完善街道社区党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{0: '议事', 1: '制度', 2: '深化', 3: '眼前'}</t>
+          <t>{0: '议事', 1: '双倍', 2: '飞腾', 3: '萎缩'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{0: '议事', 1: '制度', 2: '深化'}</t>
+          <t>{0: '议事'}</t>
         </is>
       </c>
     </row>
@@ -3276,17 +3276,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>完善大__[0]__格局，实施“同心共富”工程、“同心同廉”工程，建设新__[1]__多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“浙里一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战__[2]__组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
+          <t>完善大__[1]__格局，实施“同心共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“浙里一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{0: '统战工作', 1: '时代', 2: '工作'}</t>
+          <t>{0: '统战工作'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{0: '统战工作', 1: '时代', 2: '工作'}</t>
+          <t>{0: '统战工作'}</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>推行以__[2]____[1]__为标志的__[0]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
+          <t>推行以精神富有为标志的__[1]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '富有', 2: '精神', 3: '改名'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '富有', 2: '精神'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>全面落实意识形态工作责任制，健全党的创新理论__[1]__阐释__[2]__体系，构建浙江红色精神谱系，深化__[0]__研究工程，高水平建设社科强省、网络强省，打造重大传播平台，提升文化安全保障能力</t>
+          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释传播体系，构建浙江红色精神谱系，深化__[1]__研究工程，高水平建设社科强省、网络强省，打造重大传播平台，提升文化安全保障能力</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '研究', 2: '传播', 3: '板房'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '研究', 2: '传播'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>深化社会主义核心价值观培育践行，注重家庭家教家风__[1]__，深入__[2]__公民道德建设工程，实施“浙江有礼”省域__[0]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
+          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进公民道德建设工程，实施“浙江有礼”省域__[1]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{0: '文明', 1: '建设', 2: '推进', 3: '瞒着'}</t>
+          <t>{0: '文明', 1: '瞒着', 2: '住处', 3: '90'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{0: '文明', 1: '建设', 2: '推进'}</t>
+          <t>{0: '文明'}</t>
         </is>
       </c>
     </row>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>深化新时代文艺精品创优__[1]__，建设之江艺术长廊，提升大运河国家__[0]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大遗址群和温州宋元码头遗址等海上丝绸之路遗址__[2]__利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
+          <t>深化新时代文艺精品创优工程，建设之江艺术长廊，提升大运河国家__[1]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大遗址群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '工程', 2: '保护', 3: '还差'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '工程', 2: '保护'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>深化现代公共__[0]__服务体系试点省__[1]__，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行全民科学素质行动计划、公众__[2]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
+          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行全民科学素质行动计划、公众人文素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '建设', 2: '人文', 3: '躲过'}</t>
+          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '建设', 2: '人文'}</t>
+          <t>{0: '文化'}</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3396,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>推进__[1]__数字化战略，打造国家数字文化__[0]__基地，建设横店国际影视文化创新中心，加快培育文创经济，促进文旅深度融合，创建__[2]__旅游示范省</t>
+          <t>推进文化数字化战略，打造国家数字文化__[1]__基地，建设横店国际影视文化创新中心，加快培育文创经济，促进文旅深度融合，创建全域旅游示范省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '文化', 2: '全域', 3: '惨状'}</t>
+          <t>{0: '创新', 1: '惨状', 2: '已用', 3: '长达'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '文化', 2: '全域'}</t>
+          <t>{0: '创新'}</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>全面提升__[0]__建设战略地位，健全为民办实事长效机制，__[2]____[1]__社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
+          <t>全面提升__[1]__建设战略地位，健全为民办实事长效机制，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '推进', 2: '统筹', 3: '金锭'}</t>
+          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '推进', 2: '统筹'}</t>
+          <t>{0: '社会'}</t>
         </is>
       </c>
     </row>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>更大力度__[1]____[0]__强省，率先实现基础教育均衡优质、高等教育__[2]__普及和普惠性人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
+          <t>更大力度建设__[1]__强省，率先实现基础教育均衡优质、高等教育高水平普及和普惠性人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '建设', 2: '高水平', 3: '奉命'}</t>
+          <t>{0: '教育', 1: '奉命', 2: '十度', 3: '排出'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '建设', 2: '高水平'}</t>
+          <t>{0: '教育'}</t>
         </is>
       </c>
     </row>
@@ -3456,17 +3456,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>深化健康浙江__[0]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家医学中心、中医药__[2]____[1]__示范区，打造公共卫生最安全省份</t>
+          <t>深化健康浙江__[1]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家医学中心、中医药综合改革示范区，打造公共卫生最安全省份</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '改革', 2: '综合', 3: '约定'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '改革', 2: '综合'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>积极应对人口老龄化，探索“一老一小”整体解决方案，完善__[0]__养老、__[2]____[1]__和政策体系</t>
+          <t>积极应对人口老龄化，探索“一老一小”整体解决方案，完善__[1]__养老、育儿服务和政策体系</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{0: '普惠性', 1: '服务', 2: '育儿'}</t>
+          <t>{0: '普惠性'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{0: '普惠性', 1: '服务', 2: '育儿'}</t>
+          <t>{0: '普惠性'}</t>
         </is>
       </c>
     </row>
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>积极稳妥推进企业职工基本__[0]__提标扩面，__[1]__城乡居民基本养老保险制度，推动个人养老金发展，健全多层次医疗保障体系，发展惠民型商业补充医疗保险，__[2]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
+          <t>积极稳妥推进企业职工基本__[1]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，健全多层次医疗保障体系，发展惠民型商业补充医疗保险，探索建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{0: '养老保险', 1: '完善', 2: '探索', 3: '一来'}</t>
+          <t>{0: '养老保险'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{0: '养老保险', 1: '完善', 2: '探索'}</t>
+          <t>{0: '养老保险'}</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>探索__[2]__初次分配、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[0]__创业__[1]__，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入群体进入中等收入群体行列</t>
+          <t>探索构建初次分配、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[1]__创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入群体进入中等收入群体行列</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{0: '就业', 1: '体系', 2: '构建', 3: '文殊'}</t>
+          <t>{0: '就业', 1: '文殊', 2: '采自', 3: '绿原'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{0: '就业', 1: '体系', 2: '构建'}</t>
+          <t>{0: '就业'}</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>一体推进__[1]__风貌整治提升和未来__[2]__未来乡村__[0]__，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
+          <t>一体推进城乡风貌整治提升和未来社区未来乡村__[1]__，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '城乡', 2: '社区', 3: '唐克'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '城乡', 2: '社区'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>建立健全国土__[1]__规划__[0]__，全面落实“三区三线”，大力推进全域土地综合整治，__[2]__空间治理数字化改革先行省，构建共富型自然资源政策体系</t>
+          <t>建立健全国土空间规划__[1]__，全面落实“三区三线”，大力推进全域土地综合整治，打造空间治理数字化改革先行省，构建共富型自然资源政策体系</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{0: '体系', 1: '空间', 2: '打造', 3: '三两'}</t>
+          <t>{0: '体系', 1: '三两', 2: '右边', 3: '缺粮'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{0: '体系', 1: '空间', 2: '打造'}</t>
+          <t>{0: '体系'}</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>实施碳达峰方案，高水平__[0]__国家清洁能源示范省，建设__[1]__制造__[2]__和服务体系，加快建筑、交通、农业、居民生活领域低碳转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
+          <t>实施__[1]__达峰方案，高水平建设国家清洁能源示范省，建设绿色制造体系和服务体系，加快建筑、交通、农业、居民生活领域低碳转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '绿色', 2: '体系', 3: '三两'}</t>
+          <t>{0: '碳'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '绿色', 2: '体系'}</t>
+          <t>{0: '碳'}</t>
         </is>
       </c>
     </row>
@@ -3596,17 +3596,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>深化清新空气示范区__[1]__和“五水共治”碧水行动，打好长江口—杭州湾综合治理__[2]__，建设全域“无废城市”，加强塑料__[0]__治理，加快构建土壤和地下水污染“防控治”体系</t>
+          <t>深化清新空气示范区建设和“五水共治”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设全域“无废城市”，加强塑料__[1]__治理，加快构建土壤和地下水污染“防控治”体系</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{0: '污染', 1: '建设', 2: '攻坚战', 3: '躲过'}</t>
+          <t>{0: '污染', 1: '秘书', 2: '维文', 3: '满有'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{0: '污染', 1: '建设', 2: '攻坚战'}</t>
+          <t>{0: '污染'}</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>健全以国家公园为主体的自然保护地体系，推进__[2]__林田湖草__[1]__保护__[0]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
+          <t>健全以国家公园为主体的自然保护地体系，推进山水林田湖草生态保护__[1]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{0: '修复', 1: '生态', 2: '山水', 3: '代办'}</t>
+          <t>{0: '修复', 1: '头衔', 2: '名额', 3: '群星'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{0: '修复', 1: '生态', 2: '山水'}</t>
+          <t>{0: '修复'}</t>
         </is>
       </c>
     </row>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>全面推行__[0]__产品__[1]__实现机制，大力发展__[2]__生态产业，弘扬生态文化，强化全民生态自觉</t>
+          <t>全面推行__[1]__产品价值实现机制，大力发展特色生态产业，弘扬生态文化，强化全民生态自觉</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '价值', 2: '特色', 3: '汽油'}</t>
+          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '价值', 2: '特色'}</t>
+          <t>{0: '生态'}</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>深化实施“法助共富、法护平安”专项行动，构建共同富裕示范区__[0]__法规规章体系，纵深推进“大__[2]__一体化”行政执法__[1]__，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
+          <t>深化实施“法助共富、法护平安”专项行动，构建共同富裕示范区__[1]__法规规章体系，纵深推进“大综合一体化”行政执法改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '改革', 2: '综合', 3: '约定'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '改革', 2: '综合'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>坚定维护国家政权__[0]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设立体化、智能化、法治化社会治安防控__[2]__，__[1]__化扫黑除恶</t>
+          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设立体化、智能化、法治化社会治安防控体系，常态化扫黑除恶</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '常态', 2: '体系', 3: '分部'}</t>
+          <t>{0: '安全', 1: '自幼', 2: '南社', 3: '末年'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '常态', 2: '体系'}</t>
+          <t>{0: '安全'}</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>健全产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[0]__网络综合治理，健全全链条精准化公共__[1]__行业监管体系，严格落实食品药品安全“四个最严”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
+          <t>健全产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[1]__网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个最严”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{0: '强化', 1: '安全', 2: '公共安全', 3: '自幼'}</t>
+          <t>{0: '强化', 1: '谢世', 2: '忌日', 3: '柴门'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{0: '强化', 1: '安全', 2: '公共安全'}</t>
+          <t>{0: '强化'}</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>健全“141”基层__[1]__体系，__[0]__“四治融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快__[2]__社会治理共同体</t>
+          <t>健全“141”基层治理体系，__[1]__“四治融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '治理', 2: '建设', 3: '躲过'}</t>
+          <t>{0: '深化', 1: '雨衣', 2: '拿起', 3: '披上'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '治理', 2: '建设'}</t>
+          <t>{0: '深化'}</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实管党治党__[2]__，纵深__[1]__全面从严治党，不断推进以党的自我__[0]__引领社会革命在浙江生动实践</t>
+          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实管党治党政治责任，纵深推进全面从严治党，不断推进以党的自我__[1]__引领社会革命在浙江生动实践</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{0: '革命', 1: '推进', 2: '政治责任', 3: '合一'}</t>
+          <t>{0: '革命', 1: '合一', 2: '此次', 3: '盘子'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{0: '革命', 1: '推进', 2: '政治责任'}</t>
+          <t>{0: '革命'}</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实__[0]__，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[1]____[2]__的共同信仰、处处见效于党员干部群众的共同奋斗</t>
+          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实__[1]__，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于党员干部群众的共同信仰、处处见效于党员干部群众的共同奋斗</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '党员干部', 2: '群众', 3: '昭和'}</t>
+          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '党员干部', 2: '群众'}</t>
+          <t>{0: '机制'}</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>压实__[1]__责任体系，健全省域党内法规制度，__[2]__党对重大工作领导__[0]__，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
+          <t>压实党建责任体系，健全省域党内法规制度，完善党对重大工作领导__[1]__，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '党建', 2: '完善', 3: '开山'}</t>
+          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '党建', 2: '完善'}</t>
+          <t>{0: '机制'}</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>全面落实党管武装__[0]__，__[2]__军民融合深度发展，支持国防和军队现代化建设，加强全民国防教育，持续擦亮 “__[1]__”工作金名片</t>
+          <t>全面落实党管武装__[1]__，推动军民融合深度发展，支持国防和军队现代化建设，加强全民国防教育，持续擦亮 “双拥”工作金名片</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{0: '要求', 1: '双拥', 2: '推动', 3: '记住'}</t>
+          <t>{0: '要求', 1: '偌大', 2: '秦汉', 3: '自古'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{0: '要求', 1: '双拥', 2: '推动'}</t>
+          <t>{0: '要求'}</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>迭代升级七张__[1]__清单应用，强化党建__[0]__重大决策落地、重大工作推进、重大风险防控，促进各级__[2]__领导力、组织力、执行力整体跃升</t>
+          <t>迭代升级七张问题清单应用，强化党建统领重大决策落地、重大工作推进、重大风险防控，促进各级党组织领导__[1]__、组织力、执行力整体跃升</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{0: '统领', 1: '问题', 2: '党组织', 3: '慈善'}</t>
+          <t>{0: '力'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{0: '统领', 1: '问题', 2: '党组织'}</t>
+          <t>{0: '力'}</t>
         </is>
       </c>
     </row>
@@ -3836,17 +3836,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>__[0]__唯实惟先机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进__[2]__我为__[1]__平台集成优化</t>
+          <t>__[1]__唯实惟先机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进民呼我为统一平台集成优化</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '统一', 2: '民呼', 3: '金锭'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '统一', 2: '民呼'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3856,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>严明__[0]__纪律和政治规矩，健全落实民主集中制具体制度，加强__[1]__班子政治建设，常态化开展领导__[2]__政治素质考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治领悟力、政治执行力</t>
+          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导干部政治素质考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治领悟力、政治执行力</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{0: '政治', 1: '领导', 2: '干部', 3: '家用'}</t>
+          <t>{0: '政治', 1: '家用', 2: '买下', 3: '河马'}</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{0: '政治', 1: '领导', 2: '干部'}</t>
+          <t>{0: '政治'}</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续__[0]____[2]__新时代中国特色社会主义思想__[1]__培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
+          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续__[1]__习近平新时代中国特色社会主义思想教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '教育', 2: '习近平', 3: '一条龙'}</t>
+          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '教育', 2: '习近平'}</t>
+          <t>{0: '推进'}</t>
         </is>
       </c>
     </row>
@@ -3896,17 +3896,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>落实__[0]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部__[1]__选拔计划，常态化推进干部能上能下，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、__[2]__能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
+          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部培养选拔计划，常态化推进干部能上能下，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、干部队伍能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '培养', 2: '干部队伍'}</t>
+          <t>{0: '干部', 1: '克隆', 2: '雄踞'}</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '培养', 2: '干部队伍'}</t>
+          <t>{0: '干部'}</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>落实“三个区分开来”，健全落实容错纠错、澄清保护、__[1]__减负、精准赋能、关心__[2]__机制，深化__[0]__为事业担当、组织为干部担当良性互动</t>
+          <t>落实“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化__[1]__为事业担当、组织为干部担当良性互动</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '松绑', 2: '关爱', 3: '克隆'}</t>
+          <t>{0: '干部', 1: '克隆', 2: '雄踞'}</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '松绑', 2: '关爱'}</t>
+          <t>{0: '干部'}</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>树牢大抓__[0]__鲜明导向，__[1]__加强基层党组织和书记队伍建设，__[2]__“导师帮带制”，更好发挥党员先锋模范作用，推动基层党建全省域建强、全领域过硬、全面走在前列</t>
+          <t>树牢大抓__[1]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师帮带制”，更好发挥党员先锋模范作用，推动基层党建全省域建强、全领域过硬、全面走在前列</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{0: '基层', 1: '全面', 2: '深化', 3: '雨衣'}</t>
+          <t>{0: '基层', 1: '打扮', 2: '埋葬', 3: '大公'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{0: '基层', 1: '全面', 2: '深化'}</t>
+          <t>{0: '基层'}</t>
         </is>
       </c>
     </row>
@@ -3956,17 +3956,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>深入推进“__[1]____[2]__、千乡晋位、万村过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[0]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
+          <t>深入推进“百县争创、千乡晋位、万村过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[1]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '百县', 2: '争创'}</t>
+          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '百县', 2: '争创'}</t>
+          <t>{0: '党建'}</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>健全“两新”组织党组织实质__[2]__发挥机制，__[1]____[0]__、国企、学校、公立医院等各领域党建</t>
+          <t>健全“两新”组织党组织实质作用发挥机制，加强__[1]__、国企、学校、公立医院等各领域党建</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>{0: '机关', 1: '加强', 2: '作用', 3: '余下'}</t>
+          <t>{0: '机关', 1: '相撞', 2: '风筝', 3: '换新'}</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{0: '机关', 1: '加强', 2: '作用'}</t>
+          <t>{0: '机关'}</t>
         </is>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>坚持不敢腐、不能腐、不想腐__[1]__推进，同时发力、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[0]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[2]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
+          <t>坚持不敢腐、不能腐、不想腐一体推进，同时发力、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[1]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的腐败案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{0: '反腐败', 1: '一体', 2: '腐败'}</t>
+          <t>{0: '反腐败'}</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{0: '反腐败', 1: '一体', 2: '腐败'}</t>
+          <t>{0: '反腐败'}</t>
         </is>
       </c>
     </row>
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>坚决查处享乐奢靡行为，驰而不息__[1]____[2]__、官僚主义，深入整治群众身边腐败和不正之风，大力培树新风正气，以优良党风政风带动__[0]__民风持续向善向好</t>
+          <t>坚决查处享乐奢靡行为，驰而不息纠治形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培树新风正气，以优良党风政风带动__[1]__民风持续向善向好</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{0: '社风', 1: '纠治', 2: '形式主义', 3: '现名'}</t>
+          <t>{0: '社风', 1: '征召', 2: '租借', 3: '被迫'}</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{0: '社风', 1: '纠治', 2: '形式主义'}</t>
+          <t>{0: '社风'}</t>
         </is>
       </c>
     </row>
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>加强对“一把手”和领导班子__[0]__，加强年轻干部教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察__[2]__监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动__[1]__监督提质增效</t>
+          <t>加强对“一把手”和领导班子__[1]__，加强年轻干部教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督提质增效</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>{0: '监督', 1: '基层', 2: '综合', 3: '顾虑'}</t>
+          <t>{0: '监督', 1: '直追', 2: '男女', 3: '屈指'}</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{0: '监督', 1: '基层', 2: '综合'}</t>
+          <t>{0: '监督'}</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>健全完善__[0]__交往的正面清单、负面清单、倡导清单，从严规范党员干部行权__[2]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送__[1]__，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
+          <t>健全完善__[1]__交往的正面清单、负面清单、倡导清单，从严规范党员干部行权用权，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{0: '政商', 1: '问题', 2: '用权', 3: '慈善'}</t>
+          <t>{0: '政商', 1: '留作', 2: '推后', 3: '改作'}</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{0: '政商', 1: '问题', 2: '用权'}</t>
+          <t>{0: '政商'}</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>构建清廉__[0]__责任共同体，以清廉单元建设为重点，做实做细清廉建设颗粒度，__[2]__新时代廉洁文化建设，加强清廉建设理论研究宣传，__[1]__干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
+          <t>构建清廉__[1]__责任共同体，以清廉单元建设为重点，做实做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '打造', 2: '加强', 3: '理会'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '打造', 2: '加强'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>各级党组织要更加关心关爱__[0]__，悉心教育引导青年，在新时代伟大实践中培育__[1]__青年，__[2]__建设青年发展型省份</t>
+          <t>各级党组织要更加关心关爱__[1]__，悉心教育引导青年，在新时代伟大实践中培育锻造青年，加快建设青年发展型省份</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>{0: '青年', 1: '锻造', 2: '加快', 3: '答对'}</t>
+          <t>{0: '青年', 1: '原状', 2: '计税', 3: '一并'}</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{0: '青年', 1: '锻造', 2: '加快'}</t>
+          <t>{0: '青年'}</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>广大青年要自觉把个人的理想融入中国梦，努力__[0]__志存高远、奋斗自强、品德高尚、追求卓越的新__[1]__好青年，成为堪当推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[2]__”最强音，奋力谱写无愧伟大时代的青春华章！</t>
+          <t>广大青年要自觉把个人的理想融入中国梦，努力__[1]__志存高远、奋斗自强、品德高尚、追求卓越的新时代好青年，成为堪当推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写青春”最强音，奋力谱写无愧伟大时代的青春华章！</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>{0: '成为', 1: '时代', 2: '青春', 3: '市外'}</t>
+          <t>{0: '成为', 1: '不等', 2: '那边', 3: '取水'}</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{0: '成为', 1: '时代', 2: '青春'}</t>
+          <t>{0: '成为'}</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实__[2]__“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进__[0]__特色社会主义共同富裕__[1]__和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
+          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进__[1]__特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '先行', 2: '践行', 3: '退休'}</t>
+          <t>{0: '中国', 1: '退休', 2: '长途', 3: '一时'}</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '先行', 2: '践行'}</t>
+          <t>{0: '中国'}</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这次大会是我省迈入高水平全面__[1]__社会主义现代化、高质量发展建设共同富裕示范区新征程，召开的第一次党代会</t>
+          <t>这次大会是我省迈入高水平全面建设社会主义现代化、高质量发展建设共同富裕示范区新征程，召开的第一次__[1]__</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '党代会', 1: '共同富裕', 2: '征程', 3: '建设', 4: '迈入', 5: '示范区', 6: '高质量', 7: '高水平'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '党代会'}</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大会主题是：高举习近平新时代中国__[1]__社会主义思想伟大旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！</t>
+          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕__[1]__和省域现代化先行！</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: '特色', 1: '汽油', 2: '解冻', 3: '现年'}</t>
+          <t>{0: '先行', 1: '收看', 2: '酗酒', 3: '悼念'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{0: '特色'}</t>
+          <t>{0: '先行'}</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{0: '五年'}</t>
+          <t>{0: '五年', 1: '党代会', 2: '实干', 3: '奋进', 4: '第十四次', 5: '争先', 6: '感恩', 7: '平凡'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的十九大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展__[1]__共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点</t>
+          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的__[1]__大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '十九', 1: '活络', 2: '万年', 3: '拍板'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '十九'}</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>这五年，我们笃行“两个维护”、全面从严治党，坚决做到“总书记__[1]__号令、党中央有部署，浙江见行动”</t>
+          <t>这五年，我们__[1]__“两个维护”、全面从严治党，坚决做到“总书记有号令、党中央有部署，浙江见行动”</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{0: '有', 1: '摄'}</t>
+          <t>{0: '笃行', 1: '租给', 2: '涌进', 3: '住宅'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{0: '有'}</t>
+          <t>{0: '笃行'}</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>始终把学深悟透习近平新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量开展“不忘初心、牢记使命”主题__[1]__、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉</t>
+          <t>始终把学深悟透__[1]__新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量开展“不忘初心、牢记使命”主题教育、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '奉命', 2: '十度', 3: '排出'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{0: '教育'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>建立健全贯彻习近平__[1]__重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“国之大者”在浙江落地见效</t>
+          <t>建立健全贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“__[1]__”在浙江落地见效</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{0: '总书记'}</t>
+          <t>{0: '国之大者', 1: '闭环', 2: '习近平', 3: '见效', 4: '党的领导', 5: '批示', 6: '细化', 7: '建立健全'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{0: '总书记'}</t>
+          <t>{0: '国之大者'}</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>党建统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制__[1]__持续完善，党建统领问题管控机制基本形成</t>
+          <t>__[1]__统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制机制持续完善，党建统领问题管控机制基本形成</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
+          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{0: '机制'}</t>
+          <t>{0: '党建'}</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著__[1]__，“红色根脉强基工程”全面实施，基层党建整乡推进、整县提升</t>
+          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著提升，“红色__[1]__强基工程”全面实施，基层党建整乡推进、整县提升</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{0: '提升', 1: '准备', 2: '下作', 3: '天日'}</t>
+          <t>{0: '根脉', 1: '强基', 2: '整乡', 3: '整县', 4: '提升', 5: '选人', 6: '党建', 7: '全面实施'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{0: '提升'}</t>
+          <t>{0: '根脉'}</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>党风廉政建设和反腐败斗争纵深__[1]__，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化</t>
+          <t>党风廉政建设和__[1]__斗争纵深推进，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '反腐败', 1: '推进', 2: '巡视', 3: '斗争', 4: '追逃', 5: '防逃', 6: '纠治', 7: '惩治腐败'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '反腐败'}</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>与时俱进书写忠实践行“八八__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
+          <t>与时俱进书写忠实践行“__[1]__战略”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{0: '战略', 1: '受灾', 2: '轻微', 3: '淑珍'}</t>
+          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{0: '战略'}</t>
+          <t>{0: '八八'}</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>“四大__[1]__”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大千万级机场，宁波舟山港加快建设世界一流强港</t>
+          <t>“四大建设”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大__[1]__机场，宁波舟山港加快建设世界一流强港</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '千万级', 1: '72.7', 2: '市市', 3: '强港', 4: '城镇化率', 5: '县县', 6: '陆域', 7: '建设'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '千万级'}</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差缩小__[1]__1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步</t>
+          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差缩小到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育__[1]__、体育强省、健康浙江等建设取得长足进步</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{0: '到', 1: '众', 2: '空', 3: '颇'}</t>
+          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{0: '到'}</t>
+          <t>{0: '强省'}</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全面落实长三角一体化__[1]__、长江经济带发展、共建“一带一路”、对口支援帮扶助力完成脱贫攻坚等重大任务，勇当构建新发展格局开路先锋</t>
+          <t>全面落实长三角一体化发展、长江经济带发展、共建“一带一路”、对口支援帮扶助力完成脱贫攻坚等重大任务，__[1]__构建新发展格局开路先锋</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
+          <t>{0: '勇当', 1: '开路先锋', 2: '脱贫', 3: '经济带', 4: '发展', 5: '攻坚', 6: '对口', 7: '帮扶'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{0: '发展'}</t>
+          <t>{0: '勇当'}</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>坚持外防输入、内防反弹，坚持__[1]__清零，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响</t>
+          <t>坚持外防输入、内防反弹，坚持动态__[1]__，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{0: '动态', 1: '钉子', 2: '来就', 3: '提起'}</t>
+          <t>{0: '清零', 1: '外防', 2: '率先', 3: '动态', 4: '内防', 5: '复产', 6: '助企纾困', 7: '智控'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{0: '动态'}</t>
+          <t>{0: '清零'}</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{0: '共克'}</t>
+          <t>{0: '共克', 1: '顽强拼搏', 2: '冲锋在前', 3: '阻击战', 4: '万众一心', 5: '广大党员', 6: '遭遇战', 7: '歼灭战'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021年地区生产总值__[1]__7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一</t>
+          <t>2021年地区__[1]__超过7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{0: '超过', 1: '一角', 2: '安民', 3: '之意'}</t>
+          <t>{0: '生产总值', 1: '2021', 2: '6.7', 3: '11', 4: '稳居', 5: '城乡居民', 6: '超过', 7: '地区'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{0: '超过'}</t>
+          <t>{0: '生产总值'}</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家实验室、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[1]__引进培育实现新突破，人才生态最优省金名片越来越亮</t>
+          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家__[1]__、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖人才引进培育实现新突破，人才生态最优省金名片越来越亮</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
+          <t>{0: '实验室', 1: '人才', 2: '三大科创', 3: '2.9', 4: '10', 5: '大省', 6: '全域', 7: '省金'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{0: '人才'}</t>
+          <t>{0: '实验室'}</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>产业基础再造和产业链提升__[1]__重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精特新“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元</t>
+          <t>产业基础再造和产业链提升取得重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌__[1]__取得突破，专精特新“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: '取得', 1: '榕树', 2: '幽默', 3: '就让'}</t>
+          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: '取得'}</t>
+          <t>{0: '强省'}</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>高规格召开全省民营经济__[1]__大会，率先出台民营企业发展促进条例，激发民营经济发展活力</t>
+          <t>高规格召开全省__[1]__经济发展大会，率先出台民营企业发展促进条例，激发民营经济发展活力</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
+          <t>{0: '民营', 1: '国名', 2: '礼节', 3: '夺走'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{0: '发展'}</t>
+          <t>{0: '民营'}</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>完成国家级__[1]__试点331项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效</t>
+          <t>完成国家级改革试点__[1]__项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
+          <t>{0: '331', 1: '艾奇逊'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{0: '改革'}</t>
+          <t>{0: '331'}</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大__[1]__一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会法治风尚更加浓厚，法治浙江建设群众满意度达到92.26％</t>
+          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[1]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{0: '综合', 1: '顾虑', 2: '胡风', 3: '变色'}</t>
+          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{0: '综合'}</t>
+          <t>{0: '法治'}</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新时代文明实践__[1]__、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业高质量发展迈上新台阶</t>
+          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业高质量发展__[1]__新台阶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{0: '中心', 1: '方能', 2: '云云', 3: '上路'}</t>
+          <t>{0: '迈上', 1: '文明城市', 2: '浙江人', 3: '文化', 4: '礼堂', 5: '新台阶', 6: '中心', 7: '最美'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{0: '中心'}</t>
+          <t>{0: '迈上'}</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>__[1]__研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力</t>
+          <t>文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史__[1]__焕发出新的活力</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '文脉', 1: '合伙', 2: '服役', 3: '准备'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '文脉'}</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>深入实施__[1]__文明示范创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖</t>
+          <t>深入实施生态文明__[1]__创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
+          <t>{0: '示范', 1: '山上', 2: '遗失', 3: '来日'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{0: '生态'}</t>
+          <t>{0: '示范'}</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>空气质量在全国__[1]__区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零填埋，生态环境公众满意度持续提升</t>
+          <t>空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零__[1]__，生态环境公众满意度持续提升</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{0: '重点', 1: '有如', 2: '人世', 3: '闹剧'}</t>
+          <t>{0: '填埋', 1: '喜得', 2: '国威', 3: '老友'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{0: '重点'}</t>
+          <t>{0: '填埋'}</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>社会治安状况__[1]__改善，扫黑除恶取得重大成果，经济金融领域突出风险点和利奇马台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降</t>
+          <t>社会治安状况持续改善，扫黑除恶取得重大成果，经济金融领域突出风险点和利奇马台风等自然灾害得到有效处置，刑事__[1]__数、安全事故起数和伤亡人数持续下降</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{0: '持续', 1: '欣然', 2: '派头', 3: '三副'}</t>
+          <t>{0: '发案', 1: '赠予', 2: '赠给', 3: '哈达'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{0: '持续'}</t>
+          <t>{0: '发案'}</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>回顾五年奋斗历程，我们更加深刻地感悟到习近平总书记对__[1]__发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证</t>
+          <t>回顾五年奋斗历程，我们更加深刻地感悟到__[1]__总书记对浙江发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2017年秋季，在__[1]__的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的根脉，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命</t>
+          <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[1]__，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{0: '党', 1: '热'}</t>
+          <t>{0: '根脉', 1: '2017', 2: '红船', 3: '之畔', 4: '赓续', 5: '守好', 6: '特殊使命', 7: '起航'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{0: '党'}</t>
+          <t>{0: '根脉'}</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021年5月，在全面建成小康社会、开启全面__[1]__社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持浙江高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命</t>
+          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记__[1]__谋划、亲自定题、亲自推动，作出支持浙江高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '亲自', 1: '消退', 2: '趋于', 3: '趋向'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '亲自'}</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>这些重托和使命，将__[1]__工作提升到前所未有的战略高度，为浙江发展注入前所未有的强劲动力！</t>
+          <t>这些重托和使命，将浙江工作提升到__[1]__的战略高度，为浙江发展注入前所未有的强劲动力！</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '前所未有', 1: '浙江', 2: '重托', 3: '使命', 4: '注入', 5: '强劲', 6: '高度', 7: '战略'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '前所未有'}</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”__[1]__最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化党建统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉</t>
+          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”作为最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化__[1]__统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{0: '作为', 1: '那边', 2: '昏迷', 3: '大坂'}</t>
+          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{0: '作为'}</t>
+          <t>{0: '党建'}</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立习近平同志党中央的核心、全党的核心地位，确立习近平新__[1]__中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义</t>
+          <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立__[1]__同志党中央的核心、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{0: '时代', 1: '合计', 2: '请来', 3: '划出'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{0: '时代'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，__[1]__中国特色社会主义事业航船劈波斩浪、一往无前！</t>
+          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的__[1]__，推动中国特色社会主义事业航船劈波斩浪、一往无前！</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '记住', 2: '金锭', 3: '捡到'}</t>
+          <t>{0: '大好局面', 1: '劈波斩浪', 2: '坚决拥护', 3: '万众一心', 4: '一往无前', 5: '航船', 6: '忠诚', 7: '两个'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{0: '推动'}</t>
+          <t>{0: '大好局面'}</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>习近平新时代中国特色社会主义思想__[1]__新时代中国共产党人的思想旗帜，是当代中国马克思主义、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展</t>
+          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{0: '是', 1: '待', 2: '妥'}</t>
+          <t>{0: '马克思主义', 1: '时代', 2: '特色', 3: '中国', 4: '行动指南', 5: '思想', 6: '全党全国', 7: '中国化'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{0: '是'}</t>
+          <t>{0: '马克思主义'}</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>浙江是习近平新时代__[1]__特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果</t>
+          <t>浙江是习近平新时代中国特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论__[1]__、实践成果、制度成果</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '退休', 2: '长途', 3: '一时'}</t>
+          <t>{0: '成果', 1: '车夫', 2: '扮成', 3: '排队'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{0: '中国'}</t>
+          <t>{0: '成果'}</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>浙江要勇扛使命、心怀“国之大者”，必须深刻理解把握5大战略指引：一要以加强党的__[1]__领导和全面从严治党守好“红色根脉”</t>
+          <t>浙江__[1]__扛使命、心怀“国之大者”，必须深刻理解把握5大战略指引：一要以加强党的全面领导和全面从严治党守好“红色根脉”</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
+          <t>{0: '要勇', 1: '国之大者', 2: '从严治党', 3: '根脉', 4: '守好', 5: '全面', 6: '深刻理解', 7: '一要'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{0: '全面'}</t>
+          <t>{0: '要勇'}</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持和完善党的领导，__[1]__党和国家的根本所在、命脉所在；全面从严治党是新时代党的自我革命的伟大实践，开辟了百年大党自我革命的新境界</t>
+          <t>习近平总书记强调，坚持和完善党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的__[1]__革命的伟大实践，开辟了百年大党自我革命的新境界</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{0: '是', 1: '待', 2: '妥'}</t>
+          <t>{0: '自我', 1: '喜讯', 2: '成行', 3: '远近'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{0: '是'}</t>
+          <t>{0: '自我'}</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因__[1]__，是浙江精神之源、使命之源、力量之源</t>
+          <t>“红色根脉”__[1]__党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神之源、使命之源、力量之源</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{0: '密码', 1: '一派', 2: '欢迎', 3: '温和'}</t>
+          <t>{0: '蕴含着', 1: '计量局'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{0: '密码'}</t>
+          <t>{0: '蕴含着'}</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19年来，在“八八战略”指引下，浙江实现了从__[1]__大省向经济强省、从对内对外开放向深度融入全球、从总体小康向高水平全面小康的历史性跃迁</t>
+          <t>19年来，在“八八战略”指引下，浙江实现了从经济大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{0: '经济', 1: '弟子', 2: '能容', 3: '菩萨'}</t>
+          <t>{0: '小康', 1: '保留', 2: '老手', 3: '特工'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{0: '经济'}</t>
+          <t>{0: '小康'}</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>因此，“八八战略”是总书记留给__[1]__取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
+          <t>因此，“__[1]__战略”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '八八'}</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>“重要窗口”__[1]__总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的省域范例，生动展示中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好</t>
+          <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的省域范例，生动展示中国共产党__[1]__能、马克思主义为什么行、中国特色社会主义为什么好</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{0: '是', 1: '待', 2: '妥'}</t>
+          <t>{0: '为什么', 1: '综合性'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{0: '是'}</t>
+          <t>{0: '为什么'}</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>习近平总书记强调，共同富裕是中国式__[1]__的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；高质量发展关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
+          <t>习近平总书记强调，__[1]__是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；高质量发展关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '发起人', 2: '签合同'}</t>
+          <t>{0: '共同富裕', 1: '接二连三', 2: '接连不断'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{0: '现代化'}</t>
+          <t>{0: '共同富裕'}</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>习近平总书记、党中央赋予浙江高质量__[1]__建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用</t>
+          <t>习近平总书记、党中央赋予__[1]__高质量发展建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{0: '发展'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>“八八战略”是全面系统开放的理论体系，涵盖了习近平同志在__[1]__工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领</t>
+          <t>“八八战略”是全面系统开放的理论体系，涵盖了__[1]__同志在浙江工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>明确要求浙江，以__[1]__为本，深入实施人才强省战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度</t>
+          <t>明确要求浙江，以人才为本，深入实施人才__[1]__战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
+          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{0: '人才'}</t>
+          <t>{0: '强省'}</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>明确要求浙江，充分发挥浙江独具的共建“一带一路”、长江经济带__[1]__、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放</t>
+          <t>明确要求__[1]__，充分发挥浙江独具的共建“一带一路”、长江经济带发展、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{0: '发展'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>习近平总书记强调，着力解决__[1]__不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民共同富裕取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性</t>
+          <t>习近平总书记强调，着力解决发展不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民__[1]__取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{0: '发展', 1: '见到', 2: '犯人', 3: '无效'}</t>
+          <t>{0: '共同富裕', 1: '接二连三', 2: '接连不断'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{0: '发展'}</t>
+          <t>{0: '共同富裕'}</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>明确要求浙江，念好“山海经”；深入实施山海协作__[1]__；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和美丽乡村、美丽城镇建设；加快推进农业农村现代化</t>
+          <t>明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{0: '工程', 1: '醉酒', 2: '转机', 3: '反映'}</t>
+          <t>{0: '美丽', 1: '路矿', 2: '本局', 3: '局内'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{0: '工程'}</t>
+          <t>{0: '美丽'}</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>习近平总书记强调，把__[1]__当家作主具体地、现实地体现到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系</t>
+          <t>习近平总书记强调，把人民当家作主具体地、现实地体现到党治国理政的政策措施__[1]__、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: 'BP', 2: '已是', 3: '落户'}</t>
+          <t>{0: '上来', 1: '附有', 2: '填补', 3: '亲历'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{0: '人民'}</t>
+          <t>{0: '上来'}</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>明确要求浙江，__[1]__各个环节都要配套起来；把人民群众的民主要求全面纳入法治轨道，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量</t>
+          <t>明确要求浙江，民主各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '下山', 2: '进藏', 3: '放空'}</t>
+          <t>{0: '轨道', 1: '蚂蚁', 2: '三联', 3: '谁家'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{0: '民主'}</t>
+          <t>{0: '轨道'}</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>明确要求浙江，建设法治浙江；坚持立法__[1]__与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平</t>
+          <t>明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{0: '决策', 1: '竟用', 2: '扣留', 3: '新娘'}</t>
+          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{0: '决策'}</t>
+          <t>{0: '法治'}</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>明确要求浙江，大力实施__[1]__建设“八项工程”；要传承历史、守正出新，海纳百川、兼收并蓄，实现建设文化强省的目标</t>
+          <t>明确要求浙江，大力实施文化建设“八项工程”；要传承历史、守正出新，__[1]__、兼收并蓄，实现建设文化强省的目标</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '海纳百川', 1: '守正', 2: '强省', 3: '兼收并蓄', 4: '八项', 5: '文化', 6: '建设', 7: '明确要求'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '海纳百川'}</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、生态保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
+          <t>习近平总书记强调，我们要建设的现代化是人与自然和谐共生的现代化；统筹污染治理、__[1]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '生态'}</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动__[1]__治理重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
+          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动社会__[1]__重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
+          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{0: '社会'}</t>
+          <t>{0: '治理'}</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；治理体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
+          <t>明确要求浙江，从现代化总布局中谋划推进平安浙江建设；__[1]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '治理'}</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，唯有坚定不移沿着总书记指引的方向奋勇前进，__[1]__闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
+          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，__[1]__坚定不移沿着总书记指引的方向奋勇前进，才能闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{0: '才能', 1: '引起', 2: '英语', 3: '东邻'}</t>
+          <t>{0: '唯有', 1: '专场', 2: '介绍', 3: '特等'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{0: '才能'}</t>
+          <t>{0: '唯有'}</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和__[1]__的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
+          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“__[1]__战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{0: '现代化', 1: '发起人', 2: '签合同'}</t>
+          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{0: '现代化'}</t>
+          <t>{0: '八八'}</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>全过程人民__[1]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
+          <t>__[1]__人民民主深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{0: '民主', 1: '下山', 2: '进藏', 3: '放空'}</t>
+          <t>{0: '全过程', 1: '民主', 2: '民主协商', 3: '民主选举', 4: '民主监督', 5: '民主决策', 6: '制度', 7: '政治'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{0: '民主'}</t>
+          <t>{0: '全过程'}</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡居民收入倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
+          <t>收入分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[1]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{0: '收入', 1: '东河', 2: '祥云', 3: '点火'}</t>
+          <t>{0: '居民收入', 1: '从此以后'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{0: '收入'}</t>
+          <t>{0: '居民收入'}</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>高水平实现基本公共服务均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型__[1]__和共建共享型社会加快形成</t>
+          <t>高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型社会和共建共享型社会加快形成</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
+          <t>{0: '公共服务', 1: '从此以后'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{0: '社会'}</t>
+          <t>{0: '公共服务'}</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>生态环境质量持续改善，地表水省控断面达到或优于Ш类水体比例超过95％，设区__[1]__空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
+          <t>生态环境质量持续改善，地表水省控断面达到或优于Ш类水体比例超过__[1]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '国光', 2: '据理', 3: '操起'}</t>
+          <t>{0: '95', 1: '匆忙', 2: '切切', 3: '角色'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{0: '城市'}</t>
+          <t>{0: '95'}</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治素养、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
+          <t>全体人民普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[1]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{0: '人民', 1: 'BP', 2: '已是', 3: '落户'}</t>
+          <t>{0: '素养', 1: '合营', 2: '启运', 3: '恰遇'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{0: '人民'}</t>
+          <t>{0: '素养'}</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四是共建共享，以探索共同富裕有效路径激发全__[1]__新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、先富带后富，形成共同奋斗、共创美好生活的新理念新机制新气象</t>
+          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、先富带后富，形成__[1]__、共创美好生活的新理念新机制新气象</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
+          <t>{0: '共同奋斗', 1: '先富', 2: '新理念', 3: '四是', 4: '后富', 5: '美好生活', 6: '共创', 7: '新气象'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{0: '社会'}</t>
+          <t>{0: '共同奋斗'}</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>五是唯实惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，__[1]__、敢为人先，努力做到说一件、干一件、成一件，形成全社会实干争先的激情活力</t>
+          <t>五是唯实惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[1]__、干一件、成一件，形成全社会实干争先的激情活力</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{0: '求真务实', 1: '哈尔科夫'}</t>
+          <t>{0: '一件', 1: '唯实', 2: '敢为人先', 3: '五是', 4: '惟先', 5: '求真务实', 6: '实干', 7: '努力做到'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{0: '求真务实'}</t>
+          <t>{0: '一件'}</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>构建以国家实验室和全国重点实验室为龙头的新型实验室体系、以国家产业创新中心为重点的产业创新体系，__[1]__大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
+          <t>构建以国家__[1]__和全国重点实验室为龙头的新型实验室体系、以国家产业创新中心为重点的产业创新体系，建设大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '实验室', 1: '创新', 2: '建设', 3: '卡脖子', 4: '登峰', 5: '双尖', 6: '双领', 7: '体系'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '实验室'}</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>加强数字经济制度和标准体系建设，高质量办好__[1]__互联网大会，积极参与国内国际规则制定</t>
+          <t>加强数字经济制度和标准体系建设，__[1]__办好世界互联网大会，积极参与国内国际规则制定</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{0: '世界', 1: '有偿', 2: '了之', 3: '层层'}</t>
+          <t>{0: '高质量', 1: '办好', 2: '积极参与', 3: '互联网', 4: '规则', 5: '数字', 6: '制定', 7: '体系'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{0: '世界'}</t>
+          <t>{0: '高质量'}</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>深入实施__[1]__基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造强省、质量强省</t>
+          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[1]__、质量强省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{0: '产业', 1: '锦春', 2: '审问', 3: '厌烦'}</t>
+          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{0: '产业'}</t>
+          <t>{0: '强省'}</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>推进省级新区、开发区（园区）等高能级产业__[1]__提档升级，提升“415X”先进制造业集群，建设世界一流科技园区</t>
+          <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“415X”先进制造业集群，建设世界一流科技园区</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{0: '平台', 1: '送走', 2: '王昭', 3: '拉夫'}</t>
+          <t>{0: '提档', 1: '钱瑛', 2: '温妮', 3: '曾和'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{0: '平台'}</t>
+          <t>{0: '提档'}</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>以扩中提低、收入分配__[1]__为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
+          <t>以__[1]__提低、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
+          <t>{0: '扩中', 1: '提低', 2: '共富型', 3: '改革', 4: '共同富裕', 5: '牵引', 6: '探索', 7: '深入'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{0: '改革'}</t>
+          <t>{0: '扩中'}</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>加强重大改革“一本账”“全周期”管理，强化多__[1]__协同、系统集成，加快取得更多机制性制度性成果</t>
+          <t>加强重大改革“一本账”“全周期”管理，强化多跨协同、__[1]__，加快取得更多机制性制度性成果</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{0: '跨', 1: '师', 2: '潘', 3: '物'}</t>
+          <t>{0: '系统集成', 1: '制度性', 2: '协同', 3: '一本', 4: '成果', 5: '强化', 6: '周期', 7: '机制'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{0: '跨'}</t>
+          <t>{0: '系统集成'}</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深度融入全国统一大__[1]__，建设市场强省，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的双循环</t>
+          <t>深度融入全国统一大市场，建设市场强省，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的__[1]__</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{0: '市场', 1: '列成', 2: '回族', 3: '解方'}</t>
+          <t>{0: '双循环', 1: '杨善洲'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{0: '市场'}</t>
+          <t>{0: '双循环'}</t>
         </is>
       </c>
     </row>
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>加快建设高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设__[1]__型社会，深化“放心消费在浙江”行动和快递“两进一出”工程，构建品质消费普及普惠体系</t>
+          <t>加快__[1]__高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“两进一出”工程，构建品质消费普及普惠体系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{0: '消费', 1: '铁山', 2: '救活', 3: '板桥'}</t>
+          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{0: '消费'}</t>
+          <t>{0: '建设'}</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>高标准建设自贸试验区，争创大宗商品特色自由贸易港，探索建立以投资贸易自由化__[1]__为核心的制度体系</t>
+          <t>高标准建设__[1]__试验区，争创大宗商品特色自由贸易港，探索建立以投资贸易自由化便利化为核心的制度体系</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{0: '便利化', 1: '抽出来', 2: '惦记着'}</t>
+          <t>{0: '自贸', 1: '争创', 2: '便利化', 3: '高标准', 4: '试验区', 5: '自由化', 6: '自由贸易', 7: '探索'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{0: '便利化'}</t>
+          <t>{0: '自贸'}</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>打造全球数字__[1]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化内外贸一体化和国际贸易综合改革，推动贸易高质量发展</t>
+          <t>打造全球数字贸易中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[1]__一体化和国际贸易综合改革，推动贸易高质量发展</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{0: '贸易', 1: '孙振', 2: '林强', 3: '晓东'}</t>
+          <t>{0: '内外贸', 1: '临死前'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{0: '贸易'}</t>
+          <t>{0: '内外贸'}</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>纵深推进义甬舟开放大通道建设，__[1]__义新欧班列高质量发展，推动数字技术和产业走向“一带一路”</t>
+          <t>纵深推进__[1]__开放大通道建设，推动义新欧班列高质量发展，推动数字技术和产业走向“一带一路”</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{0: '推动', 1: '记住', 2: '金锭', 3: '捡到'}</t>
+          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '大通道', 4: '推动', 5: '高质量', 6: '纵深', 7: '开放'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{0: '推动'}</t>
+          <t>{0: '义甬舟'}</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>以“四大建设”能级__[1]__提升为牵引，以重大项目重大平台为支撑，构建“一湾引领、四极辐射、山海互济、全域美丽”空间格局</t>
+          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、四极辐射、山海互济、全域美丽”空间格局</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{0: '整体', 1: '不下', 2: '亲口', 3: '路费'}</t>
+          <t>{0: '一湾', 1: '全域', 2: '四极', 3: '互济', 4: '重大项目', 5: '山海', 6: '能级', 7: '牵引'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{0: '整体'}</t>
+          <t>{0: '一湾'}</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>集中布局高能级平台、高端产业、引领性项目，谋划__[1]__未来园区，迭代建设环杭州湾、温台沿海和金衢丽三大现代产业带</t>
+          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和金衢丽三大现代产业带</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '温台', 1: '党证', 2: '撕掉', 3: '答对'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '温台'}</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2976,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>唱好杭__[1]__“双城记”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
+          <t>唱好__[1]__“双城记”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{0: '甬'}</t>
+          <t>{0: '杭甬', 1: '说谎', 2: '嫉妒', 3: '厌恶'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{0: '甬'}</t>
+          <t>{0: '杭甬'}</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>支持金华高水平__[1]__内陆开放枢纽中心城市、衢州创新省际合作建设四省边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
+          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新省际合作建设__[1]__边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '四省', 1: '省际', 2: '丽水', 3: '共同富裕', 4: '衢州', 5: '城市', 6: '建设', 7: '老区'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '四省'}</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>优化基础设施布局、结构、功能和发展模式，高标准__[1]__现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型基础设施网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
+          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型基础设施网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '设施', 1: '行长', 2: '求人', 3: '生为'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '设施'}</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>打造山海协作工程升级版，__[1]__科创飞地、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
+          <t>打造山海协作工程升级版，推进科创__[1]__、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '飞地', 1: '回厂', 2: '张洁', 3: '置备'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '飞地'}</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>实施“科技强__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”农合联改革，大力发展高效生态农业</t>
+          <t>实施“科技__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”农合联改革，大力发展高效生态农业</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{0: '农'}</t>
+          <t>{0: '强农', 1: '病室', 2: '据信'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{0: '农'}</t>
+          <t>{0: '强农'}</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{0: '人大代表'}</t>
+          <t>{0: '人大代表', 1: '票决', 2: '联络站', 3: '迭代', 4: '践行', 5: '园区', 6: '实事', 7: '全过程'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{0: '统战工作'}</t>
+          <t>{0: '统战工作', 1: '浙里', 2: '同心', 3: '覆盖', 4: '一家亲', 5: '共富', 6: '同廉', 7: '铸牢'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3316,17 +3316,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释传播体系，构建浙江红色精神谱系，深化__[1]__研究工程，高水平建设社科强省、网络强省，打造重大传播平台，提升文化安全保障能力</t>
+          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释传播体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设社科__[1]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '强省'}</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进公民道德建设工程，实施“浙江有礼”省域__[1]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
+          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”省域文明实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{0: '文明', 1: '瞒着', 2: '住处', 3: '90'}</t>
+          <t>{0: '公民道德', 1: '文明', 2: '省域', 3: '触达', 4: '全域', 5: '推进', 6: '家风', 7: '践行'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{0: '文明'}</t>
+          <t>{0: '公民道德'}</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3396,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>推进文化数字化战略，打造国家数字文化__[1]__基地，建设横店国际影视文化创新中心，加快培育文创经济，促进文旅深度融合，创建全域旅游示范省</t>
+          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进文旅深度融合，创建全域旅游示范省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '惨状', 2: '已用', 3: '长达'}</t>
+          <t>{0: '文创', 1: '潘金', 2: '钱瑛', 3: '火急'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{0: '创新'}</t>
+          <t>{0: '文创'}</t>
         </is>
       </c>
     </row>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>更大力度建设__[1]__强省，率先实现基础教育均衡优质、高等教育高水平普及和普惠性人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
+          <t>更大力度建设教育强省，率先实现基础教育均衡优质、高等教育__[1]__普及和普惠性人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{0: '教育', 1: '奉命', 2: '十度', 3: '排出'}</t>
+          <t>{0: '高水平', 1: '强省', 2: '普惠性', 3: '教育', 4: '新机制', 5: '基础教育', 6: '建设', 7: '人力资本'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{0: '教育'}</t>
+          <t>{0: '高水平'}</t>
         </is>
       </c>
     </row>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{0: '普惠性'}</t>
+          <t>{0: '普惠性', 1: '一老', 2: '人口老龄化', 3: '育儿', 4: '解决方案', 5: '养老', 6: '一小', 7: '探索'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{0: '养老保险'}</t>
+          <t>{0: '养老保险', 1: '健全', 2: '探索', 3: '职工基本', 4: '提标', 5: '扩面', 6: '完善', 7: '退役军人'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>探索构建初次分配、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[1]__创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入群体进入中等收入群体行列</t>
+          <t>探索构建初次__[1]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量就业创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入群体进入中等收入群体行列</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{0: '就业', 1: '文殊', 2: '采自', 3: '绿原'}</t>
+          <t>{0: '分配', 1: '国耻', 2: '鹦鹉', 3: '有声'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{0: '就业'}</t>
+          <t>{0: '分配'}</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>一体推进城乡风貌整治提升和未来社区未来乡村__[1]__，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
+          <t>一体推进城乡风貌整治提升和未来__[1]__未来乡村建设，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '社区', 1: '唐克', 2: '进关', 3: '葆华'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '社区'}</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>建立健全国土空间规划__[1]__，全面落实“三区三线”，大力推进全域土地综合整治，打造空间治理数字化改革先行省，构建共富型自然资源政策体系</t>
+          <t>建立健全国土空间规划体系，全面落实“三区三线”，大力推进__[1]__土地综合整治，打造空间治理数字化改革先行省，构建共富型自然资源政策体系</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{0: '体系', 1: '三两', 2: '右边', 3: '缺粮'}</t>
+          <t>{0: '全域', 1: '被害', 2: '发奖', 3: '交来'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{0: '体系'}</t>
+          <t>{0: '全域'}</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>实施__[1]__达峰方案，高水平建设国家清洁能源示范省，建设绿色制造体系和服务体系，加快建筑、交通、农业、居民生活领域低碳转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
+          <t>实施碳达峰方案，高水平建设国家清洁能源示范省，建设绿色制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[1]__转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{0: '碳'}</t>
+          <t>{0: '低碳', 1: '我团', 2: '我社', 3: '审问'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{0: '碳'}</t>
+          <t>{0: '低碳'}</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>深化实施“法助共富、法护平安”专项行动，构建共同富裕示范区__[1]__法规规章体系，纵深推进“大综合一体化”行政执法改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
+          <t>深化实施“法助共富、法护平安”专项行动，__[1]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政执法改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '构建', 1: '烧死', 2: '前去', 3: '发红'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '构建'}</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>健全产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[1]__网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个最严”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
+          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，强化网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个最严”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{0: '强化', 1: '谢世', 2: '忌日', 3: '柴门'}</t>
+          <t>{0: '健全', 1: '求婚', 2: '扶桑', 3: '大发'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{0: '强化'}</t>
+          <t>{0: '健全'}</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实管党治党政治责任，纵深推进全面从严治党，不断推进以党的自我__[1]__引领社会革命在浙江生动实践</t>
+          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实管党__[1]__政治责任，纵深推进全面从严治党，不断推进以党的自我革命引领社会革命在浙江生动实践</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{0: '革命', 1: '合一', 2: '此次', 3: '盘子'}</t>
+          <t>{0: '治党', 1: '一角', 2: '前夜', 3: '美金'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{0: '革命'}</t>
+          <t>{0: '治党'}</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实__[1]__，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于党员干部群众的共同信仰、处处见效于党员干部群众的共同奋斗</t>
+          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[1]__群众的共同信仰、处处见效于党员干部群众的共同奋斗</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
+          <t>{0: '党员干部', 1: '世界闻名', 2: '驰名世界', 3: '金质奖章'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{0: '机制'}</t>
+          <t>{0: '党员干部'}</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>压实党建责任体系，健全省域党内法规制度，完善党对重大工作领导__[1]__，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
+          <t>压实__[1]__责任体系，健全省域党内法规制度，完善党对重大工作领导机制，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{0: '机制', 1: '开山', 2: '上等', 3: '照相'}</t>
+          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{0: '机制'}</t>
+          <t>{0: '党建'}</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>全面落实党管武装__[1]__，推动军民融合深度发展，支持国防和军队现代化建设，加强全民国防教育，持续擦亮 “双拥”工作金名片</t>
+          <t>全面落实党管武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民国防教育，持续擦亮 “__[1]__”工作金名片</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{0: '要求', 1: '偌大', 2: '秦汉', 3: '自古'}</t>
+          <t>{0: '双拥', 1: '受雇', 2: '过关', 3: '不妙'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{0: '要求'}</t>
+          <t>{0: '双拥'}</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>迭代升级七张问题清单应用，强化党建统领重大决策落地、重大工作推进、重大风险防控，促进各级党组织领导__[1]__、组织力、执行力整体跃升</t>
+          <t>迭代升级七张问题清单应用，强化党建统领__[1]__决策落地、重大工作推进、重大风险防控，促进各级党组织领导力、组织力、执行力整体跃升</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{0: '力'}</t>
+          <t>{0: '重大', 1: '里外', 2: '人称', 3: '那边'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{0: '力'}</t>
+          <t>{0: '重大'}</t>
         </is>
       </c>
     </row>
@@ -3836,17 +3836,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>__[1]__唯实惟先机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进民呼我为统一平台集成优化</t>
+          <t>推进__[1]__惟先机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进民呼我为统一平台集成优化</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '唯实', 1: '骑警', 2: '奎达'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '唯实'}</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续__[1]__习近平新时代中国特色社会主义思想教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
+          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新时代中国特色社会主义思想教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '习近平', 1: '一条龙'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>落实“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化__[1]__为事业担当、组织为干部担当良性互动</t>
+          <t>落实“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化干部为事业__[1]__、组织为干部担当良性互动</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '克隆', 2: '雄踞'}</t>
+          <t>{0: '担当', 1: '万年', 2: '人头', 3: '劳改'}</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{0: '干部'}</t>
+          <t>{0: '担当'}</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>健全“两新”组织党组织实质作用发挥机制，加强__[1]__、国企、学校、公立医院等各领域党建</t>
+          <t>健全“__[1]__”组织党组织实质作用发挥机制，加强机关、国企、学校、公立医院等各领域党建</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>{0: '机关', 1: '相撞', 2: '风筝', 3: '换新'}</t>
+          <t>{0: '两新', 1: '公立医院', 2: '党建', 3: '党组织', 4: '国企', 5: '健全', 6: '实质', 7: '机关'}</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{0: '机关'}</t>
+          <t>{0: '两新'}</t>
         </is>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>坚持不敢腐、不能腐、不想腐一体推进，同时发力、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[1]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的腐败案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
+          <t>坚持不敢腐、不能腐、不想腐一体推进，同时__[1]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移反腐败防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的腐败案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{0: '反腐败'}</t>
+          <t>{0: '发力', 1: '沾污', 2: '原系', 3: '乙等'}</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{0: '反腐败'}</t>
+          <t>{0: '发力'}</t>
         </is>
       </c>
     </row>
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>坚决查处享乐奢靡行为，驰而不息纠治形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培树新风正气，以优良党风政风带动__[1]__民风持续向善向好</t>
+          <t>坚决查处享乐奢靡行为，驰而不息纠治形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[1]__正气，以优良党风政风带动社风民风持续向善向好</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{0: '社风', 1: '征召', 2: '租借', 3: '被迫'}</t>
+          <t>{0: '树新风', 1: '农场主', 2: '种植者'}</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{0: '社风'}</t>
+          <t>{0: '树新风'}</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>健全完善__[1]__交往的正面清单、负面清单、倡导清单，从严规范党员干部行权用权，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
+          <t>健全完善政商交往的正面__[1]__、负面清单、倡导清单，从严规范党员干部行权用权，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{0: '政商', 1: '留作', 2: '推后', 3: '改作'}</t>
+          <t>{0: '清单', 1: '自幼', 2: '今晚', 3: '转业'}</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{0: '政商'}</t>
+          <t>{0: '清单'}</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>构建清廉__[1]__责任共同体，以清廉单元建设为重点，做实做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
+          <t>构建__[1]__建设责任共同体，以清廉单元建设为重点，做实做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '清廉', 1: '试制', 2: '赤塔', 3: '上地'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '清廉'}</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>广大青年要自觉把个人的理想融入中国梦，努力__[1]__志存高远、奋斗自强、品德高尚、追求卓越的新时代好青年，成为堪当推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写青春”最强音，奋力谱写无愧伟大时代的青春华章！</t>
+          <t>广大青年要自觉把个人的理想融入中国梦，努力成为志存高远、奋斗自强、品德高尚、追求卓越的新时代好青年，成为堪当推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[1]__”最强音，奋力谱写无愧伟大时代的青春华章！</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>{0: '成为', 1: '不等', 2: '那边', 3: '取水'}</t>
+          <t>{0: '青春', 1: '市外', 2: '收购', 3: '下列'}</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{0: '成为'}</t>
+          <t>{0: '青春'}</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进__[1]__特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
+          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕__[1]__和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{0: '中国', 1: '退休', 2: '长途', 3: '一时'}</t>
+          <t>{0: '先行', 1: '收看', 2: '酗酒', 3: '悼念'}</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{0: '中国'}</t>
+          <t>{0: '先行'}</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: '党代会', 1: '共同富裕', 2: '征程', 3: '建设', 4: '迈入', 5: '示范区', 6: '高质量', 7: '高水平'}</t>
+          <t>{0: '党代会', 1: '共同富裕', 2: '征程', 3: '建设', 4: '迈入', 5: '示范区', 6: '高水平', 7: '我省'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕__[1]__和省域现代化先行！</t>
+          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“__[1]__”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: '先行', 1: '收看', 2: '酗酒', 3: '悼念'}</t>
+          <t>{0: '八八战略', 1: '两个维护', 2: '伟大旗帜', 3: '共同富裕', 4: '习近平', 5: '高举', 6: '奋力', 7: '忠实'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{0: '先行'}</t>
+          <t>{0: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>与时俱进书写忠实践行“__[1]__战略”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
+          <t>与时俱进书写忠实践行“__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
+          <t>{0: '八八战略', 1: '新篇章', 2: '与时俱进', 3: '建立健全', 4: '忠实', 5: '书写', 6: '改革开放', 7: '深化'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{0: '八八'}</t>
+          <t>{0: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{0: '大好局面', 1: '劈波斩浪', 2: '坚决拥护', 3: '万众一心', 4: '一往无前', 5: '航船', 6: '忠诚', 7: '两个'}</t>
+          <t>{0: '大好局面', 1: '劈波斩浪', 2: '两个维护', 3: '坚决拥护', 4: '万众一心', 5: '一往无前', 6: '航船', 7: '忠诚'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{0: '马克思主义', 1: '时代', 2: '特色', 3: '中国', 4: '行动指南', 5: '思想', 6: '全党全国', 7: '中国化'}</t>
+          <t>{0: '马克思主义', 1: '时代', 2: '中国', 3: '行动指南', 4: '思想', 5: '全党全国', 6: '中国化', 7: '中华文化'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>因此，“__[1]__战略”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
+          <t>因此，“__[1]__”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
+          <t>{0: '八八战略', 1: '浙江', 2: '宝贵财富', 3: '用之不竭', 4: '取之不尽', 5: '不断进步', 6: '制胜', 7: '法宝'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{0: '八八'}</t>
+          <t>{0: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色根脉”的坚定守护者、“__[1]__战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
+          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{0: '八八', 1: '熟识', 2: '谋面', 3: '拮据'}</t>
+          <t>{0: '根脉', 1: '八八战略', 2: '勇立', 3: '奋斗者', 4: '守护者', 5: '锚定', 6: '美好未来', 7: '建设者'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{0: '八八'}</t>
+          <t>{0: '根脉'}</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>加强数字经济制度和标准体系建设，__[1]__办好世界互联网大会，积极参与国内国际规则制定</t>
+          <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，积极参与国内国际规则制定</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{0: '高质量', 1: '办好', 2: '积极参与', 3: '互联网', 4: '规则', 5: '数字', 6: '制定', 7: '体系'}</t>
+          <t>{0: '办好', 1: '逆向', 2: '反向', 3: '丛林'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{0: '高质量'}</t>
+          <t>{0: '办好'}</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '大通道', 4: '推动', 5: '高质量', 6: '纵深', 7: '开放'}</t>
+          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '大通道', 4: '推动', 5: '纵深', 6: '开放', 7: '数字'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '票决', 2: '联络站', 3: '迭代', 4: '践行', 5: '园区', 6: '实事', 7: '全过程'}</t>
+          <t>{0: '人大代表', 1: '票决', 2: '联络站', 3: '迭代', 4: '园区', 5: '实事', 6: '全过程', 7: '开发区'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{0: '公民道德', 1: '文明', 2: '省域', 3: '触达', 4: '全域', 5: '推进', 6: '家风', 7: '践行'}</t>
+          <t>{0: '公民道德', 1: '文明', 2: '触达', 3: '全域', 4: '推进', 5: '家风', 6: '家教', 7: '有礼'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕__[1]__和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
+          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{0: '先行', 1: '收看', 2: '酗酒', 3: '悼念'}</t>
+          <t>{0: '伟大', 1: '时有', 2: '空白', 3: '设摊'}</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{0: '先行'}</t>
+          <t>{0: '伟大'}</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: '党代会', 1: '共同富裕', 2: '征程', 3: '建设', 4: '迈入', 5: '示范区', 6: '高水平', 7: '我省'}</t>
+          <t>{0: '党代会', 1: '高质量发展', 2: '共同富裕', 3: '征程', 4: '建设', 5: '迈入', 6: '示范区', 7: '高水平'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: '八八战略', 1: '两个维护', 2: '伟大旗帜', 3: '共同富裕', 4: '习近平', 5: '高举', 6: '奋力', 7: '忠实'}</t>
+          <t>{0: '八八战略', 1: '两个维护', 2: '高质量发展', 3: '省域', 4: '伟大旗帜', 5: '共同富裕', 6: '习近平', 7: '高举'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{0: '反腐败', 1: '推进', 2: '巡视', 3: '斗争', 4: '追逃', 5: '防逃', 6: '纠治', 7: '惩治腐败'}</t>
+          <t>{0: '反腐败', 1: '巡视', 2: '斗争', 3: '追逃', 4: '防逃', 5: '纠治', 6: '惩治腐败', 7: '成效显著'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{0: '千万级', 1: '72.7', 2: '市市', 3: '强港', 4: '城镇化率', 5: '县县', 6: '陆域', 7: '建设'}</t>
+          <t>{0: '千万级', 1: '72.7', 2: '市市通', 3: '县县通', 4: '强港', 5: '城镇化率', 6: '陆域', 7: '建设'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业高质量发展__[1]__新台阶</t>
+          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业__[1]__迈上新台阶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{0: '迈上', 1: '文明城市', 2: '浙江人', 3: '文化', 4: '礼堂', 5: '新台阶', 6: '中心', 7: '最美'}</t>
+          <t>{0: '高质量发展', 1: '迈上', 2: '文明城市', 3: '浙江人', 4: '文化', 5: '礼堂', 6: '新台阶', 7: '中心'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{0: '迈上'}</t>
+          <t>{0: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>“红色根脉”__[1]__党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神之源、使命之源、力量之源</t>
+          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神__[1]__、使命之源、力量之源</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{0: '蕴含着', 1: '计量局'}</t>
+          <t>{0: '之源', 1: '使命', 2: '伟大', 3: '初心', 4: '力量之源', 5: '根脉', 6: '革命', 7: '密码'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{0: '蕴含着'}</t>
+          <t>{0: '之源'}</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>习近平总书记强调，__[1]__是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；高质量发展关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
+          <t>习近平总书记强调，共同富裕是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；__[1]__关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{0: '共同富裕', 1: '接二连三', 2: '接连不断'}</t>
+          <t>{0: '高质量发展', 1: '共同富裕', 2: '现代化', 3: '习近平', 4: '我国', 5: '建设', 6: '中国式', 7: '全局'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{0: '共同富裕'}</t>
+          <t>{0: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>这是习近平总书记对浙江__[1]__的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态</t>
+          <t>这是习近平总书记对__[1]__工作的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{0: '工作', 1: '应声', 2: '瓜分', 3: '香槟'}</t>
+          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{0: '工作'}</t>
+          <t>{0: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>习近平总书记强调，必须从贯彻落实“四个__[1]__”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活高质量发展新动力；以数字化改革助力政府职能转变；加快建设数字中国</t>
+          <t>习近平总书记强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活__[1]__新动力；以数字化改革助力政府职能转变；加快建设数字中国</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
+          <t>{0: '高质量发展', 1: '全面', 2: '改革', 3: '习近平', 4: '新动力', 5: '系统集成', 6: '政府职能', 7: '深化改革'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{0: '全面'}</t>
+          <t>{0: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼__[1]__育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶上不断取得新进展</t>
+          <t>习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼有所育、学有所教、劳有所得、__[1]__、老有所养、住有所居、弱有所扶上不断取得新进展</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{0: '有所', 1: '冒着', 2: '秘密', 3: '比喻'}</t>
+          <t>{0: '病有所医', 1: '异乎寻常'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{0: '有所'}</t>
+          <t>{0: '病有所医'}</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民办实事的长效机制；以__[1]__基本公共服务均等化为主线，稳扎稳打、持续推进</t>
+          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[2]__的长效机制；以推进基本公共服务__[1]__为主线，稳扎稳打、持续推进</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '均等化', 1: '办实事', 2: '稳扎稳打', 3: '明确要求', 4: '长效机制', 5: '公共服务', 6: '建立健全', 7: '为民'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '均等化', 1: '办实事'}</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我们要建设的现代化是人与自然和谐共生的现代化；统筹污染治理、__[1]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
+          <t>习近平总书记强调，我们要__[2]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[1]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
+          <t>{0: '生态', 1: '建设', 2: '代办', 3: '助手'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{0: '生态'}</t>
+          <t>{0: '生态', 1: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山银山路子走下去，把绿水青山建得更美，把金山银山做得更大</t>
+          <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山__[2]__路子走下去，把绿水青山建得更美，把金山银山做得更大</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山', 1: '卡车司机'}</t>
+          <t>{0: '绿水青山', 1: '银山', 2: '随访', 3: '试探'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山'}</t>
+          <t>{0: '绿水青山', 1: '银山'}</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动社会__[1]__重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
+          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动社会__[1]__重心向基层下移；完善共建共治共享的社会治理制度；建设__[2]__有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
+          <t>{0: '治理', 1: '人人', 2: '转往', 3: '换文'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{0: '治理'}</t>
+          <t>{0: '治理', 1: '人人'}</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>明确要求浙江，从现代化总布局中谋划推进平安浙江建设；__[1]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
+          <t>明确要求__[2]__，从现代化总布局中谋划推进平安浙江建设；__[1]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
+          <t>{0: '治理', 1: '浙江', 2: '室里', 3: '已婚'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{0: '治理'}</t>
+          <t>{0: '治理', 1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是党的领导的最高原则；不断完善党的领导制度体系；以党的政治__[1]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
+          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[2]__的最高原则；不断完善党的领导制度体系；以党的政治__[1]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '建设', 1: '党的领导', 2: '躲过', 3: '该店'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '建设', 1: '党的领导'}</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]__从严治党永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗</t>
+          <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]____[2]__永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
+          <t>{0: '全面', 1: '从严治党', 2: '可有', 3: '珍珠'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{0: '全面'}</t>
+          <t>{0: '全面', 1: '从严治党'}</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>“5大战略指引、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[1]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
+          <t>“5大战略__[2]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[1]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{0: '浙江', 1: '指引', 2: '政权', 3: '战俘'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{0: '浙江', 1: '指引'}</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“八八战略”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果</t>
+          <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“__[2]__”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{0: '习近平', 1: '八八战略', 2: '一条龙'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{0: '习近平', 1: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，__[1]__坚定不移沿着总书记指引的方向奋勇前进，才能闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
+          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，__[1]__坚定不移沿着总书记指引的方向奋勇前进，才能闯出新路、__[2]__使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{0: '唯有', 1: '专场', 2: '介绍', 3: '特等'}</t>
+          <t>{0: '唯有', 1: '不负', 2: '关闭', 3: '小型'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{0: '唯有'}</t>
+          <t>{0: '唯有', 1: '不负'}</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“八八战略”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
+          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“__[2]__”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{0: '根脉'}</t>
+          <t>{0: '根脉', 1: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>总体要求：坚持以习近平新时代中国特色社会主义思想为指导，__[1]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
+          <t>总体要求：__[2]__以习近平新时代中国特色社会主义思想为指导，__[1]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
+          <t>{0: '全面', 1: '坚持', 2: '可有', 3: '珍珠'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{0: '全面'}</t>
+          <t>{0: '全面', 1: '坚持'}</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新体系、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果</t>
+          <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新__[2]__、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '可有', 2: '珍珠', 3: '白花'}</t>
+          <t>{0: '全面', 1: '体系', 2: '可有', 3: '珍珠'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{0: '全面'}</t>
+          <t>{0: '全面', 1: '体系'}</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>全省地区生产总值__[1]__12万亿元，人均地区生产总值达到17万元，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平</t>
+          <t>全省地区生产总值__[1]__12万亿元，人均地区生产总值达到17__[2]__，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{0: '达到', 1: '去留', 2: '一边', 3: '四周'}</t>
+          <t>{0: '达到', 1: '万元', 2: '去留', 3: '一边'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{0: '达到'}</t>
+          <t>{0: '达到', 1: '万元'}</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际双循环战略枢纽建设再上台阶</t>
+          <t>人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际__[2]__战略枢纽建设再上台阶</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '建设', 1: '双循环', 2: '躲过', 3: '该店'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '建设', 1: '双循环'}</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“掌上办事之省”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进</t>
+          <t>__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“掌上办事__[2]__”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '弟子', 2: '清扫', 3: '太后'}</t>
+          <t>{0: '数字', 1: '之省', 2: '弟子', 3: '清扫'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{0: '数字'}</t>
+          <t>{0: '数字', 1: '之省'}</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>__[1]__人民民主深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
+          <t>__[1]__人民__[2]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{0: '全过程'}</t>
+          <t>{0: '全过程', 1: '民主'}</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>各领域法治化水平全面提升，基层__[1]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
+          <t>各领域__[2]__水平全面提升，基层__[1]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '室里', 2: '已婚', 3: '等候'}</t>
+          <t>{0: '治理', 1: '法治化', 2: '远征队'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{0: '治理'}</t>
+          <t>{0: '治理', 1: '法治化'}</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显浙江深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江</t>
+          <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显__[2]__深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '文化', 1: '浙江', 2: '人工', 3: '海伦'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '文化', 1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>收入分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[1]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
+          <t>__[2]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[1]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{0: '居民收入', 1: '从此以后'}</t>
+          <t>{0: '居民收入', 1: '收入', 2: '东河', 3: '祥云'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{0: '居民收入'}</t>
+          <t>{0: '居民收入', 1: '收入'}</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，知识型社会和共建共享型社会加快形成</t>
+          <t>高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，__[2]__社会和共建共享型社会加快形成</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{0: '公共服务', 1: '从此以后'}</t>
+          <t>{0: '公共服务', 1: '知识型', 2: '送交给'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{0: '公共服务'}</t>
+          <t>{0: '公共服务', 1: '知识型'}</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>生态环境质量持续改善，地表水省控断面达到或优于Ш类水体比例超过__[1]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
+          <t>生态环境质量持续改善，地表水__[2]__断面达到或优于Ш类水体比例超过__[1]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{0: '95', 1: '匆忙', 2: '切切', 3: '角色'}</t>
+          <t>{0: '95', 1: '省控', 2: '匆忙', 3: '切切'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{0: '95'}</t>
+          <t>{0: '95', 1: '省控'}</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>全体人民普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[1]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
+          <t>全体__[2]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[1]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{0: '素养', 1: '合营', 2: '启运', 3: '恰遇'}</t>
+          <t>{0: '素养', 1: '人民', 2: 'BP', 3: '已是'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{0: '素养'}</t>
+          <t>{0: '素养', 1: '人民'}</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]__制胜，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势</t>
+          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]____[2]__，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '惨状', 2: '已用', 3: '长达'}</t>
+          <t>{0: '创新', 1: '制胜', 2: '惨状', 3: '已用'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{0: '创新'}</t>
+          <t>{0: '创新', 1: '制胜'}</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>二是变革__[1]__，全面构建共同富裕和现代化新体系，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力</t>
+          <t>二是变革__[1]__，全面构建共同富裕和现代化新__[2]__，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{0: '重塑', 1: '到校', 2: '来厂', 3: '事假'}</t>
+          <t>{0: '重塑', 1: '体系', 2: '三两', 3: '右边'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{0: '重塑'}</t>
+          <t>{0: '重塑', 1: '体系'}</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、转危为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量</t>
+          <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、__[2]__为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '自幼', 2: '南社', 3: '末年'}</t>
+          <t>{0: '安全', 1: '转危', 2: '自幼', 3: '南社'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{0: '安全'}</t>
+          <t>{0: '安全', 1: '转危'}</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、先富带后富，形成__[1]__、共创美好生活的新理念新机制新气象</t>
+          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[2]__带后富，形成__[1]__、共创美好生活的新理念新机制新气象</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{0: '共同奋斗'}</t>
+          <t>{0: '共同奋斗', 1: '先富'}</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>五是唯实惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[1]__、干一件、成一件，形成全社会实干争先的激情活力</t>
+          <t>五是__[2]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[1]__、干一件、成一件，形成全社会实干争先的激情活力</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{0: '一件'}</t>
+          <t>{0: '一件', 1: '唯实'}</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>统筹__[1]__人才、科技工作，推进创新链产业链深度融合，加快构建现代科创体系和产业体系，推进经济稳进提质</t>
+          <t>统筹推进人才、科技工作，推进创新链产业链深度融合，加快构建现代__[1]__体系和产业体系，推进经济__[2]__提质</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{0: '推进', 1: '金锭', 2: '尊容', 3: '出名'}</t>
+          <t>{0: '科创', 1: '稳进', 2: '酗酒', 3: '曾因'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{0: '推进'}</t>
+          <t>{0: '科创', 1: '稳进'}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>构建以国家__[1]__和全国重点实验室为龙头的新型实验室体系、以国家产业创新中心为重点的产业创新体系，建设大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
+          <t>构建以国家__[1]__和全国重点实验室为龙头的新型实验室体系、以国家产业__[2]__中心为重点的产业创新体系，建设大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{0: '实验室'}</t>
+          <t>{0: '实验室', 1: '创新'}</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、高技能人才队伍，打造战略人才力量</t>
+          <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、__[2]__人才队伍，打造战略人才力量</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
+          <t>{0: '人才', 1: '高技能', 2: '优秀青年', 3: '人才队伍', 4: '鲲鹏', 5: '领军', 6: '卓越', 7: '工程师'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{0: '人才'}</t>
+          <t>{0: '人才', 1: '高技能'}</t>
         </is>
       </c>
     </row>
@@ -2556,17 +2556,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才高地和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的贡献度</t>
+          <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才__[2]__和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的贡献度</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '低头', 2: '海伦', 3: '除夕'}</t>
+          <t>{0: '人才', 1: '高地', 2: '都由', 3: '作法'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{0: '人才'}</t>
+          <t>{0: '人才', 1: '高地'}</t>
         </is>
       </c>
     </row>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>深化国家__[1]__经济创新发展试验区建设，推进规上企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统</t>
+          <t>深化国家__[1]__经济创新发展试验区建设，推进__[2]__企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '弟子', 2: '清扫', 3: '太后'}</t>
+          <t>{0: '数字', 1: '规上', 2: '弟子', 3: '清扫'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{0: '数字'}</t>
+          <t>{0: '数字', 1: '规上'}</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2596,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，积极参与国内国际规则制定</t>
+          <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，__[2]__国内国际规则制定</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{0: '办好', 1: '逆向', 2: '反向', 3: '丛林'}</t>
+          <t>{0: '办好', 1: '积极参与', 2: '逆向', 3: '反向'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{0: '办好'}</t>
+          <t>{0: '办好', 1: '积极参与'}</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[1]__、质量强省</t>
+          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海__[2]__等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[1]__、质量强省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
+          <t>{0: '强省', 1: '空天', 2: '白洋', 3: '摊商'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{0: '强省'}</t>
+          <t>{0: '强省', 1: '空天'}</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2636,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“415X”先进制造业集群，建设世界一流科技园区</t>
+          <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“__[2]__”先进制造业集群，建设世界一流科技园区</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{0: '提档', 1: '钱瑛', 2: '温妮', 3: '曾和'}</t>
+          <t>{0: '提档', 1: '415X', 2: '钱瑛', 3: '温妮'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{0: '提档'}</t>
+          <t>{0: '提档', 1: '415X'}</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2656,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>引领__[1]__风气之先，一体推进全面深化改革、共同富裕示范区重大改革和数字化改革取得更大突破</t>
+          <t>引领__[1]____[2]__，一体推进全面深化改革、共同富裕示范区重大改革和数字化改革取得更大突破</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
+          <t>{0: '改革', 1: '风气之先', 2: '约定', 3: '雪峰'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{0: '改革'}</t>
+          <t>{0: '改革', 1: '风气之先'}</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>构建数据集成、“__[1]__”辅助的决策支撑体系，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面筑牢网络安全根基</t>
+          <t>构建数据集成、“__[1]__”辅助的决策__[2]__，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面筑牢网络安全根基</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{0: '大脑', 1: '怀远', 2: '常驻', 3: '饭店'}</t>
+          <t>{0: '大脑', 1: '支撑体系', 2: '怀远', 3: '常驻'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{0: '大脑'}</t>
+          <t>{0: '大脑', 1: '支撑体系'}</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>以__[1]__提低、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
+          <t>以__[1]____[2]__、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{0: '扩中'}</t>
+          <t>{0: '扩中', 1: '提低'}</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>加强重大改革“一本账”“全周期”管理，强化多跨协同、__[1]__，加快取得更多机制性制度性成果</t>
+          <t>加强重大改革“一本账”“全周期”管理，强化多跨协同、__[1]__，加快取得更多机制性__[2]__成果</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{0: '系统集成'}</t>
+          <t>{0: '系统集成', 1: '制度性'}</t>
         </is>
       </c>
     </row>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>促进“两个健康”，稳定预期、提振信心，塑造新时代__[1]__精神，拓展民营经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
+          <t>促进“两个健康”，稳定预期、提振信心，塑造新时代__[1]__精神，拓展__[2]__经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{0: '企业家', 1: '第三段'}</t>
+          <t>{0: '企业家', 1: '民营', 2: '第三段'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{0: '企业家'}</t>
+          <t>{0: '企业家', 1: '民营'}</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“雄鹰行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计助企纾困</t>
+          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“雄鹰行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计__[2]__</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{0: '行动', 1: '发愁', 2: '每百', 3: '还给'}</t>
+          <t>{0: '行动', 1: '助企纾困', 2: '雄鹰', 3: '工商户', 4: '减负', 5: '市场主体', 6: '长效机制', 7: '千方百计'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{0: '行动'}</t>
+          <t>{0: '行动', 1: '助企纾困'}</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>依法平等保护各类市场主体合法权益，__[1]__要素市场化配置改革，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
+          <t>依法平等保护各类市场主体合法权益，__[1]__要素市场化配置__[2]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '雨衣', 2: '拿起', 3: '披上'}</t>
+          <t>{0: '深化', 1: '改革', 2: '雨衣', 3: '拿起'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{0: '深化'}</t>
+          <t>{0: '深化', 1: '改革'}</t>
         </is>
       </c>
     </row>
@@ -2796,17 +2796,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>实施强化反垄断、推进公平竞争集成改革，促进平台经济__[1]__创新发展，规范和引导资本健康发展</t>
+          <t>实施强化__[2]__、推进公平竞争集成改革，促进平台经济__[1]__创新发展，规范和引导资本健康发展</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{0: '规范', 1: '飞去', 2: '抱着', 3: '馆长'}</t>
+          <t>{0: '规范', 1: '反垄断', 2: '穷山沟', 3: '门巴族'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{0: '规范'}</t>
+          <t>{0: '规范', 1: '反垄断'}</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深度融入全国统一大市场，建设市场强省，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的__[1]__</t>
+          <t>深度融入全国统一大市场，建设市场__[2]__，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的__[1]__</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{0: '双循环', 1: '杨善洲'}</t>
+          <t>{0: '双循环', 1: '强省', 2: '间或', 3: '擦洗'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{0: '双循环'}</t>
+          <t>{0: '双循环', 1: '强省'}</t>
         </is>
       </c>
     </row>
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>加快__[1]__高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“两进一出”工程，构建品质消费普及普惠体系</t>
+          <t>加快__[1]__高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“__[2]__一出”工程，构建品质消费普及普惠体系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '建设', 1: '两进', 2: '躲过', 3: '该店'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '建设', 1: '两进'}</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2856,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、绿色美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域高质量发展示范点和上海虹桥国际开放枢纽南向拓展带</t>
+          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、__[2]__美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域高质量发展示范点和上海虹桥国际开放枢纽南向拓展带</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{0: '长三角', 1: '事务长', 2: '放火烧', 3: '救济款'}</t>
+          <t>{0: '长三角', 1: '绿色', 2: '和尚', 3: '不详'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{0: '长三角'}</t>
+          <t>{0: '长三角', 1: '绿色'}</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>高标准建设__[1]__试验区，争创大宗商品特色自由贸易港，探索建立以投资贸易自由化便利化为核心的制度体系</t>
+          <t>高标准建设__[1]__试验区，__[2]__大宗商品特色自由贸易港，探索建立以投资贸易自由化便利化为核心的制度体系</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{0: '自贸', 1: '争创', 2: '便利化', 3: '高标准', 4: '试验区', 5: '自由化', 6: '自由贸易', 7: '探索'}</t>
+          <t>{0: '自贸', 1: '争创', 2: '未加', 3: '难产'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{0: '自贸'}</t>
+          <t>{0: '自贸', 1: '争创'}</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>打造全球数字贸易中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[1]__一体化和国际贸易综合改革，推动贸易高质量发展</t>
+          <t>打造全球数字贸易中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[1]__一体化和国际贸易综合改革，推动贸易__[2]__</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{0: '内外贸', 1: '临死前'}</t>
+          <t>{0: '内外贸', 1: '高质量发展', 2: '贸易', 3: '贸易中心', 4: '增长点', 5: '国际贸易', 6: '外贸', 7: '一体化'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{0: '内外贸'}</t>
+          <t>{0: '内外贸', 1: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>纵深推进__[1]__开放大通道建设，推动义新欧班列高质量发展，推动数字技术和产业走向“一带一路”</t>
+          <t>纵深推进__[1]__开放大通道建设，推动__[2]__班列高质量发展，推动数字技术和产业走向“一带一路”</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '大通道', 4: '推动', 5: '纵深', 6: '开放', 7: '数字'}</t>
+          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '高质量发展', 4: '大通道', 5: '推动', 6: '纵深', 7: '开放'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{0: '义甬舟'}</t>
+          <t>{0: '义甬舟', 1: '义新欧'}</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、四极辐射、山海互济、全域美丽”空间格局</t>
+          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、四极辐射、山海互济、__[2]__美丽”空间格局</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{0: '一湾'}</t>
+          <t>{0: '一湾', 1: '全域'}</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和金衢丽三大现代产业带</t>
+          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和__[2]__丽三大现代产业带</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{0: '温台', 1: '党证', 2: '撕掉', 3: '答对'}</t>
+          <t>{0: '温台', 1: '金衢', 2: '必要', 3: '本党'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{0: '温台'}</t>
+          <t>{0: '温台', 1: '金衢'}</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2976,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>唱好__[1]__“双城记”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
+          <t>唱好__[1]__“__[2]__”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{0: '杭甬', 1: '说谎', 2: '嫉妒', 3: '厌恶'}</t>
+          <t>{0: '杭甬', 1: '双城记', 2: '队委会', 3: '救济款'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{0: '杭甬'}</t>
+          <t>{0: '杭甬', 1: '双城记'}</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2996,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，共建国家城乡融合发展试验区</t>
+          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，共建国家城乡融合发展__[2]__</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '国光', 2: '据理', 3: '操起'}</t>
+          <t>{0: '城市', 1: '试验区', 2: '以至于'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{0: '城市'}</t>
+          <t>{0: '城市', 1: '试验区'}</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新省际合作建设__[1]__边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
+          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新__[2]__合作建设__[1]__边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{0: '四省'}</t>
+          <t>{0: '四省', 1: '省际'}</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型基础设施网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
+          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型__[2]__网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{0: '设施', 1: '行长', 2: '求人', 3: '生为'}</t>
+          <t>{0: '设施', 1: '基础设施', 2: '行长', 3: '求人'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{0: '设施'}</t>
+          <t>{0: '设施', 1: '基础设施'}</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>加快海洋强省建设，把宁波舟山海域__[1]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
+          <t>加快__[2]__强省建设，把宁波舟山海域__[1]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{0: '海岛', 1: '公方', 2: '舞弊', 3: '论战'}</t>
+          <t>{0: '海岛', 1: '海洋', 2: '公方', 3: '舞弊'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{0: '海岛'}</t>
+          <t>{0: '海岛', 1: '海洋'}</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>打造山海协作工程升级版，推进科创__[1]__、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
+          <t>打造山海协作工程升级版，推进__[2]____[1]__、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{0: '飞地', 1: '回厂', 2: '张洁', 3: '置备'}</t>
+          <t>{0: '飞地', 1: '科创', 2: '回厂', 3: '张洁'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{0: '飞地'}</t>
+          <t>{0: '飞地', 1: '科创'}</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>加强县城补短板强弱项，提升发展__[1]__、特色小镇，推动千年古城复兴，重塑县域活力，培育现代化城市</t>
+          <t>加强县城__[2]__板强弱项，提升发展__[1]__、特色小镇，推动千年古城复兴，重塑县域活力，培育现代化城市</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{0: '中心镇', 1: '倪志钦', 2: '领教过'}</t>
+          <t>{0: '中心镇', 1: '补短', 2: '倪志钦', 3: '领教过'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{0: '中心镇'}</t>
+          <t>{0: '中心镇', 1: '补短'}</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>实施“科技__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”农合联改革，大力发展高效生态农业</t>
+          <t>实施“科技__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”__[2]__联改革，大力发展高效生态农业</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{0: '强农', 1: '病室', 2: '据信'}</t>
+          <t>{0: '强农', 1: '农合', 2: '病室', 3: '据信'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{0: '强农'}</t>
+          <t>{0: '强农', 1: '农合'}</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非农化”、防止基本农田“非粮化”，全力打好粮食安全保卫战</t>
+          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非__[2]__”、防止基本农田“非粮化”，全力打好粮食安全保卫战</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{0: '耕地', 1: '达利', 2: '波普', 3: '五洲'}</t>
+          <t>{0: '耕地', 1: '农化', 2: '达利', 3: '波普'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{0: '耕地'}</t>
+          <t>{0: '耕地', 1: '农化'}</t>
         </is>
       </c>
     </row>
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>深化以集体经济为核心的强村富民__[1]__集成改革，稳慎探索农村土地制度改革，打造数字乡村引领区</t>
+          <t>深化以集体经济为核心的__[2]__富民__[1]__集成改革，稳慎探索农村土地制度改革，打造数字乡村引领区</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{0: '乡村', 1: '大战', 2: '特准'}</t>
+          <t>{0: '乡村', 1: '强村', 2: '古物', 3: '起卸'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{0: '乡村'}</t>
+          <t>{0: '乡村', 1: '强村'}</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3176,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>深化“两进两回”，促进__[1]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入均衡化、产业发展融合化</t>
+          <t>深化“两进两回”，促进__[1]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入__[2]__、产业发展融合化</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{0: '城乡', 1: '躲过', 2: '出事', 3: '皇后'}</t>
+          <t>{0: '城乡', 1: '均衡化', 2: '马喜光'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{0: '城乡'}</t>
+          <t>{0: '城乡', 1: '均衡化'}</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3196,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督硬核成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法履职，完善民主民意表达平台</t>
+          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督__[2]__成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法履职，完善民主民意表达平台</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{0: '人大', 1: '希尔', 2: '手套', 3: '丛林'}</t>
+          <t>{0: '人大', 1: '硬核', 2: '业务', 3: '邮电'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{0: '人大'}</t>
+          <t>{0: '人大', 1: '硬核'}</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>推动政协更好成为“重要阵地、重要平台、重要渠道”，构建__[1]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生议事堂”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
+          <t>推动政协更好成为“重要阵地、重要平台、重要渠道”，构建__[1]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生__[2]__”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{0: '协商', 1: '钟爱', 2: '着迷', 3: '出生'}</t>
+          <t>{0: '协商', 1: '议事堂', 2: '重要', 3: '履职', 4: '民主监督', 5: '制度化', 6: '政协', 7: '议政'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{0: '协商'}</t>
+          <t>{0: '协商', 1: '议事堂'}</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]__联络站，打造践行全过程人民民主基层单元，深化民生实事项目人大代表票决制</t>
+          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]__联络站，打造践行全过程人民民主基层单元，深化民生实事项目人大代表__[2]__制</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '票决', 2: '联络站', 3: '迭代', 4: '园区', 5: '实事', 6: '全过程', 7: '开发区'}</t>
+          <t>{0: '人大代表', 1: '票决', 2: '吸吮', 3: '奶汁'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{0: '人大代表'}</t>
+          <t>{0: '人大代表', 1: '票决'}</t>
         </is>
       </c>
     </row>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>健全基层群众自治制度，深化“村民说事”“民主恳谈”等实践，推进村级__[1]__协商创新实验试点，完善街道社区党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
+          <t>健全基层群众自治制度，深化“村民说事”“民主__[2]__”等实践，推进村级__[1]__协商创新实验试点，完善街道社区党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{0: '议事', 1: '双倍', 2: '飞腾', 3: '萎缩'}</t>
+          <t>{0: '议事', 1: '恳谈', 2: '双倍', 3: '飞腾'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{0: '议事'}</t>
+          <t>{0: '议事', 1: '恳谈'}</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>完善大__[1]__格局，实施“同心共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“浙里一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
+          <t>完善大__[1]__格局，实施“同心共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“__[2]__一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{0: '统战工作'}</t>
+          <t>{0: '统战工作', 1: '浙里'}</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>推行以精神富有为标志的__[1]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
+          <t>推行以精神__[2]__为标志的__[1]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '文化', 1: '富有', 2: '人工', 3: '海伦'}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '文化', 1: '富有'}</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释传播体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设社科__[1]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
+          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释__[2]__体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设社科__[1]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
+          <t>{0: '强省', 1: '传播', 2: '停建', 3: '仅剩'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{0: '强省'}</t>
+          <t>{0: '强省', 1: '传播'}</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”省域文明实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
+          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”省域__[2]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{0: '公民道德', 1: '文明', 2: '触达', 3: '全域', 4: '推进', 5: '家风', 6: '家教', 7: '有礼'}</t>
+          <t>{0: '公民道德', 1: '文明', 2: '瞒着', 3: '住处'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{0: '公民道德'}</t>
+          <t>{0: '公民道德', 1: '文明'}</t>
         </is>
       </c>
     </row>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>深化新时代文艺精品创优工程，建设之江艺术长廊，提升大运河国家__[1]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大遗址群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
+          <t>深化新时代文艺精品创优工程，建设之江艺术长廊，提升大运河国家__[1]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大__[2]__群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '文化', 1: '遗址', 2: '包办', 3: '得了'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '文化', 1: '遗址'}</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行全民科学素质行动计划、公众人文素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
+          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行全民科学素质行动计划、公众__[2]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{0: '文化', 1: '人文', 2: '人工', 3: '海伦'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{0: '文化', 1: '人文'}</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3396,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进文旅深度融合，创建全域旅游示范省</t>
+          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进__[2]__深度融合，创建全域旅游示范省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{0: '文创', 1: '潘金', 2: '钱瑛', 3: '火急'}</t>
+          <t>{0: '文创', 1: '文旅', 2: '桂金', 3: '钱瑛'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{0: '文创'}</t>
+          <t>{0: '文创', 1: '文旅'}</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>全面提升__[1]__建设战略地位，健全为民办实事长效机制，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
+          <t>全面提升__[1]__建设__[3]__，健全为民__[2]__长效机制，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '虎林', 2: '东一', 3: '仅剩'}</t>
+          <t>{0: '社会', 1: '办实事', 2: '战略地位', 3: '长效机制', 4: '为民', 5: '统筹', 6: '社会保障', 7: '单元'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{0: '社会'}</t>
+          <t>{0: '社会', 1: '办实事', 2: '战略地位'}</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>更大力度建设教育强省，率先实现基础教育均衡优质、高等教育__[1]__普及和普惠性人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
+          <t>更大力度建设教育__[2]__，率先实现基础教育均衡优质、高等教育__[1]__普及和__[3]__人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{0: '高水平'}</t>
+          <t>{0: '高水平', 1: '强省', 2: '普惠性'}</t>
         </is>
       </c>
     </row>
@@ -3456,17 +3456,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>深化健康浙江__[1]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家医学中心、中医药综合改革示范区，打造公共卫生最安全省份</t>
+          <t>深化__[2]__浙江__[1]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家__[3]__、中医药综合改革示范区，打造公共卫生最安全省份</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{0: '建设', 1: '健康', 2: '医学中心', 3: '寥寥'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{0: '建设', 1: '健康', 2: '医学中心'}</t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>积极应对人口老龄化，探索“一老一小”整体解决方案，完善__[1]__养老、育儿服务和政策体系</t>
+          <t>积极应对__[3]__，探索“__[2]__一小”整体解决方案，完善__[1]__养老、育儿服务和政策体系</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{0: '普惠性'}</t>
+          <t>{0: '普惠性', 1: '一老', 2: '人口老龄化'}</t>
         </is>
       </c>
     </row>
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>积极稳妥推进企业职工基本__[1]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，健全多层次医疗保障体系，发展惠民型商业补充医疗保险，探索建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
+          <t>积极稳妥推进企业职工基本__[1]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，__[2]__多层次医疗保障体系，发展惠民型商业补充医疗保险，__[3]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{0: '养老保险', 1: '健全', 2: '探索', 3: '职工基本', 4: '提标', 5: '扩面', 6: '完善', 7: '退役军人'}</t>
+          <t>{0: '养老保险', 1: '健全', 2: '探索', 3: '求婚'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{0: '养老保险'}</t>
+          <t>{0: '养老保险', 1: '健全', 2: '探索'}</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>探索构建初次__[1]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量就业创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入群体进入中等收入群体行列</t>
+          <t>探索__[2]__初次__[1]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量就业创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入__[3]__进入中等收入群体行列</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{0: '分配', 1: '国耻', 2: '鹦鹉', 3: '有声'}</t>
+          <t>{0: '分配', 1: '构建', 2: '群体', 3: '烧死'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{0: '分配'}</t>
+          <t>{0: '分配', 1: '构建', 2: '群体'}</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>一体推进城乡风貌整治提升和未来__[1]__未来乡村建设，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
+          <t>一体推进__[2]__风貌整治提升和未来__[1]__未来乡村__[3]__，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{0: '社区', 1: '唐克', 2: '进关', 3: '葆华'}</t>
+          <t>{0: '社区', 1: '城乡', 2: '建设', 3: '躲过'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{0: '社区'}</t>
+          <t>{0: '社区', 1: '城乡', 2: '建设'}</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>建立健全国土空间规划体系，全面落实“三区三线”，大力推进__[1]__土地综合整治，打造空间治理数字化改革先行省，构建共富型自然资源政策体系</t>
+          <t>建立健全国土空间规划__[3]__，全面落实“三区三线”，大力推进__[1]__土地综合整治，打造空间治理数字化改革先行省，构建__[2]__自然资源政策体系</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{0: '全域', 1: '被害', 2: '发奖', 3: '交来'}</t>
+          <t>{0: '全域', 1: '共富型', 2: '体系', 3: '三两'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{0: '全域'}</t>
+          <t>{0: '全域', 1: '共富型', 2: '体系'}</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>实施碳达峰方案，高水平建设国家清洁能源示范省，建设绿色制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[1]__转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
+          <t>实施__[3]__方案，高水平建设国家清洁能源示范省，建设__[2]__制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[1]__转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{0: '低碳', 1: '我团', 2: '我社', 3: '审问'}</t>
+          <t>{0: '低碳', 1: '绿色', 2: '碳达峰', 3: '碳汇', 4: '蓝碳', 5: '减污降', 6: '体系', 7: '建设'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{0: '低碳'}</t>
+          <t>{0: '低碳', 1: '绿色', 2: '碳达峰'}</t>
         </is>
       </c>
     </row>
@@ -3596,17 +3596,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>深化清新空气示范区建设和“五水共治”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设全域“无废城市”，加强塑料__[1]__治理，加快构建土壤和地下水污染“防控治”体系</t>
+          <t>深化清新空气示范区建设和“__[2]__”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设__[3]__“无废城市”，加强塑料__[1]__治理，加快构建土壤和地下水污染“防控治”体系</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{0: '污染', 1: '秘书', 2: '维文', 3: '满有'}</t>
+          <t>{0: '污染', 1: '五水共治', 2: '全域', 3: '被害'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{0: '污染'}</t>
+          <t>{0: '污染', 1: '五水共治', 2: '全域'}</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>健全以国家公园为主体的自然保护地体系，推进山水林田湖草生态保护__[1]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
+          <t>健全以国家公园为主体的自然保护地体系，推进山水__[3]__湖草__[2]__保护__[1]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{0: '修复', 1: '头衔', 2: '名额', 3: '群星'}</t>
+          <t>{0: '修复', 1: '生态', 2: '林田', 3: '常备'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{0: '修复'}</t>
+          <t>{0: '修复', 1: '生态', 2: '林田'}</t>
         </is>
       </c>
     </row>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>全面推行__[1]__产品价值实现机制，大力发展特色生态产业，弘扬生态文化，强化全民生态自觉</t>
+          <t>__[2]____[1]__产品价值实现机制，大力发展特色生态产业，__[3]__生态文化，强化全民生态自觉</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '代办', 2: '助手', 3: '临时'}</t>
+          <t>{0: '生态', 1: '全面推行', 2: '弘扬', 3: '全民', 4: '大力发展', 5: '自觉', 6: '强化', 7: '机制'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{0: '生态'}</t>
+          <t>{0: '生态', 1: '全面推行', 2: '弘扬'}</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>深化实施“法助共富、法护平安”专项行动，__[1]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政执法改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
+          <t>__[3]__实施“法助共富、法护平安”专项行动，__[1]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政__[2]__改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{0: '构建', 1: '烧死', 2: '前去', 3: '发红'}</t>
+          <t>{0: '构建', 1: '执法', 2: '深化', 3: '雨衣'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{0: '构建'}</t>
+          <t>{0: '构建', 1: '执法', 2: '深化'}</t>
         </is>
       </c>
     </row>
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设立体化、智能化、法治化社会治安防控体系，常态化扫黑除恶</t>
+          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设立体化、智能化、__[2]__社会治安防控体系，常态化__[3]__除恶</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '自幼', 2: '南社', 3: '末年'}</t>
+          <t>{0: '安全', 1: '法治化', 2: '扫黑', 3: '自幼'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{0: '安全'}</t>
+          <t>{0: '安全', 1: '法治化', 2: '扫黑'}</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，强化网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个最严”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
+          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[2]__网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个__[3]__”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{0: '健全', 1: '求婚', 2: '扶桑', 3: '大发'}</t>
+          <t>{0: '健全', 1: '强化', 2: '最严', 3: '求婚'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{0: '健全'}</t>
+          <t>{0: '健全', 1: '强化', 2: '最严'}</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>健全“141”基层治理体系，__[1]__“四治融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
+          <t>健全“__[3]__”基层__[2]__体系，__[1]__“四治融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '雨衣', 2: '拿起', 3: '披上'}</t>
+          <t>{0: '深化', 1: '治理', 2: '141', 3: '识时务'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{0: '深化'}</t>
+          <t>{0: '深化', 1: '治理', 2: '141'}</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实管党__[1]__政治责任，纵深推进全面从严治党，不断推进以党的自我革命引领社会革命在浙江生动实践</t>
+          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实__[2]____[1]__政治责任，纵深推进全面__[3]__，不断推进以党的自我革命引领社会革命在浙江生动实践</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{0: '治党', 1: '一角', 2: '前夜', 3: '美金'}</t>
+          <t>{0: '治党', 1: '管党', 2: '从严治党', 3: '远渡重洋'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{0: '治党'}</t>
+          <t>{0: '治党', 1: '管党', 2: '从严治党'}</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[1]__群众的共同信仰、处处见效于党员干部群众的共同奋斗</t>
+          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环__[2]__机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[1]__群众的共同信仰、处处见效于党员干部群众的__[3]__</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{0: '党员干部', 1: '世界闻名', 2: '驰名世界', 3: '金质奖章'}</t>
+          <t>{0: '党员干部', 1: '落实', 2: '共同奋斗', 3: '群众', 4: '机制', 5: '八八战略', 6: '两个维护', 7: '闭环'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{0: '党员干部'}</t>
+          <t>{0: '党员干部', 1: '落实', 2: '共同奋斗'}</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>压实__[1]__责任体系，健全省域党内法规制度，完善党对重大工作领导机制，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
+          <t>压实__[1]__责任体系，健全__[3]__党内法规制度，完善党对重大工作领导__[2]__，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
+          <t>{0: '党建', 1: '机制', 2: '省域', 3: '忍痛'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{0: '党建'}</t>
+          <t>{0: '党建', 1: '机制', 2: '省域'}</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>全面落实党管武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民国防教育，持续擦亮 “__[1]__”工作金名片</t>
+          <t>全面落实__[2]__武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民__[3]__，持续擦亮 “__[1]__”工作金名片</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{0: '双拥', 1: '受雇', 2: '过关', 3: '不妙'}</t>
+          <t>{0: '双拥', 1: '党管', 2: '国防教育', 3: '小象'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{0: '双拥'}</t>
+          <t>{0: '双拥', 1: '党管', 2: '国防教育'}</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>迭代升级七张问题清单应用，强化党建统领__[1]__决策落地、重大工作推进、重大风险防控，促进各级党组织领导力、组织力、执行力整体跃升</t>
+          <t>迭代升级__[2]__问题清单应用，强化党建统领__[1]__决策落地、重大工作推进、重大风险防控，促进各级党组织__[3]__、组织力、执行力整体跃升</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{0: '重大', 1: '里外', 2: '人称', 3: '那边'}</t>
+          <t>{0: '重大', 1: '七张', 2: '领导力', 3: '里外'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{0: '重大'}</t>
+          <t>{0: '重大', 1: '七张', 2: '领导力'}</t>
         </is>
       </c>
     </row>
@@ -3836,17 +3836,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>推进__[1]__惟先机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进民呼我为统一平台集成优化</t>
+          <t>推进__[1]____[2]__机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进__[3]__我为统一平台集成优化</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{0: '唯实', 1: '骑警', 2: '奎达'}</t>
+          <t>{0: '唯实', 1: '惟先', 2: '民呼', 3: '机关作风', 4: '减负', 5: '民情', 6: '大兴', 7: '通达'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{0: '唯实'}</t>
+          <t>{0: '唯实', 1: '惟先', 2: '民呼'}</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3856,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导干部政治素质考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治领悟力、政治执行力</t>
+          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导__[3]__政治素质考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治__[2]__、政治执行力</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{0: '政治', 1: '家用', 2: '买下', 3: '河马'}</t>
+          <t>{0: '政治', 1: '领悟力', 2: '干部', 3: '家用'}</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{0: '政治'}</t>
+          <t>{0: '政治', 1: '领悟力', 2: '干部'}</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新时代中国特色社会主义思想教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
+          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新__[3]__中国特色社会主义__[2]__教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{0: '习近平', 1: '思想', 2: '时代', 3: '紫金'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{0: '习近平', 1: '思想', 2: '时代'}</t>
         </is>
       </c>
     </row>
@@ -3896,17 +3896,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部培养选拔计划，常态化推进干部能上能下，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、干部队伍能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
+          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部__[3]__选拔计划，常态化推进干部能上能下，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、__[2]__能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '克隆', 2: '雄踞'}</t>
+          <t>{0: '干部', 1: '干部队伍', 2: '培养', 3: '狂泻'}</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{0: '干部'}</t>
+          <t>{0: '干部', 1: '干部队伍', 2: '培养'}</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>落实“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化干部为事业__[1]__、组织为干部担当良性互动</t>
+          <t>__[2]__“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化__[3]__为事业__[1]__、组织为干部担当良性互动</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{0: '担当', 1: '万年', 2: '人头', 3: '劳改'}</t>
+          <t>{0: '担当', 1: '落实', 2: '干部', 3: '克隆'}</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{0: '担当'}</t>
+          <t>{0: '担当', 1: '落实', 2: '干部'}</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>树牢大抓__[1]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师帮带制”，更好发挥党员先锋模范作用，推动基层党建全省域建强、全领域过硬、全面走在前列</t>
+          <t>__[3]__大抓__[1]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师__[2]__制”，更好发挥党员先锋模范作用，推动基层党建全省域建强、全领域过硬、全面走在前列</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{0: '基层', 1: '打扮', 2: '埋葬', 3: '大公'}</t>
+          <t>{0: '基层', 1: '帮带', 2: '树牢', 3: '市面'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{0: '基层'}</t>
+          <t>{0: '基层', 1: '帮带', 2: '树牢'}</t>
         </is>
       </c>
     </row>
@@ -3956,17 +3956,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>深入推进“百县争创、千乡晋位、万村过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[1]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
+          <t>深入推进“__[2]__争创、千乡__[3]__、万村过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[1]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
+          <t>{0: '党建', 1: '百县', 2: '晋位', 3: '万村', 4: '上统', 5: '下分', 6: '强街', 7: '优社'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{0: '党建'}</t>
+          <t>{0: '党建', 1: '百县', 2: '晋位'}</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>健全“__[1]__”组织党组织实质作用发挥机制，加强机关、国企、学校、公立医院等各领域党建</t>
+          <t>健全“__[1]__”组织党组织实质作用发挥机制，加强机关、国企、学校、__[2]__等各领域__[3]__</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{0: '两新'}</t>
+          <t>{0: '两新', 1: '公立医院', 2: '党建'}</t>
         </is>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>坚持不敢腐、不能腐、不想腐一体推进，同时__[1]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移反腐败防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的腐败案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
+          <t>坚持不敢腐、不能腐、不想腐一体推进，同时__[1]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[2]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[3]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{0: '发力', 1: '沾污', 2: '原系', 3: '乙等'}</t>
+          <t>{0: '发力', 1: '反腐败', 2: '腐败', 3: '沾污'}</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{0: '发力'}</t>
+          <t>{0: '发力', 1: '反腐败', 2: '腐败'}</t>
         </is>
       </c>
     </row>
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>坚决查处享乐奢靡行为，驰而不息纠治形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[1]__正气，以优良党风政风带动社风民风持续向善向好</t>
+          <t>坚决查处享乐奢靡行为，驰而不息__[2]__形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[1]__正气，以优良党风政风带动__[3]__民风持续向善向好</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{0: '树新风', 1: '农场主', 2: '种植者'}</t>
+          <t>{0: '树新风', 1: '纠治', 2: '社风', 3: '征召'}</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{0: '树新风'}</t>
+          <t>{0: '树新风', 1: '纠治', 2: '社风'}</t>
         </is>
       </c>
     </row>
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>加强对“一把手”和领导班子__[1]__，加强年轻干部教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督提质增效</t>
+          <t>加强对“一把手”和领导班子__[1]__，加强年轻干部教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督__[2]____[3]__</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>{0: '监督', 1: '直追', 2: '男女', 3: '屈指'}</t>
+          <t>{0: '监督', 1: '提质', 2: '增效', 3: '周游'}</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{0: '监督'}</t>
+          <t>{0: '监督', 1: '提质', 2: '增效'}</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>健全完善政商交往的正面__[1]__、负面清单、倡导清单，从严规范党员干部行权用权，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
+          <t>健全完善__[2]__交往的正面__[1]__、负面清单、倡导清单，从严规范党员干部行权__[3]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{0: '清单', 1: '自幼', 2: '今晚', 3: '转业'}</t>
+          <t>{0: '清单', 1: '政商', 2: '用权', 3: '序幕'}</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{0: '清单'}</t>
+          <t>{0: '清单', 1: '政商', 2: '用权'}</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>构建__[1]__建设责任共同体，以清廉单元建设为重点，做实做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
+          <t>构建__[1]____[2]__责任共同体，以清廉单元建设为重点，__[3]__做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{0: '清廉', 1: '试制', 2: '赤塔', 3: '上地'}</t>
+          <t>{0: '清廉', 1: '建设', 2: '做实', 3: '试制'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{0: '清廉'}</t>
+          <t>{0: '清廉', 1: '建设', 2: '做实'}</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>各级党组织要更加关心关爱__[1]__，悉心教育引导青年，在新时代伟大实践中培育锻造青年，加快建设青年发展型省份</t>
+          <t>各级党组织要更加关心关爱__[1]__，悉心__[2]__青年，在新时代伟大实践中培育__[3]__青年，加快建设青年发展型省份</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>{0: '青年', 1: '原状', 2: '计税', 3: '一并'}</t>
+          <t>{0: '青年', 1: '教育引导', 2: '锻造', 3: '原状'}</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{0: '青年'}</t>
+          <t>{0: '青年', 1: '教育引导', 2: '锻造'}</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>广大青年要自觉把个人的理想融入中国梦，努力成为志存高远、奋斗自强、品德高尚、追求卓越的新时代好青年，成为堪当推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[1]__”最强音，奋力谱写无愧伟大时代的青春华章！</t>
+          <t>广大青年要自觉把个人的理想融入中国梦，努力成为__[2]__、奋斗自强、品德高尚、追求卓越的新时代好青年，成为__[3]__推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[1]__”最强音，奋力谱写无愧伟大时代的青春华章！</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>{0: '青春', 1: '市外', 2: '收购', 3: '下列'}</t>
+          <t>{0: '青春', 1: '志存高远', 2: '堪当', 3: '市外'}</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{0: '青春'}</t>
+          <t>{0: '青春', 1: '志存高远', 2: '堪当'}</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“八八战略”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
+          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“__[2]__”，坚决做到“__[3]__”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{0: '伟大', 1: '时有', 2: '空白', 3: '设摊'}</t>
+          <t>{0: '伟大', 1: '八八战略', 2: '两个维护', 3: '高质量发展', 4: '省域', 5: '二十大', 6: '共同富裕', 7: '奋斗目标'}</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{0: '伟大'}</t>
+          <t>{0: '伟大', 1: '八八战略', 2: '两个维护'}</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这次大会是我省迈入高水平全面建设社会主义现代化、高质量发展建设共同富裕示范区新征程，召开的第一次__[1]__</t>
+          <t>这次大会是我省迈入高水平全面建设社会主义现代化、__[1]__建设共同富裕示范区新征程，召开的第一次党代会</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: '党代会', 1: '高质量发展', 2: '共同富裕', 3: '征程', 4: '建设', 5: '迈入', 6: '示范区', 7: '高水平'}</t>
+          <t>{1: '共同富裕', 2: '征程', 3: '建设'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{0: '党代会'}</t>
+          <t>{1: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: '八八战略', 1: '两个维护', 2: '高质量发展', 3: '省域', 4: '伟大旗帜', 5: '共同富裕', 6: '习近平', 7: '高举'}</t>
+          <t>{1: '两个维护', 2: '高质量发展', 3: '省域'}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{0: '八八战略'}</t>
+          <t>{1: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{0: '五年', 1: '党代会', 2: '实干', 3: '奋进', 4: '第十四次', 5: '争先', 6: '感恩', 7: '平凡'}</t>
+          <t>{1: '实干', 2: '奋进', 3: '第十四次'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{0: '五年'}</t>
+          <t>{1: '五年'}</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{0: '十九', 1: '活络', 2: '万年', 3: '拍板'}</t>
+          <t>{1: '活络', 2: '万年', 3: '拍板'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{0: '十九'}</t>
+          <t>{1: '十九'}</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{0: '笃行', 1: '租给', 2: '涌进', 3: '住宅'}</t>
+          <t>{1: '租给', 2: '涌进', 3: '住宅'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{0: '笃行'}</t>
+          <t>{1: '笃行'}</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{0: '国之大者', 1: '闭环', 2: '习近平', 3: '见效', 4: '党的领导', 5: '批示', 6: '细化', 7: '建立健全'}</t>
+          <t>{1: '闭环', 2: '习近平', 3: '见效'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{0: '国之大者'}</t>
+          <t>{1: '国之大者'}</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
+          <t>{1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{0: '党建'}</t>
+          <t>{1: '党建'}</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '强基', 2: '整乡', 3: '整县', 4: '提升', 5: '选人', 6: '党建', 7: '全面实施'}</t>
+          <t>{1: '强基', 2: '整乡', 3: '整县'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{0: '根脉'}</t>
+          <t>{1: '根脉'}</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{0: '反腐败', 1: '巡视', 2: '斗争', 3: '追逃', 4: '防逃', 5: '纠治', 6: '惩治腐败', 7: '成效显著'}</t>
+          <t>{1: '巡视', 2: '斗争', 3: '追逃'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{0: '反腐败'}</t>
+          <t>{1: '反腐败'}</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{0: '八八战略', 1: '新篇章', 2: '与时俱进', 3: '建立健全', 4: '忠实', 5: '书写', 6: '改革开放', 7: '深化'}</t>
+          <t>{1: '新篇章', 2: '与时俱进', 3: '建立健全'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{0: '八八战略'}</t>
+          <t>{1: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{0: '千万级', 1: '72.7', 2: '市市通', 3: '县县通', 4: '强港', 5: '城镇化率', 6: '陆域', 7: '建设'}</t>
+          <t>{1: '72.7', 2: '市市通', 3: '县县通'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{0: '千万级'}</t>
+          <t>{1: '千万级'}</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
+          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{0: '强省'}</t>
+          <t>{1: '强省'}</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{0: '勇当', 1: '开路先锋', 2: '脱贫', 3: '经济带', 4: '发展', 5: '攻坚', 6: '对口', 7: '帮扶'}</t>
+          <t>{1: '开路先锋', 2: '脱贫', 3: '经济带'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{0: '勇当'}</t>
+          <t>{1: '勇当'}</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{0: '清零', 1: '外防', 2: '率先', 3: '动态', 4: '内防', 5: '复产', 6: '助企纾困', 7: '智控'}</t>
+          <t>{1: '外防', 2: '率先', 3: '动态'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{0: '清零'}</t>
+          <t>{1: '清零'}</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{0: '共克', 1: '顽强拼搏', 2: '冲锋在前', 3: '阻击战', 4: '万众一心', 5: '广大党员', 6: '遭遇战', 7: '歼灭战'}</t>
+          <t>{1: '顽强拼搏', 2: '冲锋在前', 3: '阻击战'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{0: '共克'}</t>
+          <t>{1: '共克'}</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{0: '生产总值', 1: '2021', 2: '6.7', 3: '11', 4: '稳居', 5: '城乡居民', 6: '超过', 7: '地区'}</t>
+          <t>{1: '2021', 2: '6.7', 3: '11'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{0: '生产总值'}</t>
+          <t>{1: '生产总值'}</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{0: '实验室', 1: '人才', 2: '三大科创', 3: '2.9', 4: '10', 5: '大省', 6: '全域', 7: '省金'}</t>
+          <t>{1: '人才', 2: '三大科创', 3: '2.9'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{0: '实验室'}</t>
+          <t>{1: '实验室'}</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
+          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{0: '强省'}</t>
+          <t>{1: '强省'}</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{0: '民营', 1: '国名', 2: '礼节', 3: '夺走'}</t>
+          <t>{1: '国名', 2: '礼节', 3: '夺走'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{0: '民营'}</t>
+          <t>{1: '民营'}</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{0: '公共数据', 1: '闷闷不乐', 2: '垂头丧气'}</t>
+          <t>{1: '闷闷不乐', 2: '垂头丧气'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{0: '公共数据'}</t>
+          <t>{1: '公共数据'}</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{0: '331', 1: '艾奇逊'}</t>
+          <t>{1: '艾奇逊'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{0: '331'}</t>
+          <t>{1: '331'}</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{0: '群团', 1: '陈封', 2: '掠走', 3: '已用'}</t>
+          <t>{1: '陈封', 2: '掠走', 3: '已用'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{0: '群团'}</t>
+          <t>{1: '群团'}</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
+          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{0: '法治'}</t>
+          <t>{1: '法治'}</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{0: '精神', 1: '开票', 2: '大约', 3: '显明'}</t>
+          <t>{1: '开票', 2: '大约', 3: '显明'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{0: '精神'}</t>
+          <t>{1: '精神'}</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{0: '高质量发展', 1: '迈上', 2: '文明城市', 3: '浙江人', 4: '文化', 5: '礼堂', 6: '新台阶', 7: '中心'}</t>
+          <t>{1: '迈上', 2: '文明城市', 3: '浙江人'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{0: '高质量发展'}</t>
+          <t>{1: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{0: '文脉', 1: '合伙', 2: '服役', 3: '准备'}</t>
+          <t>{1: '合伙', 2: '服役', 3: '准备'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{0: '文脉'}</t>
+          <t>{1: '文脉'}</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{0: '示范', 1: '山上', 2: '遗失', 3: '来日'}</t>
+          <t>{1: '山上', 2: '遗失', 3: '来日'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{0: '示范'}</t>
+          <t>{1: '示范'}</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{0: '填埋', 1: '喜得', 2: '国威', 3: '老友'}</t>
+          <t>{1: '喜得', 2: '国威', 3: '老友'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{0: '填埋'}</t>
+          <t>{1: '填埋'}</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{0: '美丽', 1: '路矿', 2: '本局', 3: '局内'}</t>
+          <t>{1: '路矿', 2: '本局', 3: '局内'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{0: '美丽'}</t>
+          <t>{1: '美丽'}</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{0: '安全观', 1: '正赶上', 2: '印刷工', 3: '高兴得'}</t>
+          <t>{1: '正赶上', 2: '印刷工', 3: '高兴得'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{0: '安全观'}</t>
+          <t>{1: '安全观'}</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{0: '发案', 1: '赠予', 2: '赠给', 3: '哈达'}</t>
+          <t>{1: '赠予', 2: '赠给', 3: '哈达'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{0: '发案'}</t>
+          <t>{1: '发案'}</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{0: '市域', 1: '败露', 2: '丧气', 3: '窘态'}</t>
+          <t>{1: '败露', 2: '丧气', 3: '窘态'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{0: '市域'}</t>
+          <t>{1: '市域'}</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '2017', 2: '红船', 3: '之畔', 4: '赓续', 5: '守好', 6: '特殊使命', 7: '起航'}</t>
+          <t>{1: '2017', 2: '红船', 3: '之畔'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{0: '根脉'}</t>
+          <t>{1: '根脉'}</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{0: '亲自', 1: '消退', 2: '趋于', 3: '趋向'}</t>
+          <t>{1: '消退', 2: '趋于', 3: '趋向'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{0: '亲自'}</t>
+          <t>{1: '亲自'}</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{0: '前所未有', 1: '浙江', 2: '重托', 3: '使命', 4: '注入', 5: '强劲', 6: '高度', 7: '战略'}</t>
+          <t>{1: '浙江', 2: '重托', 3: '使命'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{0: '前所未有'}</t>
+          <t>{1: '前所未有'}</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{0: '指战员', 1: '伪命题', 2: '遗产税', 3: '交易税'}</t>
+          <t>{1: '伪命题', 2: '遗产税', 3: '交易税'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{0: '指战员'}</t>
+          <t>{1: '指战员'}</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '忍痛', 2: '王子', 3: '掠走'}</t>
+          <t>{1: '忍痛', 2: '王子', 3: '掠走'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>{0: '党建'}</t>
+          <t>{1: '党建'}</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{0: '有待', 1: '汉子', 2: '那种', 3: '毅然'}</t>
+          <t>{1: '汉子', 2: '那种', 3: '毅然'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{0: '有待'}</t>
+          <t>{1: '有待'}</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{0: '大好局面', 1: '劈波斩浪', 2: '两个维护', 3: '坚决拥护', 4: '万众一心', 5: '一往无前', 6: '航船', 7: '忠诚'}</t>
+          <t>{1: '劈波斩浪', 2: '两个维护', 3: '坚决拥护'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>{0: '大好局面'}</t>
+          <t>{1: '大好局面'}</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{0: '马克思主义', 1: '时代', 2: '中国', 3: '行动指南', 4: '思想', 5: '全党全国', 6: '中国化', 7: '中华文化'}</t>
+          <t>{1: '时代', 2: '中国', 3: '行动指南'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{0: '马克思主义'}</t>
+          <t>{1: '马克思主义'}</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{0: '成果', 1: '车夫', 2: '扮成', 3: '排队'}</t>
+          <t>{1: '车夫', 2: '扮成', 3: '排队'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{0: '成果'}</t>
+          <t>{1: '成果'}</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{0: '要勇', 1: '国之大者', 2: '从严治党', 3: '根脉', 4: '守好', 5: '全面', 6: '深刻理解', 7: '一要'}</t>
+          <t>{1: '国之大者', 2: '从严治党', 3: '根脉'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>{0: '要勇'}</t>
+          <t>{1: '要勇'}</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{0: '自我', 1: '喜讯', 2: '成行', 3: '远近'}</t>
+          <t>{1: '喜讯', 2: '成行', 3: '远近'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{0: '自我'}</t>
+          <t>{1: '自我'}</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{0: '之源', 1: '使命', 2: '伟大', 3: '初心', 4: '力量之源', 5: '根脉', 6: '革命', 7: '密码'}</t>
+          <t>{1: '使命', 2: '伟大', 3: '初心'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{0: '之源'}</t>
+          <t>{1: '之源'}</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{0: '小康', 1: '保留', 2: '老手', 3: '特工'}</t>
+          <t>{1: '保留', 2: '老手', 3: '特工'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{0: '小康'}</t>
+          <t>{1: '小康'}</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{0: '八八战略', 1: '浙江', 2: '宝贵财富', 3: '用之不竭', 4: '取之不尽', 5: '不断进步', 6: '制胜', 7: '法宝'}</t>
+          <t>{1: '浙江', 2: '宝贵财富', 3: '用之不竭'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{0: '八八战略'}</t>
+          <t>{1: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{0: '为什么', 1: '综合性'}</t>
+          <t>{1: '综合性'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{0: '为什么'}</t>
+          <t>{1: '为什么'}</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{0: '高质量发展', 1: '共同富裕', 2: '现代化', 3: '习近平', 4: '我国', 5: '建设', 6: '中国式', 7: '全局'}</t>
+          <t>{1: '共同富裕', 2: '现代化', 3: '习近平'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{0: '高质量发展'}</t>
+          <t>{1: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '一条龙'}</t>
+          <t>{1: '一条龙'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{0: '习近平'}</t>
+          <t>{1: '习近平'}</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1641,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '躲过', 2: '该店', 3: '顶峰'}</t>
+          <t>{1: '躲过', 2: '该店', 3: '顶峰'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{0: '建设'}</t>
+          <t>{1: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '间或', 2: '擦洗', 3: '小便'}</t>
+          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>{0: '强省'}</t>
+          <t>{1: '强省'}</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{0: '高质量发展', 1: '全面', 2: '改革', 3: '习近平', 4: '新动力', 5: '系统集成', 6: '政府职能', 7: '深化改革'}</t>
+          <t>{1: '全面', 2: '改革', 3: '习近平'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{0: '高质量发展'}</t>
+          <t>{1: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '约定', 2: '雪峰', 3: '披上'}</t>
+          <t>{1: '约定', 2: '雪峰', 3: '披上'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{0: '改革'}</t>
+          <t>{1: '改革'}</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{0: '开放', 1: '住处', 2: '吹牛', 3: '张良'}</t>
+          <t>{1: '住处', 2: '吹牛', 3: '张良'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>{0: '开放'}</t>
+          <t>{1: '开放'}</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '政权', 2: '战俘', 3: '刺刀'}</t>
+          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>{0: '浙江'}</t>
+          <t>{1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{0: '共同富裕', 1: '接二连三', 2: '接连不断'}</t>
+          <t>{1: '接二连三', 2: '接连不断'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{0: '共同富裕'}</t>
+          <t>{1: '共同富裕'}</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{0: '美丽', 1: '路矿', 2: '本局', 3: '局内'}</t>
+          <t>{1: '路矿', 2: '本局', 3: '局内'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{0: '美丽'}</t>
+          <t>{1: '美丽'}</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{0: '上来', 1: '附有', 2: '填补', 3: '亲历'}</t>
+          <t>{1: '附有', 2: '填补', 3: '亲历'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{0: '上来'}</t>
+          <t>{1: '上来'}</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{0: '轨道', 1: '蚂蚁', 2: '三联', 3: '谁家'}</t>
+          <t>{1: '蚂蚁', 2: '三联', 3: '谁家'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>{0: '轨道'}</t>
+          <t>{1: '轨道'}</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
+          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{0: '法治'}</t>
+          <t>{1: '法治'}</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{0: '法治', 1: '围巾', 2: '调换', 3: '隐瞒'}</t>
+          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>{0: '法治'}</t>
+          <t>{1: '法治'}</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人工', 2: '海伦', 3: '直线'}</t>
+          <t>{1: '人工', 2: '海伦', 3: '直线'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{0: '文化'}</t>
+          <t>{1: '文化'}</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{0: '海纳百川', 1: '守正', 2: '强省', 3: '兼收并蓄', 4: '八项', 5: '文化', 6: '建设', 7: '明确要求'}</t>
+          <t>{1: '守正', 2: '强省', 3: '兼收并蓄'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>{0: '海纳百川'}</t>
+          <t>{1: '海纳百川'}</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{0: '病有所医', 1: '异乎寻常'}</t>
+          <t>{1: '异乎寻常'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{0: '病有所医'}</t>
+          <t>{1: '病有所医'}</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[2]__的长效机制；以推进基本公共服务__[1]__为主线，稳扎稳打、持续推进</t>
+          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[1]__的长效机制；以推进基本公共服务__[2]__为主线，稳扎稳打、持续推进</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{0: '均等化', 1: '办实事', 2: '稳扎稳打', 3: '明确要求', 4: '长效机制', 5: '公共服务', 6: '建立健全', 7: '为民'}</t>
+          <t>{2: '稳扎稳打', 1: '办实事', 3: '明确要求'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{0: '均等化', 1: '办实事'}</t>
+          <t>{2: '均等化', 1: '办实事'}</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我们要__[2]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[1]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
+          <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[2]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '建设', 2: '代办', 3: '助手'}</t>
+          <t>{2: '躲过', 1: '建设', 3: '该店'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '建设'}</t>
+          <t>{2: '生态', 1: '建设'}</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山', 1: '银山', 2: '随访', 3: '试探'}</t>
+          <t>{1: '绿水青山', 2: '卡车司机'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{0: '绿水青山', 1: '银山'}</t>
+          <t>{1: '绿水青山', 2: '银山'}</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '人人', 2: '转往', 3: '换文'}</t>
+          <t>{1: '治理', 2: '转往', 3: '换文'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '人人'}</t>
+          <t>{1: '治理', 2: '人人'}</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>明确要求__[2]__，从现代化总布局中谋划推进平安浙江建设；__[1]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
+          <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；__[2]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '浙江', 2: '室里', 3: '已婚'}</t>
+          <t>{2: '室里', 1: '浙江', 3: '已婚'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '浙江'}</t>
+          <t>{2: '治理', 1: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[2]__的最高原则；不断完善党的领导制度体系；以党的政治__[1]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
+          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[1]__的最高原则；不断完善党的领导制度体系；以党的政治__[2]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '党的领导', 2: '躲过', 3: '该店'}</t>
+          <t>{2: '躲过', 1: '党的领导', 3: '该店'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '党的领导'}</t>
+          <t>{2: '建设', 1: '党的领导'}</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '从严治党', 2: '可有', 3: '珍珠'}</t>
+          <t>{1: '全面', 2: '可有', 3: '珍珠'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '从严治党'}</t>
+          <t>{1: '全面', 2: '从严治党'}</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>“5大战略__[2]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[1]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
+          <t>“5大战略__[1]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[2]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '指引', 2: '政权', 3: '战俘'}</t>
+          <t>{2: '政权', 1: '指引', 3: '战俘'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{0: '浙江', 1: '指引'}</t>
+          <t>{2: '浙江', 1: '指引'}</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '八八战略', 2: '一条龙'}</t>
+          <t>{1: '习近平', 2: '付诸实践', 3: '总书记'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '八八战略'}</t>
+          <t>{1: '习近平', 2: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{0: '唯有', 1: '不负', 2: '关闭', 3: '小型'}</t>
+          <t>{1: '唯有', 2: '专场', 3: '介绍'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{0: '唯有', 1: '不负'}</t>
+          <t>{1: '唯有', 2: '不负'}</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '八八战略', 2: '勇立', 3: '奋斗者', 4: '守护者', 5: '锚定', 6: '美好未来', 7: '建设者'}</t>
+          <t>{1: '根脉', 2: '勇立', 3: '奋斗者'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{0: '根脉', 1: '八八战略'}</t>
+          <t>{1: '根脉', 2: '八八战略'}</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>总体要求：__[2]__以习近平新时代中国特色社会主义思想为指导，__[1]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
+          <t>总体要求：__[1]__以习近平新时代中国特色社会主义思想为指导，__[2]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '坚持', 2: '可有', 3: '珍珠'}</t>
+          <t>{2: '瞬间', 1: '坚持', 3: '此处'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '坚持'}</t>
+          <t>{2: '全面', 1: '坚持'}</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '体系', 2: '可有', 3: '珍珠'}</t>
+          <t>{1: '全面', 2: '可有', 3: '珍珠'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{0: '全面', 1: '体系'}</t>
+          <t>{1: '全面', 2: '体系'}</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{0: '达到', 1: '万元', 2: '去留', 3: '一边'}</t>
+          <t>{1: '达到', 2: '交替', 3: '喜欢'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{0: '达到', 1: '万元'}</t>
+          <t>{1: '达到', 2: '万元'}</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '双循环', 2: '躲过', 3: '该店'}</t>
+          <t>{1: '建设', 2: '杨善洲'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '双循环'}</t>
+          <t>{1: '建设', 2: '双循环'}</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '之省', 2: '弟子', 3: '清扫'}</t>
+          <t>{1: '数字', 2: '掌上', 3: '智治'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '之省'}</t>
+          <t>{1: '数字', 2: '之省'}</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{0: '全过程', 1: '民主', 2: '民主协商', 3: '民主选举', 4: '民主监督', 5: '民主决策', 6: '制度', 7: '政治'}</t>
+          <t>{1: '全过程', 2: '民主协商', 3: '民主选举'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{0: '全过程', 1: '民主'}</t>
+          <t>{1: '全过程', 2: '民主'}</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>各领域__[2]__水平全面提升，基层__[1]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
+          <t>各领域__[1]__水平全面提升，基层__[2]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '法治化', 2: '远征队'}</t>
+          <t>{2: '远征队', 1: '法治化'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{0: '治理', 1: '法治化'}</t>
+          <t>{2: '治理', 1: '法治化'}</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '浙江', 2: '人工', 3: '海伦'}</t>
+          <t>{1: '文化', 2: '政权', 3: '战俘'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '浙江'}</t>
+          <t>{1: '文化', 2: '浙江'}</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>__[2]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[1]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
+          <t>__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[2]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{0: '居民收入', 1: '收入', 2: '东河', 3: '祥云'}</t>
+          <t>{2: '东河', 1: '收入', 3: '祥云'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{0: '居民收入', 1: '收入'}</t>
+          <t>{2: '居民收入', 1: '收入'}</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{0: '公共服务', 1: '知识型', 2: '送交给'}</t>
+          <t>{1: '公共服务', 2: '送交给'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>{0: '公共服务', 1: '知识型'}</t>
+          <t>{1: '公共服务', 2: '知识型'}</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>生态环境质量持续改善，地表水__[2]__断面达到或优于Ш类水体比例超过__[1]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
+          <t>生态环境质量持续改善，地表水__[1]__断面达到或优于Ш类水体比例超过__[2]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{0: '95', 1: '省控', 2: '匆忙', 3: '切切'}</t>
+          <t>{2: '无废', 1: '省控', 3: '碳达峰'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{0: '95', 1: '省控'}</t>
+          <t>{2: '95', 1: '省控'}</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>全体__[2]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[1]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
+          <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[2]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{0: '素养', 1: '人民', 2: 'BP', 3: '已是'}</t>
+          <t>{2: 'BP', 1: '人民', 3: '已是'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>{0: '素养', 1: '人民'}</t>
+          <t>{2: '素养', 1: '人民'}</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '制胜', 2: '惨状', 3: '已用'}</t>
+          <t>{1: '创新', 2: '惨状', 3: '已用'}</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>{0: '创新', 1: '制胜'}</t>
+          <t>{1: '创新', 2: '制胜'}</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{0: '重塑', 1: '体系', 2: '三两', 3: '右边'}</t>
+          <t>{1: '重塑', 2: '三两', 3: '右边'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{0: '重塑', 1: '体系'}</t>
+          <t>{1: '重塑', 2: '体系'}</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '转危', 2: '自幼', 3: '南社'}</t>
+          <t>{1: '安全', 2: '为机', 3: '筑牢'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '转危'}</t>
+          <t>{1: '安全', 2: '转危'}</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[2]__带后富，形成__[1]__、共创美好生活的新理念新机制新气象</t>
+          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[1]__带后富，形成__[2]__、共创美好生活的新理念新机制新气象</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{0: '共同奋斗', 1: '先富', 2: '新理念', 3: '四是', 4: '后富', 5: '美好生活', 6: '共创', 7: '新气象'}</t>
+          <t>{2: '新理念', 1: '先富', 3: '四是'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{0: '共同奋斗', 1: '先富'}</t>
+          <t>{2: '共同奋斗', 1: '先富'}</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2476,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>五是__[2]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[1]__、干一件、成一件，形成全社会实干争先的激情活力</t>
+          <t>五是__[1]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[2]__、干一件、成一件，形成全社会实干争先的激情活力</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{0: '一件', 1: '唯实', 2: '敢为人先', 3: '五是', 4: '惟先', 5: '求真务实', 6: '实干', 7: '努力做到'}</t>
+          <t>{2: '敢为人先', 1: '唯实', 3: '五是'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>{0: '一件', 1: '唯实'}</t>
+          <t>{2: '一件', 1: '唯实'}</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{0: '科创', 1: '稳进', 2: '酗酒', 3: '曾因'}</t>
+          <t>{1: '科创', 2: '提质', 3: '体系'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{0: '科创', 1: '稳进'}</t>
+          <t>{1: '科创', 2: '稳进'}</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{0: '实验室', 1: '创新', 2: '建设', 3: '卡脖子', 4: '登峰', 5: '双尖', 6: '双领', 7: '体系'}</t>
+          <t>{1: '实验室', 2: '建设', 3: '卡脖子'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{0: '实验室', 1: '创新'}</t>
+          <t>{1: '实验室', 2: '创新'}</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高技能', 2: '优秀青年', 3: '人才队伍', 4: '鲲鹏', 5: '领军', 6: '卓越', 7: '工程师'}</t>
+          <t>{1: '人才', 2: '优秀青年', 3: '人才队伍'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高技能'}</t>
+          <t>{1: '人才', 2: '高技能'}</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高地', 2: '都由', 3: '作法'}</t>
+          <t>{1: '人才', 2: '都由', 3: '作法'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{0: '人才', 1: '高地'}</t>
+          <t>{1: '人才', 2: '高地'}</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '规上', 2: '弟子', 3: '清扫'}</t>
+          <t>{1: '数字', 2: '弟子', 3: '清扫'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{0: '数字', 1: '规上'}</t>
+          <t>{1: '数字', 2: '规上'}</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{0: '办好', 1: '积极参与', 2: '逆向', 3: '反向'}</t>
+          <t>{1: '办好', 2: '逆向', 3: '反向'}</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>{0: '办好', 1: '积极参与'}</t>
+          <t>{1: '办好', 2: '积极参与'}</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海__[2]__等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[1]__、质量强省</t>
+          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海__[1]__等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[2]__、质量强省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '空天', 2: '白洋', 3: '摊商'}</t>
+          <t>{2: '白洋', 1: '空天', 3: '摊商'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '空天'}</t>
+          <t>{2: '强省', 1: '空天'}</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{0: '提档', 1: '415X', 2: '钱瑛', 3: '温妮'}</t>
+          <t>{1: '提档', 2: '科技园区', 3: '能级'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{0: '提档', 1: '415X'}</t>
+          <t>{1: '提档', 2: '415X'}</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '风气之先', 2: '约定', 3: '雪峰'}</t>
+          <t>{1: '改革', 2: '机组人员'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{0: '改革', 1: '风气之先'}</t>
+          <t>{1: '改革', 2: '风气之先'}</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>构建数据集成、“__[1]__”辅助的决策__[2]__，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面筑牢网络安全根基</t>
+          <t>构建数据集成、“__[1]__”辅助的决策__[2]__，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面__[3]__网络安全根基</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{0: '大脑', 1: '支撑体系', 2: '怀远', 3: '常驻'}</t>
+          <t>{1: '大脑', 2: '支撑体系', 3: '怀远'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>{0: '大脑', 1: '支撑体系'}</t>
+          <t>{1: '大脑', 2: '支撑体系', 3: '筑牢'}</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2696,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>以__[1]____[2]__、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索共富型制度政策体系</t>
+          <t>以__[1]____[2]__、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索__[3]__制度政策体系</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{0: '扩中', 1: '提低', 2: '共富型', 3: '改革', 4: '共同富裕', 5: '牵引', 6: '探索', 7: '深入'}</t>
+          <t>{1: '扩中', 2: '提低', 3: '改革'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>{0: '扩中', 1: '提低'}</t>
+          <t>{1: '扩中', 2: '提低', 3: '共富型'}</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>加强重大改革“一本账”“全周期”管理，强化多跨协同、__[1]__，加快取得更多机制性__[2]__成果</t>
+          <t>加强重大改革“一本账”“全周期”管理，强化多跨__[1]__、__[2]__，加快取得更多机制性__[3]__成果</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{0: '系统集成', 1: '制度性', 2: '协同', 3: '一本', 4: '成果', 5: '强化', 6: '周期', 7: '机制'}</t>
+          <t>{2: '系统集成', 3: '一本', 1: '协同'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{0: '系统集成', 1: '制度性'}</t>
+          <t>{2: '系统集成', 3: '制度性', 1: '协同'}</t>
         </is>
       </c>
     </row>
@@ -2736,17 +2736,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>促进“两个健康”，稳定预期、提振信心，塑造新时代__[1]__精神，拓展__[2]__经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
+          <t>促进“两个健康”，稳定预期、__[1]__信心，塑造新时代__[2]__精神，拓展__[3]__经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{0: '企业家', 1: '民营', 2: '第三段'}</t>
+          <t>{2: '企业家', 3: '第三段', 1: '提振'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{0: '企业家', 1: '民营'}</t>
+          <t>{2: '企业家', 3: '民营', 1: '提振'}</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2756,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“雄鹰行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计__[2]__</t>
+          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“__[2]__行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计__[3]__</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{0: '行动', 1: '助企纾困', 2: '雄鹰', 3: '工商户', 4: '减负', 5: '市场主体', 6: '长效机制', 7: '千方百计'}</t>
+          <t>{1: '行动', 3: '发愁', 2: '雄鹰'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>{0: '行动', 1: '助企纾困'}</t>
+          <t>{1: '行动', 3: '助企纾困', 2: '雄鹰'}</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2776,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>依法平等保护各类市场主体合法权益，__[1]__要素市场化配置__[2]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
+          <t>依法平等保护各类__[1]__合法权益，__[2]__要素市场化配置__[3]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '改革', 2: '雨衣', 3: '拿起'}</t>
+          <t>{2: '深化', 3: '雨衣', 1: '市场主体'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '改革'}</t>
+          <t>{2: '深化', 3: '改革', 1: '市场主体'}</t>
         </is>
       </c>
     </row>
@@ -2796,17 +2796,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>实施强化__[2]__、推进公平竞争集成改革，促进平台经济__[1]__创新发展，规范和引导资本健康发展</t>
+          <t>实施强化__[1]__、推进__[2]__集成改革，促进平台经济__[3]__创新发展，规范和引导资本健康发展</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{0: '规范', 1: '反垄断', 2: '穷山沟', 3: '门巴族'}</t>
+          <t>{3: '集成', 1: '反垄断', 2: '公平竞争'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{0: '规范', 1: '反垄断'}</t>
+          <t>{3: '规范', 1: '反垄断', 2: '公平竞争'}</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深度融入全国统一大市场，建设市场__[2]__，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级高效率的__[1]__</t>
+          <t>深度融入全国统一大市场，建设市场__[1]__，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级__[2]__的__[3]__</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{0: '双循环', 1: '强省', 2: '间或', 3: '擦洗'}</t>
+          <t>{3: '能级', 1: '强省', 2: '高效率'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{0: '双循环', 1: '强省'}</t>
+          <t>{3: '双循环', 1: '强省', 2: '高效率'}</t>
         </is>
       </c>
     </row>
@@ -2836,17 +2836,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>加快__[1]__高标准市场体系，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“__[2]__一出”工程，构建品质消费普及普惠体系</t>
+          <t>加快__[1]__高标准市场__[2]__，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“__[3]__一出”工程，构建品质消费普及普惠体系</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '两进', 2: '躲过', 3: '该店'}</t>
+          <t>{1: '建设', 3: '消费型', 2: '体系'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '两进'}</t>
+          <t>{1: '建设', 3: '两进', 2: '体系'}</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2856,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、__[2]__美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域高质量发展示范点和上海虹桥国际开放枢纽南向拓展带</t>
+          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、__[2]__美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域__[3]__示范点和上海虹桥国际开放枢纽南向拓展带</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{0: '长三角', 1: '绿色', 2: '和尚', 3: '不详'}</t>
+          <t>{1: '长三角', 2: '绿色', 3: '嘉善'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{0: '长三角', 1: '绿色'}</t>
+          <t>{1: '长三角', 2: '绿色', 3: '高质量发展'}</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2876,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>高标准建设__[1]__试验区，__[2]__大宗商品特色自由贸易港，探索建立以投资贸易自由化便利化为核心的制度体系</t>
+          <t>高标准建设__[1]__试验区，__[2]__大宗商品特色自由贸易港，探索建立以投资贸易自由化__[3]__为核心的制度体系</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{0: '自贸', 1: '争创', 2: '未加', 3: '难产'}</t>
+          <t>{1: '自贸', 2: '争创', 3: '高标准'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{0: '自贸', 1: '争创'}</t>
+          <t>{1: '自贸', 2: '争创', 3: '便利化'}</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>打造全球数字贸易中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[1]__一体化和国际贸易综合改革，推动贸易__[2]__</t>
+          <t>打造全球数字__[1]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[2]__一体化和国际贸易综合改革，推动贸易__[3]__</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{0: '内外贸', 1: '高质量发展', 2: '贸易', 3: '贸易中心', 4: '增长点', 5: '国际贸易', 6: '外贸', 7: '一体化'}</t>
+          <t>{2: '内外贸', 3: '临死前', 1: '贸易'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{0: '内外贸', 1: '高质量发展'}</t>
+          <t>{2: '内外贸', 3: '高质量发展', 1: '贸易'}</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>纵深推进__[1]__开放大通道建设，推动__[2]__班列高质量发展，推动数字技术和产业走向“一带一路”</t>
+          <t>纵深推进__[1]__开放大通道建设，推动__[2]____[3]__高质量发展，推动数字技术和产业走向“一带一路”</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{0: '义甬舟', 1: '义新欧', 2: '班列', 3: '高质量发展', 4: '大通道', 5: '推动', 6: '纵深', 7: '开放'}</t>
+          <t>{1: '义甬舟', 2: '义新欧', 3: '教会'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{0: '义甬舟', 1: '义新欧'}</t>
+          <t>{1: '义甬舟', 2: '义新欧', 3: '班列'}</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2936,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、四极辐射、山海互济、__[2]__美丽”空间格局</t>
+          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、__[2]__辐射、山海互济、__[3]__美丽”空间格局</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{0: '一湾', 1: '全域', 2: '四极', 3: '互济', 4: '重大项目', 5: '山海', 6: '能级', 7: '牵引'}</t>
+          <t>{1: '一湾', 3: '院方', 2: '四极'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{0: '一湾', 1: '全域'}</t>
+          <t>{1: '一湾', 3: '全域', 2: '四极'}</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2956,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和__[2]__丽三大现代产业带</t>
+          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和__[2]____[3]__现代产业带</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{0: '温台', 1: '金衢', 2: '必要', 3: '本党'}</t>
+          <t>{1: '温台', 2: '金衢', 3: '迭代'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{0: '温台', 1: '金衢'}</t>
+          <t>{1: '温台', 2: '金衢', 3: '丽三大'}</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2976,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>唱好__[1]__“__[2]__”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴融杭联甬打造网络大城市</t>
+          <t>唱好__[1]__“__[2]__”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴__[3]__甬打造网络大城市</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{0: '杭甬', 1: '双城记', 2: '队委会', 3: '救济款'}</t>
+          <t>{1: '杭甬', 2: '双城记', 3: '队委会'}</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{0: '杭甬', 1: '双城记'}</t>
+          <t>{1: '杭甬', 2: '双城记', 3: '融杭联'}</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2996,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，共建国家城乡融合发展__[2]__</t>
+          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，__[2]__国家城乡融合发展__[3]__</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '试验区', 2: '以至于'}</t>
+          <t>{1: '城市', 3: '中年', 2: '共建'}</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{0: '城市', 1: '试验区'}</t>
+          <t>{1: '城市', 3: '试验区', 2: '共建'}</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新__[2]__合作建设__[1]__边际中心城市、丽水创建革命老区共同富裕先行示范区</t>
+          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新__[1]__合作建设__[2]__边际中心城市、__[3]__创建革命老区共同富裕先行示范区</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{0: '四省', 1: '省际', 2: '丽水', 3: '共同富裕', 4: '衢州', 5: '城市', 6: '建设', 7: '老区'}</t>
+          <t>{2: '四省', 1: '省际', 3: '共同富裕'}</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{0: '四省', 1: '省际'}</t>
+          <t>{2: '四省', 1: '省际', 3: '丽水'}</t>
         </is>
       </c>
     </row>
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型__[2]__网；强化“四港联动”，建设世界一流强港，提升大通道内联外畅水平</t>
+          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型__[2]__网；强化“__[3]__联动”，建设世界一流强港，提升大通道内联外畅水平</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{0: '设施', 1: '基础设施', 2: '行长', 3: '求人'}</t>
+          <t>{1: '设施', 2: '基础设施', 3: '她们'}</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{0: '设施', 1: '基础设施'}</t>
+          <t>{1: '设施', 2: '基础设施', 3: '四港'}</t>
         </is>
       </c>
     </row>
@@ -3056,17 +3056,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>加快__[2]__强省建设，把宁波舟山海域__[1]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
+          <t>加快__[1]____[2]__建设，把宁波舟山海域__[3]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{0: '海岛', 1: '海洋', 2: '公方', 3: '舞弊'}</t>
+          <t>{3: '公方', 1: '海洋', 2: '强省'}</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{0: '海岛', 1: '海洋'}</t>
+          <t>{3: '海岛', 1: '海洋', 2: '强省'}</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>打造山海协作工程升级版，推进__[2]____[1]__、产业飞地精准落地，推进万企进万村行动，构建新型帮共体</t>
+          <t>打造山海协作工程升级版，推进__[1]____[2]__、产业飞地精准落地，推进__[3]__万村行动，构建新型帮共体</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{0: '飞地', 1: '科创', 2: '回厂', 3: '张洁'}</t>
+          <t>{2: '飞地', 1: '科创', 3: '万村'}</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{0: '飞地', 1: '科创'}</t>
+          <t>{2: '飞地', 1: '科创', 3: '万企进'}</t>
         </is>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>加强县城__[2]__板强弱项，提升发展__[1]__、特色小镇，推动千年古城复兴，重塑县域活力，培育现代化城市</t>
+          <t>加强县城__[1]__板强弱项，提升发展__[2]__、特色小镇，推动千年古城复兴，重塑__[3]__活力，培育现代化城市</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{0: '中心镇', 1: '补短', 2: '倪志钦', 3: '领教过'}</t>
+          <t>{2: '中心镇', 1: '补短', 3: '馆址'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{0: '中心镇', 1: '补短'}</t>
+          <t>{2: '中心镇', 1: '补短', 3: '县域'}</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>实施“科技__[1]__、机械强农”行动，建设农业科创高地，深化“三位一体”__[2]__联改革，大力发展高效生态农业</t>
+          <t>实施“科技__[1]__、机械强农”行动，建设农业__[2]__高地，深化“三位一体”__[3]__联改革，大力发展高效生态农业</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{0: '强农', 1: '农合', 2: '病室', 3: '据信'}</t>
+          <t>{1: '强农', 3: '缄默', 2: '科创'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{0: '强农', 1: '农合'}</t>
+          <t>{1: '强农', 3: '农合', 2: '科创'}</t>
         </is>
       </c>
     </row>
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非__[2]__”、防止基本农田“非粮化”，全力打好粮食安全保卫战</t>
+          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非__[2]__”、防止基本农田“__[3]__”，全力打好粮食安全保卫战</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{0: '耕地', 1: '农化', 2: '达利', 3: '波普'}</t>
+          <t>{1: '耕地', 2: '农化', 3: '达利'}</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{0: '耕地', 1: '农化'}</t>
+          <t>{1: '耕地', 2: '农化', 3: '非粮化'}</t>
         </is>
       </c>
     </row>
@@ -3156,17 +3156,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>深化以集体经济为核心的__[2]__富民__[1]__集成改革，稳慎探索农村土地制度改革，打造数字乡村引领区</t>
+          <t>深化以集体经济为核心的__[1]__富民__[2]__集成改革，__[3]__探索农村土地制度改革，打造数字乡村引领区</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{0: '乡村', 1: '强村', 2: '古物', 3: '起卸'}</t>
+          <t>{2: '乡村', 1: '强村', 3: '树胶'}</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{0: '乡村', 1: '强村'}</t>
+          <t>{2: '乡村', 1: '强村', 3: '稳慎'}</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3176,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>深化“两进两回”，促进__[1]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入__[2]__、产业发展融合化</t>
+          <t>深化“__[1]__两回”，促进__[2]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入__[3]__、产业发展融合化</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{0: '城乡', 1: '均衡化', 2: '马喜光'}</t>
+          <t>{2: '城乡', 3: '躲过', 1: '两进'}</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{0: '城乡', 1: '均衡化'}</t>
+          <t>{2: '城乡', 3: '均衡化', 1: '两进'}</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3196,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督__[2]__成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法履职，完善民主民意表达平台</t>
+          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督__[2]__成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法__[3]__，完善民主民意表达平台</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{0: '人大', 1: '硬核', 2: '业务', 3: '邮电'}</t>
+          <t>{1: '人大', 2: '硬核', 3: '希尔'}</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{0: '人大', 1: '硬核'}</t>
+          <t>{1: '人大', 2: '硬核', 3: '履职'}</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>推动政协更好成为“重要阵地、重要平台、重要渠道”，构建__[1]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生__[2]__”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
+          <t>推动政协更好成为“__[1]__阵地、重要平台、重要渠道”，构建__[2]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生__[3]__”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{0: '协商', 1: '议事堂', 2: '重要', 3: '履职', 4: '民主监督', 5: '制度化', 6: '政协', 7: '议政'}</t>
+          <t>{2: '协商', 3: '海燕', 1: '重要'}</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>{0: '协商', 1: '议事堂'}</t>
+          <t>{2: '协商', 3: '议事堂', 1: '重要'}</t>
         </is>
       </c>
     </row>
@@ -3236,17 +3236,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]__联络站，打造践行全过程人民民主基层单元，深化民生实事项目人大代表__[2]__制</t>
+          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]____[2]__，打造践行全过程人民民主基层单元，深化民生实事项目人大代表__[3]__制</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '票决', 2: '吸吮', 3: '奶汁'}</t>
+          <t>{1: '人大代表', 3: '吸吮', 2: '联络站'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{0: '人大代表', 1: '票决'}</t>
+          <t>{1: '人大代表', 3: '票决', 2: '联络站'}</t>
         </is>
       </c>
     </row>
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>健全基层群众自治制度，深化“村民说事”“民主__[2]__”等实践，推进村级__[1]__协商创新实验试点，完善街道社区党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
+          <t>健全基层群众自治制度，深化“村民说事”“民主__[1]__”等实践，推进村级__[2]__协商创新实验试点，完善__[3]__党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>{0: '议事', 1: '恳谈', 2: '双倍', 3: '飞腾'}</t>
+          <t>{2: '议事', 1: '恳谈', 3: '遗下'}</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{0: '议事', 1: '恳谈'}</t>
+          <t>{2: '议事', 1: '恳谈', 3: '街道社区'}</t>
         </is>
       </c>
     </row>
@@ -3276,17 +3276,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>完善大__[1]__格局，实施“同心共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“__[2]__一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
+          <t>完善大__[1]__格局，实施“__[2]__共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“__[3]__一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>{0: '统战工作', 1: '浙里', 2: '同心', 3: '覆盖', 4: '一家亲', 5: '共富', 6: '同廉', 7: '铸牢'}</t>
+          <t>{1: '统战工作', 3: '覆盖', 2: '同心'}</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{0: '统战工作', 1: '浙里'}</t>
+          <t>{1: '统战工作', 3: '浙里', 2: '同心'}</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3296,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>推行以精神__[2]__为标志的__[1]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
+          <t>推行以__[1]____[2]__为标志的__[3]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '富有', 2: '人工', 3: '海伦'}</t>
+          <t>{3: '人工', 2: '富有', 1: '精神'}</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '富有'}</t>
+          <t>{3: '文化', 2: '富有', 1: '精神'}</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释__[2]__体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设社科__[1]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
+          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释__[1]__体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设__[2]____[3]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '传播', 2: '停建', 3: '仅剩'}</t>
+          <t>{3: '该轮', 1: '传播', 2: '社科'}</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{0: '强省', 1: '传播'}</t>
+          <t>{3: '强省', 1: '传播', 2: '社科'}</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”省域__[2]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
+          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”__[2]____[3]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>{0: '公民道德', 1: '文明', 2: '瞒着', 3: '住处'}</t>
+          <t>{1: '公民道德', 3: '瞒着', 2: '省域'}</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{0: '公民道德', 1: '文明'}</t>
+          <t>{1: '公民道德', 3: '文明', 2: '省域'}</t>
         </is>
       </c>
     </row>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>深化新时代文艺精品创优工程，建设之江艺术长廊，提升大运河国家__[1]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大__[2]__群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
+          <t>深化新时代文艺精品__[1]__工程，建设之江艺术长廊，提升大运河国家__[2]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大__[3]__群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '遗址', 2: '包办', 3: '得了'}</t>
+          <t>{2: '文化', 3: '包办', 1: '创优'}</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '遗址'}</t>
+          <t>{2: '文化', 3: '遗址', 1: '创优'}</t>
         </is>
       </c>
     </row>
@@ -3376,17 +3376,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行全民科学素质行动计划、公众__[2]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
+          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行__[2]__科学素质行动计划、公众__[3]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人文', 2: '人工', 3: '海伦'}</t>
+          <t>{1: '文化', 3: '下落', 2: '全民'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{0: '文化', 1: '人文'}</t>
+          <t>{1: '文化', 3: '人文', 2: '全民'}</t>
         </is>
       </c>
     </row>
@@ -3396,17 +3396,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进__[2]__深度融合，创建全域旅游示范省</t>
+          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进__[2]__深度融合，创建__[3]__旅游示范省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>{0: '文创', 1: '文旅', 2: '桂金', 3: '钱瑛'}</t>
+          <t>{1: '文创', 2: '文旅', 3: '桂金'}</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{0: '文创', 1: '文旅'}</t>
+          <t>{1: '文创', 2: '文旅', 3: '全域'}</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>全面提升__[1]__建设__[3]__，健全为民__[2]__长效机制，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
+          <t>全面提升__[1]__建设__[2]__，健全为民__[3]____[4]__，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '办实事', 2: '战略地位', 3: '长效机制', 4: '为民', 5: '统筹', 6: '社会保障', 7: '单元'}</t>
+          <t>{1: '社会', 3: '办实事', 2: '战略地位', 4: '为民', 5: '统筹', 6: '社会保障', 7: '单元'}</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{0: '社会', 1: '办实事', 2: '战略地位'}</t>
+          <t>{1: '社会', 3: '办实事', 2: '战略地位', 4: '长效机制'}</t>
         </is>
       </c>
     </row>
@@ -3436,17 +3436,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>更大力度建设教育__[2]__，率先实现基础教育均衡优质、高等教育__[1]__普及和__[3]__人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
+          <t>更大力度建设__[1]____[2]__，率先实现基础教育均衡优质、高等教育__[3]__普及和__[4]__人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>{0: '高水平', 1: '强省', 2: '普惠性', 3: '教育', 4: '新机制', 5: '基础教育', 6: '建设', 7: '人力资本'}</t>
+          <t>{3: '高水平', 2: '强省', 4: '新机制', 1: '教育', 5: '基础教育', 6: '建设', 7: '人力资本'}</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>{0: '高水平', 1: '强省', 2: '普惠性'}</t>
+          <t>{3: '高水平', 2: '强省', 4: '普惠性', 1: '教育'}</t>
         </is>
       </c>
     </row>
@@ -3456,17 +3456,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>深化__[2]__浙江__[1]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家__[3]__、中医药综合改革示范区，打造公共卫生最安全省份</t>
+          <t>深化__[1]__浙江__[2]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家__[3]__、__[4]__综合改革示范区，打造公共卫生最安全省份</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '健康', 2: '医学中心', 3: '寥寥'}</t>
+          <t>{2: '建设', 1: '健康', 3: '医学中心', 4: '示范区', 5: '服务体系', 6: '公共卫生', 7: '医疗卫生'}</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{0: '建设', 1: '健康', 2: '医学中心'}</t>
+          <t>{2: '建设', 1: '健康', 3: '医学中心', 4: '中医药'}</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3476,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>积极应对__[3]__，探索“__[2]__一小”整体解决方案，完善__[1]__养老、育儿服务和政策体系</t>
+          <t>积极应对__[1]__，探索“__[2]__一小”整体解决方案，完善__[3]__养老、__[4]__服务和政策体系</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>{0: '普惠性', 1: '一老', 2: '人口老龄化', 3: '育儿', 4: '解决方案', 5: '养老', 6: '一小', 7: '探索'}</t>
+          <t>{3: '普惠性', 2: '一老', 1: '人口老龄化', 4: '解决方案', 5: '养老', 6: '一小', 7: '探索'}</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>{0: '普惠性', 1: '一老', 2: '人口老龄化'}</t>
+          <t>{3: '普惠性', 2: '一老', 1: '人口老龄化', 4: '育儿'}</t>
         </is>
       </c>
     </row>
@@ -3496,17 +3496,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>积极稳妥推进企业职工基本__[1]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，__[2]__多层次医疗保障体系，发展惠民型商业补充医疗保险，__[3]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
+          <t>积极稳妥推进企业__[1]____[2]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，__[3]__多层次医疗保障体系，发展惠民型商业补充医疗保险，__[4]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{0: '养老保险', 1: '健全', 2: '探索', 3: '求婚'}</t>
+          <t>{2: '养老保险', 3: '健全', 4: '提标', 1: '职工基本', 5: '扩面', 6: '完善', 7: '退役军人'}</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{0: '养老保险', 1: '健全', 2: '探索'}</t>
+          <t>{2: '养老保险', 3: '健全', 4: '探索', 1: '职工基本'}</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>探索__[2]__初次__[1]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量就业创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入__[3]__进入中等收入群体行列</t>
+          <t>探索__[1]__初次__[2]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[3]__创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入__[4]__进入中等收入群体行列</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{0: '分配', 1: '构建', 2: '群体', 3: '烧死'}</t>
+          <t>{2: '分配', 1: '构建', 4: '清零', 3: '就业', 5: '扩中', 6: '提低', 7: '体系'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{0: '分配', 1: '构建', 2: '群体'}</t>
+          <t>{2: '分配', 1: '构建', 4: '群体', 3: '就业'}</t>
         </is>
       </c>
     </row>
@@ -3536,17 +3536,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>一体推进__[2]__风貌整治提升和未来__[1]__未来乡村__[3]__，深化城乡规划建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
+          <t>一体推进__[1]__风貌整治提升和未来__[2]__未来乡村__[3]__，深化__[4]__建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>{0: '社区', 1: '城乡', 2: '建设', 3: '躲过'}</t>
+          <t>{2: '社区', 1: '城乡', 3: '建设', 4: '未来', 5: '风貌', 6: '公共服务', 7: '共同体'}</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{0: '社区', 1: '城乡', 2: '建设'}</t>
+          <t>{2: '社区', 1: '城乡', 3: '建设', 4: '城乡规划'}</t>
         </is>
       </c>
     </row>
@@ -3556,17 +3556,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>建立健全国土空间规划__[3]__，全面落实“三区三线”，大力推进__[1]__土地综合整治，打造空间治理数字化改革先行省，构建__[2]__自然资源政策体系</t>
+          <t>建立健全国土__[1]____[2]__，全面落实“三区三线”，大力推进__[3]__土地综合整治，打造空间治理数字化改革先行省，构建__[4]__自然资源政策体系</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>{0: '全域', 1: '共富型', 2: '体系', 3: '三两'}</t>
+          <t>{3: '全域', 4: '三区', 2: '体系', 1: '空间规划', 5: '全面落实', 6: '数字化', 7: '建立健全'}</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{0: '全域', 1: '共富型', 2: '体系'}</t>
+          <t>{3: '全域', 4: '共富型', 2: '体系', 1: '空间规划'}</t>
         </is>
       </c>
     </row>
@@ -3576,17 +3576,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>实施__[3]__方案，高水平建设国家清洁能源示范省，建设__[2]__制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[1]__转型，抢占绿色低碳科技革命先机，开发利用林业碳汇和海洋“蓝碳”，构建减污降碳协同制度体系</t>
+          <t>实施__[1]__方案，高水平建设国家清洁能源示范省，建设__[2]__制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[3]__转型，抢占绿色低碳科技革命先机，开发利用林业__[4]__和海洋“蓝碳”，构建减污降碳协同制度体系</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>{0: '低碳', 1: '绿色', 2: '碳达峰', 3: '碳汇', 4: '蓝碳', 5: '减污降', 6: '体系', 7: '建设'}</t>
+          <t>{3: '低碳', 2: '绿色', 1: '碳达峰', 4: '蓝碳', 5: '减污降', 6: '体系', 7: '建设'}</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{0: '低碳', 1: '绿色', 2: '碳达峰'}</t>
+          <t>{3: '低碳', 2: '绿色', 1: '碳达峰', 4: '碳汇'}</t>
         </is>
       </c>
     </row>
@@ -3596,17 +3596,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>深化清新空气示范区建设和“__[2]__”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设__[3]__“无废城市”，加强塑料__[1]__治理，加快构建土壤和地下水污染“防控治”体系</t>
+          <t>深化清新空气示范区建设和“__[1]__”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设__[2]__“__[3]__城市”，加强塑料__[4]__治理，加快构建土壤和地下水污染“防控治”体系</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{0: '污染', 1: '五水共治', 2: '全域', 3: '被害'}</t>
+          <t>{4: '碧水', 1: '五水共治', 2: '全域', 3: '无废', 5: '攻坚战', 6: '建设', 7: '示范区'}</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{0: '污染', 1: '五水共治', 2: '全域'}</t>
+          <t>{4: '污染', 1: '五水共治', 2: '全域', 3: '无废'}</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>健全以国家公园为主体的自然保护地体系，推进山水__[3]__湖草__[2]__保护__[1]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
+          <t>健全以国家公园为主体的自然保护地体系，推进山水__[1]____[2]____[3]__保护__[4]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>{0: '修复', 1: '生态', 2: '林田', 3: '常备'}</t>
+          <t>{4: '全域', 3: '生态', 1: '林田', 2: '湖草', 5: '保护地', 6: '河湖', 7: '近岸'}</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{0: '修复', 1: '生态', 2: '林田'}</t>
+          <t>{4: '修复', 3: '生态', 1: '林田', 2: '湖草'}</t>
         </is>
       </c>
     </row>
@@ -3636,17 +3636,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>__[2]____[1]__产品价值实现机制，大力发展特色生态产业，__[3]__生态文化，强化全民生态自觉</t>
+          <t>__[1]____[2]__产品价值实现机制，大力发展特色生态产业，__[3]__生态文化，强化__[4]__生态自觉</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '全面推行', 2: '弘扬', 3: '全民', 4: '大力发展', 5: '自觉', 6: '强化', 7: '机制'}</t>
+          <t>{2: '生态', 1: '全面推行', 3: '弘扬', 4: '大力发展', 5: '自觉', 6: '强化', 7: '机制'}</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{0: '生态', 1: '全面推行', 2: '弘扬'}</t>
+          <t>{2: '生态', 1: '全面推行', 3: '弘扬', 4: '全民'}</t>
         </is>
       </c>
     </row>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>__[3]__实施“法助共富、法护平安”专项行动，__[1]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政__[2]__改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）法治化综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
+          <t>__[1]__实施“法助共富、法护平安”专项行动，__[2]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政__[3]__改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）__[4]__综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>{0: '构建', 1: '执法', 2: '深化', 3: '雨衣'}</t>
+          <t>{2: '构建', 3: '执法', 1: '深化', 4: '法助共富', 5: '法护', 6: '质效', 7: '诉源'}</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{0: '构建', 1: '执法', 2: '深化'}</t>
+          <t>{2: '构建', 3: '执法', 1: '深化', 4: '法治化'}</t>
         </is>
       </c>
     </row>
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设立体化、智能化、__[2]__社会治安防控体系，常态化__[3]__除恶</t>
+          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设__[2]__、智能化、__[3]__社会治安防控体系，常态化__[4]__除恶</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '法治化', 2: '扫黑', 3: '自幼'}</t>
+          <t>{1: '安全', 3: '法治化', 4: '除恶', 2: '立体化', 5: '社会治安', 6: '智能化', 7: '意识形态'}</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{0: '安全', 1: '法治化', 2: '扫黑'}</t>
+          <t>{1: '安全', 3: '法治化', 4: '扫黑', 2: '立体化'}</t>
         </is>
       </c>
     </row>
@@ -3696,17 +3696,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[2]__网络综合治理，健全全链条精准化公共安全行业监管体系，严格落实食品药品安全“四个__[3]__”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
+          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[2]__网络综合治理，健全全链条精准化公共__[3]__行业监管体系，严格落实食品药品安全“四个__[4]__”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>{0: '健全', 1: '强化', 2: '最严', 3: '求婚'}</t>
+          <t>{1: '健全', 2: '强化', 4: '安全监管', 3: '安全', 5: '防御能力', 6: '公共安全', 7: '食品药品'}</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{0: '健全', 1: '强化', 2: '最严'}</t>
+          <t>{1: '健全', 2: '强化', 4: '最严', 3: '安全'}</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>健全“__[3]__”基层__[2]__体系，__[1]__“四治融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
+          <t>健全“__[1]__”基层__[2]__体系，__[3]__“__[4]__融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '治理', 2: '141', 3: '识时务'}</t>
+          <t>{3: '深化', 2: '治理', 1: '141', 4: '下访', 5: '接访', 6: '调处', 7: '共同体'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{0: '深化', 1: '治理', 2: '141'}</t>
+          <t>{3: '深化', 2: '治理', 1: '141', 4: '四治'}</t>
         </is>
       </c>
     </row>
@@ -3736,17 +3736,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实__[2]____[1]__政治责任，纵深推进全面__[3]__，不断推进以党的自我革命引领社会革命在浙江生动实践</t>
+          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实__[1]____[2]__政治责任，纵深推进全面__[3]__，不断推进__[4]__的自我革命引领社会革命在浙江生动实践</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{0: '治党', 1: '管党', 2: '从严治党', 3: '远渡重洋'}</t>
+          <t>{2: '治党', 1: '管党', 3: '从严治党', 4: '政治责任', 5: '革命', 6: '建党', 7: '党的建设'}</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{0: '治党', 1: '管党', 2: '从严治党'}</t>
+          <t>{2: '治党', 1: '管党', 3: '从严治党', 4: '以党'}</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环__[2]__机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[1]__群众的共同信仰、处处见效于党员干部群众的__[3]__</t>
+          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环__[1]__机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[2]____[3]__的共同信仰、处处见效于党员干部群众的__[4]__</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>{0: '党员干部', 1: '落实', 2: '共同奋斗', 3: '群众', 4: '机制', 5: '八八战略', 6: '两个维护', 7: '闭环'}</t>
+          <t>{2: '党员干部', 1: '落实', 4: '机制', 3: '群众', 5: '八八战略', 6: '两个维护', 7: '闭环'}</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{0: '党员干部', 1: '落实', 2: '共同奋斗'}</t>
+          <t>{2: '党员干部', 1: '落实', 4: '共同奋斗', 3: '群众'}</t>
         </is>
       </c>
     </row>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>压实__[1]__责任体系，健全__[3]__党内法规制度，完善党对重大工作领导__[2]__，推行大成集智决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
+          <t>压实__[1]__责任体系，健全__[2]__党内法规制度，完善党对重大工作领导__[3]__，推行大成__[4]__决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '机制', 2: '省域', 3: '忍痛'}</t>
+          <t>{1: '党建', 3: '机制', 2: '省域', 4: '群建', 5: '工青妇', 6: '完善', 7: '领导力'}</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '机制', 2: '省域'}</t>
+          <t>{1: '党建', 3: '机制', 2: '省域', 4: '集智'}</t>
         </is>
       </c>
     </row>
@@ -3796,17 +3796,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>全面落实__[2]__武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民__[3]__，持续擦亮 “__[1]__”工作金名片</t>
+          <t>全面落实__[1]__武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民__[2]__，持续__[3]__ “__[4]__”工作金名片</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>{0: '双拥', 1: '党管', 2: '国防教育', 3: '小象'}</t>
+          <t>{4: '全面落实', 1: '党管', 2: '国防教育', 3: '擦亮', 5: '名片', 6: '全民', 7: '国防'}</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>{0: '双拥', 1: '党管', 2: '国防教育'}</t>
+          <t>{4: '双拥', 1: '党管', 2: '国防教育', 3: '擦亮'}</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>迭代升级__[2]__问题清单应用，强化党建统领__[1]__决策落地、重大工作推进、重大风险防控，促进各级党组织__[3]__、组织力、执行力整体跃升</t>
+          <t>__[1]__升级__[2]__问题清单应用，强化党建统领__[3]__决策落地、重大工作推进、重大风险防控，促进各级党组织__[4]__、组织力、执行力整体跃升</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>{0: '重大', 1: '七张', 2: '领导力', 3: '里外'}</t>
+          <t>{3: '重大', 2: '七张', 4: '执行力', 1: '迭代', 5: '党建', 6: '跃升', 7: '清单'}</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{0: '重大', 1: '七张', 2: '领导力'}</t>
+          <t>{3: '重大', 2: '七张', 4: '领导力', 1: '迭代'}</t>
         </is>
       </c>
     </row>
@@ -3836,17 +3836,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>推进__[1]____[2]__机关作风建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进__[3]__我为统一平台集成优化</t>
+          <t>推进__[1]____[2]____[3]__建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进__[4]__我为统一平台集成优化</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{0: '唯实', 1: '惟先', 2: '民呼', 3: '机关作风', 4: '减负', 5: '民情', 6: '大兴', 7: '通达'}</t>
+          <t>{1: '唯实', 2: '惟先', 4: '减负', 3: '机关作风', 5: '民情', 6: '大兴', 7: '通达'}</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>{0: '唯实', 1: '惟先', 2: '民呼'}</t>
+          <t>{1: '唯实', 2: '惟先', 4: '民呼', 3: '机关作风'}</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3856,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导__[3]__政治素质考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治__[2]__、政治执行力</t>
+          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导__[2]____[3]__考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治__[4]__、政治执行力</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>{0: '政治', 1: '领悟力', 2: '干部', 3: '家用'}</t>
+          <t>{1: '政治', 4: '人识', 2: '干部', 3: '政治素质', 5: '国之大者', 6: '执行力', 7: '领导'}</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>{0: '政治', 1: '领悟力', 2: '干部'}</t>
+          <t>{1: '政治', 4: '领悟力', 2: '干部', 3: '政治素质'}</t>
         </is>
       </c>
     </row>
@@ -3876,17 +3876,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新__[3]__中国特色社会主义__[2]__教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部坚定做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
+          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新__[2]__中国特色社会主义__[3]__教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部__[4]__做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '思想', 2: '时代', 3: '紫金'}</t>
+          <t>{1: '习近平', 3: '思想', 2: '时代', 4: '实践', 5: '铸魂', 6: '走心', 7: '做强'}</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{0: '习近平', 1: '思想', 2: '时代'}</t>
+          <t>{1: '习近平', 3: '思想', 2: '时代', 4: '坚定'}</t>
         </is>
       </c>
     </row>
@@ -3896,17 +3896,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部__[3]__选拔计划，常态化推进干部能上能下，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、__[2]__能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
+          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部__[2]__选拔计划，常态化推进干部__[3]__，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、__[4]__能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '干部队伍', 2: '培养', 3: '狂泻'}</t>
+          <t>{1: '干部', 4: '体系', 2: '培养', 3: '能上能下', 5: '后继有人', 6: '年轻干部', 7: '加强'}</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{0: '干部', 1: '干部队伍', 2: '培养'}</t>
+          <t>{1: '干部', 4: '干部队伍', 2: '培养', 3: '能上能下'}</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>__[2]__“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准赋能、关心关爱机制，深化__[3]__为事业__[1]__、组织为干部担当良性互动</t>
+          <t>__[1]__“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准__[2]__、关心关爱机制，深化__[3]__为事业__[4]__、组织为干部担当良性互动</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{0: '担当', 1: '落实', 2: '干部', 3: '克隆'}</t>
+          <t>{4: '容错', 1: '落实', 3: '干部', 2: '赋能', 5: '纠错', 6: '减负', 7: '松绑'}</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{0: '担当', 1: '落实', 2: '干部'}</t>
+          <t>{4: '担当', 1: '落实', 3: '干部', 2: '赋能'}</t>
         </is>
       </c>
     </row>
@@ -3936,17 +3936,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>__[3]__大抓__[1]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师__[2]__制”，更好发挥党员先锋模范作用，推动基层党建全省域建强、全领域过硬、全面走在前列</t>
+          <t>__[1]__大抓__[2]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师__[3]__制”，更好发挥党员先锋模范作用，推动基层党建全省域__[4]__、全领域过硬、全面走在前列</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>{0: '基层', 1: '帮带', 2: '树牢', 3: '市面'}</t>
+          <t>{2: '基层', 3: '帮带', 1: '树牢', 4: '模范作用', 5: '全面', 6: '党建', 7: '过硬'}</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{0: '基层', 1: '帮带', 2: '树牢'}</t>
+          <t>{2: '基层', 3: '帮带', 1: '树牢', 4: '建强'}</t>
         </is>
       </c>
     </row>
@@ -3956,17 +3956,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>深入推进“__[2]__争创、千乡__[3]__、万村过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[1]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
+          <t>深入推进“__[1]__争创、千乡__[2]__、__[3]__过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[4]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '百县', 2: '晋位', 3: '万村', 4: '上统', 5: '下分', 6: '强街', 7: '优社'}</t>
+          <t>{4: '上统', 1: '百县', 2: '晋位', 3: '万村', 5: '下分', 6: '强街', 7: '优社'}</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{0: '党建', 1: '百县', 2: '晋位'}</t>
+          <t>{4: '党建', 1: '百县', 2: '晋位', 3: '万村'}</t>
         </is>
       </c>
     </row>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>健全“__[1]__”组织党组织实质作用发挥机制，加强机关、国企、学校、__[2]__等各领域__[3]__</t>
+          <t>健全“__[1]__”组织__[2]__实质作用发挥机制，加强机关、国企、学校、__[3]__等各领域__[4]__</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>{0: '两新', 1: '公立医院', 2: '党建', 3: '党组织', 4: '国企', 5: '健全', 6: '实质', 7: '机关'}</t>
+          <t>{1: '两新', 3: '公立医院', 4: '国企', 2: '党组织', 5: '健全', 6: '实质', 7: '机关'}</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{0: '两新', 1: '公立医院', 2: '党建'}</t>
+          <t>{1: '两新', 3: '公立医院', 4: '党建', 2: '党组织'}</t>
         </is>
       </c>
     </row>
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>坚持不敢腐、不能腐、不想腐一体推进，同时__[1]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[2]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[3]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
+          <t>坚持不敢腐、不能腐、不想腐__[1]__推进，同时__[2]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[3]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[4]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{0: '发力', 1: '反腐败', 2: '腐败', 3: '沾污'}</t>
+          <t>{2: '发力', 3: '反腐败', 4: '打虎', 1: '一体', 5: '拍蝇', 6: '猎狐', 7: '不收手'}</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{0: '发力', 1: '反腐败', 2: '腐败'}</t>
+          <t>{2: '发力', 3: '反腐败', 4: '腐败', 1: '一体'}</t>
         </is>
       </c>
     </row>
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>坚决查处享乐奢靡行为，驰而不息__[2]__形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[1]__正气，以优良党风政风带动__[3]__民风持续向善向好</t>
+          <t>坚决查处享乐奢靡行为，驰而不息__[1]__形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[2]__正气，以优良党风__[3]__带动__[4]__民风持续向善向好</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>{0: '树新风', 1: '纠治', 2: '社风', 3: '征召'}</t>
+          <t>{2: '树新风', 1: '纠治', 4: '党风', 3: '政风', 5: '向善', 6: '不正之风', 7: '奢靡'}</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{0: '树新风', 1: '纠治', 2: '社风'}</t>
+          <t>{2: '树新风', 1: '纠治', 4: '社风', 3: '政风'}</t>
         </is>
       </c>
     </row>
@@ -4036,17 +4036,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>加强对“一把手”和领导班子__[1]__，加强年轻干部教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督__[2]____[3]__</t>
+          <t>加强对“一把手”和领导班子__[1]__，加强__[2]__教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督__[3]____[4]__</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>{0: '监督', 1: '提质', 2: '增效', 3: '周游'}</t>
+          <t>{1: '监督', 3: '提质', 4: '加强', 2: '年轻干部', 5: '巡察', 6: '公权力', 7: '一把手'}</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{0: '监督', 1: '提质', 2: '增效'}</t>
+          <t>{1: '监督', 3: '提质', 4: '增效', 2: '年轻干部'}</t>
         </is>
       </c>
     </row>
@@ -4056,17 +4056,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>健全完善__[2]__交往的正面__[1]__、负面清单、倡导清单，从严规范党员干部行权__[3]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
+          <t>健全完善__[1]__交往的正面__[2]__、负面清单、倡导清单，从严规范党员干部__[3]____[4]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>{0: '清单', 1: '政商', 2: '用权', 3: '序幕'}</t>
+          <t>{2: '清单', 1: '政商', 4: '两制', 3: '行权', 5: '亲不逾矩', 6: '公正无私', 7: '勾连'}</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{0: '清单', 1: '政商', 2: '用权'}</t>
+          <t>{2: '清单', 1: '政商', 4: '用权', 3: '行权'}</t>
         </is>
       </c>
     </row>
@@ -4076,17 +4076,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>构建__[1]____[2]__责任共同体，以清廉单元建设为重点，__[3]__做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会清朗的政治生态</t>
+          <t>构建__[1]____[2]__责任共同体，以清廉单元建设为重点，__[3]__做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会__[4]__的政治生态</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{0: '清廉', 1: '建设', 2: '做实', 3: '试制'}</t>
+          <t>{1: '清廉', 2: '建设', 3: '做实', 4: '加强', 5: '清正', 6: '政治', 7: '廉洁'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{0: '清廉', 1: '建设', 2: '做实'}</t>
+          <t>{1: '清廉', 2: '建设', 3: '做实', 4: '清朗'}</t>
         </is>
       </c>
     </row>
@@ -4096,17 +4096,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>各级党组织要更加关心关爱__[1]__，悉心__[2]__青年，在新时代伟大实践中培育__[3]__青年，加快建设青年发展型省份</t>
+          <t>各级党组织要更加关心关爱__[1]__，__[2]____[3]__青年，在新时代伟大实践中培育__[4]__青年，加快建设青年发展型省份</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>{0: '青年', 1: '教育引导', 2: '锻造', 3: '原状'}</t>
+          <t>{1: '青年', 3: '教育引导', 4: '关爱', 2: '悉心', 5: '党组织', 6: '省份', 7: '培育'}</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{0: '青年', 1: '教育引导', 2: '锻造'}</t>
+          <t>{1: '青年', 3: '教育引导', 4: '锻造', 2: '悉心'}</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>广大青年要自觉把个人的理想融入中国梦，努力成为__[2]__、奋斗自强、品德高尚、追求卓越的新时代好青年，成为__[3]__推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[1]__”最强音，奋力谱写无愧伟大时代的青春华章！</t>
+          <t>广大青年要自觉把个人的理想融入中国梦，努力成为__[1]__、奋斗自强、品德高尚、追求卓越的新时代好青年，成为__[2]__推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[3]__”__[4]__，奋力谱写无愧伟大时代的青春华章！</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>{0: '青春', 1: '志存高远', 2: '堪当', 3: '市外'}</t>
+          <t>{3: '青春', 1: '志存高远', 2: '堪当', 4: '华章', 5: '唱响', 6: '品德高尚', 7: '广大青年'}</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{0: '青春', 1: '志存高远', 2: '堪当'}</t>
+          <t>{3: '青春', 1: '志存高远', 2: '堪当', 4: '最强音'}</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“__[2]__”，坚决做到“__[3]__”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
+          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“__[2]__”，坚决做到“__[3]__”，在__[4]__中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>{0: '伟大', 1: '八八战略', 2: '两个维护', 3: '高质量发展', 4: '省域', 5: '二十大', 6: '共同富裕', 7: '奋斗目标'}</t>
+          <t>{1: '伟大', 2: '八八战略', 3: '两个维护', 4: '省域', 5: '二十大', 6: '共同富裕', 7: '奋斗目标'}</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{0: '伟大', 1: '八八战略', 2: '两个维护'}</t>
+          <t>{1: '伟大', 2: '八八战略', 3: '两个维护', 4: '高质量发展'}</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4选1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4选2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4选3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4选4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,19 +437,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>问题题干</t>
+          <t>题干</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>选项</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>答案</t>
+          <t>正确选项</t>
         </is>
       </c>
     </row>
@@ -456,17 +459,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这次大会是我省迈入高水平全面建设社会主义现代化、__[1]__建设共同富裕示范区新征程，召开的第一次党代会</t>
+          <t>这次大会是我省迈入高水平全面建设社会主义现代化、__[1]__建设共同富裕示范区新征程，召开的第一次党代会
+高质量发展
+共同富裕
+征程
+建设</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{1: '共同富裕', 2: '征程', 3: '建设'}</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{1: '高质量发展'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -476,17 +478,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“__[1]__”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！</t>
+          <t>这次大会是我省迈入高水平全面建设社会主义现代化、__[1]__建设共同富裕示范区新征程，召开的第一次党代会
+高质量发展
+共同富裕
+征程
+建设</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{1: '两个维护', 2: '高质量发展', 3: '省域'}</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{1: '八八战略'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -496,17 +497,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>省第十四次党代会以来的__[1]__极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年</t>
+          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“__[1]__”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！
+八八战略
+两个维护
+高质量发展
+省域</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{1: '实干', 2: '奋进', 3: '第十四次'}</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{1: '五年'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的__[1]__大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点</t>
+          <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“__[1]__”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！
+八八战略
+两个维护
+高质量发展
+省域</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{1: '活络', 2: '万年', 3: '拍板'}</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{1: '十九'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -536,17 +535,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>这五年，我们__[1]__“两个维护”、全面从严治党，坚决做到“总书记有号令、党中央有部署，浙江见行动”</t>
+          <t>省第十四次党代会以来的__[1]__极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年
+五年
+实干
+奋进
+第十四次</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{1: '租给', 2: '涌进', 3: '住宅'}</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{1: '笃行'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -556,17 +554,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>始终把学深悟透__[1]__新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量开展“不忘初心、牢记使命”主题教育、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉</t>
+          <t>省第十四次党代会以来的__[1]__极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年
+五年
+实干
+奋进
+第十四次</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -576,17 +573,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>建立健全贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“__[1]__”在浙江落地见效</t>
+          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的__[1]__大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点
+十九
+活络
+万年
+拍板</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{1: '闭环', 2: '习近平', 3: '见效'}</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>{1: '国之大者'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -596,17 +592,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>__[1]__统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制机制持续完善，党建统领问题管控机制基本形成</t>
+          <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的__[1]__大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点
+十九
+活络
+万年
+拍板</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{1: '忍痛', 2: '王子', 3: '掠走'}</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>{1: '党建'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -616,17 +611,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著提升，“红色__[1]__强基工程”全面实施，基层党建整乡推进、整县提升</t>
+          <t>这五年，我们__[1]__“两个维护”、全面从严治党，坚决做到“总书记有号令、党中央有部署，浙江见行动”
+笃行
+租给
+涌进
+住宅</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{1: '强基', 2: '整乡', 3: '整县'}</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{1: '根脉'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -636,17 +630,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>党风廉政建设和__[1]__斗争纵深推进，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化</t>
+          <t>这五年，我们__[1]__“两个维护”、全面从严治党，坚决做到“总书记有号令、党中央有部署，浙江见行动”
+笃行
+租给
+涌进
+住宅</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{1: '巡视', 2: '斗争', 3: '追逃'}</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>{1: '反腐败'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -656,17 +649,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>与时俱进书写忠实践行“__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制</t>
+          <t xml:space="preserve">始终把学深悟透__[1]__新时代中国特色社会主义思想作为最大政治任务，建立“第一议题”制度、强化理论武装，高质量开展“不忘初心、牢记使命”主题教育、党史学习教育和庆祝建党百年系列活动，开展“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究，推动全省党员干部深刻领悟“两个确立”的决定性意义，增强做到“两个维护”的高度自觉
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{1: '新篇章', 2: '与时俱进', 3: '建立健全'}</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>{1: '八八战略'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -676,17 +667,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>“四大建设”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大__[1]__机场，宁波舟山港加快建设世界一流强港</t>
+          <t>建立健全贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“__[1]__”在浙江落地见效
+国之大者
+闭环
+习近平
+见效</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{1: '72.7', 2: '市市通', 3: '县县通'}</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>{1: '千万级'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -696,17 +686,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差缩小到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育__[1]__、体育强省、健康浙江等建设取得长足进步</t>
+          <t>建立健全贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“__[1]__”在浙江落地见效
+国之大者
+闭环
+习近平
+见效</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>{1: '强省'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -716,17 +705,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全面落实长三角一体化发展、长江经济带发展、共建“一带一路”、对口支援帮扶助力完成脱贫攻坚等重大任务，__[1]__构建新发展格局开路先锋</t>
+          <t>__[1]__统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制机制持续完善，党建统领问题管控机制基本形成
+党建
+忍痛
+王子
+掠走</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{1: '开路先锋', 2: '脱贫', 3: '经济带'}</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>{1: '勇当'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -736,17 +724,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>坚持外防输入、内防反弹，坚持动态__[1]__，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响</t>
+          <t>__[1]__统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制机制持续完善，党建统领问题管控机制基本形成
+党建
+忍痛
+王子
+掠走</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{1: '外防', 2: '率先', 3: '动态'}</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>{1: '清零'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -756,17 +743,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>全省人民万众一心、__[1]__时艰，广大党员干部冲锋在前、顽强拼搏，坚决打好疫情防控遭遇战阻击战歼灭战</t>
+          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著提升，“红色__[1]__强基工程”全面实施，基层党建整乡推进、整县提升
+根脉
+强基
+整乡
+整县</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{1: '顽强拼搏', 2: '冲锋在前', 3: '阻击战'}</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>{1: '共克'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -776,17 +762,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021年地区__[1]__超过7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一</t>
+          <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著提升，“红色__[1]__强基工程”全面实施，基层党建整乡推进、整县提升
+根脉
+强基
+整乡
+整县</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{1: '2021', 2: '6.7', 3: '11'}</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>{1: '生产总值'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -796,17 +781,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家__[1]__、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖人才引进培育实现新突破，人才生态最优省金名片越来越亮</t>
+          <t>党风廉政建设和__[1]__斗争纵深推进，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化
+反腐败
+巡视
+斗争
+追逃</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{1: '人才', 2: '三大科创', 3: '2.9'}</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>{1: '实验室'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -816,17 +800,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>产业基础再造和产业链提升取得重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌__[1]__取得突破，专精特新“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元</t>
+          <t>党风廉政建设和__[1]__斗争纵深推进，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化
+反腐败
+巡视
+斗争
+追逃</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>{1: '强省'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -836,17 +819,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>高规格召开全省__[1]__经济发展大会，率先出台民营企业发展促进条例，激发民营经济发展活力</t>
+          <t>与时俱进书写忠实践行“__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制
+八八战略
+新篇章
+与时俱进
+建立健全</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{1: '国名', 2: '礼节', 3: '夺走'}</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>{1: '民营'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -856,17 +838,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>迭代形成“1612”体系构架，建成全省统一__[1]__平台，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进条例、公共数据条例等16部相关法规</t>
+          <t>与时俱进书写忠实践行“__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制
+八八战略
+新篇章
+与时俱进
+建立健全</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{1: '闷闷不乐', 2: '垂头丧气'}</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>{1: '公共数据'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -876,17 +857,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>完成国家级改革试点__[1]__项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效</t>
+          <t>“四大建设”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大__[1]__机场，宁波舟山港加快建设世界一流强港
+千万级
+72.7
+市市通
+县县通</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{1: '艾奇逊'}</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>{1: '331'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -896,17 +876,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[1]__”品牌持续打响</t>
+          <t>“四大建设”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大__[1]__机场，宁波舟山港加快建设世界一流强港
+千万级
+72.7
+市市通
+县县通</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{1: '陈封', 2: '掠走', 3: '已用'}</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>{1: '群团'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -916,17 +895,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[1]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％</t>
+          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差__[1]__到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步
+缩小
+到任
+登山
+转世</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>{1: '法治'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -936,17 +914,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>牢牢掌握意识形态工作领导权，社会主义核心价值观引领树立社会新风尚，伟大建党__[1]__和红船精神、浙江精神广泛弘扬，8090和00后新时代理论宣讲品牌更加响亮</t>
+          <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差__[1]__到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步
+缩小
+到任
+登山
+转世</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{1: '开票', 2: '大约', 3: '显明'}</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>{1: '精神'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -956,17 +933,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业__[1]__迈上新台阶</t>
+          <t>全面落实长三角一体化发展、长江经济带发展、共建“__[1]__”、对口支援帮扶助力完成脱贫攻坚等重大任务，勇当构建新发展格局开路先锋
+一带一路
+开路先锋
+脱贫
+经济带</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{1: '迈上', 2: '文明城市', 3: '浙江人'}</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>{1: '高质量发展'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -976,17 +952,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功申遗，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史__[1]__焕发出新的活力</t>
+          <t>全面落实长三角一体化发展、长江经济带发展、共建“__[1]__”、对口支援帮扶助力完成脱贫攻坚等重大任务，勇当构建新发展格局开路先锋
+一带一路
+开路先锋
+脱贫
+经济带</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{1: '合伙', 2: '服役', 3: '准备'}</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>{1: '文脉'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -996,17 +971,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>深入实施生态文明__[1]__创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖</t>
+          <t>坚持__[1]__输入、内防反弹，坚持动态清零，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响
+外防
+率先
+动态
+内防</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{1: '山上', 2: '遗失', 3: '来日'}</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>{1: '示范'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1016,17 +990,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零__[1]__，生态环境公众满意度持续提升</t>
+          <t>坚持__[1]__输入、内防反弹，坚持动态清零，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响
+外防
+率先
+动态
+内防</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{1: '喜得', 2: '国威', 3: '老友'}</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>{1: '填埋'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1009,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>生态修复和生物多样性保护不断加强，河长制等全国推广，__[1]__城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升</t>
+          <t>全省人民万众一心、共克时艰，广大党员干部冲锋在前、__[1]__，坚决打好疫情防控遭遇战阻击战歼灭战
+顽强拼搏
+冲锋在前
+阻击战
+万众一心</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{1: '路矿', 2: '本局', 3: '局内'}</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>{1: '美丽'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1028,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>牢固树立总体国家__[1]__，风险闭环管控大平安机制不断完善，群众安全感达到99.19％</t>
+          <t>全省人民万众一心、共克时艰，广大党员干部冲锋在前、__[1]__，坚决打好疫情防控遭遇战阻击战歼灭战
+顽强拼搏
+冲锋在前
+阻击战
+万众一心</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{1: '正赶上', 2: '印刷工', 3: '高兴得'}</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>{1: '安全观'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1047,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>社会治安状况持续改善，扫黑除恶取得重大成果，经济金融领域突出风险点和利奇马台风等自然灾害得到有效处置，刑事__[1]__数、安全事故起数和伤亡人数持续下降</t>
+          <t>2021年地区__[1]__超过7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一
+生产总值
+2021
+6.7
+11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{1: '赠予', 2: '赠给', 3: '哈达'}</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>{1: '发案'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1066,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>坚持和发展新时代“枫桥经验”，__[1]__社会治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降</t>
+          <t>2021年地区__[1]__超过7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一
+生产总值
+2021
+6.7
+11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{1: '败露', 2: '丧气', 3: '窘态'}</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>{1: '市域'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1085,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>回顾五年奋斗历程，我们更加深刻地感悟到__[1]__总书记对浙江发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证</t>
+          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家实验室、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[1]__引进培育实现新突破，人才生态最优省金名片越来越亮
+人才
+低头
+海伦
+除夕</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1104,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[1]__，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命</t>
+          <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家实验室、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[1]__引进培育实现新突破，人才生态最优省金名片越来越亮
+人才
+低头
+海伦
+除夕</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{1: '2017', 2: '红船', 3: '之畔'}</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>{1: '根脉'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1123,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记亲临__[1]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口”</t>
+          <t>产业基础再造和产业链提升取得重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精__[1]__“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元
+特新
+1.28
+成效显著
+专精</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1142,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记__[1]__谋划、亲自定题、亲自推动，作出支持浙江高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命</t>
+          <t>产业基础再造和产业链提升取得重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精__[1]__“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元
+特新
+1.28
+成效显著
+专精</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{1: '消退', 2: '趋于', 3: '趋向'}</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>{1: '亲自'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1161,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>这些重托和使命，将浙江工作提升到__[1]__的战略高度，为浙江发展注入前所未有的强劲动力！</t>
+          <t>高规格召开全省__[1]__经济发展大会，率先出台民营企业发展促进条例，激发民营经济发展活力
+民营
+国名
+礼节
+夺走</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{1: '浙江', 2: '重托', 3: '使命'}</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>{1: '前所未有'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1180,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>我们之所以能取得这些历史性成就，根本在于__[1]__总书记、党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引；是历届省委沿着习近平总书记指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果</t>
+          <t>高规格召开全省__[1]__经济发展大会，率先出台民营企业发展促进条例，激发民营经济发展活力
+民营
+国名
+礼节
+夺走</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1199,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[1]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！</t>
+          <t xml:space="preserve">迭代形成“1612”体系构架，建成全省统一__[1]__平台，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进条例、公共数据条例等16部相关法规
+公共数据
+闷闷不乐
+垂头丧气
+</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{1: '伪命题', 2: '遗产税', 3: '交易税'}</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>{1: '指战员'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1218,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”作为最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化__[1]__统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉</t>
+          <t xml:space="preserve">迭代形成“1612”体系构架，建成全省统一__[1]__平台，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进条例、公共数据条例等16部相关法规
+公共数据
+闷闷不乐
+垂头丧气
+</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{1: '忍痛', 2: '王子', 3: '掠走'}</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>{1: '党建'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1237,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还不够强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[1]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂</t>
+          <t xml:space="preserve">完成国家级改革试点__[1]__项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效
+331
+艾奇逊
+</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{1: '汉子', 2: '那种', 3: '毅然'}</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>{1: '有待'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1255,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立__[1]__同志党中央的核心、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义</t>
+          <t>支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[1]__”品牌持续打响
+群团
+陈封
+掠走
+已用</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1274,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的__[1]__，推动中国特色社会主义事业航船劈波斩浪、一往无前！</t>
+          <t>支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[1]__”品牌持续打响
+群团
+陈封
+掠走
+已用</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{1: '劈波斩浪', 2: '两个维护', 3: '坚决拥护'}</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>{1: '大好局面'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1293,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展</t>
+          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[1]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{1: '时代', 2: '中国', 3: '行动指南'}</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>{1: '马克思主义'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1312,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>浙江是习近平新时代中国特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论__[1]__、实践成果、制度成果</t>
+          <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[1]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{1: '车夫', 2: '扮成', 3: '排队'}</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>{1: '成果'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1331,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>党的十八大以来，习近平总书记5次亲临__[1]__，对浙江工作作出一系列重要指示，亲自为新时代浙江赋予光荣使命、擘画宏伟蓝图</t>
+          <t xml:space="preserve">牢牢掌握意识形态工作领导权，社会主义核心价值观引领树立社会__[1]__，伟大建党精神和红船精神、浙江精神广泛弘扬，8090和00后新时代理论宣讲品牌更加响亮
+新风尚
+试探性
+</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1349,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>浙江__[1]__扛使命、心怀“国之大者”，必须深刻理解把握5大战略指引：一要以加强党的全面领导和全面从严治党守好“红色根脉”</t>
+          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业__[1]__迈上新台阶
+高质量发展
+迈上
+文明城市
+浙江人</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{1: '国之大者', 2: '从严治党', 3: '根脉'}</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>{1: '要勇'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1368,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持和完善党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的__[1]__革命的伟大实践，开辟了百年大党自我革命的新境界</t>
+          <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业__[1]__迈上新台阶
+高质量发展
+迈上
+文明城市
+浙江人</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{1: '喜讯', 2: '成行', 3: '远近'}</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>{1: '自我'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1387,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>“红色根脉”是党在__[1]__百年奋斗最鲜明的底色，习近平新时代中国特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识</t>
+          <t>文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功__[1]__，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力
+申遗
+灵敏
+不等
+以内</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1406,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神__[1]__、使命之源、力量之源</t>
+          <t>文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功__[1]__，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力
+申遗
+灵敏
+不等
+以内</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{1: '使命', 2: '伟大', 3: '初心'}</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>{1: '之源'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1425,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>19年来，在“八八战略”指引下，浙江实现了从经济大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁</t>
+          <t>深入实施__[1]__文明示范创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖
+生态
+代办
+助手
+临时</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{1: '保留', 2: '老手', 3: '特工'}</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>{1: '小康'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1444,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>因此，“__[1]__”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝</t>
+          <t>深入实施__[1]__文明示范创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖
+生态
+代办
+助手
+临时</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{1: '浙江', 2: '宝贵财富', 3: '用之不竭'}</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>{1: '八八战略'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1463,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的省域范例，生动展示中国共产党__[1]__能、马克思主义为什么行、中国特色社会主义为什么好</t>
+          <t>空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零__[1]__，生态环境公众满意度持续提升
+填埋
+喜得
+国威
+老友</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{1: '综合性'}</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>{1: '为什么'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1482,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>习近平总书记强调，共同富裕是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；__[1]__关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕</t>
+          <t>空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零__[1]__，生态环境公众满意度持续提升
+填埋
+喜得
+国威
+老友</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{1: '共同富裕', 2: '现代化', 3: '习近平'}</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>{1: '高质量发展'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1501,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>习近平总书记、党中央赋予__[1]__高质量发展建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用</t>
+          <t>生态修复和生物多样性保护不断加强，河长制等全国推广，__[1]__城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升
+美丽
+路矿
+本局
+局内</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1520,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>这是习近平总书记对__[1]__工作的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态</t>
+          <t>生态修复和生物多样性保护不断加强，河长制等全国推广，__[1]__城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升
+美丽
+路矿
+本局
+局内</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1539,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>“八八战略”是全面系统开放的理论体系，涵盖了__[1]__同志在浙江工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领</t>
+          <t>牢固树立总体国家__[1]__，风险闭环管控大平安机制不断完善，群众安全感达到99.19％
+安全观
+正赶上
+印刷工
+高兴得</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1558,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>聚焦共同富裕和现代化先行宏伟目标，要把学深悟透__[1]__新时代中国特色社会主义思想与习近平总书记对浙江工作的重要指示精神贯通起来，牢牢把握11方面重要遵循：</t>
+          <t>牢固树立总体国家__[1]__，风险闭环管控大平安机制不断完善，群众安全感达到99.19％
+安全观
+正赶上
+印刷工
+高兴得</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{1: '一条龙'}</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>{1: '习近平'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1577,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持创新在现代化__[1]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国</t>
+          <t>社会治安状况持续改善，扫黑除恶取得重大成果，经济金融领域突出风险点和__[1]__台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降
+利奇马
+起数
+治安状况
+扫黑</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{1: '躲过', 2: '该店', 3: '顶峰'}</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>{1: '建设'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1596,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>明确要求浙江，以人才为本，深入实施人才__[1]__战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度</t>
+          <t>社会治安状况持续改善，扫黑除恶取得重大成果，经济金融领域突出风险点和__[1]__台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降
+利奇马
+起数
+治安状况
+扫黑</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{1: '间或', 2: '擦洗', 3: '小便'}</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>{1: '强省'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1615,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>习近平总书记强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活__[1]__新动力；以数字化改革助力政府职能转变；加快建设数字中国</t>
+          <t>坚持和发展新时代“枫桥经验”，__[1]__社会治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降
+市域
+败露
+丧气
+窘态</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{1: '全面', 2: '改革', 3: '习近平'}</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>{1: '高质量发展'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1634,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>明确要求浙江，深入推进重要领域和关键环节__[1]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当改革开放排头兵</t>
+          <t>坚持和发展新时代“枫桥经验”，__[1]__社会治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降
+市域
+败露
+丧气
+窘态</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{1: '约定', 2: '雪峰', 3: '披上'}</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>{1: '改革'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1653,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>习近平总书记强调，贯彻新发展理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[1]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势</t>
+          <t xml:space="preserve">回顾五年奋斗历程，我们更加深刻地感悟到__[1]__总书记对浙江发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{1: '住处', 2: '吹牛', 3: '张良'}</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{1: '开放'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1671,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>明确要求__[1]__，充分发挥浙江独具的共建“一带一路”、长江经济带发展、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放</t>
+          <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[1]__，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命
+根脉
+2017
+红船
+之畔</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{1: '政权', 2: '战俘', 3: '刺刀'}</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1690,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>习近平总书记强调，着力解决发展不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民__[1]__取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性</t>
+          <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[1]__，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命
+根脉
+2017
+红船
+之畔</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{1: '接二连三', 2: '接连不断'}</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>{1: '共同富裕'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1709,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化</t>
+          <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记亲临__[1]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口”
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{1: '路矿', 2: '本局', 3: '局内'}</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>{1: '美丽'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1728,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>习近平总书记强调，把人民当家作主具体地、现实地体现到党治国理政的政策措施__[1]__、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系</t>
+          <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记亲临__[1]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口”
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{1: '附有', 2: '填补', 3: '亲历'}</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>{1: '上来'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1747,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>明确要求浙江，民主各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量</t>
+          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持__[1]__高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{1: '蚂蚁', 2: '三联', 3: '谁家'}</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>{1: '轨道'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1766,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>习近平总书记强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国</t>
+          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持__[1]__高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>{1: '法治'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1785,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平</t>
+          <t>这些重托和使命，将__[1]__工作提升到前所未有的战略高度，为浙江发展注入前所未有的强劲动力！
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{1: '围巾', 2: '调换', 3: '隐瞒'}</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>{1: '法治'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1804,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我国现代化是物质文明和精神文明相协调的现代化；增强__[1]__自觉、坚定文化自信；强化社会主义核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕</t>
+          <t>这些重托和使命，将__[1]__工作提升到前所未有的战略高度，为浙江发展注入前所未有的强劲动力！
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{1: '人工', 2: '海伦', 3: '直线'}</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>{1: '文化'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1823,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>明确要求浙江，大力实施文化建设“八项工程”；要传承历史、守正出新，__[1]__、兼收并蓄，实现建设文化强省的目标</t>
+          <t xml:space="preserve">我们之所以能取得这些历史性成就，根本在于__[1]__总书记、党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引；是历届省委沿着习近平总书记指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{1: '守正', 2: '强省', 3: '兼收并蓄'}</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>{1: '海纳百川'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1841,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼有所育、学有所教、劳有所得、__[1]__、老有所养、住有所居、弱有所扶上不断取得新进展</t>
+          <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[1]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！
+指战员
+伪命题
+遗产税
+交易税</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{1: '异乎寻常'}</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>{1: '病有所医'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1860,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[1]__的长效机制；以推进基本公共服务__[2]__为主线，稳扎稳打、持续推进</t>
+          <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[1]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！
+指战员
+伪命题
+遗产税
+交易税</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{2: '稳扎稳打', 1: '办实事', 3: '明确要求'}</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>{2: '均等化', 1: '办实事'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1879,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[2]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国</t>
+          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”作为最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化__[1]__统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉
+党建
+忍痛
+王子
+掠走</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{2: '躲过', 1: '建设', 3: '该店'}</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>{2: '生态', 1: '建设'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1898,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山__[2]__路子走下去，把绿水青山建得更美，把金山银山做得更大</t>
+          <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”作为最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化__[1]__统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉
+党建
+忍痛
+王子
+掠走</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{1: '绿水青山', 2: '卡车司机'}</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>{1: '绿水青山', 2: '银山'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1917,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>习近平总书记强调，坚持总体国家安全观；坚持底线思维，着力防范化解重大风险；推动社会__[1]__重心向基层下移；完善共建共治共享的社会治理制度；建设__[2]__有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国</t>
+          <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还不够强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[1]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂
+有待
+汉子
+那种
+毅然</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{1: '治理', 2: '转往', 3: '换文'}</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>{1: '治理', 2: '人人'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2016,17 +1936,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；__[2]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”</t>
+          <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还不够强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[1]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂
+有待
+汉子
+那种
+毅然</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{2: '室里', 1: '浙江', 3: '已婚'}</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>{2: '治理', 1: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2036,17 +1955,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[1]__的最高原则；不断完善党的领导制度体系；以党的政治__[2]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量</t>
+          <t xml:space="preserve">党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立__[1]__同志党中央的核心、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{2: '躲过', 1: '党的领导', 3: '该店'}</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>{2: '建设', 1: '党的领导'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2056,17 +1973,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]____[2]__永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗</t>
+          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，推动中国特色社会主义事业航船__[1]__、一往无前！
+劈波斩浪
+两个维护
+坚决拥护
+万众一心</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{1: '全面', 2: '可有', 3: '珍珠'}</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>{1: '全面', 2: '从严治党'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2076,17 +1992,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>“5大战略__[1]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[2]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南</t>
+          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，推动中国特色社会主义事业航船__[1]__、一往无前！
+劈波斩浪
+两个维护
+坚决拥护
+万众一心</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{2: '政权', 1: '指引', 3: '战俘'}</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>{2: '浙江', 1: '指引'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2011,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“__[2]__”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果</t>
+          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展
+马克思主义
+时代
+中国
+行动指南</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{1: '习近平', 2: '付诸实践', 3: '总书记'}</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>{1: '习近平', 2: '八八战略'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2030,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>习近平总书记的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，__[1]__坚定不移沿着总书记指引的方向奋勇前进，才能闯出新路、__[2]__使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民</t>
+          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展
+马克思主义
+时代
+中国
+行动指南</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{1: '唯有', 2: '专场', 3: '介绍'}</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>{1: '唯有', 2: '不负'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2049,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“__[2]__”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！</t>
+          <t xml:space="preserve">浙江是__[1]__新时代中国特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{1: '根脉', 2: '勇立', 3: '奋斗者'}</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>{1: '根脉', 2: '八八战略'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2067,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>总体要求：__[1]__以习近平新时代中国特色社会主义思想为指导，__[2]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界</t>
+          <t>党的十八大以来，习近平总书记5次亲临__[1]__，对浙江工作作出一系列重要指示，亲自为新时代浙江赋予光荣使命、擘画宏伟蓝图
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{2: '瞬间', 1: '坚持', 3: '此处'}</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>{2: '全面', 1: '坚持'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2086,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新__[2]__、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果</t>
+          <t>党的十八大以来，习近平总书记5次亲临__[1]__，对浙江工作作出一系列重要指示，亲自为新时代浙江赋予光荣使命、擘画宏伟蓝图
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{1: '全面', 2: '可有', 3: '珍珠'}</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>{1: '全面', 2: '体系'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2105,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>全省地区生产总值__[1]__12万亿元，人均地区生产总值达到17__[2]__，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平</t>
+          <t>浙江要勇扛使命、心怀“__[1]__”，必须深刻理解把握5大战略指引：一要以加强党的全面领导和全面从严治党守好“红色根脉”
+国之大者
+从严治党
+根脉
+守好</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{1: '达到', 2: '交替', 3: '喜欢'}</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>{1: '达到', 2: '万元'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2124,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际__[2]__战略枢纽建设再上台阶</t>
+          <t>浙江要勇扛使命、心怀“__[1]__”，必须深刻理解把握5大战略指引：一要以加强党的全面领导和全面从严治党守好“红色根脉”
+国之大者
+从严治党
+根脉
+守好</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{1: '建设', 2: '杨善洲'}</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>{1: '建设', 2: '双循环'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2143,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“掌上办事__[2]__”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进</t>
+          <t>习近平总书记强调，坚持和完善党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的__[1]__革命的伟大实践，开辟了百年大党自我革命的新境界
+自我
+喜讯
+成行
+远近</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{1: '数字', 2: '掌上', 3: '智治'}</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>{1: '数字', 2: '之省'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2162,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>__[1]__人民__[2]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显</t>
+          <t>习近平总书记强调，坚持和完善党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的__[1]__革命的伟大实践，开辟了百年大党自我革命的新境界
+自我
+喜讯
+成行
+远近</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{1: '全过程', 2: '民主协商', 3: '民主选举'}</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>{1: '全过程', 2: '民主'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2181,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>各领域__[1]__水平全面提升，基层__[2]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局</t>
+          <t>“红色根脉”是党在__[1]__百年奋斗最鲜明的底色，习近平新时代中国特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{2: '远征队', 1: '法治化'}</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>{2: '治理', 1: '法治化'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2200,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显__[2]__深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江</t>
+          <t>“红色根脉”是党在__[1]__百年奋斗最鲜明的底色，习近平新时代中国特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{1: '文化', 2: '政权', 3: '战俘'}</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>{1: '文化', 2: '浙江'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2219,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[2]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75</t>
+          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神__[1]__、使命之源、力量之源
+之源
+使命
+初心
+力量之源</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{2: '东河', 1: '收入', 3: '祥云'}</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>{2: '居民收入', 1: '收入'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2238,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，__[2]__社会和共建共享型社会加快形成</t>
+          <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神__[1]__、使命之源、力量之源
+之源
+使命
+初心
+力量之源</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{1: '公共服务', 2: '送交给'}</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>{1: '公共服务', 2: '知识型'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2257,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>生态环境质量持续改善，地表水__[1]__断面达到或优于Ш类水体比例超过__[2]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善</t>
+          <t>19年来，在“八八战略”指引下，浙江实现了从经济大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁
+小康
+保留
+老手
+特工</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{2: '无废', 1: '省控', 3: '碳达峰'}</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>{2: '95', 1: '省控'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2276,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[2]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足</t>
+          <t>19年来，在“八八战略”指引下，浙江实现了从经济大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁
+小康
+保留
+老手
+特工</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{2: 'BP', 1: '人民', 3: '已是'}</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>{2: '素养', 1: '人民'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2295,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]____[2]__，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势</t>
+          <t>因此，“__[1]__”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝
+八八战略
+浙江
+宝贵财富
+用之不竭</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>{1: '创新', 2: '惨状', 3: '已用'}</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>{1: '创新', 2: '制胜'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2314,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>二是变革__[1]__，全面构建共同富裕和现代化新__[2]__，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力</t>
+          <t>因此，“__[1]__”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝
+八八战略
+浙江
+宝贵财富
+用之不竭</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{1: '重塑', 2: '三两', 3: '右边'}</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>{1: '重塑', 2: '体系'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2333,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、__[2]__为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量</t>
+          <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的__[1]__范例，生动展示中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好
+省域
+范例
+优越性
+总书记</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{1: '安全', 2: '为机', 3: '筑牢'}</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>{1: '安全', 2: '转危'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2352,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[1]__带后富，形成__[2]__、共创美好生活的新理念新机制新气象</t>
+          <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的__[1]__范例，生动展示中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好
+省域
+范例
+优越性
+总书记</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{2: '新理念', 1: '先富', 3: '四是'}</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>{2: '共同奋斗', 1: '先富'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2476,17 +2371,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>五是__[1]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[2]__、干一件、成一件，形成全社会实干争先的激情活力</t>
+          <t>习近平总书记强调，共同富裕是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；__[1]__关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕
+高质量发展
+共同富裕
+现代化
+习近平</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{2: '敢为人先', 1: '唯实', 3: '五是'}</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>{2: '一件', 1: '唯实'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2390,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>统筹推进人才、科技工作，推进创新链产业链深度融合，加快构建现代__[1]__体系和产业体系，推进经济__[2]__提质</t>
+          <t>习近平总书记强调，共同富裕是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；__[1]__关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕
+高质量发展
+共同富裕
+现代化
+习近平</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{1: '科创', 2: '提质', 3: '体系'}</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>{1: '科创', 2: '稳进'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2409,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>构建以国家__[1]__和全国重点实验室为龙头的新型实验室体系、以国家产业__[2]__中心为重点的产业创新体系，建设大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术</t>
+          <t>习近平总书记、党中央赋予__[1]__高质量发展建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{1: '实验室', 2: '建设', 3: '卡脖子'}</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>{1: '实验室', 2: '创新'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2536,17 +2428,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、__[2]__人才队伍，打造战略人才力量</t>
+          <t>习近平总书记、党中央赋予__[1]__高质量发展建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{1: '人才', 2: '优秀青年', 3: '人才队伍'}</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>{1: '人才', 2: '高技能'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2556,17 +2447,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才__[2]__和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的贡献度</t>
+          <t>这是习近平总书记对__[1]__工作的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{1: '人才', 2: '都由', 3: '作法'}</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>{1: '人才', 2: '高地'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2576,17 +2466,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>深化国家__[1]__经济创新发展试验区建设，推进__[2]__企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统</t>
+          <t>这是习近平总书记对__[1]__工作的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{1: '数字', 2: '弟子', 3: '清扫'}</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>{1: '数字', 2: '规上'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2596,17 +2485,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，__[2]__国内国际规则制定</t>
+          <t xml:space="preserve">“八八战略”是全面系统开放的理论体系，涵盖了__[1]__同志在浙江工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{1: '办好', 2: '逆向', 3: '反向'}</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>{1: '办好', 2: '积极参与'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2503,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海__[1]__等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“腾笼换鸟、凤凰涅槃”和“专精特新”发展，加快建设制造__[2]__、质量强省</t>
+          <t xml:space="preserve">聚焦共同富裕和现代化先行宏伟目标，要把学深悟透__[1]__新时代中国特色社会主义思想与习近平总书记对浙江工作的重要指示精神贯通起来，牢牢把握11方面重要遵循：
+习近平
+一条龙
+</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{2: '白洋', 1: '空天', 3: '摊商'}</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>{2: '强省', 1: '空天'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2636,17 +2521,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“__[2]__”先进制造业集群，建设世界一流科技园区</t>
+          <t>习近平总书记强调，坚持创新在现代化__[1]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国
+建设
+躲过
+该店
+顶峰</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{1: '提档', 2: '科技园区', 3: '能级'}</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>{1: '提档', 2: '415X'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2656,17 +2540,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>引领__[1]____[2]__，一体推进全面深化改革、共同富裕示范区重大改革和数字化改革取得更大突破</t>
+          <t>习近平总书记强调，坚持创新在现代化__[1]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国
+建设
+躲过
+该店
+顶峰</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{1: '改革', 2: '机组人员'}</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>{1: '改革', 2: '风气之先'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2559,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>构建数据集成、“__[1]__”辅助的决策__[2]__，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面__[3]__网络安全根基</t>
+          <t>明确要求浙江，以__[1]__为本，深入实施人才强省战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度
+人才
+低头
+海伦
+除夕</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{1: '大脑', 2: '支撑体系', 3: '怀远'}</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>{1: '大脑', 2: '支撑体系', 3: '筑牢'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2696,17 +2578,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>以__[1]____[2]__、收入分配改革为牵引，深入推进共同富裕重大改革，加快探索__[3]__制度政策体系</t>
+          <t>明确要求浙江，以__[1]__为本，深入实施人才强省战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度
+人才
+低头
+海伦
+除夕</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{1: '扩中', 2: '提低', 3: '改革'}</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>{1: '扩中', 2: '提低', 3: '共富型'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2597,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>加强重大改革“一本账”“全周期”管理，强化多跨__[1]__、__[2]__，加快取得更多机制性__[3]__成果</t>
+          <t>习近平总书记强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活__[1]__新动力；以数字化改革助力政府职能转变；加快建设数字中国
+高质量发展
+全面
+改革
+习近平</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{2: '系统集成', 3: '一本', 1: '协同'}</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>{2: '系统集成', 3: '制度性', 1: '协同'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2736,17 +2616,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>促进“两个健康”，稳定预期、__[1]__信心，塑造新时代__[2]__精神，拓展__[3]__经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃</t>
+          <t>习近平总书记强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活__[1]__新动力；以数字化改革助力政府职能转变；加快建设数字中国
+高质量发展
+全面
+改革
+习近平</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{2: '企业家', 3: '第三段', 1: '提振'}</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>{2: '企业家', 3: '民营', 1: '提振'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2756,17 +2635,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>深入实施市场主体升级__[1]__，深化“凤凰行动”“__[2]__行动”，加大对中小微企业和个体工商户扶持力度，健全减负降本长效机制，千方百计__[3]__</t>
+          <t>明确要求浙江，深入推进重要领域和关键环节__[1]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当改革开放排头兵
+改革
+约定
+雪峰
+披上</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{1: '行动', 3: '发愁', 2: '雄鹰'}</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>{1: '行动', 3: '助企纾困', 2: '雄鹰'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2776,17 +2654,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>依法平等保护各类__[1]__合法权益，__[2]__要素市场化配置__[3]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设</t>
+          <t>明确要求浙江，深入推进重要领域和关键环节__[1]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当改革开放排头兵
+改革
+约定
+雪峰
+披上</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{2: '深化', 3: '雨衣', 1: '市场主体'}</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>{2: '深化', 3: '改革', 1: '市场主体'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2796,17 +2673,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>实施强化__[1]__、推进__[2]__集成改革，促进平台经济__[3]__创新发展，规范和引导资本健康发展</t>
+          <t>习近平总书记强调，贯彻新发展理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[1]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势
+开放
+住处
+吹牛
+张良</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{3: '集成', 1: '反垄断', 2: '公平竞争'}</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>{3: '规范', 1: '反垄断', 2: '公平竞争'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2692,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深度融入全国统一大市场，建设市场__[1]__，深化打造“一带一路”重要枢纽，构建全方位全要素、高能级__[2]__的__[3]__</t>
+          <t>习近平总书记强调，贯彻新发展理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[1]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势
+开放
+住处
+吹牛
+张良</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{3: '能级', 1: '强省', 2: '高效率'}</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>{3: '双循环', 1: '强省', 2: '高效率'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2836,17 +2711,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>加快__[1]__高标准市场__[2]__，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“__[3]__一出”工程，构建品质消费普及普惠体系</t>
+          <t>明确要求__[1]__，充分发挥浙江独具的共建“一带一路”、长江经济带发展、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{1: '建设', 3: '消费型', 2: '体系'}</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>{1: '建设', 3: '两进', 2: '体系'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2856,17 +2730,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、__[2]__美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域__[3]__示范点和上海虹桥国际开放枢纽南向拓展带</t>
+          <t>明确要求__[1]__，充分发挥浙江独具的共建“一带一路”、长江经济带发展、长三角一体化发展等叠加优势，发挥好自由贸易试验区作用，以更大力度推进全方位高水平开放
+浙江
+政权
+战俘
+刺刀</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{1: '长三角', 2: '绿色', 3: '嘉善'}</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>{1: '长三角', 2: '绿色', 3: '高质量发展'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2876,17 +2749,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>高标准建设__[1]__试验区，__[2]__大宗商品特色自由贸易港，探索建立以投资贸易自由化__[3]__为核心的制度体系</t>
+          <t xml:space="preserve">习近平总书记强调，着力解决发展不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民__[1]__取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性
+共同富裕
+接二连三
+接连不断
+</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{1: '自贸', 2: '争创', 3: '高标准'}</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>{1: '自贸', 2: '争创', 3: '便利化'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2768,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>打造全球数字__[1]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[2]__一体化和国际贸易综合改革，推动贸易__[3]__</t>
+          <t xml:space="preserve">习近平总书记强调，着力解决发展不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民__[1]__取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性
+共同富裕
+接二连三
+接连不断
+</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{2: '内外贸', 3: '临死前', 1: '贸易'}</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>{2: '内外贸', 3: '高质量发展', 1: '贸易'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2787,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>纵深推进__[1]__开放大通道建设，推动__[2]____[3]__高质量发展，推动数字技术和产业走向“一带一路”</t>
+          <t>明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化
+美丽
+路矿
+本局
+局内</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{1: '义甬舟', 2: '义新欧', 3: '教会'}</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>{1: '义甬舟', 2: '义新欧', 3: '班列'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2936,17 +2806,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、__[2]__辐射、山海互济、__[3]__美丽”空间格局</t>
+          <t>明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化
+美丽
+路矿
+本局
+局内</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{1: '一湾', 3: '院方', 2: '四极'}</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>{1: '一湾', 3: '全域', 2: '四极'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2956,17 +2825,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和__[2]____[3]__现代产业带</t>
+          <t>习近平总书记强调，把人民当家作主具体地、现实地__[1]__到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系
+体现
+派往
+麦秸
+宝元</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{1: '温台', 2: '金衢', 3: '迭代'}</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>{1: '温台', 2: '金衢', 3: '丽三大'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2976,17 +2844,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>唱好__[1]__“__[2]__”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴__[3]__甬打造网络大城市</t>
+          <t>习近平总书记强调，把人民当家作主具体地、现实地__[1]__到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系
+体现
+派往
+麦秸
+宝元</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>{1: '杭甬', 2: '双城记', 3: '队委会'}</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>{1: '杭甬', 2: '双城记', 3: '融杭联'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2863,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>支持嘉兴打造长三角__[1]__群重要中心城市、湖州建设生态文明典范城市，__[2]__国家城乡融合发展__[3]__</t>
+          <t>明确要求浙江，民主各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量
+轨道
+蚂蚁
+三联
+谁家</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>{1: '城市', 3: '中年', 2: '共建'}</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>{1: '城市', 3: '试验区', 2: '共建'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3016,17 +2882,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新__[1]__合作建设__[2]__边际中心城市、__[3]__创建革命老区共同富裕先行示范区</t>
+          <t>明确要求浙江，民主各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量
+轨道
+蚂蚁
+三联
+谁家</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>{2: '四省', 1: '省际', 3: '共同富裕'}</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>{2: '四省', 1: '省际', 3: '丽水'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3036,17 +2901,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型__[2]__网；强化“__[3]__联动”，建设世界一流强港，提升大通道内联外畅水平</t>
+          <t>习近平总书记强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>{1: '设施', 2: '基础设施', 3: '她们'}</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>{1: '设施', 2: '基础设施', 3: '四港'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3056,17 +2920,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>加快__[1]____[2]__建设，把宁波舟山海域__[3]__作为重中之重，深入实施科技兴海战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力</t>
+          <t>习近平总书记强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>{3: '公方', 1: '海洋', 2: '强省'}</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>{3: '海岛', 1: '海洋', 2: '强省'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3076,17 +2939,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>打造山海协作工程升级版，推进__[1]____[2]__、产业飞地精准落地，推进__[3]__万村行动，构建新型帮共体</t>
+          <t>明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>{2: '飞地', 1: '科创', 3: '万村'}</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>{2: '飞地', 1: '科创', 3: '万企进'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3096,17 +2958,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>加强县城__[1]__板强弱项，提升发展__[2]__、特色小镇，推动千年古城复兴，重塑__[3]__活力，培育现代化城市</t>
+          <t>明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平
+法治
+围巾
+调换
+隐瞒</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{2: '中心镇', 1: '补短', 3: '馆址'}</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>{2: '中心镇', 1: '补短', 3: '县域'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3116,17 +2977,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>实施“科技__[1]__、机械强农”行动，建设农业__[2]__高地，深化“三位一体”__[3]__联改革，大力发展高效生态农业</t>
+          <t>习近平总书记强调，我国现代化是物质文明和精神文明相协调的现代化；增强__[1]__自觉、坚定文化自信；强化社会主义核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕
+文化
+人工
+海伦
+直线</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{1: '强农', 3: '缄默', 2: '科创'}</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>{1: '强农', 3: '农合', 2: '科创'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3136,17 +2996,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非__[2]__”、防止基本农田“__[3]__”，全力打好粮食安全保卫战</t>
+          <t>习近平总书记强调，我国现代化是物质文明和精神文明相协调的现代化；增强__[1]__自觉、坚定文化自信；强化社会主义核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕
+文化
+人工
+海伦
+直线</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>{1: '耕地', 2: '农化', 3: '达利'}</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>{1: '耕地', 2: '农化', 3: '非粮化'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3156,17 +3015,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>深化以集体经济为核心的__[1]__富民__[2]__集成改革，__[3]__探索农村土地制度改革，打造数字乡村引领区</t>
+          <t>明确要求浙江，大力实施文化建设“八项工程”；要传承历史、守正出新，__[1]__、兼收并蓄，实现建设文化强省的目标
+海纳百川
+守正
+兼收并蓄
+八项</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{2: '乡村', 1: '强村', 3: '树胶'}</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>{2: '乡村', 1: '强村', 3: '稳慎'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3176,17 +3034,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>深化“__[1]__两回”，促进__[2]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入__[3]__、产业发展融合化</t>
+          <t>明确要求浙江，大力实施文化建设“八项工程”；要传承历史、守正出新，__[1]__、兼收并蓄，实现建设文化强省的目标
+海纳百川
+守正
+兼收并蓄
+八项</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>{2: '城乡', 3: '躲过', 1: '两进'}</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>{2: '城乡', 3: '均衡化', 1: '两进'}</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3196,957 +3053,826 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>推进自主性先行性地方立法，健全__[1]__讨论决定重大事项制度，打造人大监督__[2]__成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法__[3]__，完善民主民意表达平台</t>
+          <t xml:space="preserve">习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼有所育、学有所教、劳有所得、__[1]__、老有所养、住有所居、弱有所扶上不断取得新进展
+病有所医
+异乎寻常
+</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>{1: '人大', 2: '硬核', 3: '希尔'}</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>{1: '人大', 2: '硬核', 3: '履职'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>推动政协更好成为“__[1]__阵地、重要平台、重要渠道”，构建__[2]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生__[3]__”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>{2: '协商', 3: '海燕', 1: '重要'}</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>{2: '协商', 3: '议事堂', 1: '重要'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]____[2]__，打造践行全过程人民民主基层单元，深化民生实事项目人大代表__[3]__制</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>{1: '人大代表', 3: '吸吮', 2: '联络站'}</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>{1: '人大代表', 3: '票决', 2: '联络站'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>健全基层群众自治制度，深化“村民说事”“民主__[1]__”等实践，推进村级__[2]__协商创新实验试点，完善__[3]__党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>{2: '议事', 1: '恳谈', 3: '遗下'}</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>{2: '议事', 1: '恳谈', 3: '街道社区'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>完善大__[1]__格局，实施“__[2]__共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“__[3]__一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>{1: '统战工作', 3: '覆盖', 2: '同心'}</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>{1: '统战工作', 3: '浙里', 2: '同心'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>推行以__[1]____[2]__为标志的__[3]__发展模式，增强先进文化凝聚力，在共同富裕中实现精神富有，在现代化先行中实现文化先行</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>{3: '人工', 2: '富有', 1: '精神'}</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>{3: '文化', 2: '富有', 1: '精神'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释__[1]__体系，构建浙江红色精神谱系，深化文化研究工程，高水平建设__[2]____[3]__、网络强省，打造重大传播平台，提升文化安全保障能力</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>{3: '该轮', 1: '传播', 2: '社科'}</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>{3: '强省', 1: '传播', 2: '社科'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”__[2]____[3]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>{1: '公民道德', 3: '瞒着', 2: '省域'}</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>{1: '公民道德', 3: '文明', 2: '省域'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>深化新时代文艺精品__[1]__工程，建设之江艺术长廊，提升大运河国家__[2]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大__[3]__群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>{2: '文化', 3: '包办', 1: '创优'}</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>{2: '文化', 3: '遗址', 1: '创优'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行__[2]__科学素质行动计划、公众__[3]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>{1: '文化', 3: '下落', 2: '全民'}</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>{1: '文化', 3: '人文', 2: '全民'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进__[2]__深度融合，创建__[3]__旅游示范省</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>{1: '文创', 2: '文旅', 3: '桂金'}</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>{1: '文创', 2: '文旅', 3: '全域'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>全面提升__[1]__建设__[2]__，健全为民__[3]____[4]__，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>{1: '社会', 3: '办实事', 2: '战略地位', 4: '为民', 5: '统筹', 6: '社会保障', 7: '单元'}</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>{1: '社会', 3: '办实事', 2: '战略地位', 4: '长效机制'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>更大力度建设__[1]____[2]__，率先实现基础教育均衡优质、高等教育__[3]__普及和__[4]__人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以新机制新建成一批高水平大学</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>{3: '高水平', 2: '强省', 4: '新机制', 1: '教育', 5: '基础教育', 6: '建设', 7: '人力资本'}</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>{3: '高水平', 2: '强省', 4: '普惠性', 1: '教育'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>深化__[1]__浙江__[2]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家__[3]__、__[4]__综合改革示范区，打造公共卫生最安全省份</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>{2: '建设', 1: '健康', 3: '医学中心', 4: '示范区', 5: '服务体系', 6: '公共卫生', 7: '医疗卫生'}</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>{2: '建设', 1: '健康', 3: '医学中心', 4: '中医药'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>积极应对__[1]__，探索“__[2]__一小”整体解决方案，完善__[3]__养老、__[4]__服务和政策体系</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>{3: '普惠性', 2: '一老', 1: '人口老龄化', 4: '解决方案', 5: '养老', 6: '一小', 7: '探索'}</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>{3: '普惠性', 2: '一老', 1: '人口老龄化', 4: '育儿'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>积极稳妥推进企业__[1]____[2]__提标扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，__[3]__多层次医疗保障体系，发展惠民型商业补充医疗保险，__[4]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>{2: '养老保险', 3: '健全', 4: '提标', 1: '职工基本', 5: '扩面', 6: '完善', 7: '退役军人'}</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>{2: '养老保险', 3: '健全', 4: '探索', 1: '职工基本'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>探索__[1]__初次__[2]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[3]__创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入__[4]__进入中等收入群体行列</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>{2: '分配', 1: '构建', 4: '清零', 3: '就业', 5: '扩中', 6: '提低', 7: '体系'}</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>{2: '分配', 1: '构建', 4: '群体', 3: '就业'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>一体推进__[1]__风貌整治提升和未来__[2]__未来乡村__[3]__，深化__[4]__建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>{2: '社区', 1: '城乡', 3: '建设', 4: '未来', 5: '风貌', 6: '公共服务', 7: '共同体'}</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>{2: '社区', 1: '城乡', 3: '建设', 4: '城乡规划'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>建立健全国土__[1]____[2]__，全面落实“三区三线”，大力推进__[3]__土地综合整治，打造空间治理数字化改革先行省，构建__[4]__自然资源政策体系</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>{3: '全域', 4: '三区', 2: '体系', 1: '空间规划', 5: '全面落实', 6: '数字化', 7: '建立健全'}</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>{3: '全域', 4: '共富型', 2: '体系', 1: '空间规划'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>实施__[1]__方案，高水平建设国家清洁能源示范省，建设__[2]__制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[3]__转型，抢占绿色低碳科技革命先机，开发利用林业__[4]__和海洋“蓝碳”，构建减污降碳协同制度体系</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>{3: '低碳', 2: '绿色', 1: '碳达峰', 4: '蓝碳', 5: '减污降', 6: '体系', 7: '建设'}</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>{3: '低碳', 2: '绿色', 1: '碳达峰', 4: '碳汇'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>深化清新空气示范区建设和“__[1]__”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设__[2]__“__[3]__城市”，加强塑料__[4]__治理，加快构建土壤和地下水污染“防控治”体系</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>{4: '碧水', 1: '五水共治', 2: '全域', 3: '无废', 5: '攻坚战', 6: '建设', 7: '示范区'}</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>{4: '污染', 1: '五水共治', 2: '全域', 3: '无废'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>健全以国家公园为主体的自然保护地体系，推进山水__[1]____[2]____[3]__保护__[4]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>{4: '全域', 3: '生态', 1: '林田', 2: '湖草', 5: '保护地', 6: '河湖', 7: '近岸'}</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>{4: '修复', 3: '生态', 1: '林田', 2: '湖草'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>__[1]____[2]__产品价值实现机制，大力发展特色生态产业，__[3]__生态文化，强化__[4]__生态自觉</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>{2: '生态', 1: '全面推行', 3: '弘扬', 4: '大力发展', 5: '自觉', 6: '强化', 7: '机制'}</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>{2: '生态', 1: '全面推行', 3: '弘扬', 4: '全民'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>__[1]__实施“法助共富、法护平安”专项行动，__[2]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政__[3]__改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）__[4]__综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>{2: '构建', 3: '执法', 1: '深化', 4: '法助共富', 5: '法护', 6: '质效', 7: '诉源'}</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>{2: '构建', 3: '执法', 1: '深化', 4: '法治化'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>坚定维护国家政权__[1]__、制度安全、意识形态安全，深化重大决策社会风险评估，建设__[2]__、智能化、__[3]__社会治安防控体系，常态化__[4]__除恶</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>{1: '安全', 3: '法治化', 4: '除恶', 2: '立体化', 5: '社会治安', 6: '智能化', 7: '意识形态'}</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>{1: '安全', 3: '法治化', 4: '扫黑', 2: '立体化'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[2]__网络综合治理，健全全链条精准化公共__[3]__行业监管体系，严格落实食品药品安全“四个__[4]__”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>{1: '健全', 2: '强化', 4: '安全监管', 3: '安全', 5: '防御能力', 6: '公共安全', 7: '食品药品'}</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>{1: '健全', 2: '强化', 4: '最严', 3: '安全'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>健全“__[1]__”基层__[2]__体系，__[3]__“__[4]__融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访下访，加快建设社会治理共同体</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>{3: '深化', 2: '治理', 1: '141', 4: '下访', 5: '接访', 6: '调处', 7: '共同体'}</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>{3: '深化', 2: '治理', 1: '141', 4: '四治'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实__[1]____[2]__政治责任，纵深推进全面__[3]__，不断推进__[4]__的自我革命引领社会革命在浙江生动实践</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>{2: '治党', 1: '管党', 3: '从严治党', 4: '政治责任', 5: '革命', 6: '建党', 7: '党的建设'}</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>{2: '治党', 1: '管党', 3: '从严治党', 4: '以党'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环__[1]__机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[2]____[3]__的共同信仰、处处见效于党员干部群众的__[4]__</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>{2: '党员干部', 1: '落实', 4: '机制', 3: '群众', 5: '八八战略', 6: '两个维护', 7: '闭环'}</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>{2: '党员干部', 1: '落实', 4: '共同奋斗', 3: '群众'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>压实__[1]__责任体系，健全__[2]__党内法规制度，完善党对重大工作领导__[3]__，推行大成__[4]__决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>{1: '党建', 3: '机制', 2: '省域', 4: '群建', 5: '工青妇', 6: '完善', 7: '领导力'}</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>{1: '党建', 3: '机制', 2: '省域', 4: '集智'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>全面落实__[1]__武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民__[2]__，持续__[3]__ “__[4]__”工作金名片</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>{4: '全面落实', 1: '党管', 2: '国防教育', 3: '擦亮', 5: '名片', 6: '全民', 7: '国防'}</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>{4: '双拥', 1: '党管', 2: '国防教育', 3: '擦亮'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>__[1]__升级__[2]__问题清单应用，强化党建统领__[3]__决策落地、重大工作推进、重大风险防控，促进各级党组织__[4]__、组织力、执行力整体跃升</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>{3: '重大', 2: '七张', 4: '执行力', 1: '迭代', 5: '党建', 6: '跃升', 7: '清单'}</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>{3: '重大', 2: '七张', 4: '领导力', 1: '迭代'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>推进__[1]____[2]____[3]__建设，大兴调查研究之风，实施基层减负新政，健全民情通达机制，推进__[4]__我为统一平台集成优化</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>{1: '唯实', 2: '惟先', 4: '减负', 3: '机关作风', 5: '民情', 6: '大兴', 7: '通达'}</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>{1: '唯实', 2: '惟先', 4: '民呼', 3: '机关作风'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导__[2]____[3]__考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治__[4]__、政治执行力</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>{1: '政治', 4: '人识', 2: '干部', 3: '政治素质', 5: '国之大者', 6: '执行力', 7: '领导'}</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>{1: '政治', 4: '领悟力', 2: '干部', 3: '政治素质'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新__[2]__中国特色社会主义__[3]__教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部__[4]__做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>{1: '习近平', 3: '思想', 2: '时代', 4: '实践', 5: '铸魂', 6: '走心', 7: '做强'}</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>{1: '习近平', 3: '思想', 2: '时代', 4: '坚定'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>落实__[1]__工作“一体系三机制”，加强“一把手”选任和战略储备，实施新一轮优秀年轻干部__[2]__选拔计划，常态化推进干部__[3]__，从严加强干部监督管理，深化公务员分类管理，加快领导班子结构功能、__[4]__能力素质、干部成长路径、干部工作体系和团队文化重塑，从全局高度抓好后继有人根本大计，源源不断培养造就现代化干部队伍</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>{1: '干部', 4: '体系', 2: '培养', 3: '能上能下', 5: '后继有人', 6: '年轻干部', 7: '加强'}</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>{1: '干部', 4: '干部队伍', 2: '培养', 3: '能上能下'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>__[1]__“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准__[2]__、关心关爱机制，深化__[3]__为事业__[4]__、组织为干部担当良性互动</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>{4: '容错', 1: '落实', 3: '干部', 2: '赋能', 5: '纠错', 6: '减负', 7: '松绑'}</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>{4: '担当', 1: '落实', 3: '干部', 2: '赋能'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>__[1]__大抓__[2]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师__[3]__制”，更好发挥党员先锋模范作用，推动基层党建全省域__[4]__、全领域过硬、全面走在前列</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>{2: '基层', 3: '帮带', 1: '树牢', 4: '模范作用', 5: '全面', 6: '党建', 7: '过硬'}</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>{2: '基层', 3: '帮带', 1: '树牢', 4: '建强'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>深入推进“__[1]__争创、千乡__[2]__、__[3]__过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[4]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>{4: '上统', 1: '百县', 2: '晋位', 3: '万村', 5: '下分', 6: '强街', 7: '优社'}</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>{4: '党建', 1: '百县', 2: '晋位', 3: '万村'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>健全“__[1]__”组织__[2]__实质作用发挥机制，加强机关、国企、学校、__[3]__等各领域__[4]__</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>{1: '两新', 3: '公立医院', 4: '国企', 2: '党组织', 5: '健全', 6: '实质', 7: '机关'}</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>{1: '两新', 3: '公立医院', 4: '党建', 2: '党组织'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>坚持不敢腐、不能腐、不想腐__[1]__推进，同时__[2]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[3]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[4]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>{2: '发力', 3: '反腐败', 4: '打虎', 1: '一体', 5: '拍蝇', 6: '猎狐', 7: '不收手'}</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>{2: '发力', 3: '反腐败', 4: '腐败', 1: '一体'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>坚决查处享乐奢靡行为，驰而不息__[1]__形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[2]__正气，以优良党风__[3]__带动__[4]__民风持续向善向好</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>{2: '树新风', 1: '纠治', 4: '党风', 3: '政风', 5: '向善', 6: '不正之风', 7: '奢靡'}</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>{2: '树新风', 1: '纠治', 4: '社风', 3: '政风'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>加强对“一把手”和领导班子__[1]__，加强__[2]__教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督__[3]____[4]__</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>{1: '监督', 3: '提质', 4: '加强', 2: '年轻干部', 5: '巡察', 6: '公权力', 7: '一把手'}</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>{1: '监督', 3: '提质', 4: '增效', 2: '年轻干部'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>健全完善__[1]__交往的正面__[2]__、负面清单、倡导清单，从严规范党员干部__[3]____[4]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>{2: '清单', 1: '政商', 4: '两制', 3: '行权', 5: '亲不逾矩', 6: '公正无私', 7: '勾连'}</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>{2: '清单', 1: '政商', 4: '用权', 3: '行权'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>构建__[1]____[2]__责任共同体，以清廉单元建设为重点，__[3]__做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会__[4]__的政治生态</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>{1: '清廉', 2: '建设', 3: '做实', 4: '加强', 5: '清正', 6: '政治', 7: '廉洁'}</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>{1: '清廉', 2: '建设', 3: '做实', 4: '清朗'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>各级党组织要更加关心关爱__[1]__，__[2]____[3]__青年，在新时代伟大实践中培育__[4]__青年，加快建设青年发展型省份</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>{1: '青年', 3: '教育引导', 4: '关爱', 2: '悉心', 5: '党组织', 6: '省份', 7: '培育'}</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>{1: '青年', 3: '教育引导', 4: '锻造', 2: '悉心'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>广大青年要自觉把个人的理想融入中国梦，努力成为__[1]__、奋斗自强、品德高尚、追求卓越的新时代好青年，成为__[2]__推进共同富裕和现代化大任的先锋力量，唱响“我在窗口写__[3]__”__[4]__，奋力谱写无愧伟大时代的青春华章！</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>{3: '青春', 1: '志存高远', 2: '堪当', 4: '华章', 5: '唱响', 6: '品德高尚', 7: '广大青年'}</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>{3: '青春', 1: '志存高远', 2: '堪当', 4: '最强音'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举__[1]__思想旗帜，忠实践行“__[2]__”，坚决做到“__[3]__”，在__[4]__中奋力推进中国特色社会主义共同富裕先行和省域现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>{1: '伟大', 2: '八八战略', 3: '两个维护', 4: '省域', 5: '二十大', 6: '共同富裕', 7: '奋斗目标'}</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>{1: '伟大', 2: '八八战略', 3: '两个维护', 4: '高质量发展'}</t>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>题干</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>正确选项</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[1]__的长效机制；以推进基本公共服务__[2]__为主线，稳扎稳打、持续推进
+办实事
+均等化
+稳扎稳打
+明确要求</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[2]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国
+建设
+生态
+躲过
+该店</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山__[2]__路子走下去，把绿水青山建得更美，把金山银山做得更大
+绿水青山
+银山
+随访
+试探</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>习近平总书记强调，坚持总体国家__[1]__；坚持底线思维，着力防范化解重大风险；推动__[2]__重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国
+安全观
+社会治理
+正赶上
+印刷工</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；__[2]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”
+浙江
+治理
+政权
+战俘</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[1]__的最高原则；不断完善党的领导制度体系；以党的政治__[2]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量
+党的领导
+建设
+躲过
+该店</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]____[2]__永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗
+全面
+从严治党
+远渡重洋
+专门从事</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>“5大战略__[1]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[2]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南
+指引
+浙江
+政权
+战俘</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“__[2]__”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果
+习近平
+八八战略
+付诸实践
+总书记</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>习近平__[1]__的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，唯有坚定不移沿着总书记指引的方向奋勇前进，__[2]__闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民
+总书记
+才能
+引起
+英语</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“__[2]__”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！
+根脉
+八八战略
+勇立
+奋斗者</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>总体要求：__[1]__以习近平新时代中国特色社会主义思想为指导，__[2]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界
+坚持
+全面
+可有
+珍珠</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新__[2]__、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果
+全面
+体系
+可有
+珍珠</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>全省地区生产总值__[1]__12万亿元，__[2]__地区生产总值达到17万元，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平
+达到
+人均
+去留
+一边</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际__[2]__战略枢纽建设再上台阶
+建设
+双循环
+杨善洲
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“__[2]__办事之省”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进
+数字
+掌上
+袁木
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>__[1]__人民__[2]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显
+全过程
+民主
+民主协商
+民主选举</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>各领域__[1]__水平全面提升，基层__[2]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局
+法治化
+治理
+室里
+已婚</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显__[2]__深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江
+文化
+浙江
+政权
+战俘</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[2]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75
+收入
+居民收入
+从此以后
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，__[2]__社会和共建共享型社会加快形成
+公共服务
+知识型
+从此以后
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>生态环境质量持续改善，地表水__[1]__断面达到或优于Ш类水体比例超过__[2]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善
+省控
+95
+匆忙
+切切</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[2]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足
+人民
+素养
+BP
+已是</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]____[2]__，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势
+创新
+制胜
+惨状
+已用</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>二是变革__[1]__，全面构建共同富裕和现代化新__[2]__，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力
+重塑
+体系
+三两
+右边</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、__[2]__为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量
+安全
+转危
+为机
+筑牢</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[1]__带后富，形成__[2]__、共创美好生活的新理念新机制新气象
+先富
+共同奋斗
+室里
+处所</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>五是__[1]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[2]__、干一件、成一件，形成全社会实干争先的激情活力
+唯实
+一件
+骑警
+奎达</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>统筹推进人才、科技工作，推进创新链产业链深度融合，加快构建现代__[1]__体系和产业体系，推进经济__[2]__提质
+科创
+稳进
+提质
+体系</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>构建以国家实验室和全国重点实验室为龙头的新型实验室体系、以国家产业__[1]__中心为重点的产业创新体系，__[2]__大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术
+创新
+建设
+躲过
+该店</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、__[2]__人才队伍，打造战略人才力量
+人才
+高技能
+优秀青年
+人才队伍</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才高地和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的__[2]__
+人才
+贡献度
+建设
+区域性</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">深化国家__[1]__经济创新发展__[2]__建设，推进规上企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统
+数字
+试验区
+以至于
+</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，__[2]__国内国际规则制定
+办好
+积极参与
+互联网
+规则</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“__[1]__换鸟、凤凰涅槃”和“专精__[2]__”发展，加快建设制造强省、质量强省
+腾笼
+特新
+专精
+产业</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“__[2]__”先进制造业集群，建设世界一流科技园区
+提档
+415X
+钱瑛
+温妮</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>引领__[1]__风气之先，一体推进全面深化改革、__[2]__示范区重大改革和数字化改革取得更大突破
+改革
+共同富裕
+接二连三
+接连不断</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>题干</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>正确选项</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>题干</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>正确选项</t>
         </is>
       </c>
     </row>

--- a/result/questions.xlsx
+++ b/result/questions.xlsx
@@ -460,10 +460,10 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>这次大会是我省迈入高水平全面建设社会主义现代化、__[1]__建设共同富裕示范区新征程，召开的第一次党代会。
-A.征程
+A.建设
 B.高质量发展
-C.建设
-D.共同富裕</t>
+C.共同富裕
+D.征程</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,8 +480,8 @@
         <is>
           <t>大会主题是：高举习近平新时代中国特色社会主义思想伟大旗帜，忠实践行“__[1]__”，坚决做到“两个维护”，在高质量发展中奋力推进中国特色社会主义共同富裕先行和省域现代化先行！。
 A.八八战略
-B.两个维护
-C.高质量发展
+B.高质量发展
+C.两个维护
 D.省域</t>
         </is>
       </c>
@@ -499,9 +499,9 @@
         <is>
           <t>省第十四次党代会以来的__[1]__极不平凡，是感恩奋进、实干争先的五年，是开启系统性变革、实现历史性跨越的五年。
 A.五年
-B.实干
+B.第十四次
 C.奋进
-D.第十四次</t>
+D.实干</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,10 +517,10 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>面对百年变局和世纪疫情相互叠加的复杂局面，我们在以习近平同志为核心的党中央坚强领导下，全面落实党的__[1]__大和十九届历次全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，以最真挚的感情感悟总书记殷殷嘱托，以最坚决的行动落实总书记重要指示，团结带领全省人民忠实践行“八八战略”、奋力打造“重要窗口”，坚决扛起高质量发展建设共同富裕示范区政治责任，深入实施富民强省十大行动计划，全面建设“六个浙江”，高水平全面建成小康社会，浙江发展取得了历史性成就、站上了新的更高起点。
-A.活络
-B.拍板
+A.万年
+B.活络
 C.十九
-D.万年</t>
+D.拍板</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -538,13 +538,13 @@
           <t>这五年，我们__[1]__“两个维护”、全面从严治党，坚决做到“总书记有号令、党中央有部署，浙江见行动”。
 A.住宅
 B.租给
-C.笃行
-D.涌进</t>
+C.涌进
+D.笃行</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -574,15 +574,15 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>建立健全贯彻习近平总书记重要指示批示和党中央重大决策部署闭环落实机制，全面加强党的领导，强化细化政治监督，确保“__[1]__”在浙江落地见效。
-A.习近平
-B.国之大者
+A.国之大者
+B.闭环
 C.见效
-D.闭环</t>
+D.习近平</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -593,15 +593,15 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>__[1]__统领整体智治体系加快形成，省市县乡机构改革高质量完成，党的全面领导体制机制持续完善，党建统领问题管控机制基本形成。
-A.王子
-B.党建
-C.掠走
-D.忍痛</t>
+A.党建
+B.掠走
+C.忍痛
+D.王子</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -612,9 +612,9 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>领导班子政治建设全面加强，组织工作和干部队伍加快重塑，选人用人满意度显著提升，“红色__[1]__强基工程”全面实施，基层党建整乡推进、整县提升。
-A.整县
+A.强基
 B.根脉
-C.强基
+C.整县
 D.整乡</t>
         </is>
       </c>
@@ -631,15 +631,15 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>党风廉政建设和__[1]__斗争纵深推进，惩治腐败减存量、遏增量成效显著，追逃防逃追赃一体推进，反腐败斗争取得压倒性胜利并全面巩固，坚决整治违反中央八项规定精神问题，持之以恒纠治形式主义、官僚主义，对“一把手”和领导班子监督全面加强，中央巡视反馈问题整改高标准推进，巡视巡察利剑作用充分彰显，国家监察体制改革试点任务圆满完成，清廉浙江建设取得重大成果，政治生态持续优化。
-A.反腐败
-B.斗争
-C.追逃
+A.追逃
+B.反腐败
+C.斗争
 D.巡视</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -650,15 +650,15 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>与时俱进书写忠实践行“__[1]__”新篇章，推进“八八战略”再深化、改革开放再出发，建立健全以年度评估为标志的“八八战略”抓落实机制。
-A.新篇章
-B.与时俱进
-C.八八战略
-D.建立健全</t>
+A.与时俱进
+B.新篇章
+C.建立健全
+D.八八战略</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -669,15 +669,15 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>“四大建设”扎实推进，城镇化率达到72.7％，实现陆域高铁“市市通”、高速公路“县县通”，建成3大__[1]__机场，宁波舟山港加快建设世界一流强港。
-A.72.7
-B.市市通
-C.千万级
-D.县县通</t>
+A.县县通
+B.72.7
+C.市市通
+D.千万级</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
         <is>
           <t>区域城乡协调发展迈上新台阶，城乡居民收入倍差__[1]__到1.94、地区居民收入最高最低倍差缩小到1.61、家庭年可支配收入20—60万元群体比例提高到30.6％，基本公共服务均等化实现度超过98％，教育强省、体育强省、健康浙江等建设取得长足进步。
 A.转世
-B.登山
+B.缩小
 C.到任
-D.缩小</t>
+D.登山</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -707,15 +707,15 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>全面落实长三角一体化发展、长江经济带发展、共建“__[1]__”、对口支援帮扶助力完成脱贫攻坚等重大任务，勇当构建新发展格局开路先锋。
-A.一带一路
-B.脱贫
-C.开路先锋
-D.经济带</t>
+A.开路先锋
+B.经济带
+C.一带一路
+D.脱贫</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -726,15 +726,15 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>坚持__[1]__输入、内防反弹，坚持动态清零，率先启动一级响应，首创并应用健康码，率先全面复工复产，有力助企纾困，千方百计稳就业，迭代建立动态清零精密智控“七大机制”，最大程度保护人民生命安全和身体健康，最大限度减少疫情对经济社会发展的影响。
-A.内防
-B.外防
-C.率先
-D.动态</t>
+A.率先
+B.动态
+C.内防
+D.外防</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -745,15 +745,15 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>全省人民万众一心、共克时艰，广大党员干部冲锋在前、__[1]__，坚决打好疫情防控遭遇战阻击战歼灭战。
-A.万众一心
-B.顽强拼搏
-C.阻击战
-D.冲锋在前</t>
+A.冲锋在前
+B.阻击战
+C.顽强拼搏
+D.万众一心</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -764,15 +764,15 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>2021年地区__[1]__超过7万亿元、五年年均增长6.7％，人均地区生产总值超过11万元，城乡居民收入稳居省区第一。
-A.生产总值
-B.6.7
+A.11
+B.生产总值
 C.2021
-D.11</t>
+D.6.7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -783,15 +783,15 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>三大科创高地建设取得重大突破，研发投入强度大幅提高到2.9％，国家实验室、大科学装置实现零的突破，10大省实验室全面布局，全域创新体系加快构建，顶尖__[1]__引进培育实现新突破，人才生态最优省金名片越来越亮。
-A.人才
-B.低头
-C.除夕
-D.海伦</t>
+A.除夕
+B.海伦
+C.人才
+D.低头</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -802,15 +802,15 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>产业基础再造和产业链提升取得重大进展，数字经济核心产业增加值实现翻番，质量、标准、品牌强省取得突破，专精__[1]__“小巨人”和单项冠军企业数量居全国首位，“凤凰行动”、融资畅通工程成效显著，累计为企减负1.28万亿元。
-A.成效显著
-B.专精
-C.特新
+A.专精
+B.特新
+C.成效显著
 D.1.28</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -821,15 +821,15 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>高规格召开全省__[1]__经济发展大会，率先出台民营企业发展促进条例，激发民营经济发展活力。
-A.民营
-B.礼节
-C.夺走
-D.国名</t>
+A.礼节
+B.国名
+C.民营
+D.夺走</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -840,15 +840,15 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>迭代形成“1612”体系构架，建成全省统一__[1]__平台，强化“平台＋大脑”建设，开发上线了七张问题清单、公平在线、民生“关键小事”智能速办等127个重大应用，出台数字经济促进条例、公共数据条例等16部相关法规。
-A.
-B.公共数据
-C.垂头丧气
-D.闷闷不乐</t>
+A.闷闷不乐
+B.垂头丧气
+C.
+D.公共数据</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -859,15 +859,15 @@
       <c r="B23" t="inlineStr">
         <is>
           <t>完成国家级改革试点__[1]__项，“放管服”、要素市场化配置、区域金融、平台经济监管创新、“县乡一体、条抓块统”等重大改革取得明显成效。
-A.331
-B.
+A.
+B.艾奇逊
 C.
-D.艾奇逊</t>
+D.331</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -878,15 +878,15 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>支持和保证人大依法履职更加有力，人民政协制度优势更加彰显，统一战线进一步巩固发展，多党合作和民族宗教、侨务工作深入推进，港澳台工作取得新进展，“五个__[1]__”品牌持续打响。
-A.群团
-B.掠走
-C.已用
-D.陈封</t>
+A.掠走
+B.群团
+C.陈封
+D.已用</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -897,15 +897,15 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>科学立法、严格执法、公正司法、全民守法全面加强，省域党内法规制度不断完善，制定修订90件地方法规规章，“大综合一体化”行政执法改革试点落地见效，司法体制综合配套改革深入推进，诉源治理创新做法全国推广，全社会__[1]__风尚更加浓厚，法治浙江建设群众满意度达到92.26％。
-A.法治
-B.围巾
+A.围巾
+B.隐瞒
 C.调换
-D.隐瞒</t>
+D.法治</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -916,15 +916,15 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>牢牢掌握意识形态工作领导权，社会主义核心价值观引领树立社会__[1]__，伟大建党精神和红船精神、浙江精神广泛弘扬，8090和00后新时代理论宣讲品牌更加响亮。
-A.新风尚
-B.
+A.
+B.新风尚
 C.
 D.试探性</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -935,15 +935,15 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>新时代文明实践中心、县级融媒体中心和文明城市建设全国领先，“最美浙江人”效应持续放大，农村文化礼堂全覆盖，基本公共文化服务标准化率先实现，文化产业__[1]__迈上新台阶。
-A.浙江人
-B.高质量发展
-C.文明城市
+A.高质量发展
+B.文明城市
+C.浙江人
 D.迈上</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
           <t>文化研究工程成果丰硕，一大批文艺精品获评重大奖项，良渚古城遗址成功__[1]__，大运河国家文化公园、四条诗路文化带加快建设，流淌千年的历史文脉焕发出新的活力。
 A.以内
 B.灵敏
-C.申遗
-D.不等</t>
+C.不等
+D.申遗</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -974,14 +974,14 @@
         <is>
           <t>深入实施__[1]__文明示范创建行动，建成全国首个生态省，“千村示范、万村整治”工程获联合国地球卫士奖。
 A.助手
-B.生态
+B.代办
 C.临时
-D.代办</t>
+D.生态</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -992,15 +992,15 @@
       <c r="B30" t="inlineStr">
         <is>
           <t>空气质量在全国重点区域率先达标，地表水和近岸海域水质显著改善，生活垃圾实现零增长零__[1]__，生态环境公众满意度持续提升。
-A.喜得
-B.填埋
-C.老友
+A.填埋
+B.老友
+C.喜得
 D.国威</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1011,15 +1011,15 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>生态修复和生物多样性保护不断加强，河长制等全国推广，__[1]__城镇、美丽乡村、美丽河湖建设全域推进，城乡人居环境质量显著提升。
-A.美丽
-B.本局
-C.局内
-D.路矿</t>
+A.本局
+B.美丽
+C.路矿
+D.局内</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1031,8 +1031,8 @@
         <is>
           <t>牢固树立总体国家__[1]__，风险闭环管控大平安机制不断完善，群众安全感达到99.19％。
 A.印刷工
-B.高兴得
-C.正赶上
+B.正赶上
+C.高兴得
 D.安全观</t>
         </is>
       </c>
@@ -1049,15 +1049,15 @@
       <c r="B33" t="inlineStr">
         <is>
           <t>社会治安状况持续改善，扫黑除恶取得重大成果，经济金融领域突出风险点和__[1]__台风等自然灾害得到有效处置，刑事发案数、安全事故起数和伤亡人数持续下降。
-A.利奇马
+A.扫黑
 B.治安状况
-C.扫黑
+C.利奇马
 D.起数</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1068,15 +1068,15 @@
       <c r="B34" t="inlineStr">
         <is>
           <t>坚持和发展新时代“枫桥经验”，__[1]__社会治理现代化试点全覆盖，“一中心四平台一网格”体系标准化构建，共享法庭全面推广，诉讼案件、来信来访总量持续下降。
-A.窘态
-B.市域
+A.市域
+B.丧气
 C.败露
-D.丧气</t>
+D.窘态</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1087,9 +1087,9 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>回顾五年奋斗历程，我们更加深刻地感悟到__[1]__总书记对浙江发展的高度重视和殷切希望，更加深刻地感受到习近平总书记对浙江人民、浙江大地的真挚情感和关心厚爱，更加深刻地感悟到习近平总书记每到浙江发展的关键时刻都亲自提出明确要求、指引胜利方向，更加深刻地感悟到习近平总书记掌舵领航是我们攻坚克难战胜一切风险挑战的最大主心骨、最可靠保证。
-A.一条龙
+A.
 B.习近平
-C.
+C.一条龙
 D.</t>
         </is>
       </c>
@@ -1106,15 +1106,15 @@
       <c r="B36" t="inlineStr">
         <is>
           <t>2017年秋季，在党的十九大胜利闭幕一周之际，总书记率领中央政治局常委来到嘉兴南湖红船之畔，深刻指出这里是我们党梦想起航的地方、是我们党的__[1]__，赋予浙江赓续革命传统、守好“红色根脉”的特殊使命。
-A.2017
-B.红船
-C.之畔
-D.根脉</t>
+A.红船
+B.2017
+C.根脉
+D.之畔</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1125,34 +1125,34 @@
       <c r="B37" t="inlineStr">
         <is>
           <t>2020年春天，在统筹疫情防控和经济社会发展的关键时期，总书记亲临__[1]__考察，给予我们最亲切的关怀和激励，要求浙江“努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口”。
+A.浙江
+B.战俘
+C.政权
+D.刺刀</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持__[1]__高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命。
 A.浙江
 B.政权
 C.刺刀
 D.战俘</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2021年5月，在全面建成小康社会、开启全面建设社会主义现代化国家新征程的历史交汇点，总书记亲自谋划、亲自定题、亲自推动，作出支持__[1]__高质量发展建设共同富裕示范区的重大决策部署，赋予浙江为实现第二个百年奋斗目标探路的光荣使命。
-A.战俘
-B.刺刀
-C.浙江
-D.政权</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>C</t>
         </is>
       </c>
     </row>
@@ -1163,15 +1163,15 @@
       <c r="B39" t="inlineStr">
         <is>
           <t>这些重托和使命，将__[1]__工作提升到前所未有的战略高度，为浙江发展注入前所未有的强劲动力！。
-A.战俘
-B.浙江
-C.刺刀
-D.政权</t>
+A.刺刀
+B.战俘
+C.政权
+D.浙江</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1183,8 +1183,8 @@
         <is>
           <t>我们之所以能取得这些历史性成就，根本在于__[1]__总书记、党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引；是历届省委沿着习近平总书记指引的道路开拓创新、接续奋斗的结果，是各级党组织和广大党员干部群众在党的旗帜下唯实惟先、埋头苦干的结果。
 A.习近平
-B.
-C.一条龙
+B.一条龙
+C.
 D.</t>
         </is>
       </c>
@@ -1201,8 +1201,8 @@
       <c r="B41" t="inlineStr">
         <is>
           <t>在此，我代表中共浙江省委，向全省共产党员和广大干部群众，向老领导、老同志，向各民主党派、各人民团体和各界人士，向驻浙人民解放军__[1]__、武警官兵、公安干警、消防救援队伍指战员和民兵预备役人员，向所有关心支持浙江发展的港澳台同胞、海外侨胞、国际友人，致以崇高的敬意和衷心的感谢！。
-A.遗产税
-B.伪命题
+A.伪命题
+B.遗产税
 C.交易税
 D.指战员</t>
         </is>
@@ -1220,9 +1220,9 @@
       <c r="B42" t="inlineStr">
         <is>
           <t>五年踔厉奋发，五年开拓创新，我们深化了对做好浙江工作的规律性认识：最根本最具决定性的是必须把坚决拥护“两个确立”、坚决做到“两个维护”作为最高政治原则，忠诚核心、拥戴核心、维护核心、紧跟核心，学懂弄通做实习近平新时代中国特色社会主义思想，坚定不移做“两个确立”忠诚拥护者、“两个维护”示范引领者；必须把忠实践行“八八战略”、奋力打造“重要窗口”作为一以贯之的主题主线，坚持一张蓝图绘到底，以“八八战略”放大优势，以“浙江之窗”彰显“中国之治”；必须把全体人民全面发展、社会全面进步作为价值取向，坚持以人的现代化为核心，扎实推进各领域现代化和共同富裕美好社会建设，做到发展为了人民、发展依靠人民、发展成果由人民共享；必须把贯彻新发展理念、构建新发展格局、推动高质量发展作为根本要求，贯穿到经济、社会、文化、生态等各领域，坚持市场有效、政府有为，推动质量变革、效率变革、动力变革；必须把运用法治思维、推动良法善治作为基本治理方式，坚持在法治轨道上推进改革发展稳定，筑法治之基、行法治之力、积法治之势，推动由“事”向制度、治理、智慧提升；必须把坚持系统观念、推进变革重塑作为重要方法，在战略全局中谋划工作，在大场景下找准切口，在多跨协同中实现改革突破、争先创优；必须把统筹发展和安全、推进除险保安作为前提和底线，增强机遇意识、风险意识，下好先手棋、打好主动仗，促进高质量发展和高水平安全良性互动；必须把强化__[1]__统领、全面从严治党作为根本保证，问题发现靠党建、问题发生查党建、问题解决看党建，始终保持严的主基调，严管严治、激浊扬清，推动党建优势转化为治理效能、发展胜势、人民福祉。
-A.王子
-B.掠走
-C.忍痛
+A.掠走
+B.忍痛
+C.王子
 D.党建</t>
         </is>
       </c>
@@ -1239,15 +1239,15 @@
       <c r="B43" t="inlineStr">
         <is>
           <t>同时，我们清醒看到工作中还存在一些不足和短板：科创、人才支撑还不够强，新旧动能转换还不够快，产业链供应链韧性和竞争力__[1]__提升；持续缩小 “三大差距”任重道远，优质公共服务供给不足；社会文明程度有待进一步提升，重大新媒体传播平台、文化标识打造有待加强，以文化力量推进社会全面进步的新格局仍需加快构建；绿色低碳转型任务艰巨，生态文明建设不平衡问题依然存在；传统安全和非传统安全挑战加大，用网管网治网水平有待提高，社会领域风险预警防范处置机制还需不断提升；全面从严治党仍有薄弱环节，干部作风不严不实问题时有发生，反腐败斗争形势依然严峻复杂。
-A.那种
-B.汉子
-C.有待
-D.毅然</t>
+A.有待
+B.毅然
+C.那种
+D.汉子</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1258,72 +1258,72 @@
       <c r="B44" t="inlineStr">
         <is>
           <t>党的十九届六中全会在总结党的百年奋斗历程基础上强调，确立__[1]__同志党中央的核心、全党的核心地位，确立习近平新时代中国特色社会主义思想的指导地位，对新时代党和国家事业发展、对推进中华民族伟大复兴历史进程具有决定性意义。
-A.
-B.一条龙
-C.习近平
-D.</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，推动中国特色社会主义事业航船__[1]__、一往无前！。
-A.万众一心
-B.劈波斩浪
-C.两个维护
-D.坚决拥护</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展。
-A.马克思主义
-B.时代
-C.中国特色社会
-D.主义理论</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>浙江是__[1]__新时代中国特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果。
 A.一条龙
 B.
 C.习近平
 D.</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>坚决拥护“两个确立”、坚决做到“两个维护”，必将不断巩固发展忠诚核心、万众一心的大好局面，推动中国特色社会主义事业航船__[1]__、一往无前！。
+A.万众一心
+B.劈波斩浪
+C.坚决拥护
+D.两个维护</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>习近平新时代中国特色社会主义思想是新时代中国共产党人的思想旗帜，是当代中国__[1]__、二十一世纪马克思主义，是中华文化和中国精神的时代精华，实现了马克思主义中国化新的飞跃，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展。
+A.主义理论
+B.马克思主义
+C.时代
+D.中国特色社会</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>浙江是__[1]__新时代中国特色社会主义思想重要萌发地，习近平同志在浙江工作期间从省域层面对坚持和发展中国特色社会主义进行了卓有成效的理论探索和实践创新，创造了弥足珍贵的理论成果、实践成果、制度成果。
+A.一条龙
+B.
+C.
+D.习近平</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1335,14 +1335,14 @@
         <is>
           <t>党的十八大以来，习近平总书记5次亲临__[1]__，对浙江工作作出一系列重要指示，亲自为新时代浙江赋予光荣使命、擘画宏伟蓝图。
 A.政权
-B.战俘
-C.刺刀
-D.浙江</t>
+B.浙江
+C.战俘
+D.刺刀</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1354,9 +1354,9 @@
         <is>
           <t>浙江要勇扛使命、心怀“__[1]__”，必须深刻理解把握5大战略指引：一要以加强党的全面领导和全面从严治党守好“红色根脉”。
 A.根脉
-B.从严治党
+B.守好
 C.国之大者
-D.守好</t>
+D.从严治党</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1372,15 +1372,15 @@
       <c r="B50" t="inlineStr">
         <is>
           <t>习近平总书记强调，坚持和完善党的领导，是党和国家的根本所在、命脉所在；全面从严治党是新时代党的__[1]__革命的伟大实践，开辟了百年大党自我革命的新境界。
-A.自我
-B.远近
-C.喜讯
-D.成行</t>
+A.成行
+B.自我
+C.远近
+D.喜讯</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1391,15 +1391,15 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>“红色根脉”是党在__[1]__百年奋斗最鲜明的底色，习近平新时代中国特色社会主义思想在浙江萌发实践赋予其新内涵和新时代标识。
-A.政权
-B.战俘
-C.刺刀
-D.浙江</t>
+A.刺刀
+B.政权
+C.浙江
+D.战俘</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1410,15 +1410,15 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>“红色根脉”蕴含着党的初心使命，蕴含着以伟大自我革命引领伟大社会革命的基因密码，是浙江精神__[1]__、使命之源、力量之源。
-A.使命
-B.力量之源
+A.力量之源
+B.之源
 C.初心
-D.之源</t>
+D.使命</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1429,10 +1429,10 @@
       <c r="B53" t="inlineStr">
         <is>
           <t>19年来，在“八八战略”指引下，浙江实现了从经济大省向经济强省、从对内对外开放向深度融入全球、从总体__[1]__向高水平全面小康的历史性跃迁。
-A.保留
+A.特工
 B.老手
 C.小康
-D.特工</t>
+D.保留</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1448,9 +1448,9 @@
       <c r="B54" t="inlineStr">
         <is>
           <t>因此，“__[1]__”是总书记留给浙江取之不尽、用之不竭的宝贵财富，忠实践行“八八战略”是浙江不断进步发展壮大的制胜法宝。
-A.用之不竭
-B.宝贵财富
-C.浙江
+A.浙江
+B.用之不竭
+C.宝贵财富
 D.八八战略</t>
         </is>
       </c>
@@ -1467,15 +1467,15 @@
       <c r="B55" t="inlineStr">
         <is>
           <t>“重要窗口”是总书记赋予我省的全新定位，核心任务是打造新时代中国特色社会主义制度优越性的__[1]__范例，生动展示中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好。
-A.优越性
-B.范例
+A.范例
+B.省域
 C.总书记
-D.省域</t>
+D.优越性</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1487,14 +1487,14 @@
         <is>
           <t>习近平总书记强调，共同富裕是中国式现代化的重要特征；贯彻新发展理念明确了我国现代化建设的指导原则；__[1]__关系我国社会主义现代化建设全局；要在高质量发展中促进共同富裕。
 A.习近平
-B.高质量发展
+B.共同富裕
 C.现代化
-D.共同富裕</t>
+D.高质量发展</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1506,14 +1506,14 @@
         <is>
           <t>习近平总书记、党中央赋予__[1]__高质量发展建设共同富裕示范区光荣使命，要求浙江在推进以人为核心的现代化、实现全体人民全面发展和社会全面进步的伟大变革中发挥先行和示范作用。
 A.刺刀
-B.浙江
-C.政权
+B.政权
+C.浙江
 D.战俘</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1524,15 +1524,15 @@
       <c r="B58" t="inlineStr">
         <is>
           <t>这是习近平总书记对__[1]__工作的一以贯之要求，明确了具有浙江辨识度的工作作风、工作标准、工作状态。
-A.浙江
-B.刺刀
-C.政权
-D.战俘</t>
+A.政权
+B.战俘
+C.浙江
+D.刺刀</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1544,14 @@
         <is>
           <t>“八八战略”是全面系统开放的理论体系，涵盖了__[1]__同志在浙江工作时作出的一系列重大决策部署，与时俱进融汇集合了党的十八大以来习近平总书记重要指示、党中央重大部署在浙江贯彻落实的战略要求，是习近平新时代中国特色社会主义思想在浙江萌发与实践的集中体现，是浙江全面推进习近平新时代中国特色社会主义思想省域生动实践的总抓手，是引领浙江共同富裕和现代化的总纲领。
 A.
-B.习近平
+B.一条龙
 C.
-D.一条龙</t>
+D.习近平</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1562,15 +1562,15 @@
       <c r="B60" t="inlineStr">
         <is>
           <t>聚焦共同富裕和现代化先行宏伟目标，要把学深悟透__[1]__新时代中国特色社会主义思想与习近平总书记对浙江工作的重要指示精神贯通起来，牢牢把握11方面重要遵循：。
-A.一条龙
-B.习近平
+A.
+B.一条龙
 C.
-D.</t>
+D.习近平</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1581,15 +1581,15 @@
       <c r="B61" t="inlineStr">
         <is>
           <t>习近平总书记强调，坚持创新在现代化__[1]__全局中的核心地位；加快建设世界重要人才中心和创新高地；推进高水平科技自立自强；构建现代产业体系；坚定不移建设制造强国。
-A.躲过
-B.该店
-C.顶峰
-D.建设</t>
+A.顶峰
+B.建设
+C.躲过
+D.该店</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1601,14 +1601,14 @@
         <is>
           <t>明确要求浙江，以__[1]__为本，深入实施人才强省战略；推进创新型省份和科技强省建设；坚持“腾笼换鸟、凤凰涅槃”，加快新旧动能转换，跑出高质量发展的加速度。
 A.低头
-B.除夕
+B.人才
 C.海伦
-D.人才</t>
+D.除夕</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1619,15 +1619,15 @@
       <c r="B63" t="inlineStr">
         <is>
           <t>习近平总书记强调，必须从贯彻落实“四个全面”战略布局的高度，深刻把握全面深化改革的关键地位和重要作用；加强改革系统集成，激活__[1]__新动力；以数字化改革助力政府职能转变；加快建设数字中国。
-A.全面
-B.高质量发展
-C.习近平
-D.改革</t>
+A.高质量发展
+B.全面
+C.改革
+D.习近平</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1638,15 +1638,15 @@
       <c r="B64" t="inlineStr">
         <is>
           <t>明确要求浙江，深入推进重要领域和关键环节__[1]__，加大改革力度，完善改革举措，加快取得更多实质性、突破性、系统性成果；坚持“两个毫不动摇”；推动民营经济新飞跃；继续发挥探路者作用，勇当改革开放排头兵。
-A.披上
-B.约定
-C.雪峰
-D.改革</t>
+A.改革
+B.披上
+C.约定
+D.雪峰</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1657,15 +1657,15 @@
       <c r="B65" t="inlineStr">
         <is>
           <t>习近平总书记强调，贯彻新发展理念、构建新发展格局明确了我国经济现代化的路径选择；加快建设高效规范、公平竞争、充分__[1]__的全国统一大市场；深入推进高水平制度型开放；加强国内大循环在双循环中的主导作用，塑造我国参与国际合作和竞争新优势。
-A.张良
-B.住处
-C.吹牛
-D.开放</t>
+A.开放
+B.张良
+C.住处
+D.吹牛</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1695,15 +1695,15 @@
       <c r="B67" t="inlineStr">
         <is>
           <t>习近平总书记强调，着力解决发展不平衡不充分问题和人民群众急难愁盼问题，推动人的全面发展、全体人民__[1]__取得更为明显的实质性进展；坚持陆海统筹，加快建设海洋强国；完善新型城镇化战略；全面实施乡村振兴战略；促进农民农村共同富裕；提高发展的平衡性、协调性、包容性。
-A.接二连三
-B.
-C.共同富裕
-D.接连不断</t>
+A.接连不断
+B.共同富裕
+C.
+D.接二连三</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1714,15 +1714,15 @@
       <c r="B68" t="inlineStr">
         <is>
           <t>明确要求浙江，念好“山海经”；深入实施山海协作工程；建设海洋经济强省；继续唱好杭州、宁波的“双城记”；深化“千村示范、万村整治”工程和__[1]__乡村、美丽城镇建设；加快推进农业农村现代化。
-A.美丽
+A.局内
 B.路矿
-C.局内
+C.美丽
 D.本局</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1733,15 +1733,15 @@
       <c r="B69" t="inlineStr">
         <is>
           <t>习近平总书记强调，把人民当家作主具体地、现实地__[1]__到党治国理政的政策措施上来、体现到党和国家机关各个方面各个层级工作上来、体现到实现人民对美好生活向往的工作上来；人民代表大会制度是实现我国全过程人民民主的重要制度载体；发挥好人民政协专门协商机构作用；坚持和完善我国新型政党制度；构建程序合理、环节完整的社会主义协商民主体系。
-A.宝元
+A.体现
 B.麦秸
-C.体现
-D.派往</t>
+C.派往
+D.宝元</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1752,9 +1752,9 @@
       <c r="B70" t="inlineStr">
         <is>
           <t>明确要求浙江，民主各个环节都要配套起来；把人民群众的民主要求全面纳入法治__[1]__，使公民的政治参与既能够在具体的制度上得到保障，又能够在有序的轨道上逐步扩大；有事好商量，众人的事由众人商量。
-A.谁家
-B.三联
-C.蚂蚁
+A.三联
+B.蚂蚁
+C.谁家
 D.轨道</t>
         </is>
       </c>
@@ -1771,15 +1771,15 @@
       <c r="B71" t="inlineStr">
         <is>
           <t>习近平总书记强调，必须提高全面依__[1]__国能力和水平，为全面建设社会主义现代化国家、实现第二个百年奋斗目标提供有力法治保障；坚持依法治国、依法执政、依法行政共同推进，法治国家、法治政府、法治社会一体建设；建设法治中国。
-A.调换
-B.法治
-C.隐瞒
-D.围巾</t>
+A.隐瞒
+B.围巾
+C.法治
+D.调换</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1791,14 +1791,14 @@
         <is>
           <t>明确要求浙江，建设__[1]__浙江；坚持立法决策与改革、发展、稳定的重大决策相结合；全面建设法治政府；努力让人民群众在每一个司法案件中感受到公平正义；全面提高法治化水平。
 A.围巾
-B.法治
+B.隐瞒
 C.调换
-D.隐瞒</t>
+D.法治</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1809,15 +1809,15 @@
       <c r="B73" t="inlineStr">
         <is>
           <t>习近平总书记强调，我国现代化是物质文明和精神文明相协调的现代化；增强__[1]__自觉、坚定文化自信；强化社会主义核心价值观引领；不断铸就中华文化新辉煌，建设社会主义文化强国；共同富裕是人民群众物质生活和精神生活都富裕。
-A.人工
-B.直线
+A.直线
+B.文化
 C.海伦
-D.文化</t>
+D.人工</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1828,15 +1828,15 @@
       <c r="B74" t="inlineStr">
         <is>
           <t>明确要求浙江，大力实施文化建设“八项工程”；要传承历史、守正出新，__[1]__、兼收并蓄，实现建设文化强省的目标。
-A.八项
-B.海纳百川
-C.守正
-D.兼收并蓄</t>
+A.兼收并蓄
+B.守正
+C.八项
+D.海纳百川</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1848,14 +1848,14 @@
         <is>
           <t>习近平总书记强调，让老百姓过上好日子，是我们一切工作的出发点和落脚点；加强社会建设要从保障和改善民生做起；在幼有所育、学有所教、劳有所得、__[1]__、老有所养、住有所居、弱有所扶上不断取得新进展。
 A.
-B.病有所医
-C.异乎寻常
-D.</t>
+B.
+C.病有所医
+D.异乎寻常</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1902,8 +1902,8 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>明确要求浙江，坚持群众想什么，我们就干什么；建立健全为民__[1]__的长效机制；以推进基本公共服务__[2]__为主线，稳扎稳打、持续推进。
-A.稳扎稳打
-B.明确要求
+A.明确要求
+B.稳扎稳打
 C.均等化
 D.办实事</t>
         </is>
@@ -1921,15 +1921,15 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>习近平总书记强调，我们要__[1]__的现代化是人与自然和谐共生的现代化；统筹污染治理、__[2]__保护、应对气候变化；把碳达峰、碳中和纳入生态文明建设整体布局；坚持不懈推动绿色低碳发展；深入打好污染防治攻坚战；提升生态系统质量和稳定性；建设美丽中国。
-A.生态
-B.代办
-C.助手
-D.建设</t>
+A.建设
+B.该店
+C.生态
+D.躲过</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>AC</t>
         </is>
       </c>
     </row>
@@ -1940,15 +1940,15 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>明确要求浙江，生态文明建设要先行示范；照着__[1]__就是金山__[2]__路子走下去，把绿水青山建得更美，把金山银山做得更大。
-A.卡车司机
-B.银山
+A.银山
+B.卡车司机
 C.
 D.绿水青山</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>DA</t>
         </is>
       </c>
     </row>
@@ -1959,15 +1959,15 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>习近平总书记强调，坚持总体国家__[1]__；坚持底线思维，着力防范化解重大风险；推动__[2]__重心向基层下移；完善共建共治共享的社会治理制度；建设人人有责、人人尽责、人人享有的社会治理共同体；建设更高水平的平安中国。
-A.印刷工
-B.社会治理
-C.正赶上
-D.安全观</t>
+A.社会治理
+B.安全观
+C.人人有责
+D.共治</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1979,14 @@
         <is>
           <t>明确要求__[1]__，从现代化总布局中谋划推进平安浙江建设；__[2]__体系和治理能力要补齐短板；坚持和发展新时代“枫桥经验”。
 A.治理
-B.战俘
-C.政权
-D.浙江</t>
+B.政权
+C.浙江
+D.战俘</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
@@ -1998,14 +1998,14 @@
         <is>
           <t>习近平总书记强调，始终坚持党要管党、全面从严治党；坚持党对一切工作的领导；党中央集中统一领导是__[1]__的最高原则；不断完善党的领导制度体系；以党的政治__[2]__为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，不断提高党的建设质量。
 A.管党
-B.建设
+B.党要
 C.党的领导
-D.党要</t>
+D.建设</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2016,15 +2016,15 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>明确要求浙江，坚持伟大工程和伟大事业协同推进；牢记__[1]____[2]__永远在路上，全面加强党的建设，把各级党组织锻造得更加坚强有力；巩固八个基础、增强八种本领；有贪必反、有腐必惩、有乱必治；聚焦形式主义、官僚主义问题，开展全面检视、靶向治疗。
-A.从严治党
-B.远渡重洋
-C.全面
-D.专门从事</t>
+A.全面
+B.从严治党
+C.珍珠
+D.可有</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -2035,15 +2035,15 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>“5大战略__[1]__、11方面重要遵循”纲举目张、相互贯通，深刻回答“国之大者”与__[2]__使命、理论与实践、战略与策略、目标与路径等基本问题，是推动习近平新时代中国特色社会主义思想在浙江生动实践，指引浙江推进中国特色社会主义共同富裕先行和省域现代化先行的行动指南。
-A.政权
-B.指引
-C.战俘
+A.冗员
+B.已非
+C.指引
 D.浙江</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2054,15 +2054,15 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>我们要高举__[1]__新时代中国特色社会主义思想伟大旗帜，把学深悟透习近平总书记系列重要论述精神与深刻领会贯彻习近平总书记关于浙江工作重要指示精神紧密结合起来，以“__[2]__”实施20周年为新契机新起点，持续推动“八八战略”形成“理论付诸实践、实践上升到理论、再付诸实践”的迭代深化和螺旋上升，推动习近平新时代中国特色社会主义思想在浙江的生动实践，并不断取得新的重大标志性成果。
-A.习近平
-B.总书记
+A.
+B.习近平
 C.八八战略
-D.付诸实践</t>
+D.一条龙</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -2073,15 +2073,15 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>习近平__[1]__的嘱托和浙江人民的期盼是我们神圣的责任，我们肩负的光荣使命前所未有，面临的机遇挑战前所未有，唯有坚定不移沿着总书记指引的方向奋勇前进，__[2]__闯出新路、不负使命；唯有发扬斗争精神，勇于塑造变革，才能赢得主动、不负时代；唯有不忘初心，竭尽全力让百姓过上好日子，才能答好考卷、不负人民。
-A.总书记
-B.奋勇前进
-C.不负使命
-D.才能</t>
+A.才能
+B.不负使命
+C.奋勇前进
+D.总书记</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>DA</t>
         </is>
       </c>
     </row>
@@ -2092,15 +2092,15 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>我们必须高举伟大思想旗帜，锚定新的历史方位，以一往无前的决心、果敢坚毅的行动，自觉做“红色__[1]__”的坚定守护者、“__[2]__”的忠实践行者、“重要窗口”的优秀建设者、共同富裕和现代化的先行探路者、干在实处走在前列勇立潮头的不懈奋斗者，奋力开创美好未来、赢得更大荣光！。
-A.勇立
-B.八八战略
+A.八八战略
+B.勇立
 C.根脉
 D.奋斗者</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CA</t>
         </is>
       </c>
     </row>
@@ -2112,14 +2112,14 @@
         <is>
           <t>总体要求：__[1]__以习近平新时代中国特色社会主义思想为指导，__[2]__贯彻党的十九大、二十大精神，深入贯彻习近平总书记关于浙江工作的重要指示精神和党中央重大决策部署，深刻认识“两个确立”决定性意义，忠实践行“八八战略”、坚决做到“两个维护”，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展，坚持以人民为中心的发展思想，坚持稳中求进工作总基调，坚持统筹发展和安全，坚持全面从严治党，突出创新制胜、变革重塑、防控风险、共建共享、唯实惟先，全面推进高质量发展建设共同富裕示范区和社会主义现代化先行省建设，努力成为新时代全面展示中国特色社会主义制度优越性的重要窗口，全面提升人民群众的获得感、幸福感、安全感和认同感，奋力开辟干在实处、走在前列、勇立潮头的新境界。
 A.坚持
-B.瞬间
-C.全面
-D.此处</t>
+B.全面
+C.此处
+D.瞬间</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -2130,15 +2130,15 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>“两个维护”__[1]__扎根，党总揽全局、协调各方的领导核心作用更好发挥，党建统领的理论创新__[2]__、战略执行体系全面建立，上下贯通、执行有力的组织体系全面建强，高素质党员干部队伍全面打造，清廉浙江建设全域深化，全面从严治党取得更大战略性成果。
-A.右边
+A.体系
 B.三两
-C.全面
-D.体系</t>
+C.右边
+D.全面</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DA</t>
         </is>
       </c>
     </row>
@@ -2149,15 +2149,15 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>全省地区生产总值__[1]__12万亿元，__[2]__地区生产总值达到17万元，居民人均可支配收入达到8.5万元，研发投入强度超过3.4％，全员劳动生产率达到28万元／人，总体达到中等发达经济体水平。
-A.达到
-B.地雷
-C.下去
-D.人均</t>
+A.去留
+B.一边
+C.人均
+D.达到</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
@@ -2168,15 +2168,15 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>人才引领高质量发展的战略地位更加凸显，三大科创高地和创新策源地__[1]__取得更大突破，全球先进制造业基地建设取得重大进展，现代产业体系、金融体系加快形成，高水平交通强省基本建成，国内大循环战略支点、国内国际__[2]__战略枢纽建设再上台阶。
-A.杨善洲
-B.建设
+A.建设
+B.双循环
 C.
-D.双循环</t>
+D.杨善洲</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -2187,15 +2187,15 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>__[1]__浙江建设持续深化，党建统领整体智治体系更加完善，数字政府、数字社会、数字文化、数字法治和基层智治系统建设成效更加彰显，数字经济创新力竞争力显著提升，一体化智能化公共数据平台先进完备、支撑有力，“__[2]__办事之省”“掌上办公之省”“掌上治理之省”基本建成，数字化改革理论体系、制度规范体系更加完备，各方面各领域制度重塑取得重大进展，全民共享、引领未来、彰显制度优势的数字文明建设扎实推进。
-A.掌上
-B.弟子
-C.数字
-D.清扫</t>
+A.数字
+B.掌上
+C.袁木
+D.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -2206,15 +2206,15 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>__[1]__人民__[2]__深入发展，民主选举、民主协商、民主决策、民主管理、民主监督全方位全覆盖全过程全链条贯通，根本政治制度、基本政治制度和统一战线优势充分彰显。
-A.下山
-B.民主
-C.全过程
-D.进藏</t>
+A.民主
+B.全过程
+C.民主协商
+D.民主选举</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>BA</t>
         </is>
       </c>
     </row>
@@ -2225,15 +2225,15 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>各领域__[1]__水平全面提升，基层__[2]__体系和治理能力全面加强，重大风险有效防范化解，平安建设法治建设持续走在前列，形成共建共治共享的社会治理新格局。
-A.法治化
-B.治理
-C.
-D.远征队</t>
+A.远征队
+B.
+C.法治化
+D.治理</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2244,15 +2244,15 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>全省人民思想自觉、__[1]__自信显著增强，社会主义核心价值观深入人心，彰显__[2]__深厚历史底蕴的文化标识和“诗画江南、活力浙江”省域品牌更加鲜明，社会文明程度达到新高度，新型全媒体传播体系、现代公共文化服务体系和文化产业体系基本建成，每万人拥有公共文化设施建筑面积达到4400m2左右，居民综合阅读率达到93.5％，全面建设文明浙江。
-A.海伦
-B.人工
-C.浙江
-D.文化</t>
+A.人工
+B.海伦
+C.文化
+D.浙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2263,15 +2263,15 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>__[1]__分配制度改革取得积极进展，中等收入群体比重稳步提高，低收入群体增收能力、生活品质和社会福利水平明显提升，城乡__[2]__倍差缩小到1.9以内，城镇化率达到76％，地区居民收入最高最低倍差缩小到1.55以内，26县居民收入与全省平均之比达到0.75。
-A.收入
-B.从此以后
-C.
-D.居民收入</t>
+A.东河
+B.收入
+C.居民收入
+D.祥云</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -2282,15 +2282,15 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>高水平实现基本__[1]__均等化，“15分钟公共服务圈”基本建成，人口结构更加优化，高等教育毛入学率达到72％，人均预期寿命达到82.7岁，城乡现代社区建设全面推进，__[2]__社会和共建共享型社会加快形成。
-A.知识型
+A.送交给
 B.公共服务
-C.
-D.送交给</t>
+C.知识型
+D.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -2302,14 +2302,14 @@
         <is>
           <t>生态环境质量持续改善，地表水__[1]__断面达到或优于Ш类水体比例超过__[2]__％，设区城市空气质量优良天数比率达到95％，“无废城市”基本全覆盖，部分领域和行业率先实现碳达峰，生物多样性保护水平明显提升，“整体大美、浙江气质”全域彰显，生态富民惠民机制更加完善。
 A.95
-B.省控
+B.碳达峰
 C.无废
-D.碳达峰</t>
+D.省控</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DA</t>
         </is>
       </c>
     </row>
@@ -2320,15 +2320,15 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>全体__[1]__普遍得到更好发展，人的成长通道不断拓宽，公民道德素质、健康素质、科学文化素质和法治__[2]__、数字素养大幅提高，人民平等参与平等发展权利有力保障，人的潜能和创造力充分激发，人人都可成才体制机制不断完善，人民对美好生活的向往不断得到满足。
-A.人民
-B.已是
-C.素养
-D.BP</t>
+A.启运
+B.素养
+C.合营
+D.人民</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>DB</t>
         </is>
       </c>
     </row>
@@ -2339,15 +2339,15 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>推进“两个先行”，必须深刻理解共同富裕和现代化新阶段是在全面建成小康社会基础上质的跃升，突出把握五大工作导向：一是__[1]____[2]__，全面实施科技创新和人才强省首位战略，统筹推进理论创新、实践创新、制度创新、文化创新，大力培育新科技、新产业、新增长极，形成制胜未来的新优势。
-A.制胜
-B.创新
-C.迁居
-D.盟员</t>
+A.创新
+B.惨状
+C.制胜
+D.已用</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AC</t>
         </is>
       </c>
     </row>
@@ -2358,15 +2358,15 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>二是变革__[1]__，全面构建共同富裕和现代化新__[2]__，以数字化改革推动社会各领域体系重构、制度重塑、能力提升，形成引领未来的新模式新能力。
-A.重塑
-B.三两
-C.体系
-D.右边</t>
+A.来厂
+B.重塑
+C.到校
+D.体系</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -2377,15 +2377,15 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>三是防控风险，推动__[1]__发展贯穿各领域全过程，打好防范抵御风险的有准备之战和化险为夷、__[2]__为机的战略主动战，筑牢政治安全、社会安定、人民安宁的坚固防线，为国家总体安全战略贡献力量。
-A.筑牢
-B.为机
-C.安全
+A.为机
+B.安全
+C.筑牢
 D.转危</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -2396,15 +2396,15 @@
       <c r="B28" t="inlineStr">
         <is>
           <t>四是共建共享，以探索共同富裕有效路径激发全社会新活力，重塑政府、社会、企业、个人关系，推动党员干部、企业家、广大劳动者能力整体提升，鼓励勤劳创新致富、__[1]__带后富，形成__[2]__、共创美好生活的新理念新机制新气象。
-A.共同奋斗
-B.四是
-C.新理念
-D.先富</t>
+A.室里
+B.先富
+C.处所
+D.共同奋斗</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>BD</t>
         </is>
       </c>
     </row>
@@ -2415,15 +2415,15 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>五是__[1]__惟先，牢固树立没有走在前列也是一种风险的意识，以“时时放心不下”的责任感，求真务实、敢为人先，努力做到说__[2]__、干一件、成一件，形成全社会实干争先的激情活力。
-A.骑警
-B.唯实
+A.一件
+B.骑警
 C.奎达
-D.一件</t>
+D.唯实</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DA</t>
         </is>
       </c>
     </row>
@@ -2434,8 +2434,8 @@
       <c r="B30" t="inlineStr">
         <is>
           <t>统筹推进人才、科技工作，推进创新链产业链深度融合，加快构建现代__[1]__体系和产业体系，推进经济__[2]__提质。
-A.曾因
-B.酗酒
+A.提质
+B.体系
 C.稳进
 D.科创</t>
         </is>
@@ -2453,15 +2453,15 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>构建以国家实验室和全国重点实验室为龙头的新型实验室体系、以国家产业__[1]__中心为重点的产业创新体系，__[2]__大科学装置群，实施“双尖双领”科技攻关计划和“登峰学科”建设行动，以龙头企业为核心建设创新联合体，突破集成电路、人工智能、生物医药等“卡脖子”技术。
-A.建设
-B.已用
+A.已用
+B.建设
 C.创新
 D.惨状</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CB</t>
         </is>
       </c>
     </row>
@@ -2472,15 +2472,15 @@
       <c r="B32" t="inlineStr">
         <is>
           <t>深入实施“鲲鹏行动”等重点__[1]__计划，加大对基础研究人才、领军型人才和优秀青年人才支持力度，培养卓越工程师、__[2]__人才队伍，打造战略人才力量。
-A.高技能
-B.海伦
-C.低头
+A.优秀青年
+B.人才队伍
+C.高技能
 D.人才</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
@@ -2493,8 +2493,8 @@
           <t>建设更具吸引力__[1]__平台，支持杭州、宁波人才高地和温州等区域性人才高地建设，深化人才发展体制机制综合改革，不断提高人才工作在国家创新体系中的__[2]__。
 A.贡献度
 B.人才
-C.区域性
-D.建设</t>
+C.建设
+D.区域性</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2510,15 +2510,15 @@
       <c r="B34" t="inlineStr">
         <is>
           <t>深化国家__[1]__经济创新发展__[2]__建设，推进规上企业数字化改造全覆盖，加快建成以“产业大脑＋未来工厂”为核心的数字经济系统。
-A.试验区
-B.
-C.数字
-D.以至于</t>
+A.弟子
+B.清扫
+C.试验区
+D.数字</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
@@ -2529,15 +2529,15 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>加强数字经济制度和标准体系建设，高质量__[1]__世界互联网大会，__[2]__国内国际规则制定。
-A.办好
+A.逆向
 B.反向
-C.逆向
+C.办好
 D.积极参与</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2549,14 @@
         <is>
           <t>深入实施产业基础再造和产业链提升工程，大力培育新一代信息技术、生物技术、高端装备、智能汽车、新能源、新材料、深海空天等战略性新兴产业和未来产业，加大城镇低效用地再开发力度，持续推进“__[1]__换鸟、凤凰涅槃”和“专精__[2]__”发展，加快建设制造强省、质量强省。
 A.腾笼
-B.专精
-C.产业
-D.特新</t>
+B.特新
+C.专精
+D.产业</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
@@ -2567,15 +2567,15 @@
       <c r="B37" t="inlineStr">
         <is>
           <t>推进省级新区、开发区（园区）等高能级产业平台__[1]__升级，提升“__[2]__”先进制造业集群，建设世界一流科技园区。
-A.能级
+A.温妮
 B.提档
-C.科技园区
-D.415X</t>
+C.415X
+D.钱瑛</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -2586,15 +2586,15 @@
       <c r="B38" t="inlineStr">
         <is>
           <t>引领__[1]__风气之先，一体推进全面深化改革、__[2]__示范区重大改革和数字化改革取得更大突破。
-A.接连不断
-B.改革
-C.接二连三
-D.共同富裕</t>
+A.接二连三
+B.接连不断
+C.共同富裕
+D.改革</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>DC</t>
         </is>
       </c>
     </row>
@@ -2641,15 +2641,15 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>构建数据集成、“__[1]__”辅助的决策__[2]__，完善“大脑”体系，提升监测评估、预测预警、实时响应和战略目标管理能力，全面__[3]__网络安全根基。
-A.大脑
-B.怀远
-C.支撑体系
-D.筑牢</t>
+A.筑牢
+B.欣喜若狂
+C.大脑
+D.支撑体系</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>CDA</t>
         </is>
       </c>
     </row>
@@ -2660,15 +2660,15 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>以扩中__[1]__、收入分配__[2]__为牵引，深入推进共同富裕重大改革，加快探索__[3]__制度政策体系。
-A.共同富裕
-B.共富型
-C.提低
-D.改革</t>
+A.提低
+B.改革
+C.共富型
+D.共同富裕</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>ABC</t>
         </is>
       </c>
     </row>
@@ -2679,15 +2679,15 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>加强重大改革“一本账”“全周期”管理，强化多跨__[1]__、__[2]__，加快取得更多机制性__[3]__成果。
-A.系统集成
-B.制度性
-C.远征队
-D.协同</t>
+A.制度性
+B.协同
+C.系统集成
+D.寿星</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>BCA</t>
         </is>
       </c>
     </row>
@@ -2698,15 +2698,15 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>促进“两个健康”，稳定预期、__[1]__信心，塑造新时代__[2]__精神，拓展__[3]__经济发展空间，充分激发创业创新创富活力，创新办好世界浙商大会，加强企业家特别是新生代企业家队伍建设，推动新时代民营经济新飞跃。
-A.民营
+A.蜂窝
 B.企业家
-C.提振
-D.蜂窝</t>
+C.民营
+D.提振</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>DBC</t>
         </is>
       </c>
     </row>
@@ -2717,15 +2717,15 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>深入实施市场主体升级行动，深化“凤凰行动”“__[1]__行动”，加大对中小微企业和个体__[2]__扶持力度，健全减负降本长效机制，千方百计__[3]__。
-A.减负
-B.工商户
-C.雄鹰
-D.助企纾困</t>
+A.雄鹰
+B.会务
+C.助企纾困
+D.工商户</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CBD</t>
+          <t>ADC</t>
         </is>
       </c>
     </row>
@@ -2736,15 +2736,15 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>依法平等保护各类__[1]__合法权益，__[2]__要素市场化配置__[3]__，升级“亩均论英雄”，推进知识产权全链条集成改革，深化信用浙江建设。
-A.深化
-B.约定
+A.雨衣
+B.改革
 C.市场主体
-D.改革</t>
+D.深化</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>CDB</t>
         </is>
       </c>
     </row>
@@ -2756,14 +2756,14 @@
         <is>
           <t>实施强化__[1]__、推进__[2]__集成改革，促进平台经济__[3]__创新发展，规范和引导资本健康发展。
 A.公平竞争
-B.规范
-C.飞去
-D.反垄断</t>
+B.集成
+C.反垄断
+D.规范</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>CAD</t>
         </is>
       </c>
     </row>
@@ -2774,15 +2774,15 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>深度融入全国统一大市场，建设市场强省，深化打造“__[1]__”重要枢纽，构建全方位全要素、高能级__[2]__的__[3]__。
-A.高效率
+A.能级
 B.双循环
-C.杨善洲
-D.一带一路</t>
+C.一带一路
+D.高效率</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>CDB</t>
         </is>
       </c>
     </row>
@@ -2793,15 +2793,15 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>加快__[1]__高标准市场__[2]__，畅通高端要素循环，优结构扩投资，高质量抓好重大项目建设，建设消费型社会，深化“放心消费在浙江”行动和快递“__[3]__一出”工程，构建品质消费普及普惠体系。
-A.三两
+A.两进
 B.建设
 C.体系
-D.两进</t>
+D.躲过</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>BCA</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
         <is>
           <t>深入实施“六大行动”，大力建设科技创新共同体和数字__[1]__、__[2]__美丽长三角，全面深化重点领域、重点区域合作，高水平建设长三角生态绿色一体化发展示范区、嘉善县域__[3]__示范点和上海虹桥国际开放枢纽南向拓展带。
 A.绿色
-B.和尚
+B.事务长
 C.高质量发展
 D.长三角</t>
         </is>
@@ -2831,15 +2831,15 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>__[1]__建设__[2]__试验区，争创大宗商品特色自由贸易港，探索建立以投资贸易自由化__[3]__为核心的制度体系。
-A.便利化
+A.试验区
 B.高标准
-C.自贸
-D.试验区</t>
+C.便利化
+D.自贸</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>BDC</t>
         </is>
       </c>
     </row>
@@ -2851,14 +2851,14 @@
         <is>
           <t>打造全球数字__[1]__中心，大力培育服务贸易、市场采购等外贸新增长点，深化__[2]__一体化和国际贸易综合改革，推动贸易__[3]__。
 A.内外贸
-B.贸易中心
-C.高质量发展
-D.贸易</t>
+B.高质量发展
+C.贸易
+D.孙振</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>CAB</t>
         </is>
       </c>
     </row>
@@ -2869,15 +2869,15 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>纵深推进__[1]__开放大通道建设，推动__[2]____[3]__高质量发展，推动数字技术和产业走向“一带一路”。
-A.教会
-B.义甬舟
-C.班列
-D.义新欧</t>
+A.义甬舟
+B.班列
+C.义新欧
+D.教会</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BDC</t>
+          <t>ACB</t>
         </is>
       </c>
     </row>
@@ -2888,15 +2888,15 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>以“四大建设”能级整体提升为牵引，以重大项目重大平台为支撑，构建“__[1]__引领、__[2]__辐射、山海互济、__[3]__美丽”空间格局。
-A.互济
-B.全域
-C.一湾
-D.四极</t>
+A.一湾
+B.院方
+C.四极
+D.全域</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>ACD</t>
         </is>
       </c>
     </row>
@@ -2907,15 +2907,15 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>集中布局高能级平台、高端产业、引领性项目，谋划建设未来园区，迭代建设环杭州湾、__[1]__沿海和__[2]____[3]__现代产业带。
-A.丽三大
-B.金衢
-C.党证
-D.温台</t>
+A.温台
+B.党证
+C.丽三大
+D.金衢</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DBA</t>
+          <t>ADC</t>
         </is>
       </c>
     </row>
@@ -2926,15 +2926,15 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>唱好__[1]__“__[2]__”，培育国家中心城市，推动宁波舟山共建海洋中心城市，支持绍兴__[3]__甬打造网络大城市。
-A.双城记
-B.融杭联
-C.队委会
-D.杭甬</t>
+A.融杭联
+B.杭甬
+C.双城记
+D.队委会</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>BCA</t>
         </is>
       </c>
     </row>
@@ -2945,15 +2945,15 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>支持嘉兴打造长三角__[1]__重要中心城市、湖州建设生态文明典范城市，__[2]__国家城乡融合发展__[3]__。
-A.共建
-B.城市群
-C.试验区
-D.中年</t>
+A.城市群
+B.试验区
+C.以至于
+D.共建</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>ADB</t>
         </is>
       </c>
     </row>
@@ -2965,14 +2965,14 @@
         <is>
           <t>支持金华高水平建设内陆开放枢纽中心城市、衢州创新__[1]__合作建设__[2]__边际中心城市、__[3]__创建革命老区共同富裕先行示范区。
 A.省际
-B.四省
-C.共同富裕
-D.丽水</t>
+B.共同富裕
+C.丽水
+D.四省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>ADC</t>
         </is>
       </c>
     </row>
@@ -2983,15 +2983,15 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>优化基础__[1]__布局、结构、功能和发展模式，高标准建设现代交通物流设施网、能源设施网、水利设施网、市政设施网、应急储备设施网和新型__[2]__网；强化“__[3]__联动”，建设世界一流强港，提升大通道内联外畅水平。
-A.基础设施
-B.慷慨就义
-C.四港
-D.设施</t>
+A.她们
+B.四港
+C.设施
+D.基础设施</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>CDB</t>
         </is>
       </c>
     </row>
@@ -3002,15 +3002,15 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>加快__[1]__强省建设，把宁波舟山海域__[2]__作为重中之重，深入实施科技__[3]__战略，构建“一岛一功能”海岛特色发展体系和现代海洋产业体系，加快提升全球大宗商品资源配置能力。
-A.海洋
-B.海岛
-C.兴海
-D.有否</t>
+A.付清
+B.兴海
+C.海洋
+D.海岛</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>CDB</t>
         </is>
       </c>
     </row>
@@ -3021,15 +3021,15 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>打造山海协作工程升级版，推进__[1]____[2]__、产业飞地精准落地，推进__[3]__万村行动，构建新型帮共体。
-A.万企进
-B.酗酒
-C.飞地
-D.科创</t>
+A.飞地
+B.科创
+C.酗酒
+D.万企进</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DCA</t>
+          <t>BAD</t>
         </is>
       </c>
     </row>
@@ -3040,15 +3040,15 @@
       <c r="B23" t="inlineStr">
         <is>
           <t>加强县城__[1]__板强弱项，提升发展__[2]__、特色小镇，推动千年古城复兴，重塑__[3]__活力，培育现代化城市。
-A.倪志钦
-B.补短
-C.中心镇
+A.补短
+B.中心镇
+C.馆址
 D.县域</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>ABD</t>
         </is>
       </c>
     </row>
@@ -3059,15 +3059,15 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>实施“科技__[1]__、机械强农”行动，建设农业__[2]__高地，深化“三位一体”__[3]__联改革，大力发展高效生态农业。
-A.农合
-B.科创
-C.酗酒
-D.强农</t>
+A.缄默
+B.强农
+C.农合
+D.科创</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DBA</t>
+          <t>BDC</t>
         </is>
       </c>
     </row>
@@ -3078,15 +3078,15 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>落实最严格的__[1]__保护政策，坚决遏制耕地“非__[2]__”、防止基本农田“__[3]__”，全力打好粮食安全保卫战。
-A.非粮化
-B.耕地
-C.农化
-D.基本农田</t>
+A.耕地
+B.非粮化
+C.达利
+D.农化</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>ADB</t>
         </is>
       </c>
     </row>
@@ -3097,15 +3097,15 @@
       <c r="B26" t="inlineStr">
         <is>
           <t>深化以集体经济为核心的__[1]__富民__[2]__集成改革，__[3]__探索农村土地制度改革，打造数字乡村引领区。
-A.稳慎
-B.强村
+A.强村
+B.古物
 C.乡村
-D.树胶</t>
+D.稳慎</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>ACD</t>
         </is>
       </c>
     </row>
@@ -3116,15 +3116,15 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>深化“__[1]__两回”，促进__[2]__要素双向自由流动和公共资源合理配置，加快实现城乡基础设施一体化、公共服务均等化、居民收入__[3]__、产业发展融合化。
-A.两进
-B.城乡
-C.均等化
-D.均衡化</t>
+A.城乡
+B.两进
+C.均衡化
+D.马喜光</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
@@ -3135,15 +3135,15 @@
       <c r="B28" t="inlineStr">
         <is>
           <t>推进__[1]__先行性地方立法，健全__[2]__讨论决定重大事项制度，打造人大监督硬核成果，拓宽人民有序政治参与渠道，支持和保障人大代表更好依法__[3]__，完善民主民意表达平台。
-A.履职
-B.人大
-C.自主性
-D.这一夜</t>
+A.人大
+B.又叫
+C.履职
+D.自主性</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CBA</t>
+          <t>DAC</t>
         </is>
       </c>
     </row>
@@ -3154,15 +3154,15 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>推动政协更好成为“__[1]__阵地、重要平台、重要渠道”，构建__[2]__议政、民主监督、凝聚共识、服务群众有效机制，打造“同心向党”“民生__[3]__”等特色履职品牌，进一步丰富有事好商量制度化实践，不断健全协商民主体系。
-A.议事堂
-B.钟爱
-C.重要
-D.协商</t>
+A.海燕
+B.重要
+C.协商
+D.议事堂</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CDA</t>
+          <t>BCD</t>
         </is>
       </c>
     </row>
@@ -3173,15 +3173,15 @@
       <c r="B30" t="inlineStr">
         <is>
           <t>加强乡镇街道、开发区（园区）人大工作，迭代升级__[1]____[2]__，打造践行全过程人民民主基层单元，深化民生实事项目人大代表__[3]__制。
-A.吸吮
-B.人大代表
-C.票决
+A.人大代表
+B.票决
+C.迭代
 D.联络站</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BDC</t>
+          <t>ADB</t>
         </is>
       </c>
     </row>
@@ -3192,15 +3192,15 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>健全基层群众自治制度，深化“村民说事”“民主__[1]__”等实践，推进村级__[2]__协商创新实验试点，完善__[3]__党组织领导下的社区居委会、业主委员会、物业服务企业议事协调机制。
-A.奇耻大辱
+A.街道社区
 B.恳谈
 C.议事
-D.街道社区</t>
+D.奇耻大辱</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BCD</t>
+          <t>BCA</t>
         </is>
       </c>
     </row>
@@ -3211,15 +3211,15 @@
       <c r="B32" t="inlineStr">
         <is>
           <t>完善大__[1]__格局，实施“__[2]__共富”工程、“同心同廉”工程，建设新时代多党合作高地，深化民族团结进步创建，铸牢中华民族共同体意识，持续擦亮“__[3]__一家亲”“浙里石榴红”品牌，推进宗教中国化和宗教事务治理现代化，扩大党外知识分子和新的社会阶层人士统战工作组织覆盖、工作覆盖，做好新时代港澳台工作，推动侨务工作先行示范，促进“五大关系”和谐，画出最大同心圆，谱写统战工作新篇章。
-A.同心
-B.统战工作
-C.覆盖
-D.浙里</t>
+A.浙里
+B.同心
+C.统战工作
+D.覆盖</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BAD</t>
+          <t>CBA</t>
         </is>
       </c>
     </row>
@@ -3230,15 +3230,15 @@
       <c r="B33" t="inlineStr">
         <is>
           <t>推行以精神__[1]__为标志的__[2]__发展模式，增强先进文化凝聚力，在__[3]__中实现精神富有，在现代化先行中实现文化先行。
-A.文化
+A.富有
 B.接二连三
-C.共同富裕
-D.富有</t>
+C.文化
+D.共同富裕</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DAC</t>
+          <t>ACD</t>
         </is>
       </c>
     </row>
@@ -3249,15 +3249,15 @@
       <c r="B34" t="inlineStr">
         <is>
           <t>全面落实意识形态工作责任制，健全党的创新理论研究阐释__[1]__体系，构建浙江红色精神__[2]__，深化文化研究工程，高水平建设__[3]__强省、网络强省，打造重大传播平台，提升文化安全保障能力。
-A.社科
-B.传播
-C.谱系
-D.该轮</t>
+A.体委
+B.谱系
+C.社科
+D.传播</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BCA</t>
+          <t>DBC</t>
         </is>
       </c>
     </row>
@@ -3268,15 +3268,15 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>深化社会主义核心价值观培育践行，注重家庭家教家风建设，深入推进__[1]__建设工程，实施“浙江有礼”__[2]____[3]__实践行动，构建志愿服务精准触达机制，推进全域精神文明建设，开展文明典范城市创建。
-A.公民道德
-B.省域
-C.触达
-D.文明</t>
+A.触达
+B.公民道德
+C.文明
+D.省域</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ABD</t>
+          <t>BDC</t>
         </is>
       </c>
     </row>
@@ -3287,15 +3287,15 @@
       <c r="B36" t="inlineStr">
         <is>
           <t>深化新时代文艺精品__[1]__工程，建设之江艺术长廊，提升大运河国家__[2]__公园、四条诗路文化带能级，实施宋韵文化传世工程，推进上山、河姆渡、良渚等文明之源大__[3]__群和温州宋元码头遗址等海上丝绸之路遗址保护利用，提升阳明文化、和合文化、黄帝文化、大禹文化、南孔文化、吴越文化以及浙学等优秀传统文化影响力，做好非物质文化遗产传承保护，打造文博强省。
-A.人工
-B.遗址
-C.创优
-D.文化</t>
+A.文化
+B.阿英
+C.遗址
+D.创优</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>DAC</t>
         </is>
       </c>
     </row>
@@ -3307,14 +3307,14 @@
         <is>
           <t>深化现代公共__[1]__服务体系试点省建设，建成杭州国家版本馆、之江文化中心等新时代文化地标，建设区域文化中心和特色文化城市，推行__[2]__科学素质行动计划、公众__[3]__素养提升和全民艺术普及计划，创建人文城市、人文乡村，建设“书香浙江”。
 A.人文
-B.全民
-C.人工
-D.文化</t>
+B.人工
+C.文化
+D.全民</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DBA</t>
+          <t>CDA</t>
         </is>
       </c>
     </row>
@@ -3325,15 +3325,15 @@
       <c r="B38" t="inlineStr">
         <is>
           <t>推进文化数字化战略，打造国家数字文化创新基地，建设横店国际影视文化创新中心，加快培育__[1]__经济，促进__[2]__深度融合，创建__[3]__旅游示范省。
-A.文创
-B.潘金
-C.文旅
-D.全域</t>
+A.全域
+B.文创
+C.潘金
+D.文旅</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ACD</t>
+          <t>BDA</t>
         </is>
       </c>
     </row>
@@ -3380,15 +3380,15 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>全面提升__[1]__建设__[2]__，健全为民__[3]____[4]__，统筹推进社会事业、社会保障、社会结构、社会单元和社会政策变革。
-A.办实事
-B.长效机制
-C.战略地位
-D.社会</t>
+A.长效机制
+B.社会
+C.办实事
+D.战略地位</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DCAB</t>
+          <t>BDCA</t>
         </is>
       </c>
     </row>
@@ -3399,15 +3399,15 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>更大力度建设__[1]__强省，率先实现基础教育均衡优质、高等教育__[2]__普及和__[3]__人力资本提升，加快推进职业教育现代化，支持高校“双一流”建设，以__[4]__新建成一批高水平大学。
-A.普惠性
-B.新机制
-C.教育
-D.高水平</t>
+A.高水平
+B.普惠性
+C.新机制
+D.教育</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CDAB</t>
+          <t>DABC</t>
         </is>
       </c>
     </row>
@@ -3418,15 +3418,15 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>深化__[1]__浙江__[2]__，构建全民全程健康服务体系，着力加强基层医疗卫生体系建设，全面建设高水平县级医院，加快建设国家__[3]__、__[4]__综合改革示范区，打造公共卫生最安全省份。
-A.医学中心
-B.中医药
-C.建设
-D.健康</t>
+A.建设
+B.医学中心
+C.健康
+D.中医药</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DCAB</t>
+          <t>CABD</t>
         </is>
       </c>
     </row>
@@ -3437,15 +3437,15 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>积极应对__[1]__，探索“__[2]__一小”整体解决方案，完善__[3]__养老、__[4]__服务和政策体系。
-A.育儿
+A.人口老龄化
 B.一老
-C.普惠性
-D.人口老龄化</t>
+C.育儿
+D.普惠性</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DBCA</t>
+          <t>ABDC</t>
         </is>
       </c>
     </row>
@@ -3456,15 +3456,15 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>积极稳妥推进企业职工基本__[1]____[2]__扩面，完善城乡居民基本养老保险制度，推动个人养老金发展，__[3]__多层次医疗保障体系，发展惠民型商业补充医疗保险，__[4]__建立长期护理保险制度，探索保障性住房建设模式，完善退役军人服务保障体系，健全新时代社会救助体系，提升残疾人等困难群体保障服务水平，逐步缩小职工与居民、城市与农村的社保筹资和待遇差距。
-A.养老保险
-B.健全
-C.提标
-D.探索</t>
+A.探索
+B.提标
+C.健全
+D.养老保险</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ACBD</t>
+          <t>DBCA</t>
         </is>
       </c>
     </row>
@@ -3475,15 +3475,15 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>探索__[1]__初次__[2]__、再分配、三次分配协调配套的基础性制度安排，全面实施扩中提低行动，完善高质量__[3]__创业体系，确保零就业家庭动态清零，构建新型慈善体系，推动更多低收入__[4]__进入中等收入群体行列。
-A.构建
-B.分配
+A.分配
+B.就业
 C.群体
-D.就业</t>
+D.构建</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABDC</t>
+          <t>DABC</t>
         </is>
       </c>
     </row>
@@ -3494,15 +3494,15 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>一体推进__[1]__风貌整治提升和未来__[2]__未来乡村__[3]__，深化__[4]__建设机制改革，探索基层公共服务新模式，加快城乡社区现代化建设，构建居民幸福共同体。
-A.城乡规划
-B.城乡
-C.社区
+A.城乡
+B.社区
+C.城乡规划
 D.建设</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BCDA</t>
+          <t>ABDC</t>
         </is>
       </c>
     </row>
@@ -3513,15 +3513,15 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>建立健全国土__[1]____[2]__，全面落实“三区三线”，大力推进__[3]__土地综合整治，打造空间治理数字化改革先行省，构建__[4]__自然资源政策体系。
-A.空间规划
-B.体系
+A.体系
+B.空间规划
 C.全域
 D.共富型</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ABCD</t>
+          <t>BACD</t>
         </is>
       </c>
     </row>
@@ -3534,13 +3534,13 @@
           <t>实施__[1]__方案，高水平建设国家清洁能源示范省，建设__[2]__制造体系和服务体系，加快建筑、交通、农业、居民生活领域__[3]__转型，抢占绿色低碳科技革命先机，开发利用林业__[4]__和海洋“蓝碳”，构建减污降碳协同制度体系。
 A.绿色
 B.碳汇
-C.低碳
-D.碳达峰</t>
+C.碳达峰
+D.低碳</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>CADB</t>
         </is>
       </c>
     </row>
@@ -3551,15 +3551,15 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>深化清新空气示范区建设和“__[1]__”碧水行动，打好长江口—杭州湾综合治理攻坚战，建设__[2]__“__[3]__城市”，加强塑料__[4]__治理，加快构建土壤和地下水污染“防控治”体系。
-A.全域
-B.污染
-C.无废
-D.五水共治</t>
+A.无废
+B.全域
+C.五水共治
+D.污染</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>CBAD</t>
         </is>
       </c>
     </row>
@@ -3570,15 +3570,15 @@
       <c r="B12" t="inlineStr">
         <is>
           <t>健全以国家公园为主体的自然保护地体系，推进山水__[1]____[2]____[3]__保护__[4]__试点，全域建设幸福河湖，加强八大水系和近岸海域生态修复，推动蓝色空间可持续发展。
-A.生态
-B.林田
-C.修复
-D.湖草</t>
+A.湖草
+B.修复
+C.生态
+D.林田</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BDAC</t>
+          <t>DACB</t>
         </is>
       </c>
     </row>
@@ -3590,14 +3590,14 @@
         <is>
           <t>__[1]____[2]__产品价值实现机制，大力发展特色生态产业，__[3]__生态文化，强化__[4]__生态自觉。
 A.弘扬
-B.全面推行
+B.生态
 C.全民
-D.生态</t>
+D.全面推行</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BDAC</t>
+          <t>DBAC</t>
         </is>
       </c>
     </row>
@@ -3608,15 +3608,15 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>__[1]__实施“法助共富、法护平安”专项行动，__[2]__共同富裕示范区建设法规规章体系，纵深推进“大综合一体化”行政__[3]__改革，全面提升执法司法质效和公信力，构建严密法治监督体系，深化诉源治理，实施乡镇（街道）__[4]__综合改革，高水平建设公共法律服务体系，健全社会大普法工作格局。
-A.构建
-B.执法
+A.执法
+B.构建
 C.深化
 D.法治化</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CABD</t>
+          <t>CBAD</t>
         </is>
       </c>
     </row>
@@ -3646,15 +3646,15 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>__[1]__产业链供应链、债务、金融、房地产等经济风险防范化解机制，__[2]__网络综合治理，健全全链条精准化公共__[3]__行业监管体系，严格落实食品药品安全“四个__[4]__”要求，强化安全监管，全力遏重大、降较大、减总量，持续提升安全生产和自然灾害防御能力。
-A.强化
-B.最严
-C.健全
-D.安全</t>
+A.健全
+B.安全
+C.强化
+D.最严</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CADB</t>
+          <t>ACBD</t>
         </is>
       </c>
     </row>
@@ -3667,13 +3667,13 @@
           <t>健全“__[1]__”基层治理体系，__[2]__“__[3]__融合”，完善矛盾纠纷多元预防调处化解综合机制，深化领导干部接访__[4]__，加快建设社会治理共同体。
 A.深化
 B.141
-C.下访
-D.四治</t>
+C.四治
+D.下访</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BADC</t>
+          <t>BACD</t>
         </is>
       </c>
     </row>
@@ -3684,15 +3684,15 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>要全面落实新时代党的建设总要求，大力弘扬伟大建党精神，严格落实__[1]____[2]__政治责任，纵深推进全面__[3]__，不断推进__[4]__的自我革命引领社会革命在浙江生动实践。
-A.管党
-B.治党
-C.以党
-D.从严治党</t>
+A.以党
+B.从严治党
+C.管党
+D.治党</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ABDC</t>
+          <t>CDBA</t>
         </is>
       </c>
     </row>
@@ -3705,13 +3705,13 @@
           <t>强化贯彻习近平总书记重要指示批示和党中央重大决策部署闭环__[1]__机制，完善“八八战略”抓落实机制，开展强有力政治监督，推动“两个确立”“两个维护”深深根植于__[2]____[3]__的共同信仰、处处见效于党员干部群众的__[4]__。
 A.党员干部
 B.落实
-C.共同奋斗
-D.群众</t>
+C.群众
+D.共同奋斗</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BADC</t>
+          <t>BACD</t>
         </is>
       </c>
     </row>
@@ -3722,15 +3722,15 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>压实__[1]__责任体系，健全__[2]__党内法规制度，完善党对重大工作领导__[3]__，推行大成__[4]__决策机制，构建“大党史”工作格局，完善党建带群建紧密融合机制，加强对工青妇等群团组织的领导，提高党的政治领导力、思想引领力、群众组织力、社会号召力。
-A.机制
+A.集智
 B.党建
 C.省域
-D.集智</t>
+D.机制</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BCAD</t>
+          <t>BCDA</t>
         </is>
       </c>
     </row>
@@ -3742,14 +3742,14 @@
         <is>
           <t>全面落实__[1]__武装要求，推动军民融合深度发展，支持国防和军队现代化建设，加强全民__[2]__，持续__[3]__ “__[4]__”工作金名片。
 A.国防教育
-B.双拥
-C.擦亮
+B.擦亮
+C.双拥
 D.党管</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>DABC</t>
         </is>
       </c>
     </row>
@@ -3760,15 +3760,15 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>__[1]__升级__[2]__问题清单应用，强化党建统领__[3]__决策落地、重大工作推进、重大风险防控，促进各级党组织__[4]__、组织力、执行力整体跃升。
-A.迭代
-B.七张
-C.领导力
-D.重大</t>
+A.领导力
+B.迭代
+C.重大
+D.七张</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ABDC</t>
+          <t>BDCA</t>
         </is>
       </c>
     </row>
@@ -3780,14 +3780,14 @@
         <is>
           <t>推进__[1]__惟先__[2]__建设，大兴调查研究之风，实施基层__[3]__新政，健全__[4]__通达机制，推进民呼我为统一平台集成优化。
 A.唯实
-B.机关作风
-C.民情
-D.减负</t>
+B.民情
+C.减负
+D.机关作风</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ABDC</t>
+          <t>ADCB</t>
         </is>
       </c>
     </row>
@@ -3798,15 +3798,15 @@
       <c r="B24" t="inlineStr">
         <is>
           <t>严明__[1]__纪律和政治规矩，健全落实民主集中制具体制度，加强领导班子政治建设，常态化开展领导__[2]____[3]__考察，探索运用数字化方式全面立体透视察人识人，推动领导干部心怀“国之大者”，不断提高政治判断力、政治__[4]__、政治执行力。
-A.政治素质
-B.干部
-C.领悟力
-D.政治</t>
+A.政治
+B.政治素质
+C.干部
+D.领悟力</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DBAC</t>
+          <t>ACBD</t>
         </is>
       </c>
     </row>
@@ -3817,15 +3817,15 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>深入实施铸魂溯源走心工程，更好发挥党校主阵地作用，持续推进__[1]__新__[2]__中国特色社会主义__[3]__教育培训计划，做强“习近平新时代中国特色社会主义思想在浙江的萌发与实践”研究品牌，推进党史学习教育常态化长效化，推动全省党员干部__[4]__做习近平新时代中国特色社会主义思想忠实信仰者、坚定维护者、实践引领者。
-A.习近平
-B.思想
-C.坚定
-D.时代</t>
+A.时代
+B.坚定
+C.思想
+D.习近平</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ADBC</t>
+          <t>DACB</t>
         </is>
       </c>
     </row>
@@ -3855,15 +3855,15 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>__[1]__“三个区分开来”，健全落实容错纠错、澄清保护、松绑减负、精准__[2]__、关心关爱机制，深化__[3]__为事业__[4]__、组织为干部担当良性互动。
-A.落实
-B.担当
-C.赋能
-D.干部</t>
+A.赋能
+B.落实
+C.干部
+D.担当</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ACDB</t>
+          <t>BACD</t>
         </is>
       </c>
     </row>
@@ -3874,15 +3874,15 @@
       <c r="B28" t="inlineStr">
         <is>
           <t>__[1]__大抓__[2]__鲜明导向，全面加强基层党组织和书记队伍建设，深化“导师__[3]__制”，更好发挥党员先锋模范作用，推动基层党建全省域__[4]__、全领域过硬、全面走在前列。
-A.基层
-B.建强
-C.帮带
-D.树牢</t>
+A.帮带
+B.树牢
+C.基层
+D.建强</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>BCAD</t>
         </is>
       </c>
     </row>
@@ -3893,15 +3893,15 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>深入推进“__[1]__争创、千乡__[2]__、__[3]__过硬”工程，实施“上统下分、强街优社”改革，全面推行全域__[4]__联盟，突出融合型大社区大单元，构建党建统领、平战一体、集成协同、精密数智的新型网格治理体系。
-A.晋位
+A.万村
 B.党建
-C.万村
-D.百县</t>
+C.百县
+D.晋位</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>CDAB</t>
         </is>
       </c>
     </row>
@@ -3913,14 +3913,14 @@
         <is>
           <t>健全“__[1]__”组织__[2]__实质作用发挥机制，加强机关、国企、学校、__[3]__等各领域__[4]__。
 A.公立医院
-B.两新
-C.党组织
-D.党建</t>
+B.党建
+C.两新
+D.党组织</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BCAD</t>
+          <t>CDAB</t>
         </is>
       </c>
     </row>
@@ -3931,15 +3931,15 @@
       <c r="B31" t="inlineStr">
         <is>
           <t>坚持不敢腐、不能腐、不想腐__[1]__推进，同时__[2]__、同向发力、综合发力，惩治震慑、制度约束、思想教育融于一体，前移__[3]__防线，坚定不移“打虎”“拍蝇”“猎狐”，严肃查处不收敛不收手、群众反映强烈、政治问题和经济问题交织的__[4]__案件，有效防范化解腐败风险及关联性经济社会风险，全面打赢反腐败斗争攻坚战持久战。
-A.腐败
+A.一体
 B.发力
 C.反腐败
-D.一体</t>
+D.腐败</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DBCA</t>
+          <t>ABCD</t>
         </is>
       </c>
     </row>
@@ -3950,15 +3950,15 @@
       <c r="B32" t="inlineStr">
         <is>
           <t>坚决查处享乐奢靡行为，驰而不息__[1]__形式主义、官僚主义，深入整治群众身边腐败和不正之风，大力培__[2]__正气，以优良党风__[3]__带动__[4]__民风持续向善向好。
-A.社风
-B.政风
+A.政风
+B.树新风
 C.纠治
-D.树新风</t>
+D.社风</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CDBA</t>
+          <t>CBAD</t>
         </is>
       </c>
     </row>
@@ -3969,15 +3969,15 @@
       <c r="B33" t="inlineStr">
         <is>
           <t>加强对“一把手”和领导班子__[1]__，加强__[2]__教育管理监督，健全以党内监督为主导、各类监督贯通协同的工作机制，更好发挥巡视巡察综合监督作用，全面提升公权力大数据监督能力，深化新时代“后陈经验”，推动基层监督__[3]____[4]__。
-A.年轻干部
+A.提质
 B.监督
-C.增效
-D.提质</t>
+C.年轻干部
+D.增效</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BADC</t>
+          <t>BCAD</t>
         </is>
       </c>
     </row>
@@ -3989,14 +3989,14 @@
         <is>
           <t>健全完善__[1]__交往的正面__[2]__、负面清单、倡导清单，从严规范党员干部__[3]____[4]__，推动清廉民企建设，严肃查处官商勾结、权钱交易等行为，有效防范利用“一家两制”进行利益输送问题，坚持受贿行贿一起查，坚决斩断权力与资本勾连纽带，构建亲不逾矩、清不远疏、公正无私、有为有畏的政商关系。
 A.清单
-B.用权
-C.行权
-D.政商</t>
+B.行权
+C.政商
+D.用权</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DACB</t>
+          <t>CABD</t>
         </is>
       </c>
     </row>
@@ -4007,15 +4007,15 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>构建__[1]____[2]__责任共同体，以清廉单元建设为重点，__[3]__做细清廉建设颗粒度，加强新时代廉洁文化建设，加强清廉建设理论研究宣传，打造干部清正、政府清廉、政治清明、社会__[4]__的政治生态。
-A.做实
+A.清朗
 B.建设
-C.清廉
-D.清朗</t>
+C.做实
+D.清廉</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CBAD</t>
+          <t>DBCA</t>
         </is>
       </c>
     </row>
@@ -4026,15 +4026,15 @@
       <c r="B36" t="inlineStr">
         <is>
           <t>各级党组织要更加关心关爱__[1]__，__[2]____[3]__青年，在新时代伟大实践中培育__[4]__青年，加快建设青年发展型省份。
-A.锻造
-B.悉心
-C.青年
+A.青年
+B.锻造
+C.悉心
 D.教育引导</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CBDA</t>
+          <t>ACDB</t>
         </is>
       </c>
     </row>
@@ -4045,15 +4045,15 @@
       <c r="B37" t="inlineStr">
         <is>
           <t>广大青年要自觉把个人的理想融入中国梦，努力成为__[1]__、奋斗自强、品德高尚、追求卓越的新时代好青年，成为堪当推进共同富裕和现代化大任的先锋力量，__[2]__“我在窗口写__[3]__”最强音，奋力谱写无愧伟大时代的青春__[4]__！。
-A.唱响
-B.青春
-C.志存高远
+A.志存高远
+B.唱响
+C.青春
 D.华章</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CABD</t>
+          <t>ABCD</t>
         </is>
       </c>
     </row>
@@ -4064,15 +4064,15 @@
       <c r="B38" t="inlineStr">
         <is>
           <t>我们要更加紧密地团结在以习近平同志为核心的党中央周围，高举伟大思想旗帜，忠实践行“__[1]__”，坚决做到“__[2]__”，在__[3]__中奋力推进中国特色社会主义共同富裕先行和__[4]__现代化先行，以实际行动迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！。
-A.两个维护
+A.高质量发展
 B.八八战略
-C.省域
-D.高质量发展</t>
+C.两个维护
+D.省域</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BADC</t>
+          <t>BCAD</t>
         </is>
       </c>
     </row>
